--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2059052.481137909</v>
+        <v>2044208.871272497</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11784731.53740208</v>
+        <v>11750538.482894</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7023289.404210235</v>
+        <v>7360802.09179309</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6126600.692041248</v>
+        <v>6038475.702545366</v>
       </c>
     </row>
     <row r="11">
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>145.4995844674848</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>166.8151317091358</v>
+        <v>154.7433592205302</v>
       </c>
       <c r="L11" t="n">
-        <v>169.6744147609422</v>
+        <v>120.4444163110766</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8061484296143</v>
+        <v>140.1423502240593</v>
       </c>
       <c r="N11" t="n">
-        <v>7.237957778476073</v>
+        <v>137.7495874611292</v>
       </c>
       <c r="O11" t="n">
-        <v>12.08768794014455</v>
+        <v>143.5429901771334</v>
       </c>
       <c r="P11" t="n">
-        <v>23.56194444812212</v>
+        <v>157.3601169488607</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.6545073725325</v>
+        <v>19.38516883772277</v>
       </c>
       <c r="R11" t="n">
-        <v>41.83214337962707</v>
+        <v>35.87081379156562</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.3774847931849</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8848,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>106.9541895743943</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>109.4770018584458</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>98.93698859288972</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>115.0065172478848</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>145.4995844674848</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>154.7433592205302</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>154.6983135296842</v>
       </c>
       <c r="M14" t="n">
-        <v>22.50445376777185</v>
+        <v>105.8884530054514</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>137.7495874611292</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>143.5429901771334</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>157.3601169488607</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>19.38516883772277</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>35.87081379156562</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>105.6664819560773</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>106.9541895743943</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>109.4770018584458</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>98.93698859288972</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>111.9025940151294</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>115.0065172478848</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9170,22 +9172,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>140.1423502240593</v>
       </c>
       <c r="N17" t="n">
-        <v>83.92345871087007</v>
+        <v>137.7495874611292</v>
       </c>
       <c r="O17" t="n">
-        <v>159.5327535047832</v>
+        <v>143.5429901771334</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>177.0784827545438</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3.483899174267073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9319,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9331,13 +9333,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>92.42271634155952</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>105.8856092255089</v>
       </c>
       <c r="P19" t="n">
-        <v>115.0065172478848</v>
+        <v>9.996529327455868</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>154.7433592205302</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>154.6983135296842</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>107.1245340364259</v>
+        <v>143.5429901771334</v>
       </c>
       <c r="P20" t="n">
-        <v>171.0070100127608</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.0784827545438</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3.483899174267073</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9571,10 +9573,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>105.8856092255089</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>31.4155323594039</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9638,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>154.7433592205302</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>156.8061484296142</v>
+        <v>140.1423502240593</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>28.05030905344847</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>157.3601169488607</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>17.75391919862285</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>105.6664819560773</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,19 +9795,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>106.9541895743943</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>98.93698859288969</v>
+        <v>92.42271634155952</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -9814,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>114.6780921965517</v>
+        <v>137.444974440227</v>
       </c>
       <c r="K26" t="n">
-        <v>29.69569982488223</v>
+        <v>154.7433592205302</v>
       </c>
       <c r="L26" t="n">
-        <v>32.55498287668857</v>
+        <v>9.629101136300349</v>
       </c>
       <c r="M26" t="n">
-        <v>19.68671654536068</v>
+        <v>140.1423502240593</v>
       </c>
       <c r="N26" t="n">
-        <v>154.6830233431147</v>
+        <v>129.9315419207992</v>
       </c>
       <c r="O26" t="n">
-        <v>159.5327535047832</v>
+        <v>143.5429901771334</v>
       </c>
       <c r="P26" t="n">
-        <v>171.0070100127608</v>
+        <v>157.3601169488607</v>
       </c>
       <c r="Q26" t="n">
-        <v>39.95905087029023</v>
+        <v>21.76102200897765</v>
       </c>
       <c r="R26" t="n">
-        <v>52.15777706001225</v>
+        <v>38.24666696282049</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>101.6565805736455</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>85.35593495118368</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>73.06086578124706</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>91.18394743523731</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10033,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>106.9541895743943</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>109.4770018584457</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>111.9025940151294</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>115.0065172478848</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>9.674146827146345</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>154.6983135296842</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>140.1423502240593</v>
       </c>
       <c r="N29" t="n">
-        <v>92.33014373357433</v>
+        <v>137.7495874611292</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>143.5429901771334</v>
       </c>
       <c r="P29" t="n">
-        <v>171.0070100127608</v>
+        <v>157.3601169488607</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>21.76102200897765</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>46.74665864890776</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10273,16 +10275,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>100.6252875130711</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>102.8040620123288</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>92.42271634155952</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>105.8856092255089</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10425,16 +10427,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>80.76073652455499</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>101.6565805736455</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>89.89937217123355</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>85.35593495118368</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>91.18394743523731</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>85.42137655481685</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,22 +10509,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>102.2409096039965</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>100.6252875130711</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>102.8040620123288</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>92.42271634155952</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>105.8856092255089</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>109.8579472941215</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10595,13 +10597,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>154.6830233431147</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>109.4502378326518</v>
       </c>
       <c r="P35" t="n">
-        <v>69.7372873237625</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10674,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>73.06086578124706</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10747,16 +10749,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>100.6252875130711</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>102.8040620123288</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>92.42271634155952</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>105.8856092255089</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10832,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>109.4502378326524</v>
       </c>
       <c r="O38" t="n">
-        <v>159.5327535047832</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>83.50058735840864</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.3774847931849</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10984,16 +10986,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>100.6252875130711</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>102.8040620123288</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>92.42271634155952</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>105.8856092255089</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>145.4995844674848</v>
+        <v>52.81348630841503</v>
       </c>
       <c r="K41" t="n">
-        <v>51.27708353871092</v>
+        <v>154.7433592205302</v>
       </c>
       <c r="L41" t="n">
-        <v>169.6744147609421</v>
+        <v>70.06682539787222</v>
       </c>
       <c r="M41" t="n">
-        <v>156.8061484296142</v>
+        <v>140.1423502240593</v>
       </c>
       <c r="N41" t="n">
-        <v>154.6830233431147</v>
+        <v>137.7495874611292</v>
       </c>
       <c r="O41" t="n">
-        <v>159.5327535047832</v>
+        <v>143.5429901771334</v>
       </c>
       <c r="P41" t="n">
-        <v>55.46896184233593</v>
+        <v>157.3601169488607</v>
       </c>
       <c r="Q41" t="n">
-        <v>145.694048989183</v>
+        <v>166.8302344023615</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>5.427447282686508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>41.79795529761014</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>93.45728110118598</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>85.35593495118368</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>73.06086578124706</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>89.28065616556498</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>104.895902593482</v>
       </c>
       <c r="R42" t="n">
-        <v>16.22851189478308</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>17.60942147218449</v>
       </c>
       <c r="L43" t="n">
-        <v>106.9541895743943</v>
+        <v>100.6252875130711</v>
       </c>
       <c r="M43" t="n">
-        <v>109.4770018584457</v>
+        <v>102.8040620123288</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>92.42271634155952</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>105.8856092255089</v>
       </c>
       <c r="P43" t="n">
-        <v>115.0065172478848</v>
+        <v>25.22645916230953</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.23577374416589</v>
+        <v>47.57773081794763</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>145.4995844674848</v>
+        <v>52.81348630841503</v>
       </c>
       <c r="K44" t="n">
-        <v>166.8151317091358</v>
+        <v>154.7433592205302</v>
       </c>
       <c r="L44" t="n">
-        <v>169.6744147609421</v>
+        <v>154.6983135296842</v>
       </c>
       <c r="M44" t="n">
-        <v>156.8061484296142</v>
+        <v>140.1423502240593</v>
       </c>
       <c r="N44" t="n">
-        <v>154.6830233431147</v>
+        <v>137.7495874611292</v>
       </c>
       <c r="O44" t="n">
-        <v>159.5327535047832</v>
+        <v>143.5429901771334</v>
       </c>
       <c r="P44" t="n">
-        <v>171.0070100127608</v>
+        <v>157.3601169488607</v>
       </c>
       <c r="Q44" t="n">
-        <v>177.0784827545438</v>
+        <v>82.19874627054952</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11370,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858493</v>
+        <v>5.427447282686508</v>
       </c>
       <c r="J45" t="n">
-        <v>105.6664819560773</v>
+        <v>16.23772327163335</v>
       </c>
       <c r="K45" t="n">
-        <v>101.6565805736455</v>
+        <v>8.825792969373978</v>
       </c>
       <c r="L45" t="n">
-        <v>89.89937217123355</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>85.35593495118368</v>
+        <v>72.49031497878002</v>
       </c>
       <c r="N45" t="n">
-        <v>73.06086578124706</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>89.28065616556498</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>91.18394743523731</v>
+        <v>41.982947000048</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.3774847931849</v>
+        <v>104.895902593482</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>26.07218410555179</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>17.60942147218449</v>
       </c>
       <c r="L46" t="n">
-        <v>106.9541895743943</v>
+        <v>100.6252875130711</v>
       </c>
       <c r="M46" t="n">
-        <v>109.4770018584457</v>
+        <v>102.8040620123288</v>
       </c>
       <c r="N46" t="n">
-        <v>98.93698859288969</v>
+        <v>92.42271634155952</v>
       </c>
       <c r="O46" t="n">
-        <v>111.9025940151294</v>
+        <v>105.8856092255089</v>
       </c>
       <c r="P46" t="n">
-        <v>115.0065172478848</v>
+        <v>25.22645916230953</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>47.57773081794763</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>259.4309801770727</v>
       </c>
       <c r="G11" t="n">
-        <v>267.438857887736</v>
+        <v>267.3439568137613</v>
       </c>
       <c r="H11" t="n">
-        <v>187.7405570308845</v>
+        <v>186.7686514070414</v>
       </c>
       <c r="I11" t="n">
-        <v>46.88449485120094</v>
+        <v>43.22582119679242</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.03127856645639</v>
+        <v>49.86872034325856</v>
       </c>
       <c r="T11" t="n">
-        <v>73.8174254397594</v>
+        <v>73.40199598843529</v>
       </c>
       <c r="U11" t="n">
-        <v>103.8670822181769</v>
+        <v>103.8594901322589</v>
       </c>
       <c r="V11" t="n">
         <v>180.3071929054962</v>
@@ -23385,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>20.07581976558848</v>
+        <v>19.13266760039667</v>
       </c>
       <c r="T12" t="n">
-        <v>51.81644220315849</v>
+        <v>51.61177706979103</v>
       </c>
       <c r="U12" t="n">
-        <v>78.48157406377311</v>
+        <v>78.47823350120453</v>
       </c>
       <c r="V12" t="n">
         <v>85.35552158478652</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>20.35804822345477</v>
+        <v>20.31547886875589</v>
       </c>
       <c r="H13" t="n">
-        <v>13.11181123537185</v>
+        <v>12.73333097268539</v>
       </c>
       <c r="I13" t="n">
-        <v>2.355779301090848</v>
+        <v>1.07560270705531</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.40120662138176</v>
+        <v>19.48713363646647</v>
       </c>
       <c r="S13" t="n">
-        <v>73.29754794151413</v>
+        <v>72.55568018735266</v>
       </c>
       <c r="T13" t="n">
-        <v>79.69782551753678</v>
+        <v>79.51593827473246</v>
       </c>
       <c r="U13" t="n">
-        <v>138.8637165789231</v>
+        <v>138.8613946141214</v>
       </c>
       <c r="V13" t="n">
         <v>104.6925777591892</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>188.4042812476409</v>
+        <v>235.2887760988418</v>
       </c>
       <c r="C14" t="n">
-        <v>170.9433313551679</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D14" t="n">
-        <v>160.3534812048433</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E14" t="n">
-        <v>187.6008096564221</v>
+        <v>234.485304507623</v>
       </c>
       <c r="F14" t="n">
-        <v>212.5464853258718</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G14" t="n">
-        <v>220.5543630365351</v>
+        <v>267.3439568137613</v>
       </c>
       <c r="H14" t="n">
-        <v>140.8560621796836</v>
+        <v>186.7686514070414</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>43.22582119679242</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>5.146783715255481</v>
+        <v>49.86872034325856</v>
       </c>
       <c r="T14" t="n">
-        <v>26.93293058855849</v>
+        <v>73.40199598843529</v>
       </c>
       <c r="U14" t="n">
-        <v>56.98258736697602</v>
+        <v>103.8594901322589</v>
       </c>
       <c r="V14" t="n">
-        <v>133.4226980542952</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W14" t="n">
-        <v>154.9114083015733</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X14" t="n">
-        <v>175.4015402626294</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y14" t="n">
-        <v>191.9083782402139</v>
+        <v>238.7928730914148</v>
       </c>
     </row>
     <row r="15">
@@ -23571,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>19.08811808522859</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>25.26343342367699</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>10.20001489076219</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23622,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>19.13266760039667</v>
       </c>
       <c r="T15" t="n">
-        <v>4.931947351957575</v>
+        <v>51.61177706979103</v>
       </c>
       <c r="U15" t="n">
-        <v>31.5970792125722</v>
+        <v>78.47823350120453</v>
       </c>
       <c r="V15" t="n">
-        <v>38.4710267335856</v>
+        <v>85.35552158478652</v>
       </c>
       <c r="W15" t="n">
-        <v>57.36542274507994</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X15" t="n">
-        <v>11.44342478763781</v>
+        <v>58.32791963883872</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.35313536146469</v>
+        <v>58.23763021266561</v>
       </c>
     </row>
     <row r="16">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>19.80175553398908</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.170407453573603</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>20.31547886875589</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.73333097268539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.07560270705531</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>19.48713363646647</v>
       </c>
       <c r="S16" t="n">
-        <v>26.41305309031321</v>
+        <v>72.55568018735266</v>
       </c>
       <c r="T16" t="n">
-        <v>32.81333066633587</v>
+        <v>79.51593827473246</v>
       </c>
       <c r="U16" t="n">
-        <v>91.97922172772221</v>
+        <v>138.8613946141214</v>
       </c>
       <c r="V16" t="n">
-        <v>57.80808290798834</v>
+        <v>104.6925777591892</v>
       </c>
       <c r="W16" t="n">
-        <v>92.19343792075134</v>
+        <v>139.0779327719522</v>
       </c>
       <c r="X16" t="n">
-        <v>31.38009497319749</v>
+        <v>78.2645898243984</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.25509293625512</v>
+        <v>71.13958778745604</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>188.4042812476409</v>
+        <v>202.9018614815433</v>
       </c>
       <c r="C17" t="n">
-        <v>170.9433313551679</v>
+        <v>185.4409115890703</v>
       </c>
       <c r="D17" t="n">
-        <v>160.3534812048433</v>
+        <v>174.8510614387457</v>
       </c>
       <c r="E17" t="n">
-        <v>187.6008096564221</v>
+        <v>202.0983898903245</v>
       </c>
       <c r="F17" t="n">
-        <v>212.5464853258718</v>
+        <v>227.0440655597741</v>
       </c>
       <c r="G17" t="n">
-        <v>220.5543630365351</v>
+        <v>234.9570421964628</v>
       </c>
       <c r="H17" t="n">
-        <v>140.8560621796836</v>
+        <v>154.3817367897429</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10.83890657949388</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>5.146783715255481</v>
+        <v>17.48180572596002</v>
       </c>
       <c r="T17" t="n">
-        <v>26.93293058855849</v>
+        <v>41.01508137113674</v>
       </c>
       <c r="U17" t="n">
-        <v>56.98258736697602</v>
+        <v>71.4725755149604</v>
       </c>
       <c r="V17" t="n">
-        <v>133.4226980542952</v>
+        <v>147.9202782881976</v>
       </c>
       <c r="W17" t="n">
-        <v>154.9114083015733</v>
+        <v>169.4089885354757</v>
       </c>
       <c r="X17" t="n">
-        <v>175.4015402626294</v>
+        <v>189.8991204965317</v>
       </c>
       <c r="Y17" t="n">
-        <v>191.9083782402139</v>
+        <v>206.4059584741163</v>
       </c>
     </row>
     <row r="18">
@@ -23862,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>4.931947351957575</v>
+        <v>19.22486245249249</v>
       </c>
       <c r="U18" t="n">
-        <v>31.5970792125722</v>
+        <v>46.09131888390598</v>
       </c>
       <c r="V18" t="n">
-        <v>38.4710267335856</v>
+        <v>52.96860696748797</v>
       </c>
       <c r="W18" t="n">
-        <v>57.36542274507994</v>
+        <v>71.86300297898231</v>
       </c>
       <c r="X18" t="n">
-        <v>11.44342478763781</v>
+        <v>25.94100502154018</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.35313536146469</v>
+        <v>25.85071559536706</v>
       </c>
     </row>
     <row r="19">
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>26.41305309031321</v>
+        <v>40.16876557005412</v>
       </c>
       <c r="T19" t="n">
-        <v>32.81333066633587</v>
+        <v>47.12902365743392</v>
       </c>
       <c r="U19" t="n">
-        <v>91.97922172772221</v>
+        <v>106.4744799968228</v>
       </c>
       <c r="V19" t="n">
-        <v>57.80808290798834</v>
+        <v>72.3056631418907</v>
       </c>
       <c r="W19" t="n">
-        <v>92.19343792075134</v>
+        <v>106.6910181546537</v>
       </c>
       <c r="X19" t="n">
-        <v>31.38009497319749</v>
+        <v>45.87767520709986</v>
       </c>
       <c r="Y19" t="n">
-        <v>24.25509293625512</v>
+        <v>38.75267317015749</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>188.4042812476409</v>
+        <v>202.9018614815433</v>
       </c>
       <c r="C20" t="n">
-        <v>170.9433313551679</v>
+        <v>185.4409115890703</v>
       </c>
       <c r="D20" t="n">
-        <v>160.3534812048433</v>
+        <v>174.8510614387457</v>
       </c>
       <c r="E20" t="n">
-        <v>187.6008096564221</v>
+        <v>202.0983898903245</v>
       </c>
       <c r="F20" t="n">
-        <v>212.5464853258718</v>
+        <v>227.0440655597741</v>
       </c>
       <c r="G20" t="n">
-        <v>220.5543630365351</v>
+        <v>234.9570421964628</v>
       </c>
       <c r="H20" t="n">
-        <v>140.8560621796836</v>
+        <v>154.3817367897429</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>10.83890657949388</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>5.146783715255481</v>
+        <v>17.48180572596002</v>
       </c>
       <c r="T20" t="n">
-        <v>26.93293058855849</v>
+        <v>41.01508137113674</v>
       </c>
       <c r="U20" t="n">
-        <v>56.98258736697602</v>
+        <v>71.4725755149604</v>
       </c>
       <c r="V20" t="n">
-        <v>133.4226980542952</v>
+        <v>147.9202782881976</v>
       </c>
       <c r="W20" t="n">
-        <v>154.9114083015733</v>
+        <v>169.4089885354757</v>
       </c>
       <c r="X20" t="n">
-        <v>175.4015402626294</v>
+        <v>189.8991204965317</v>
       </c>
       <c r="Y20" t="n">
-        <v>191.9083782402139</v>
+        <v>206.4059584741163</v>
       </c>
     </row>
     <row r="21">
@@ -24099,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>4.931947351957575</v>
+        <v>19.22486245249249</v>
       </c>
       <c r="U21" t="n">
-        <v>31.5970792125722</v>
+        <v>46.09131888390598</v>
       </c>
       <c r="V21" t="n">
-        <v>38.4710267335856</v>
+        <v>52.96860696748797</v>
       </c>
       <c r="W21" t="n">
-        <v>57.36542274507994</v>
+        <v>71.86300297898231</v>
       </c>
       <c r="X21" t="n">
-        <v>11.44342478763781</v>
+        <v>25.94100502154018</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.35313536146469</v>
+        <v>25.85071559536706</v>
       </c>
     </row>
     <row r="22">
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>26.41305309031321</v>
+        <v>40.16876557005412</v>
       </c>
       <c r="T22" t="n">
-        <v>32.81333066633587</v>
+        <v>47.12902365743392</v>
       </c>
       <c r="U22" t="n">
-        <v>91.97922172772221</v>
+        <v>106.4744799968228</v>
       </c>
       <c r="V22" t="n">
-        <v>57.80808290798834</v>
+        <v>72.3056631418907</v>
       </c>
       <c r="W22" t="n">
-        <v>92.19343792075134</v>
+        <v>106.6910181546537</v>
       </c>
       <c r="X22" t="n">
-        <v>31.38009497319749</v>
+        <v>45.87767520709986</v>
       </c>
       <c r="Y22" t="n">
-        <v>24.25509293625512</v>
+        <v>38.75267317015749</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>188.4042812476409</v>
+        <v>202.9018614815432</v>
       </c>
       <c r="C23" t="n">
-        <v>170.9433313551679</v>
+        <v>185.4409115890702</v>
       </c>
       <c r="D23" t="n">
-        <v>160.3534812048433</v>
+        <v>174.8510614387456</v>
       </c>
       <c r="E23" t="n">
-        <v>187.6008096564221</v>
+        <v>202.0983898903245</v>
       </c>
       <c r="F23" t="n">
-        <v>212.5464853258717</v>
+        <v>227.0440655597741</v>
       </c>
       <c r="G23" t="n">
-        <v>220.5543630365351</v>
+        <v>234.9570421964628</v>
       </c>
       <c r="H23" t="n">
-        <v>140.8560621796836</v>
+        <v>154.3817367897429</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>10.83890657949385</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>5.146783715255452</v>
+        <v>17.48180572595999</v>
       </c>
       <c r="T23" t="n">
-        <v>26.93293058855846</v>
+        <v>41.01508137113672</v>
       </c>
       <c r="U23" t="n">
-        <v>56.98258736697599</v>
+        <v>71.47257551496037</v>
       </c>
       <c r="V23" t="n">
-        <v>133.4226980542952</v>
+        <v>147.9202782881976</v>
       </c>
       <c r="W23" t="n">
-        <v>154.9114083015733</v>
+        <v>169.4089885354757</v>
       </c>
       <c r="X23" t="n">
-        <v>175.4015402626293</v>
+        <v>189.8991204965317</v>
       </c>
       <c r="Y23" t="n">
-        <v>191.9083782402139</v>
+        <v>206.4059584741163</v>
       </c>
     </row>
     <row r="24">
@@ -24336,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>4.931947351957547</v>
+        <v>19.22486245249246</v>
       </c>
       <c r="U24" t="n">
-        <v>31.59707921257217</v>
+        <v>46.09131888390596</v>
       </c>
       <c r="V24" t="n">
-        <v>38.47102673358557</v>
+        <v>52.96860696748794</v>
       </c>
       <c r="W24" t="n">
-        <v>57.36542274507991</v>
+        <v>71.86300297898228</v>
       </c>
       <c r="X24" t="n">
-        <v>11.44342478763778</v>
+        <v>25.94100502154015</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.35313536146467</v>
+        <v>25.85071559536703</v>
       </c>
     </row>
     <row r="25">
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>26.41305309031318</v>
+        <v>40.16876557005409</v>
       </c>
       <c r="T25" t="n">
-        <v>32.81333066633584</v>
+        <v>47.12902365743389</v>
       </c>
       <c r="U25" t="n">
-        <v>91.97922172772218</v>
+        <v>106.4744799968228</v>
       </c>
       <c r="V25" t="n">
-        <v>57.80808290798831</v>
+        <v>72.30566314189068</v>
       </c>
       <c r="W25" t="n">
-        <v>92.19343792075131</v>
+        <v>106.6910181546537</v>
       </c>
       <c r="X25" t="n">
-        <v>31.38009497319746</v>
+        <v>45.87767520709983</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.2550929362551</v>
+        <v>38.75267317015746</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>245.614409779227</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C26" t="n">
-        <v>228.153459886754</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D26" t="n">
-        <v>217.5636097364294</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E26" t="n">
-        <v>244.8109381880082</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F26" t="n">
-        <v>269.7566138574579</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G26" t="n">
-        <v>277.7644915681212</v>
+        <v>269.7198099850162</v>
       </c>
       <c r="H26" t="n">
-        <v>198.0661907112697</v>
+        <v>189.1445045782963</v>
       </c>
       <c r="I26" t="n">
-        <v>57.21012853158612</v>
+        <v>45.6016743680473</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.3569122468416</v>
+        <v>52.24457351451343</v>
       </c>
       <c r="T26" t="n">
-        <v>84.14305912014461</v>
+        <v>75.77784915969016</v>
       </c>
       <c r="U26" t="n">
-        <v>114.1927158985621</v>
+        <v>106.2353433035138</v>
       </c>
       <c r="V26" t="n">
-        <v>190.6328265858814</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W26" t="n">
-        <v>212.1215368331595</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X26" t="n">
-        <v>232.6116687942155</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y26" t="n">
-        <v>249.1185067718</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="27">
@@ -24519,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29.4137517656138</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C27" t="n">
-        <v>35.5890671040622</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D27" t="n">
-        <v>10.32563368038521</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E27" t="n">
-        <v>20.5256485711474</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F27" t="n">
-        <v>7.949780509130335</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24570,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>30.40145344597369</v>
+        <v>21.50852077165155</v>
       </c>
       <c r="T27" t="n">
-        <v>62.1420758835437</v>
+        <v>53.98763024104591</v>
       </c>
       <c r="U27" t="n">
-        <v>88.80720774415832</v>
+        <v>80.8540866724594</v>
       </c>
       <c r="V27" t="n">
-        <v>95.68115526517172</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W27" t="n">
-        <v>114.5755512766661</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X27" t="n">
-        <v>68.65355331922393</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y27" t="n">
-        <v>68.56326389305082</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="28">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42.71254829768375</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C28" t="n">
-        <v>30.12738921437429</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D28" t="n">
-        <v>11.49604113395881</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E28" t="n">
-        <v>9.314530762315627</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F28" t="n">
-        <v>8.301616138677701</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G28" t="n">
-        <v>30.68368190383998</v>
+        <v>22.69133204001076</v>
       </c>
       <c r="H28" t="n">
-        <v>23.43744491575706</v>
+        <v>15.10918414394027</v>
       </c>
       <c r="I28" t="n">
-        <v>12.68141298147606</v>
+        <v>3.451455878310185</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>31.72684030176694</v>
+        <v>21.86298680772134</v>
       </c>
       <c r="S28" t="n">
-        <v>83.62318162189933</v>
+        <v>74.93153335860754</v>
       </c>
       <c r="T28" t="n">
-        <v>90.02345919792199</v>
+        <v>81.89179144598734</v>
       </c>
       <c r="U28" t="n">
-        <v>149.1893502593083</v>
+        <v>141.2372477853762</v>
       </c>
       <c r="V28" t="n">
-        <v>115.0182114395745</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W28" t="n">
-        <v>149.4035664523375</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X28" t="n">
-        <v>88.59022350478361</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.46522146784125</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>176.9608564600031</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C29" t="n">
-        <v>159.4999065675301</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D29" t="n">
-        <v>148.9100564172055</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E29" t="n">
-        <v>176.1573848687843</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F29" t="n">
-        <v>201.103060538234</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G29" t="n">
-        <v>209.1109382488973</v>
+        <v>269.7198099850162</v>
       </c>
       <c r="H29" t="n">
-        <v>129.4126373920458</v>
+        <v>189.1445045782963</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>45.6016743680473</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>52.24457351451343</v>
       </c>
       <c r="T29" t="n">
-        <v>15.48950580092071</v>
+        <v>75.77784915969016</v>
       </c>
       <c r="U29" t="n">
-        <v>45.53916257933824</v>
+        <v>106.2353433035138</v>
       </c>
       <c r="V29" t="n">
-        <v>121.9792732666575</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W29" t="n">
-        <v>143.4679835139356</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X29" t="n">
-        <v>163.9581154749916</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y29" t="n">
-        <v>180.4649534525761</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>21.50852077165155</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>53.98763024104591</v>
       </c>
       <c r="U30" t="n">
-        <v>20.15365442493442</v>
+        <v>80.8540866724594</v>
       </c>
       <c r="V30" t="n">
-        <v>27.02760194594782</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W30" t="n">
-        <v>45.92199795744216</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="31">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>22.69133204001076</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>15.10918414394027</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3.451455878310185</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.86298680772134</v>
       </c>
       <c r="S31" t="n">
-        <v>14.96962830267543</v>
+        <v>74.93153335860754</v>
       </c>
       <c r="T31" t="n">
-        <v>21.36990587869809</v>
+        <v>81.89179144598734</v>
       </c>
       <c r="U31" t="n">
-        <v>80.53579694008442</v>
+        <v>141.2372477853762</v>
       </c>
       <c r="V31" t="n">
-        <v>46.36465812035055</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W31" t="n">
-        <v>80.75001313311355</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X31" t="n">
-        <v>19.93667018555971</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.81166814861734</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="32">
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>176.9608564600031</v>
+        <v>185.4200557555832</v>
       </c>
       <c r="C32" t="n">
-        <v>159.4999065675301</v>
+        <v>167.9591058631102</v>
       </c>
       <c r="D32" t="n">
-        <v>148.9100564172055</v>
+        <v>157.3692557127856</v>
       </c>
       <c r="E32" t="n">
-        <v>176.1573848687843</v>
+        <v>184.6165841643644</v>
       </c>
       <c r="F32" t="n">
-        <v>201.103060538234</v>
+        <v>209.5622598338141</v>
       </c>
       <c r="G32" t="n">
-        <v>209.1109382488973</v>
+        <v>217.4752364705028</v>
       </c>
       <c r="H32" t="n">
-        <v>129.4126373920458</v>
+        <v>136.8999310637828</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>15.48950580092068</v>
+        <v>23.5332756451767</v>
       </c>
       <c r="U32" t="n">
-        <v>45.53916257933821</v>
+        <v>53.99076978900035</v>
       </c>
       <c r="V32" t="n">
-        <v>121.9792732666574</v>
+        <v>130.4384725622376</v>
       </c>
       <c r="W32" t="n">
-        <v>143.4679835139355</v>
+        <v>151.9271828095157</v>
       </c>
       <c r="X32" t="n">
-        <v>163.9581154749916</v>
+        <v>172.4173147705717</v>
       </c>
       <c r="Y32" t="n">
-        <v>180.4649534525761</v>
+        <v>188.9241527481562</v>
       </c>
     </row>
     <row r="33">
@@ -25047,22 +25049,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.743056726532444</v>
       </c>
       <c r="U33" t="n">
-        <v>20.15365442493439</v>
+        <v>28.60951315794594</v>
       </c>
       <c r="V33" t="n">
-        <v>27.02760194594779</v>
+        <v>35.48680124152793</v>
       </c>
       <c r="W33" t="n">
-        <v>45.92199795744213</v>
+        <v>54.38119725302226</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>8.459199295580135</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>8.36890986940702</v>
       </c>
     </row>
     <row r="34">
@@ -25123,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>14.9696283026754</v>
+        <v>22.68695984409408</v>
       </c>
       <c r="T34" t="n">
-        <v>21.36990587869806</v>
+        <v>29.64721793147388</v>
       </c>
       <c r="U34" t="n">
-        <v>80.5357969400844</v>
+        <v>88.99267427086278</v>
       </c>
       <c r="V34" t="n">
-        <v>46.36465812035053</v>
+        <v>54.82385741593066</v>
       </c>
       <c r="W34" t="n">
-        <v>80.75001313311353</v>
+        <v>89.20921242869366</v>
       </c>
       <c r="X34" t="n">
-        <v>19.93667018555968</v>
+        <v>28.39586948113981</v>
       </c>
       <c r="Y34" t="n">
-        <v>12.81166814861731</v>
+        <v>21.27086744419745</v>
       </c>
     </row>
     <row r="35">
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>176.9608564600031</v>
+        <v>185.4200557555832</v>
       </c>
       <c r="C35" t="n">
-        <v>159.4999065675301</v>
+        <v>167.9591058631102</v>
       </c>
       <c r="D35" t="n">
-        <v>148.9100564172055</v>
+        <v>157.3692557127856</v>
       </c>
       <c r="E35" t="n">
-        <v>176.1573848687843</v>
+        <v>184.6165841643644</v>
       </c>
       <c r="F35" t="n">
-        <v>201.103060538234</v>
+        <v>209.5622598338141</v>
       </c>
       <c r="G35" t="n">
-        <v>209.1109382488973</v>
+        <v>217.4752364705028</v>
       </c>
       <c r="H35" t="n">
-        <v>129.4126373920458</v>
+        <v>136.8999310637828</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25205,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>15.48950580092068</v>
+        <v>23.5332756451767</v>
       </c>
       <c r="U35" t="n">
-        <v>45.53916257933821</v>
+        <v>53.99076978900035</v>
       </c>
       <c r="V35" t="n">
-        <v>121.9792732666574</v>
+        <v>130.4384725622376</v>
       </c>
       <c r="W35" t="n">
-        <v>143.4679835139355</v>
+        <v>151.9271828095157</v>
       </c>
       <c r="X35" t="n">
-        <v>163.9581154749916</v>
+        <v>172.4173147705717</v>
       </c>
       <c r="Y35" t="n">
-        <v>180.4649534525761</v>
+        <v>188.9241527481562</v>
       </c>
     </row>
     <row r="36">
@@ -25284,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.743056726532444</v>
       </c>
       <c r="U36" t="n">
-        <v>20.15365442493439</v>
+        <v>28.60951315794594</v>
       </c>
       <c r="V36" t="n">
-        <v>27.02760194594779</v>
+        <v>35.48680124152793</v>
       </c>
       <c r="W36" t="n">
-        <v>45.92199795744213</v>
+        <v>54.38119725302226</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>8.459199295580135</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>8.36890986940702</v>
       </c>
     </row>
     <row r="37">
@@ -25360,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>14.9696283026754</v>
+        <v>22.68695984409408</v>
       </c>
       <c r="T37" t="n">
-        <v>21.36990587869806</v>
+        <v>29.64721793147388</v>
       </c>
       <c r="U37" t="n">
-        <v>80.5357969400844</v>
+        <v>88.99267427086278</v>
       </c>
       <c r="V37" t="n">
-        <v>46.36465812035053</v>
+        <v>54.82385741593066</v>
       </c>
       <c r="W37" t="n">
-        <v>80.75001313311353</v>
+        <v>89.20921242869366</v>
       </c>
       <c r="X37" t="n">
-        <v>19.93667018555968</v>
+        <v>28.39586948113981</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.81166814861731</v>
+        <v>21.27086744419745</v>
       </c>
     </row>
     <row r="38">
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>176.9608564600031</v>
+        <v>185.4200557555833</v>
       </c>
       <c r="C38" t="n">
-        <v>159.4999065675301</v>
+        <v>167.9591058631102</v>
       </c>
       <c r="D38" t="n">
-        <v>148.9100564172055</v>
+        <v>157.3692557127856</v>
       </c>
       <c r="E38" t="n">
-        <v>176.1573848687843</v>
+        <v>184.6165841643645</v>
       </c>
       <c r="F38" t="n">
-        <v>201.103060538234</v>
+        <v>209.5622598338141</v>
       </c>
       <c r="G38" t="n">
-        <v>209.1109382488973</v>
+        <v>217.4752364705028</v>
       </c>
       <c r="H38" t="n">
-        <v>129.4126373920458</v>
+        <v>136.8999310637829</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25442,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>15.48950580092068</v>
+        <v>23.53327564517673</v>
       </c>
       <c r="U38" t="n">
-        <v>45.53916257933821</v>
+        <v>53.99076978900038</v>
       </c>
       <c r="V38" t="n">
-        <v>121.9792732666574</v>
+        <v>130.4384725622376</v>
       </c>
       <c r="W38" t="n">
-        <v>143.4679835139355</v>
+        <v>151.9271828095157</v>
       </c>
       <c r="X38" t="n">
-        <v>163.9581154749916</v>
+        <v>172.4173147705717</v>
       </c>
       <c r="Y38" t="n">
-        <v>180.4649534525761</v>
+        <v>188.9241527481563</v>
       </c>
     </row>
     <row r="39">
@@ -25521,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.743056726532473</v>
       </c>
       <c r="U39" t="n">
-        <v>20.15365442493439</v>
+        <v>28.60951315794597</v>
       </c>
       <c r="V39" t="n">
-        <v>27.02760194594779</v>
+        <v>35.48680124152796</v>
       </c>
       <c r="W39" t="n">
-        <v>45.92199795744213</v>
+        <v>54.38119725302229</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>8.459199295580163</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>8.368909869407048</v>
       </c>
     </row>
     <row r="40">
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>14.9696283026754</v>
+        <v>22.6869598440941</v>
       </c>
       <c r="T40" t="n">
-        <v>21.36990587869806</v>
+        <v>29.6472179314739</v>
       </c>
       <c r="U40" t="n">
-        <v>80.5357969400844</v>
+        <v>88.99267427086281</v>
       </c>
       <c r="V40" t="n">
-        <v>46.36465812035053</v>
+        <v>54.82385741593069</v>
       </c>
       <c r="W40" t="n">
-        <v>80.75001313311353</v>
+        <v>89.20921242869369</v>
       </c>
       <c r="X40" t="n">
-        <v>19.93667018555968</v>
+        <v>28.39586948113984</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.81166814861731</v>
+        <v>21.27086744419748</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>267.1957934930557</v>
+        <v>298.1023535316685</v>
       </c>
       <c r="C41" t="n">
-        <v>249.7348436005827</v>
+        <v>280.6414036391956</v>
       </c>
       <c r="D41" t="n">
-        <v>239.1449934502581</v>
+        <v>270.0515534888709</v>
       </c>
       <c r="E41" t="n">
-        <v>266.3923219018369</v>
+        <v>297.2988819404497</v>
       </c>
       <c r="F41" t="n">
-        <v>291.3379975712866</v>
+        <v>322.2445576098994</v>
       </c>
       <c r="G41" t="n">
-        <v>299.3458752819499</v>
+        <v>330.1575342465881</v>
       </c>
       <c r="H41" t="n">
-        <v>219.6475744250984</v>
+        <v>249.5822288398682</v>
       </c>
       <c r="I41" t="n">
-        <v>78.79151224541481</v>
+        <v>106.0393986296192</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>8.022740900858494</v>
+        <v>32.96797135140991</v>
       </c>
       <c r="S41" t="n">
-        <v>83.93829596067029</v>
+        <v>112.6822977760853</v>
       </c>
       <c r="T41" t="n">
-        <v>105.7244428339733</v>
+        <v>136.215573421262</v>
       </c>
       <c r="U41" t="n">
-        <v>135.7740996123908</v>
+        <v>166.6730675650857</v>
       </c>
       <c r="V41" t="n">
-        <v>212.21421029971</v>
+        <v>243.1207703383229</v>
       </c>
       <c r="W41" t="n">
-        <v>233.7029205469881</v>
+        <v>264.609480585601</v>
       </c>
       <c r="X41" t="n">
-        <v>254.1930525080442</v>
+        <v>285.099612546657</v>
       </c>
       <c r="Y41" t="n">
-        <v>270.6998904856287</v>
+        <v>301.6064505242416</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>50.99513547944248</v>
+        <v>81.90169551805533</v>
       </c>
       <c r="C42" t="n">
-        <v>57.17045081789088</v>
+        <v>88.07701085650373</v>
       </c>
       <c r="D42" t="n">
-        <v>31.9070173942139</v>
+        <v>62.81357743282675</v>
       </c>
       <c r="E42" t="n">
-        <v>42.10703228497609</v>
+        <v>73.01359232358894</v>
       </c>
       <c r="F42" t="n">
-        <v>29.53116422295902</v>
+        <v>60.43772426157187</v>
       </c>
       <c r="G42" t="n">
-        <v>21.58138371382871</v>
+        <v>52.43716720139935</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>24.94936948337563</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>51.98283715980237</v>
+        <v>81.94624503322342</v>
       </c>
       <c r="T42" t="n">
-        <v>83.72345959737238</v>
+        <v>114.4253545026178</v>
       </c>
       <c r="U42" t="n">
-        <v>110.388591457987</v>
+        <v>141.2918109340313</v>
       </c>
       <c r="V42" t="n">
-        <v>117.2625389790004</v>
+        <v>148.1690990176133</v>
       </c>
       <c r="W42" t="n">
-        <v>136.1569349904947</v>
+        <v>167.0634950291076</v>
       </c>
       <c r="X42" t="n">
-        <v>90.23493703305262</v>
+        <v>121.1414970716655</v>
       </c>
       <c r="Y42" t="n">
-        <v>90.1446476068795</v>
+        <v>121.0512076454924</v>
       </c>
     </row>
     <row r="43">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.29393201151244</v>
+        <v>95.20049205012529</v>
       </c>
       <c r="C43" t="n">
-        <v>51.70877292820298</v>
+        <v>82.61533296681583</v>
       </c>
       <c r="D43" t="n">
-        <v>33.0774248477875</v>
+        <v>63.98398488640035</v>
       </c>
       <c r="E43" t="n">
-        <v>30.89591447614431</v>
+        <v>61.80247451475717</v>
       </c>
       <c r="F43" t="n">
-        <v>29.88299985250639</v>
+        <v>60.78955989111924</v>
       </c>
       <c r="G43" t="n">
-        <v>52.26506561766867</v>
+        <v>83.12905630158264</v>
       </c>
       <c r="H43" t="n">
-        <v>45.01882862958574</v>
+        <v>75.54690840551214</v>
       </c>
       <c r="I43" t="n">
-        <v>34.26279669530474</v>
+        <v>63.88918013988206</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.30822401559563</v>
+        <v>82.30071106929321</v>
       </c>
       <c r="S43" t="n">
-        <v>105.204565335728</v>
+        <v>135.3692576201794</v>
       </c>
       <c r="T43" t="n">
-        <v>111.6048429117507</v>
+        <v>142.3295157075592</v>
       </c>
       <c r="U43" t="n">
-        <v>170.770733973137</v>
+        <v>201.6749720469481</v>
       </c>
       <c r="V43" t="n">
-        <v>136.5995951534031</v>
+        <v>167.506155192016</v>
       </c>
       <c r="W43" t="n">
-        <v>170.9849501661661</v>
+        <v>201.891510204779</v>
       </c>
       <c r="X43" t="n">
-        <v>110.1716072186123</v>
+        <v>141.0781672572251</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0466051816699</v>
+        <v>133.9531652202828</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>298.1023535316685</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>280.6414036391956</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>270.0515534888709</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>297.2988819404497</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>322.2445576098994</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8839234523747</v>
+        <v>330.1575342465881</v>
       </c>
       <c r="H44" t="n">
-        <v>335.1856225955233</v>
+        <v>249.5822288398682</v>
       </c>
       <c r="I44" t="n">
-        <v>194.3295604158397</v>
+        <v>106.0393986296192</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>123.5607890712834</v>
+        <v>32.96797135140991</v>
       </c>
       <c r="S44" t="n">
-        <v>199.4763441310951</v>
+        <v>112.6822977760853</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2624910043982</v>
+        <v>136.215573421262</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3121477828157</v>
+        <v>166.6730675650857</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>243.1207703383229</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>264.609480585601</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>285.099612546657</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>301.6064505242416</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>81.90169551805533</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>88.07701085650373</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>62.81357743282675</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>73.01359232358894</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>60.43772426157187</v>
       </c>
       <c r="G45" t="n">
-        <v>137.1194318842536</v>
+        <v>52.43716720139935</v>
       </c>
       <c r="H45" t="n">
-        <v>110.0712522002531</v>
+        <v>24.94936948337563</v>
       </c>
       <c r="I45" t="n">
-        <v>81.68141601012978</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.24489025388711</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>167.5208853302272</v>
+        <v>81.94624503322342</v>
       </c>
       <c r="T45" t="n">
-        <v>199.2615077677972</v>
+        <v>114.4253545026178</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9266396284119</v>
+        <v>141.2918109340313</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>148.1690990176133</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>167.0634950291076</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>121.1414970716655</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>121.0512076454924</v>
       </c>
     </row>
     <row r="46">
@@ -26020,34 +26022,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>95.20049205012529</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>82.61533296681583</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>63.98398488640035</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>61.80247451475717</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>60.78955989111924</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8031137880935</v>
+        <v>83.12905630158264</v>
       </c>
       <c r="H46" t="n">
-        <v>160.5568768000106</v>
+        <v>75.54690840551214</v>
       </c>
       <c r="I46" t="n">
-        <v>149.8008448657296</v>
+        <v>63.88918013988206</v>
       </c>
       <c r="J46" t="n">
-        <v>80.07708429185158</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.442928287087053</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.43086353683928</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>168.8462721860205</v>
+        <v>82.30071106929321</v>
       </c>
       <c r="S46" t="n">
-        <v>220.7426135061529</v>
+        <v>135.3692576201794</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1428910821755</v>
+        <v>142.3295157075592</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3087821435619</v>
+        <v>201.6749720469481</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>167.506155192016</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>201.891510204779</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>141.0781672572251</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>133.9531652202828</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490134.7192605672</v>
+        <v>482155.8073394437</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>522236.3894048416</v>
+        <v>482155.8073394437</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>522236.3894048415</v>
+        <v>506672.3343218807</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>522236.3894048415</v>
+        <v>506672.3343218808</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>522236.3894048415</v>
+        <v>506672.3343218808</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>478301.6948503777</v>
+        <v>479620.2102302923</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>525714.6879139727</v>
+        <v>479620.2102302923</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>525714.6879139727</v>
+        <v>514864.5530947353</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>525714.6879139727</v>
+        <v>514864.5530947353</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>525714.6879139727</v>
+        <v>514864.5530947353</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>450886.7097861361</v>
+        <v>400669.4674068889</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>274454.8685544227</v>
+        <v>400669.4674068888</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491128</v>
+        <v>798794.4302491125</v>
       </c>
       <c r="C2" t="n">
         <v>798794.4302491127</v>
       </c>
       <c r="D2" t="n">
-        <v>798794.4302491122</v>
+        <v>798794.4302491128</v>
       </c>
       <c r="E2" t="n">
-        <v>548953.760549214</v>
+        <v>549675.0289926365</v>
       </c>
       <c r="F2" t="n">
-        <v>628516.0623317061</v>
+        <v>549675.0289926365</v>
       </c>
       <c r="G2" t="n">
-        <v>628516.0623317058</v>
+        <v>606265.7013905975</v>
       </c>
       <c r="H2" t="n">
-        <v>628516.0623317057</v>
+        <v>606265.7013905974</v>
       </c>
       <c r="I2" t="n">
-        <v>628516.0623317061</v>
+        <v>606265.7013905975</v>
       </c>
       <c r="J2" t="n">
-        <v>528114.1560829497</v>
+        <v>545010.2864436642</v>
       </c>
       <c r="K2" t="n">
-        <v>644901.0618093099</v>
+        <v>545010.2864436641</v>
       </c>
       <c r="L2" t="n">
-        <v>644901.0618093099</v>
+        <v>633301.2969938958</v>
       </c>
       <c r="M2" t="n">
-        <v>644901.06180931</v>
+        <v>633301.2969938957</v>
       </c>
       <c r="N2" t="n">
-        <v>644901.0618093099</v>
+        <v>633301.2969938958</v>
       </c>
       <c r="O2" t="n">
-        <v>482689.2060132381</v>
+        <v>416284.0758462119</v>
       </c>
       <c r="P2" t="n">
-        <v>218844.1066663516</v>
+        <v>416284.0758462119</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26374,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>201654.5754745833</v>
+        <v>220620.2225987834</v>
       </c>
       <c r="F3" t="n">
-        <v>37507.59588096073</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>25909.53169383884</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>72187.94962644209</v>
+        <v>90145.83822086825</v>
       </c>
       <c r="K3" t="n">
-        <v>92430.43853633989</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>67705.1905054496</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>289695.1688976116</v>
+        <v>281142.9410342803</v>
       </c>
       <c r="F4" t="n">
-        <v>333568.9946671473</v>
+        <v>281142.9410342803</v>
       </c>
       <c r="G4" t="n">
-        <v>333568.9946671472</v>
+        <v>312495.3686251025</v>
       </c>
       <c r="H4" t="n">
-        <v>333568.9946671472</v>
+        <v>312495.3686251024</v>
       </c>
       <c r="I4" t="n">
-        <v>333568.9946671472</v>
+        <v>312495.3686251024</v>
       </c>
       <c r="J4" t="n">
-        <v>277906.2101227767</v>
+        <v>278513.9122732894</v>
       </c>
       <c r="K4" t="n">
-        <v>342332.5044103319</v>
+        <v>278513.9122732894</v>
       </c>
       <c r="L4" t="n">
-        <v>342332.504410332</v>
+        <v>327168.1942841509</v>
       </c>
       <c r="M4" t="n">
-        <v>342332.504410332</v>
+        <v>327168.194284151</v>
       </c>
       <c r="N4" t="n">
-        <v>342332.504410332</v>
+        <v>327168.1942841509</v>
       </c>
       <c r="O4" t="n">
-        <v>252068.5780805893</v>
+        <v>205185.1999863446</v>
       </c>
       <c r="P4" t="n">
-        <v>100501.8606914252</v>
+        <v>205185.1999863446</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>14666.683175787</v>
+        <v>15181.30797468315</v>
       </c>
       <c r="F5" t="n">
-        <v>18608.21577343261</v>
+        <v>15181.30797468315</v>
       </c>
       <c r="G5" t="n">
-        <v>18608.21577343261</v>
+        <v>17904.04349964482</v>
       </c>
       <c r="H5" t="n">
-        <v>18608.21577343261</v>
+        <v>17904.04349964482</v>
       </c>
       <c r="I5" t="n">
-        <v>18608.21577343261</v>
+        <v>17904.04349964482</v>
       </c>
       <c r="J5" t="n">
-        <v>13798.6174779107</v>
+        <v>14981.57237442892</v>
       </c>
       <c r="K5" t="n">
-        <v>19570.25305190453</v>
+        <v>14981.57237442892</v>
       </c>
       <c r="L5" t="n">
-        <v>19570.25305190453</v>
+        <v>19373.72142522056</v>
       </c>
       <c r="M5" t="n">
-        <v>19570.25305190453</v>
+        <v>19373.72142522056</v>
       </c>
       <c r="N5" t="n">
-        <v>19570.25305190453</v>
+        <v>19373.72142522055</v>
       </c>
       <c r="O5" t="n">
-        <v>11984.29213047283</v>
+        <v>9900.633333482836</v>
       </c>
       <c r="P5" t="n">
-        <v>2271.123958833385</v>
+        <v>9900.633333482836</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>297550.8703173813</v>
+      </c>
+      <c r="C6" t="n">
         <v>297550.8703173815</v>
       </c>
-      <c r="C6" t="n">
-        <v>297550.8703173814</v>
-      </c>
       <c r="D6" t="n">
-        <v>297550.8703173809</v>
+        <v>297550.8703173816</v>
       </c>
       <c r="E6" t="n">
-        <v>42937.33300123212</v>
+        <v>32730.55738488954</v>
       </c>
       <c r="F6" t="n">
-        <v>238831.2560101655</v>
+        <v>253350.779983673</v>
       </c>
       <c r="G6" t="n">
-        <v>276338.851891126</v>
+        <v>249956.7575720113</v>
       </c>
       <c r="H6" t="n">
-        <v>276338.8518911258</v>
+        <v>275866.2892658501</v>
       </c>
       <c r="I6" t="n">
-        <v>276338.8518911262</v>
+        <v>275866.2892658502</v>
       </c>
       <c r="J6" t="n">
-        <v>164221.3788558202</v>
+        <v>161368.9635750777</v>
       </c>
       <c r="K6" t="n">
-        <v>190567.8658107336</v>
+        <v>251514.8017959458</v>
       </c>
       <c r="L6" t="n">
-        <v>282998.3043470734</v>
+        <v>219054.1907790748</v>
       </c>
       <c r="M6" t="n">
-        <v>282998.3043470735</v>
+        <v>286759.3812845242</v>
       </c>
       <c r="N6" t="n">
-        <v>282998.3043470734</v>
+        <v>286759.3812845243</v>
       </c>
       <c r="O6" t="n">
-        <v>218636.335802176</v>
+        <v>201198.2425263844</v>
       </c>
       <c r="P6" t="n">
-        <v>116071.122016093</v>
+        <v>201198.2425263844</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26697,37 @@
         <v>147.4450655646388</v>
       </c>
       <c r="F2" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G2" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="H2" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="I2" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="J2" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="K2" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="L2" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="M2" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="N2" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="O2" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.179998111623</v>
+        <v>127.7866402628226</v>
       </c>
       <c r="F3" t="n">
-        <v>104.179998111623</v>
+        <v>127.7866402628226</v>
       </c>
       <c r="G3" t="n">
-        <v>104.1799981116232</v>
+        <v>127.7866402628226</v>
       </c>
       <c r="H3" t="n">
-        <v>104.1799981116232</v>
+        <v>127.7866402628226</v>
       </c>
       <c r="I3" t="n">
-        <v>104.1799981116232</v>
+        <v>127.7866402628226</v>
       </c>
       <c r="J3" t="n">
-        <v>104.1799981116232</v>
+        <v>127.7866402628226</v>
       </c>
       <c r="K3" t="n">
-        <v>104.1799981116232</v>
+        <v>127.7866402628226</v>
       </c>
       <c r="L3" t="n">
-        <v>104.1799981116232</v>
+        <v>127.7866402628226</v>
       </c>
       <c r="M3" t="n">
-        <v>104.1799981116232</v>
+        <v>127.7866402628226</v>
       </c>
       <c r="N3" t="n">
-        <v>104.1799981116232</v>
+        <v>127.7866402628226</v>
       </c>
       <c r="O3" t="n">
-        <v>104.1799981116232</v>
+        <v>127.7866402628226</v>
       </c>
       <c r="P3" t="n">
-        <v>104.1799981116232</v>
+        <v>127.7866402628226</v>
       </c>
     </row>
     <row r="4">
@@ -26917,25 +26919,25 @@
         <v>147.4450655646388</v>
       </c>
       <c r="F2" t="n">
-        <v>46.88449485120091</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>90.23493703305262</v>
+        <v>112.6822977760853</v>
       </c>
       <c r="K2" t="n">
-        <v>115.5380481704249</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.179998111623</v>
+        <v>127.7866402628226</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27154,22 +27156,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="K2" t="n">
-        <v>46.88449485120091</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>90.23493703305262</v>
+        <v>112.6822977760853</v>
       </c>
       <c r="P2" t="n">
-        <v>115.5380481704249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28111,28 +28113,28 @@
         <v>147.4450655646388</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>137.444974440227</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>34.25389721860765</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>147.4450655646388</v>
-      </c>
-      <c r="O11" t="n">
-        <v>147.4450655646388</v>
-      </c>
-      <c r="P11" t="n">
-        <v>147.4450655646388</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>60.42397538201134</v>
       </c>
       <c r="R11" t="n">
         <v>147.4450655646388</v>
@@ -28181,40 +28183,40 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.1194318842536</v>
+        <v>137.0686553332114</v>
       </c>
       <c r="H12" t="n">
-        <v>110.0712522002531</v>
+        <v>109.5808576151876</v>
       </c>
       <c r="I12" t="n">
-        <v>91.8071631587147</v>
+        <v>90.05893541449851</v>
       </c>
       <c r="J12" t="n">
-        <v>105.6664819560773</v>
+        <v>100.8692114034454</v>
       </c>
       <c r="K12" t="n">
-        <v>101.6565805736455</v>
+        <v>93.45728110118598</v>
       </c>
       <c r="L12" t="n">
-        <v>89.89937217123362</v>
+        <v>78.87440217410972</v>
       </c>
       <c r="M12" t="n">
-        <v>85.35593495118377</v>
+        <v>72.49031497878002</v>
       </c>
       <c r="N12" t="n">
-        <v>73.06086578124713</v>
+        <v>59.85473113102088</v>
       </c>
       <c r="O12" t="n">
-        <v>89.28065616556506</v>
+        <v>77.19962298843183</v>
       </c>
       <c r="P12" t="n">
-        <v>91.18394743523737</v>
+        <v>81.48785322788902</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>104.895902593482</v>
       </c>
       <c r="R12" t="n">
-        <v>131.766560065208</v>
+        <v>128.6139598171666</v>
       </c>
       <c r="S12" t="n">
         <v>147.4450655646388</v>
@@ -28269,28 +28271,28 @@
         <v>147.4450655646388</v>
       </c>
       <c r="J13" t="n">
-        <v>113.7133256145749</v>
+        <v>110.7036722373638</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4429282870870814</v>
+        <v>102.2409096039965</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>100.6252875130711</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>102.8040620123288</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>92.42271634155952</v>
       </c>
       <c r="O13" t="n">
-        <v>111.9025940151294</v>
+        <v>105.8856092255089</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>109.8579472941215</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.43086353683931</v>
+        <v>132.2092189497596</v>
       </c>
       <c r="R13" t="n">
         <v>147.4450655646388</v>
@@ -28324,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C14" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D14" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E14" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F14" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G14" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H14" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I14" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>137.444974440227</v>
       </c>
       <c r="K14" t="n">
-        <v>166.8151317091358</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>169.6744147609422</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>134.3016946618425</v>
+        <v>34.25389721860794</v>
       </c>
       <c r="N14" t="n">
-        <v>154.6830233431148</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>159.5327535047833</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>171.0070100127609</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>177.0784827545438</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="R14" t="n">
-        <v>189.2772089442658</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S14" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T14" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U14" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V14" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W14" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X14" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="15">
@@ -28403,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.1194318842536</v>
+        <v>137.0686553332114</v>
       </c>
       <c r="H15" t="n">
-        <v>110.0712522002531</v>
+        <v>109.5808576151876</v>
       </c>
       <c r="I15" t="n">
-        <v>81.68141601012978</v>
+        <v>90.05893541449851</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>100.8692114034454</v>
       </c>
       <c r="K15" t="n">
-        <v>101.6565805736455</v>
+        <v>93.45728110118598</v>
       </c>
       <c r="L15" t="n">
-        <v>89.89937217123362</v>
+        <v>78.87440217410972</v>
       </c>
       <c r="M15" t="n">
-        <v>85.35593495118377</v>
+        <v>72.49031497878002</v>
       </c>
       <c r="N15" t="n">
-        <v>73.06086578124713</v>
+        <v>59.85473113102088</v>
       </c>
       <c r="O15" t="n">
-        <v>89.28065616556506</v>
+        <v>77.19962298843183</v>
       </c>
       <c r="P15" t="n">
-        <v>91.18394743523737</v>
+        <v>81.48785322788902</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.3774847931849</v>
+        <v>104.895902593482</v>
       </c>
       <c r="R15" t="n">
-        <v>131.766560065208</v>
+        <v>128.6139598171666</v>
       </c>
       <c r="S15" t="n">
-        <v>167.5208853302272</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T15" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U15" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V15" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W15" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X15" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="16">
@@ -28482,13 +28484,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -28497,61 +28499,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.8031137880935</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H16" t="n">
-        <v>160.5568768000106</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I16" t="n">
-        <v>149.8008448657296</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J16" t="n">
-        <v>80.07708429185159</v>
+        <v>110.7036722373638</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4429282870870814</v>
+        <v>102.2409096039965</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>100.6252875130711</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>102.8040620123288</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>92.42271634155952</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>105.8856092255089</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>109.8579472941215</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.43086353683931</v>
+        <v>132.2092189497596</v>
       </c>
       <c r="R16" t="n">
-        <v>168.8462721860205</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S16" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T16" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U16" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V16" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W16" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X16" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.3295604158397</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C17" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="D17" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="E17" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="F17" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="G17" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="H17" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="I17" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="J17" t="n">
-        <v>145.4995844674848</v>
+        <v>137.444974440227</v>
       </c>
       <c r="K17" t="n">
-        <v>166.8151317091358</v>
+        <v>154.7433592205302</v>
       </c>
       <c r="L17" t="n">
-        <v>169.6744147609421</v>
+        <v>154.6983135296842</v>
       </c>
       <c r="M17" t="n">
-        <v>156.8061484296142</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>70.75956463224466</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>171.0070100127608</v>
+        <v>157.3601169488607</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>166.8302344023615</v>
       </c>
       <c r="R17" t="n">
-        <v>189.2772089442658</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="S17" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="T17" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="U17" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="V17" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="W17" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="X17" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="Y17" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
     </row>
     <row r="18">
@@ -28655,61 +28657,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.1194318842536</v>
+        <v>137.0686553332114</v>
       </c>
       <c r="H18" t="n">
-        <v>110.0712522002531</v>
+        <v>109.5808576151876</v>
       </c>
       <c r="I18" t="n">
-        <v>91.8071631587147</v>
+        <v>90.05893541449851</v>
       </c>
       <c r="J18" t="n">
-        <v>105.6664819560773</v>
+        <v>100.8692114034454</v>
       </c>
       <c r="K18" t="n">
-        <v>101.6565805736455</v>
+        <v>93.45728110118598</v>
       </c>
       <c r="L18" t="n">
-        <v>89.89937217123355</v>
+        <v>78.87440217410972</v>
       </c>
       <c r="M18" t="n">
-        <v>85.35593495118368</v>
+        <v>72.49031497878002</v>
       </c>
       <c r="N18" t="n">
-        <v>73.06086578124706</v>
+        <v>59.85473113102088</v>
       </c>
       <c r="O18" t="n">
-        <v>89.28065616556498</v>
+        <v>77.19962298843183</v>
       </c>
       <c r="P18" t="n">
-        <v>91.18394743523731</v>
+        <v>81.48785322788902</v>
       </c>
       <c r="Q18" t="n">
-        <v>111.3774847931849</v>
+        <v>104.895902593482</v>
       </c>
       <c r="R18" t="n">
-        <v>131.7665600652079</v>
+        <v>128.6139598171666</v>
       </c>
       <c r="S18" t="n">
-        <v>167.5208853302272</v>
+        <v>166.5777331650354</v>
       </c>
       <c r="T18" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="U18" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="V18" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="W18" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="X18" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="Y18" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
     </row>
     <row r="19">
@@ -28734,61 +28736,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.8031137880935</v>
+        <v>167.7605444333946</v>
       </c>
       <c r="H19" t="n">
-        <v>160.5568768000106</v>
+        <v>160.1783965373241</v>
       </c>
       <c r="I19" t="n">
-        <v>149.8008448657296</v>
+        <v>148.5206682716941</v>
       </c>
       <c r="J19" t="n">
-        <v>113.7133256145749</v>
+        <v>77.06743091464047</v>
       </c>
       <c r="K19" t="n">
-        <v>107.1866946317396</v>
+        <v>102.2409096039965</v>
       </c>
       <c r="L19" t="n">
-        <v>106.9541895743943</v>
+        <v>100.6252875130711</v>
       </c>
       <c r="M19" t="n">
-        <v>109.4770018584457</v>
+        <v>102.8040620123288</v>
       </c>
       <c r="N19" t="n">
-        <v>98.93698859288969</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>111.9025940151294</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>99.86141796666567</v>
       </c>
       <c r="Q19" t="n">
-        <v>135.7738219145907</v>
+        <v>132.2092189497596</v>
       </c>
       <c r="R19" t="n">
-        <v>168.8462721860205</v>
+        <v>166.9321992011052</v>
       </c>
       <c r="S19" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="T19" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="U19" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="V19" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="W19" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="X19" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="Y19" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
     </row>
     <row r="20">
@@ -28798,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C20" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="D20" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="E20" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="F20" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="G20" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="H20" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="I20" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="J20" t="n">
-        <v>145.4995844674848</v>
+        <v>137.444974440227</v>
       </c>
       <c r="K20" t="n">
-        <v>166.8151317091358</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>169.6744147609421</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>156.8061484296142</v>
+        <v>140.1423502240593</v>
       </c>
       <c r="N20" t="n">
-        <v>154.6830233431147</v>
+        <v>137.7495874611292</v>
       </c>
       <c r="O20" t="n">
-        <v>52.40821946835734</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>157.3601169488607</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>166.8302344023615</v>
       </c>
       <c r="R20" t="n">
-        <v>189.2772089442658</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="S20" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="T20" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="U20" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="V20" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="W20" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="X20" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="Y20" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
     </row>
     <row r="21">
@@ -28892,61 +28894,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.1194318842536</v>
+        <v>137.0686553332114</v>
       </c>
       <c r="H21" t="n">
-        <v>110.0712522002531</v>
+        <v>109.5808576151876</v>
       </c>
       <c r="I21" t="n">
-        <v>91.8071631587147</v>
+        <v>90.05893541449851</v>
       </c>
       <c r="J21" t="n">
-        <v>105.6664819560773</v>
+        <v>100.8692114034454</v>
       </c>
       <c r="K21" t="n">
-        <v>101.6565805736455</v>
+        <v>93.45728110118598</v>
       </c>
       <c r="L21" t="n">
-        <v>89.89937217123355</v>
+        <v>78.87440217410972</v>
       </c>
       <c r="M21" t="n">
-        <v>85.35593495118368</v>
+        <v>72.49031497878002</v>
       </c>
       <c r="N21" t="n">
-        <v>73.06086578124706</v>
+        <v>59.85473113102088</v>
       </c>
       <c r="O21" t="n">
-        <v>89.28065616556498</v>
+        <v>77.19962298843183</v>
       </c>
       <c r="P21" t="n">
-        <v>91.18394743523731</v>
+        <v>81.48785322788902</v>
       </c>
       <c r="Q21" t="n">
-        <v>111.3774847931849</v>
+        <v>104.895902593482</v>
       </c>
       <c r="R21" t="n">
-        <v>131.7665600652079</v>
+        <v>128.6139598171666</v>
       </c>
       <c r="S21" t="n">
-        <v>167.5208853302272</v>
+        <v>166.5777331650354</v>
       </c>
       <c r="T21" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="U21" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="V21" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="W21" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="X21" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="Y21" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
     </row>
     <row r="22">
@@ -28971,61 +28973,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.8031137880935</v>
+        <v>167.7605444333946</v>
       </c>
       <c r="H22" t="n">
-        <v>160.5568768000106</v>
+        <v>160.1783965373241</v>
       </c>
       <c r="I22" t="n">
-        <v>149.8008448657296</v>
+        <v>148.5206682716941</v>
       </c>
       <c r="J22" t="n">
-        <v>113.7133256145749</v>
+        <v>110.7036722373638</v>
       </c>
       <c r="K22" t="n">
-        <v>107.1866946317396</v>
+        <v>102.2409096039965</v>
       </c>
       <c r="L22" t="n">
-        <v>106.9541895743943</v>
+        <v>100.6252875130711</v>
       </c>
       <c r="M22" t="n">
-        <v>109.4770018584457</v>
+        <v>102.8040620123288</v>
       </c>
       <c r="N22" t="n">
-        <v>98.93698859288969</v>
+        <v>92.42271634155952</v>
       </c>
       <c r="O22" t="n">
-        <v>111.9025940151294</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>115.0065172478848</v>
+        <v>78.44241493471763</v>
       </c>
       <c r="Q22" t="n">
-        <v>135.7738219145907</v>
+        <v>132.2092189497596</v>
       </c>
       <c r="R22" t="n">
-        <v>168.8462721860205</v>
+        <v>166.9321992011052</v>
       </c>
       <c r="S22" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="T22" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="U22" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="V22" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="W22" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="X22" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="Y22" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
     </row>
     <row r="23">
@@ -29035,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C23" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="D23" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="E23" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="F23" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="G23" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="H23" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="I23" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="J23" t="n">
-        <v>145.4995844674848</v>
+        <v>137.444974440227</v>
       </c>
       <c r="K23" t="n">
-        <v>166.8151317091358</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>169.6744147609421</v>
+        <v>154.6983135296842</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>154.6830233431147</v>
+        <v>137.7495874611292</v>
       </c>
       <c r="O23" t="n">
-        <v>131.4824444513347</v>
+        <v>143.5429901771334</v>
       </c>
       <c r="P23" t="n">
-        <v>171.0070100127608</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>177.0784827545438</v>
+        <v>166.8302344023615</v>
       </c>
       <c r="R23" t="n">
-        <v>123.5607890712834</v>
+        <v>165.5619601575815</v>
       </c>
       <c r="S23" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="T23" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="U23" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="V23" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="W23" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="X23" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="Y23" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
     </row>
     <row r="24">
@@ -29129,61 +29131,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.1194318842536</v>
+        <v>137.0686553332114</v>
       </c>
       <c r="H24" t="n">
-        <v>110.0712522002531</v>
+        <v>109.5808576151876</v>
       </c>
       <c r="I24" t="n">
-        <v>91.8071631587147</v>
+        <v>90.05893541449851</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>100.8692114034454</v>
       </c>
       <c r="K24" t="n">
-        <v>101.6565805736455</v>
+        <v>93.45728110118598</v>
       </c>
       <c r="L24" t="n">
-        <v>89.89937217123355</v>
+        <v>78.87440217410972</v>
       </c>
       <c r="M24" t="n">
-        <v>85.35593495118368</v>
+        <v>72.49031497878002</v>
       </c>
       <c r="N24" t="n">
-        <v>73.06086578124706</v>
+        <v>59.85473113102088</v>
       </c>
       <c r="O24" t="n">
-        <v>89.28065616556498</v>
+        <v>77.19962298843183</v>
       </c>
       <c r="P24" t="n">
-        <v>91.18394743523731</v>
+        <v>81.48785322788902</v>
       </c>
       <c r="Q24" t="n">
-        <v>111.3774847931849</v>
+        <v>104.895902593482</v>
       </c>
       <c r="R24" t="n">
-        <v>86.24489025388711</v>
+        <v>128.6139598171666</v>
       </c>
       <c r="S24" t="n">
-        <v>167.5208853302272</v>
+        <v>166.5777331650354</v>
       </c>
       <c r="T24" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="U24" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="V24" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="W24" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="X24" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
     </row>
     <row r="25">
@@ -29208,61 +29210,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8031137880935</v>
+        <v>167.7605444333946</v>
       </c>
       <c r="H25" t="n">
-        <v>160.5568768000106</v>
+        <v>160.1783965373241</v>
       </c>
       <c r="I25" t="n">
-        <v>149.8008448657296</v>
+        <v>148.5206682716941</v>
       </c>
       <c r="J25" t="n">
-        <v>80.07708429185158</v>
+        <v>110.7036722373638</v>
       </c>
       <c r="K25" t="n">
-        <v>0.442928287087053</v>
+        <v>102.2409096039965</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>100.6252875130711</v>
       </c>
       <c r="M25" t="n">
-        <v>109.4770018584457</v>
+        <v>102.8040620123288</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>111.9025940151294</v>
+        <v>105.8856092255089</v>
       </c>
       <c r="P25" t="n">
-        <v>115.0065172478848</v>
+        <v>109.8579472941215</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.43086353683928</v>
+        <v>132.2092189497596</v>
       </c>
       <c r="R25" t="n">
-        <v>168.8462721860205</v>
+        <v>166.9321992011052</v>
       </c>
       <c r="S25" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="T25" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="U25" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="V25" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="W25" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="X25" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.3295604158397</v>
+        <v>179.8319801819373</v>
       </c>
     </row>
     <row r="26">
@@ -29272,43 +29274,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J26" t="n">
-        <v>30.82149227093305</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>137.1194318842535</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="M26" t="n">
-        <v>137.1194318842535</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>7.818045540330019</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -29317,31 +29319,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="R26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y26" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="27">
@@ -29351,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C27" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D27" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E27" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F27" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.1194318842535</v>
+        <v>137.0686553332114</v>
       </c>
       <c r="H27" t="n">
-        <v>110.0712522002531</v>
+        <v>109.5808576151876</v>
       </c>
       <c r="I27" t="n">
-        <v>81.68141601012978</v>
+        <v>90.05893541449851</v>
       </c>
       <c r="J27" t="n">
-        <v>105.6664819560773</v>
+        <v>100.8692114034454</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>93.45728110118598</v>
       </c>
       <c r="L27" t="n">
-        <v>89.89937217123355</v>
+        <v>78.87440217410972</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>72.49031497878002</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>59.85473113102088</v>
       </c>
       <c r="O27" t="n">
-        <v>89.28065616556498</v>
+        <v>77.19962298843183</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>81.48785322788902</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.3774847931849</v>
+        <v>104.895902593482</v>
       </c>
       <c r="R27" t="n">
-        <v>86.24489025388711</v>
+        <v>128.6139598171666</v>
       </c>
       <c r="S27" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T27" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U27" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V27" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W27" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X27" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y27" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C28" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D28" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E28" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F28" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G28" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H28" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I28" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J28" t="n">
-        <v>113.7133256145749</v>
+        <v>110.7036722373638</v>
       </c>
       <c r="K28" t="n">
-        <v>0.442928287087053</v>
+        <v>102.2409096039965</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>100.6252875130711</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>102.8040620123288</v>
       </c>
       <c r="N28" t="n">
-        <v>98.93698859288969</v>
+        <v>92.42271634155952</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>105.8856092255089</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>109.8579472941215</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.43086353683928</v>
+        <v>132.2092189497596</v>
       </c>
       <c r="R28" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S28" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T28" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U28" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V28" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W28" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X28" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y28" t="n">
-        <v>137.1194318842535</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C29" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D29" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E29" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F29" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G29" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H29" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I29" t="n">
-        <v>194.3295604158397</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J29" t="n">
-        <v>145.4995844674848</v>
+        <v>137.444974440227</v>
       </c>
       <c r="K29" t="n">
-        <v>166.8151317091358</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="L29" t="n">
-        <v>169.6744147609421</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>156.8061484296142</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>62.35287960954039</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>159.5327535047832</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>177.0784827545438</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="R29" t="n">
-        <v>189.2772089442658</v>
+        <v>136.5692207072966</v>
       </c>
       <c r="S29" t="n">
-        <v>199.4763441310951</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T29" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U29" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V29" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W29" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X29" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y29" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.1194318842536</v>
+        <v>137.0686553332114</v>
       </c>
       <c r="H30" t="n">
-        <v>110.0712522002531</v>
+        <v>109.5808576151876</v>
       </c>
       <c r="I30" t="n">
-        <v>91.8071631587147</v>
+        <v>90.05893541449851</v>
       </c>
       <c r="J30" t="n">
-        <v>105.6664819560773</v>
+        <v>100.8692114034454</v>
       </c>
       <c r="K30" t="n">
-        <v>101.6565805736455</v>
+        <v>93.45728110118598</v>
       </c>
       <c r="L30" t="n">
-        <v>89.89937217123355</v>
+        <v>78.87440217410972</v>
       </c>
       <c r="M30" t="n">
-        <v>85.35593495118368</v>
+        <v>72.49031497878002</v>
       </c>
       <c r="N30" t="n">
-        <v>73.06086578124706</v>
+        <v>59.85473113102088</v>
       </c>
       <c r="O30" t="n">
-        <v>89.28065616556498</v>
+        <v>77.19962298843183</v>
       </c>
       <c r="P30" t="n">
-        <v>91.18394743523731</v>
+        <v>81.48785322788902</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.3774847931849</v>
+        <v>104.895902593482</v>
       </c>
       <c r="R30" t="n">
-        <v>131.7665600652079</v>
+        <v>128.6139598171666</v>
       </c>
       <c r="S30" t="n">
-        <v>167.5208853302272</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T30" t="n">
-        <v>199.2615077677972</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U30" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V30" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W30" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G31" t="n">
-        <v>167.8031137880935</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H31" t="n">
-        <v>160.5568768000106</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I31" t="n">
-        <v>149.8008448657296</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J31" t="n">
-        <v>113.7133256145749</v>
+        <v>110.7036722373638</v>
       </c>
       <c r="K31" t="n">
-        <v>107.1866946317396</v>
+        <v>102.2409096039965</v>
       </c>
       <c r="L31" t="n">
-        <v>106.9541895743943</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>109.4770018584457</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>98.93698859288969</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>111.9025940151294</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>115.0065172478848</v>
+        <v>109.8579472941215</v>
       </c>
       <c r="Q31" t="n">
-        <v>135.7738219145907</v>
+        <v>132.2092189497596</v>
       </c>
       <c r="R31" t="n">
-        <v>168.8462721860205</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S31" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T31" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U31" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V31" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W31" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X31" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y31" t="n">
-        <v>205.7729852034774</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="C32" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="D32" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="E32" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="F32" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="G32" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="H32" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="I32" t="n">
-        <v>194.3295604158397</v>
+        <v>190.6708867614312</v>
       </c>
       <c r="J32" t="n">
-        <v>145.4995844674848</v>
+        <v>137.444974440227</v>
       </c>
       <c r="K32" t="n">
-        <v>166.8151317091358</v>
+        <v>154.7433592205302</v>
       </c>
       <c r="L32" t="n">
-        <v>169.6744147609421</v>
+        <v>154.6983135296842</v>
       </c>
       <c r="M32" t="n">
-        <v>156.8061484296142</v>
+        <v>140.1423502240593</v>
       </c>
       <c r="N32" t="n">
-        <v>154.6830233431147</v>
+        <v>137.7495874611292</v>
       </c>
       <c r="O32" t="n">
-        <v>159.5327535047832</v>
+        <v>143.5429901771334</v>
       </c>
       <c r="P32" t="n">
-        <v>171.0070100127608</v>
+        <v>157.3601169488607</v>
       </c>
       <c r="Q32" t="n">
-        <v>177.0784827545438</v>
+        <v>166.8302344023615</v>
       </c>
       <c r="R32" t="n">
-        <v>189.2772089442658</v>
+        <v>183.3158793562044</v>
       </c>
       <c r="S32" t="n">
-        <v>199.4763441310951</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="T32" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="U32" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="V32" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="W32" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="X32" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="Y32" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
     </row>
     <row r="33">
@@ -29840,61 +29842,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.1194318842536</v>
+        <v>137.0686553332114</v>
       </c>
       <c r="H33" t="n">
-        <v>110.0712522002531</v>
+        <v>109.5808576151876</v>
       </c>
       <c r="I33" t="n">
-        <v>91.8071631587147</v>
+        <v>90.05893541449851</v>
       </c>
       <c r="J33" t="n">
-        <v>24.90574543152231</v>
+        <v>100.8692114034454</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>93.45728110118598</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>78.87440217410972</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>72.49031497878002</v>
       </c>
       <c r="N33" t="n">
-        <v>73.06086578124706</v>
+        <v>59.85473113102088</v>
       </c>
       <c r="O33" t="n">
-        <v>89.28065616556498</v>
+        <v>77.19962298843183</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>81.48785322788902</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.3774847931849</v>
+        <v>19.47452603866516</v>
       </c>
       <c r="R33" t="n">
-        <v>86.24489025388711</v>
+        <v>128.6139598171666</v>
       </c>
       <c r="S33" t="n">
-        <v>167.5208853302272</v>
+        <v>166.5777331650354</v>
       </c>
       <c r="T33" t="n">
-        <v>199.2615077677972</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="U33" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="V33" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="W33" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>197.3137859078973</v>
       </c>
     </row>
     <row r="34">
@@ -29919,61 +29921,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8031137880935</v>
+        <v>167.7605444333946</v>
       </c>
       <c r="H34" t="n">
-        <v>160.5568768000106</v>
+        <v>160.1783965373241</v>
       </c>
       <c r="I34" t="n">
-        <v>149.8008448657296</v>
+        <v>148.5206682716941</v>
       </c>
       <c r="J34" t="n">
-        <v>113.7133256145749</v>
+        <v>110.7036722373638</v>
       </c>
       <c r="K34" t="n">
-        <v>107.1866946317396</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.9541895743943</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.4770018584457</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>98.93698859288969</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>111.9025940151294</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>115.0065172478848</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.7738219145907</v>
+        <v>132.2092189497596</v>
       </c>
       <c r="R34" t="n">
-        <v>168.8462721860205</v>
+        <v>166.9321992011052</v>
       </c>
       <c r="S34" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="T34" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="U34" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="V34" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="W34" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="X34" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="Y34" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="C35" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="D35" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="E35" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="F35" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="G35" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="H35" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="I35" t="n">
-        <v>194.3295604158397</v>
+        <v>190.6708867614312</v>
       </c>
       <c r="J35" t="n">
-        <v>145.4995844674848</v>
+        <v>137.444974440227</v>
       </c>
       <c r="K35" t="n">
-        <v>166.8151317091358</v>
+        <v>154.7433592205302</v>
       </c>
       <c r="L35" t="n">
-        <v>169.6744147609421</v>
+        <v>154.6983135296842</v>
       </c>
       <c r="M35" t="n">
-        <v>156.8061484296142</v>
+        <v>140.1423502240593</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>137.7495874611292</v>
       </c>
       <c r="O35" t="n">
-        <v>159.5327535047832</v>
+        <v>34.09275234448154</v>
       </c>
       <c r="P35" t="n">
-        <v>101.2697226889983</v>
+        <v>157.3601169488607</v>
       </c>
       <c r="Q35" t="n">
-        <v>177.0784827545438</v>
+        <v>166.8302344023615</v>
       </c>
       <c r="R35" t="n">
-        <v>189.2772089442658</v>
+        <v>183.3158793562044</v>
       </c>
       <c r="S35" t="n">
-        <v>199.4763441310951</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="T35" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="U35" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="V35" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="W35" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="X35" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="Y35" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
     </row>
     <row r="36">
@@ -30077,61 +30079,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.1194318842536</v>
+        <v>137.0686553332114</v>
       </c>
       <c r="H36" t="n">
-        <v>110.0712522002531</v>
+        <v>109.5808576151876</v>
       </c>
       <c r="I36" t="n">
-        <v>91.8071631587147</v>
+        <v>90.05893541449851</v>
       </c>
       <c r="J36" t="n">
-        <v>105.6664819560773</v>
+        <v>100.8692114034454</v>
       </c>
       <c r="K36" t="n">
-        <v>101.6565805736455</v>
+        <v>93.45728110118598</v>
       </c>
       <c r="L36" t="n">
-        <v>89.89937217123355</v>
+        <v>78.87440217410972</v>
       </c>
       <c r="M36" t="n">
-        <v>85.35593495118368</v>
+        <v>72.49031497878002</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>59.85473113102088</v>
       </c>
       <c r="O36" t="n">
-        <v>89.28065616556498</v>
+        <v>77.19962298843183</v>
       </c>
       <c r="P36" t="n">
-        <v>91.18394743523731</v>
+        <v>81.48785322788902</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.3774847931849</v>
+        <v>104.895902593482</v>
       </c>
       <c r="R36" t="n">
-        <v>131.7665600652079</v>
+        <v>128.6139598171666</v>
       </c>
       <c r="S36" t="n">
-        <v>167.5208853302272</v>
+        <v>166.5777331650354</v>
       </c>
       <c r="T36" t="n">
-        <v>199.2615077677972</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="U36" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="V36" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="W36" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>197.3137859078973</v>
       </c>
     </row>
     <row r="37">
@@ -30156,61 +30158,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8031137880935</v>
+        <v>167.7605444333946</v>
       </c>
       <c r="H37" t="n">
-        <v>160.5568768000106</v>
+        <v>160.1783965373241</v>
       </c>
       <c r="I37" t="n">
-        <v>149.8008448657296</v>
+        <v>148.5206682716941</v>
       </c>
       <c r="J37" t="n">
-        <v>113.7133256145749</v>
+        <v>110.7036722373638</v>
       </c>
       <c r="K37" t="n">
-        <v>107.1866946317396</v>
+        <v>102.2409096039965</v>
       </c>
       <c r="L37" t="n">
-        <v>106.9541895743943</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>109.4770018584457</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>98.93698859288969</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>111.9025940151294</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>115.0065172478848</v>
+        <v>109.8579472941215</v>
       </c>
       <c r="Q37" t="n">
-        <v>135.7738219145907</v>
+        <v>132.2092189497596</v>
       </c>
       <c r="R37" t="n">
-        <v>168.8462721860205</v>
+        <v>166.9321992011052</v>
       </c>
       <c r="S37" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="T37" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="U37" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="V37" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="W37" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="X37" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="Y37" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="C38" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="D38" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="E38" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="F38" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="G38" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="H38" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="I38" t="n">
-        <v>194.3295604158397</v>
+        <v>190.6708867614312</v>
       </c>
       <c r="J38" t="n">
-        <v>145.4995844674848</v>
+        <v>137.444974440227</v>
       </c>
       <c r="K38" t="n">
-        <v>166.8151317091358</v>
+        <v>154.7433592205302</v>
       </c>
       <c r="L38" t="n">
-        <v>169.6744147609421</v>
+        <v>154.6983135296842</v>
       </c>
       <c r="M38" t="n">
-        <v>156.8061484296142</v>
+        <v>140.1423502240593</v>
       </c>
       <c r="N38" t="n">
-        <v>154.6830233431147</v>
+        <v>28.29934962847685</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>143.5429901771334</v>
       </c>
       <c r="P38" t="n">
-        <v>171.0070100127608</v>
+        <v>157.3601169488607</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.0784827545438</v>
+        <v>166.8302344023615</v>
       </c>
       <c r="R38" t="n">
-        <v>189.2772089442658</v>
+        <v>183.3158793562044</v>
       </c>
       <c r="S38" t="n">
-        <v>199.4763441310951</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="T38" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="U38" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="V38" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="W38" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="X38" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="Y38" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
     </row>
     <row r="39">
@@ -30314,61 +30316,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.1194318842536</v>
+        <v>137.0686553332114</v>
       </c>
       <c r="H39" t="n">
-        <v>110.0712522002531</v>
+        <v>109.5808576151876</v>
       </c>
       <c r="I39" t="n">
-        <v>91.8071631587147</v>
+        <v>90.05893541449851</v>
       </c>
       <c r="J39" t="n">
-        <v>105.6664819560773</v>
+        <v>100.8692114034454</v>
       </c>
       <c r="K39" t="n">
-        <v>18.15599321523686</v>
+        <v>93.45728110118598</v>
       </c>
       <c r="L39" t="n">
-        <v>89.89937217123355</v>
+        <v>78.87440217410972</v>
       </c>
       <c r="M39" t="n">
-        <v>85.35593495118368</v>
+        <v>72.49031497878002</v>
       </c>
       <c r="N39" t="n">
-        <v>73.06086578124706</v>
+        <v>59.85473113102088</v>
       </c>
       <c r="O39" t="n">
-        <v>89.28065616556498</v>
+        <v>77.19962298843183</v>
       </c>
       <c r="P39" t="n">
-        <v>91.18394743523731</v>
+        <v>81.48785322788902</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>104.895902593482</v>
       </c>
       <c r="R39" t="n">
-        <v>131.7665600652079</v>
+        <v>128.6139598171666</v>
       </c>
       <c r="S39" t="n">
-        <v>167.5208853302272</v>
+        <v>166.5777331650354</v>
       </c>
       <c r="T39" t="n">
-        <v>199.2615077677972</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="U39" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="V39" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="W39" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>197.3137859078973</v>
       </c>
     </row>
     <row r="40">
@@ -30393,61 +30395,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8031137880935</v>
+        <v>167.7605444333946</v>
       </c>
       <c r="H40" t="n">
-        <v>160.5568768000106</v>
+        <v>160.1783965373241</v>
       </c>
       <c r="I40" t="n">
-        <v>149.8008448657296</v>
+        <v>148.5206682716941</v>
       </c>
       <c r="J40" t="n">
-        <v>113.7133256145749</v>
+        <v>110.7036722373638</v>
       </c>
       <c r="K40" t="n">
-        <v>107.1866946317396</v>
+        <v>102.2409096039965</v>
       </c>
       <c r="L40" t="n">
-        <v>106.9541895743943</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>109.4770018584457</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>98.93698859288969</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>111.9025940151294</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>115.0065172478848</v>
+        <v>109.8579472941215</v>
       </c>
       <c r="Q40" t="n">
-        <v>135.7738219145907</v>
+        <v>132.2092189497596</v>
       </c>
       <c r="R40" t="n">
-        <v>168.8462721860205</v>
+        <v>166.9321992011052</v>
       </c>
       <c r="S40" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="T40" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="U40" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="V40" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="W40" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="X40" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
       <c r="Y40" t="n">
-        <v>205.7729852034775</v>
+        <v>197.3137859078973</v>
       </c>
     </row>
     <row r="41">
@@ -30457,37 +30459,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="C41" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="D41" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="E41" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="F41" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="G41" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="H41" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="I41" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="K41" t="n">
-        <v>115.5380481704249</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30499,34 +30501,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>115.5380481704249</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>31.38443376536079</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="S41" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="T41" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="U41" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="V41" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="W41" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="X41" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="Y41" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
     </row>
     <row r="42">
@@ -30536,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="C42" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="D42" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="E42" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="F42" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="G42" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="H42" t="n">
-        <v>110.0712522002531</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="I42" t="n">
-        <v>91.8071631587147</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="J42" t="n">
-        <v>105.6664819560773</v>
+        <v>59.07125610583522</v>
       </c>
       <c r="K42" t="n">
-        <v>101.6565805736455</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>89.89937217123355</v>
+        <v>78.87440217410972</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>72.49031497878002</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>59.85473113102088</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>77.19962298843183</v>
       </c>
       <c r="P42" t="n">
-        <v>91.18394743523731</v>
+        <v>81.48785322788902</v>
       </c>
       <c r="Q42" t="n">
-        <v>111.3774847931849</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>115.5380481704249</v>
+        <v>83.0922900058458</v>
       </c>
       <c r="S42" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="T42" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="U42" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="V42" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="W42" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="X42" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="Y42" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="C43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="D43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="E43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="F43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="G43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="H43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="I43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="J43" t="n">
-        <v>113.7133256145749</v>
+        <v>77.06743091464047</v>
       </c>
       <c r="K43" t="n">
-        <v>107.1866946317396</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30651,40 +30653,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>98.93698859288969</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>111.9025940151294</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="Q43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="R43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="T43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="U43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="V43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="W43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="X43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.5380481704249</v>
+        <v>84.63148813181201</v>
       </c>
     </row>
     <row r="44">
@@ -30694,31 +30696,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30739,31 +30741,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
     </row>
     <row r="45">
@@ -30773,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>78.87440217410972</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>59.85473113102088</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>77.19962298843183</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39.50490622784101</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.0922900058458</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
     </row>
     <row r="46">
@@ -30852,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30894,34 +30896,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>84.63148813181201</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4188140627602933</v>
+        <v>0.5137151367349647</v>
       </c>
       <c r="H11" t="n">
-        <v>4.289179520243855</v>
+        <v>5.261085144086959</v>
       </c>
       <c r="I11" t="n">
-        <v>16.14632915456622</v>
+        <v>19.80500280897475</v>
       </c>
       <c r="J11" t="n">
-        <v>35.54632005920148</v>
+        <v>43.60093008645925</v>
       </c>
       <c r="K11" t="n">
-        <v>53.2747193358447</v>
+        <v>65.34649182445033</v>
       </c>
       <c r="L11" t="n">
-        <v>66.09200020904504</v>
+        <v>81.06810144030301</v>
       </c>
       <c r="M11" t="n">
-        <v>73.54008479765841</v>
+        <v>90.20388300321343</v>
       </c>
       <c r="N11" t="n">
-        <v>74.73004025347609</v>
+        <v>91.66347613546166</v>
       </c>
       <c r="O11" t="n">
-        <v>70.56545791690343</v>
+        <v>86.55522124455335</v>
       </c>
       <c r="P11" t="n">
-        <v>60.22598574250867</v>
+        <v>73.87287880640891</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.22720711990566</v>
+        <v>55.47545547208796</v>
       </c>
       <c r="R11" t="n">
-        <v>26.3083288698663</v>
+        <v>32.26965845792775</v>
       </c>
       <c r="S11" t="n">
-        <v>9.543725455150193</v>
+        <v>11.70628367834802</v>
       </c>
       <c r="T11" t="n">
-        <v>1.833358559733185</v>
+        <v>2.248788011057309</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03350512502082346</v>
+        <v>0.04109721093879717</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.224085278957076</v>
+        <v>0.2748618299992788</v>
       </c>
       <c r="H12" t="n">
-        <v>2.164192036243339</v>
+        <v>2.654586621308824</v>
       </c>
       <c r="I12" t="n">
-        <v>7.715216841285292</v>
+        <v>9.463444585501485</v>
       </c>
       <c r="J12" t="n">
-        <v>21.17114471058936</v>
+        <v>25.96841526322133</v>
       </c>
       <c r="K12" t="n">
-        <v>36.18485840071345</v>
+        <v>44.38415787317301</v>
       </c>
       <c r="L12" t="n">
-        <v>48.65500760864056</v>
+        <v>59.67997760576446</v>
       </c>
       <c r="M12" t="n">
-        <v>56.77809897083455</v>
+        <v>69.6437189432383</v>
       </c>
       <c r="N12" t="n">
-        <v>58.28084630208618</v>
+        <v>71.48698095231242</v>
       </c>
       <c r="O12" t="n">
-        <v>53.31558827887938</v>
+        <v>65.39662145601261</v>
       </c>
       <c r="P12" t="n">
-        <v>42.79045997909287</v>
+        <v>52.48655418644123</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.60428929283658</v>
+        <v>35.08587149253952</v>
       </c>
       <c r="R12" t="n">
-        <v>13.912943898756</v>
+        <v>17.06554414679733</v>
       </c>
       <c r="S12" t="n">
-        <v>4.162285773610597</v>
+        <v>5.105437938802389</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9032209270243541</v>
+        <v>1.107886060391829</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01474245256296553</v>
+        <v>0.01808301513153151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1878655703652218</v>
+        <v>0.2304349250641063</v>
       </c>
       <c r="H13" t="n">
-        <v>1.670295707428974</v>
+        <v>2.048775970115419</v>
       </c>
       <c r="I13" t="n">
-        <v>5.649630061528673</v>
+        <v>6.929806655564215</v>
       </c>
       <c r="J13" t="n">
-        <v>13.28209582482118</v>
+        <v>16.29174920203231</v>
       </c>
       <c r="K13" t="n">
-        <v>21.82656353879577</v>
+        <v>26.77234856653888</v>
       </c>
       <c r="L13" t="n">
-        <v>27.93048670684399</v>
+        <v>34.25938876816722</v>
       </c>
       <c r="M13" t="n">
-        <v>29.44878208915927</v>
+        <v>36.12172193527621</v>
       </c>
       <c r="N13" t="n">
-        <v>28.74855587234347</v>
+        <v>35.26282812367366</v>
       </c>
       <c r="O13" t="n">
-        <v>26.55394443671337</v>
+        <v>32.57092922633387</v>
       </c>
       <c r="P13" t="n">
-        <v>22.72148680126282</v>
+        <v>27.87005675502608</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.73117971485508</v>
+        <v>19.29578267968621</v>
       </c>
       <c r="R13" t="n">
-        <v>8.447119191148973</v>
+        <v>10.36119217606427</v>
       </c>
       <c r="S13" t="n">
-        <v>3.273984530819365</v>
+        <v>4.015852284980832</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8026983461059477</v>
+        <v>0.9845855889102719</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01024721292901211</v>
+        <v>0.01256917773076945</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4188140627602933</v>
+        <v>0.5137151367349647</v>
       </c>
       <c r="H14" t="n">
-        <v>4.289179520243855</v>
+        <v>5.261085144086959</v>
       </c>
       <c r="I14" t="n">
-        <v>16.14632915456622</v>
+        <v>19.80500280897475</v>
       </c>
       <c r="J14" t="n">
-        <v>35.54632005920148</v>
+        <v>43.60093008645925</v>
       </c>
       <c r="K14" t="n">
-        <v>53.2747193358447</v>
+        <v>65.34649182445033</v>
       </c>
       <c r="L14" t="n">
-        <v>66.09200020904504</v>
+        <v>81.06810144030301</v>
       </c>
       <c r="M14" t="n">
-        <v>73.54008479765841</v>
+        <v>90.20388300321343</v>
       </c>
       <c r="N14" t="n">
-        <v>74.73004025347609</v>
+        <v>91.66347613546166</v>
       </c>
       <c r="O14" t="n">
-        <v>70.56545791690343</v>
+        <v>86.55522124455335</v>
       </c>
       <c r="P14" t="n">
-        <v>60.22598574250867</v>
+        <v>73.87287880640891</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.22720711990566</v>
+        <v>55.47545547208796</v>
       </c>
       <c r="R14" t="n">
-        <v>26.3083288698663</v>
+        <v>32.26965845792775</v>
       </c>
       <c r="S14" t="n">
-        <v>9.543725455150193</v>
+        <v>11.70628367834802</v>
       </c>
       <c r="T14" t="n">
-        <v>1.833358559733185</v>
+        <v>2.248788011057309</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03350512502082346</v>
+        <v>0.04109721093879717</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.224085278957076</v>
+        <v>0.2748618299992788</v>
       </c>
       <c r="H15" t="n">
-        <v>2.164192036243339</v>
+        <v>2.654586621308824</v>
       </c>
       <c r="I15" t="n">
-        <v>7.715216841285292</v>
+        <v>9.463444585501485</v>
       </c>
       <c r="J15" t="n">
-        <v>21.17114471058936</v>
+        <v>25.96841526322133</v>
       </c>
       <c r="K15" t="n">
-        <v>36.18485840071345</v>
+        <v>44.38415787317301</v>
       </c>
       <c r="L15" t="n">
-        <v>48.65500760864056</v>
+        <v>59.67997760576446</v>
       </c>
       <c r="M15" t="n">
-        <v>56.77809897083455</v>
+        <v>69.6437189432383</v>
       </c>
       <c r="N15" t="n">
-        <v>58.28084630208618</v>
+        <v>71.48698095231242</v>
       </c>
       <c r="O15" t="n">
-        <v>53.31558827887938</v>
+        <v>65.39662145601261</v>
       </c>
       <c r="P15" t="n">
-        <v>42.79045997909287</v>
+        <v>52.48655418644123</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.60428929283658</v>
+        <v>35.08587149253952</v>
       </c>
       <c r="R15" t="n">
-        <v>13.912943898756</v>
+        <v>17.06554414679733</v>
       </c>
       <c r="S15" t="n">
-        <v>4.162285773610597</v>
+        <v>5.105437938802389</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9032209270243541</v>
+        <v>1.107886060391829</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01474245256296553</v>
+        <v>0.01808301513153151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1878655703652218</v>
+        <v>0.2304349250641063</v>
       </c>
       <c r="H16" t="n">
-        <v>1.670295707428974</v>
+        <v>2.048775970115419</v>
       </c>
       <c r="I16" t="n">
-        <v>5.649630061528673</v>
+        <v>6.929806655564215</v>
       </c>
       <c r="J16" t="n">
-        <v>13.28209582482118</v>
+        <v>16.29174920203231</v>
       </c>
       <c r="K16" t="n">
-        <v>21.82656353879577</v>
+        <v>26.77234856653888</v>
       </c>
       <c r="L16" t="n">
-        <v>27.93048670684399</v>
+        <v>34.25938876816722</v>
       </c>
       <c r="M16" t="n">
-        <v>29.44878208915927</v>
+        <v>36.12172193527621</v>
       </c>
       <c r="N16" t="n">
-        <v>28.74855587234347</v>
+        <v>35.26282812367366</v>
       </c>
       <c r="O16" t="n">
-        <v>26.55394443671337</v>
+        <v>32.57092922633387</v>
       </c>
       <c r="P16" t="n">
-        <v>22.72148680126282</v>
+        <v>27.87005675502608</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.73117971485508</v>
+        <v>19.29578267968621</v>
       </c>
       <c r="R16" t="n">
-        <v>8.447119191148973</v>
+        <v>10.36119217606427</v>
       </c>
       <c r="S16" t="n">
-        <v>3.273984530819365</v>
+        <v>4.015852284980832</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8026983461059477</v>
+        <v>0.9845855889102719</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01024721292901211</v>
+        <v>0.01256917773076945</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4188140627602939</v>
+        <v>0.5137151367349647</v>
       </c>
       <c r="H17" t="n">
-        <v>4.28917952024386</v>
+        <v>5.261085144086959</v>
       </c>
       <c r="I17" t="n">
-        <v>16.14632915456625</v>
+        <v>19.80500280897475</v>
       </c>
       <c r="J17" t="n">
-        <v>35.54632005920153</v>
+        <v>43.60093008645925</v>
       </c>
       <c r="K17" t="n">
-        <v>53.27471933584477</v>
+        <v>65.34649182445033</v>
       </c>
       <c r="L17" t="n">
-        <v>66.09200020904512</v>
+        <v>81.06810144030301</v>
       </c>
       <c r="M17" t="n">
-        <v>73.54008479765851</v>
+        <v>90.20388300321343</v>
       </c>
       <c r="N17" t="n">
-        <v>74.73004025347619</v>
+        <v>91.66347613546166</v>
       </c>
       <c r="O17" t="n">
-        <v>70.56545791690351</v>
+        <v>86.55522124455335</v>
       </c>
       <c r="P17" t="n">
-        <v>60.22598574250875</v>
+        <v>73.87287880640891</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.22720711990571</v>
+        <v>55.47545547208796</v>
       </c>
       <c r="R17" t="n">
-        <v>26.30832886986633</v>
+        <v>32.26965845792775</v>
       </c>
       <c r="S17" t="n">
-        <v>9.543725455150206</v>
+        <v>11.70628367834802</v>
       </c>
       <c r="T17" t="n">
-        <v>1.833358559733187</v>
+        <v>2.248788011057309</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0335051250208235</v>
+        <v>0.04109721093879717</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2240852789570763</v>
+        <v>0.2748618299992788</v>
       </c>
       <c r="H18" t="n">
-        <v>2.164192036243342</v>
+        <v>2.654586621308824</v>
       </c>
       <c r="I18" t="n">
-        <v>7.715216841285303</v>
+        <v>9.463444585501485</v>
       </c>
       <c r="J18" t="n">
-        <v>21.17114471058939</v>
+        <v>25.96841526322133</v>
       </c>
       <c r="K18" t="n">
-        <v>36.1848584007135</v>
+        <v>44.38415787317301</v>
       </c>
       <c r="L18" t="n">
-        <v>48.65500760864062</v>
+        <v>59.67997760576446</v>
       </c>
       <c r="M18" t="n">
-        <v>56.77809897083463</v>
+        <v>69.6437189432383</v>
       </c>
       <c r="N18" t="n">
-        <v>58.28084630208625</v>
+        <v>71.48698095231242</v>
       </c>
       <c r="O18" t="n">
-        <v>53.31558827887946</v>
+        <v>65.39662145601261</v>
       </c>
       <c r="P18" t="n">
-        <v>42.79045997909293</v>
+        <v>52.48655418644123</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.60428929283662</v>
+        <v>35.08587149253952</v>
       </c>
       <c r="R18" t="n">
-        <v>13.91294389875602</v>
+        <v>17.06554414679733</v>
       </c>
       <c r="S18" t="n">
-        <v>4.162285773610603</v>
+        <v>5.105437938802389</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9032209270243553</v>
+        <v>1.107886060391829</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01474245256296555</v>
+        <v>0.01808301513153151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1878655703652221</v>
+        <v>0.2304349250641063</v>
       </c>
       <c r="H19" t="n">
-        <v>1.670295707428976</v>
+        <v>2.048775970115419</v>
       </c>
       <c r="I19" t="n">
-        <v>5.649630061528681</v>
+        <v>6.929806655564215</v>
       </c>
       <c r="J19" t="n">
-        <v>13.2820958248212</v>
+        <v>16.29174920203231</v>
       </c>
       <c r="K19" t="n">
-        <v>21.8265635387958</v>
+        <v>26.77234856653888</v>
       </c>
       <c r="L19" t="n">
-        <v>27.93048670684403</v>
+        <v>34.25938876816722</v>
       </c>
       <c r="M19" t="n">
-        <v>29.44878208915931</v>
+        <v>36.12172193527621</v>
       </c>
       <c r="N19" t="n">
-        <v>28.74855587234351</v>
+        <v>35.26282812367366</v>
       </c>
       <c r="O19" t="n">
-        <v>26.5539444367134</v>
+        <v>32.57092922633387</v>
       </c>
       <c r="P19" t="n">
-        <v>22.72148680126285</v>
+        <v>27.87005675502608</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.7311797148551</v>
+        <v>19.29578267968621</v>
       </c>
       <c r="R19" t="n">
-        <v>8.447119191148985</v>
+        <v>10.36119217606427</v>
       </c>
       <c r="S19" t="n">
-        <v>3.273984530819369</v>
+        <v>4.015852284980832</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8026983461059488</v>
+        <v>0.9845855889102719</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01024721292901213</v>
+        <v>0.01256917773076945</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4188140627602939</v>
+        <v>0.5137151367349647</v>
       </c>
       <c r="H20" t="n">
-        <v>4.28917952024386</v>
+        <v>5.261085144086959</v>
       </c>
       <c r="I20" t="n">
-        <v>16.14632915456625</v>
+        <v>19.80500280897475</v>
       </c>
       <c r="J20" t="n">
-        <v>35.54632005920153</v>
+        <v>43.60093008645925</v>
       </c>
       <c r="K20" t="n">
-        <v>53.27471933584477</v>
+        <v>65.34649182445033</v>
       </c>
       <c r="L20" t="n">
-        <v>66.09200020904512</v>
+        <v>81.06810144030301</v>
       </c>
       <c r="M20" t="n">
-        <v>73.54008479765851</v>
+        <v>90.20388300321343</v>
       </c>
       <c r="N20" t="n">
-        <v>74.73004025347619</v>
+        <v>91.66347613546166</v>
       </c>
       <c r="O20" t="n">
-        <v>70.56545791690351</v>
+        <v>86.55522124455335</v>
       </c>
       <c r="P20" t="n">
-        <v>60.22598574250875</v>
+        <v>73.87287880640891</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.22720711990571</v>
+        <v>55.47545547208796</v>
       </c>
       <c r="R20" t="n">
-        <v>26.30832886986633</v>
+        <v>32.26965845792775</v>
       </c>
       <c r="S20" t="n">
-        <v>9.543725455150206</v>
+        <v>11.70628367834802</v>
       </c>
       <c r="T20" t="n">
-        <v>1.833358559733187</v>
+        <v>2.248788011057309</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0335051250208235</v>
+        <v>0.04109721093879717</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2240852789570763</v>
+        <v>0.2748618299992788</v>
       </c>
       <c r="H21" t="n">
-        <v>2.164192036243342</v>
+        <v>2.654586621308824</v>
       </c>
       <c r="I21" t="n">
-        <v>7.715216841285303</v>
+        <v>9.463444585501485</v>
       </c>
       <c r="J21" t="n">
-        <v>21.17114471058939</v>
+        <v>25.96841526322133</v>
       </c>
       <c r="K21" t="n">
-        <v>36.1848584007135</v>
+        <v>44.38415787317301</v>
       </c>
       <c r="L21" t="n">
-        <v>48.65500760864062</v>
+        <v>59.67997760576446</v>
       </c>
       <c r="M21" t="n">
-        <v>56.77809897083463</v>
+        <v>69.6437189432383</v>
       </c>
       <c r="N21" t="n">
-        <v>58.28084630208625</v>
+        <v>71.48698095231242</v>
       </c>
       <c r="O21" t="n">
-        <v>53.31558827887946</v>
+        <v>65.39662145601261</v>
       </c>
       <c r="P21" t="n">
-        <v>42.79045997909293</v>
+        <v>52.48655418644123</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.60428929283662</v>
+        <v>35.08587149253952</v>
       </c>
       <c r="R21" t="n">
-        <v>13.91294389875602</v>
+        <v>17.06554414679733</v>
       </c>
       <c r="S21" t="n">
-        <v>4.162285773610603</v>
+        <v>5.105437938802389</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9032209270243553</v>
+        <v>1.107886060391829</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01474245256296555</v>
+        <v>0.01808301513153151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1878655703652221</v>
+        <v>0.2304349250641063</v>
       </c>
       <c r="H22" t="n">
-        <v>1.670295707428976</v>
+        <v>2.048775970115419</v>
       </c>
       <c r="I22" t="n">
-        <v>5.649630061528681</v>
+        <v>6.929806655564215</v>
       </c>
       <c r="J22" t="n">
-        <v>13.2820958248212</v>
+        <v>16.29174920203231</v>
       </c>
       <c r="K22" t="n">
-        <v>21.8265635387958</v>
+        <v>26.77234856653888</v>
       </c>
       <c r="L22" t="n">
-        <v>27.93048670684403</v>
+        <v>34.25938876816722</v>
       </c>
       <c r="M22" t="n">
-        <v>29.44878208915931</v>
+        <v>36.12172193527621</v>
       </c>
       <c r="N22" t="n">
-        <v>28.74855587234351</v>
+        <v>35.26282812367366</v>
       </c>
       <c r="O22" t="n">
-        <v>26.5539444367134</v>
+        <v>32.57092922633387</v>
       </c>
       <c r="P22" t="n">
-        <v>22.72148680126285</v>
+        <v>27.87005675502608</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.7311797148551</v>
+        <v>19.29578267968621</v>
       </c>
       <c r="R22" t="n">
-        <v>8.447119191148985</v>
+        <v>10.36119217606427</v>
       </c>
       <c r="S22" t="n">
-        <v>3.273984530819369</v>
+        <v>4.015852284980832</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8026983461059488</v>
+        <v>0.9845855889102719</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01024721292901213</v>
+        <v>0.01256917773076945</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4188140627602939</v>
+        <v>0.5137151367349647</v>
       </c>
       <c r="H23" t="n">
-        <v>4.28917952024386</v>
+        <v>5.261085144086959</v>
       </c>
       <c r="I23" t="n">
-        <v>16.14632915456625</v>
+        <v>19.80500280897475</v>
       </c>
       <c r="J23" t="n">
-        <v>35.54632005920153</v>
+        <v>43.60093008645925</v>
       </c>
       <c r="K23" t="n">
-        <v>53.27471933584477</v>
+        <v>65.34649182445033</v>
       </c>
       <c r="L23" t="n">
-        <v>66.09200020904512</v>
+        <v>81.06810144030301</v>
       </c>
       <c r="M23" t="n">
-        <v>73.54008479765851</v>
+        <v>90.20388300321343</v>
       </c>
       <c r="N23" t="n">
-        <v>74.73004025347619</v>
+        <v>91.66347613546166</v>
       </c>
       <c r="O23" t="n">
-        <v>70.56545791690351</v>
+        <v>86.55522124455335</v>
       </c>
       <c r="P23" t="n">
-        <v>60.22598574250875</v>
+        <v>73.87287880640891</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.22720711990571</v>
+        <v>55.47545547208796</v>
       </c>
       <c r="R23" t="n">
-        <v>26.30832886986633</v>
+        <v>32.26965845792775</v>
       </c>
       <c r="S23" t="n">
-        <v>9.543725455150206</v>
+        <v>11.70628367834802</v>
       </c>
       <c r="T23" t="n">
-        <v>1.833358559733187</v>
+        <v>2.248788011057309</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0335051250208235</v>
+        <v>0.04109721093879717</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2240852789570763</v>
+        <v>0.2748618299992788</v>
       </c>
       <c r="H24" t="n">
-        <v>2.164192036243342</v>
+        <v>2.654586621308824</v>
       </c>
       <c r="I24" t="n">
-        <v>7.715216841285303</v>
+        <v>9.463444585501485</v>
       </c>
       <c r="J24" t="n">
-        <v>21.17114471058939</v>
+        <v>25.96841526322133</v>
       </c>
       <c r="K24" t="n">
-        <v>36.1848584007135</v>
+        <v>44.38415787317301</v>
       </c>
       <c r="L24" t="n">
-        <v>48.65500760864062</v>
+        <v>59.67997760576446</v>
       </c>
       <c r="M24" t="n">
-        <v>56.77809897083463</v>
+        <v>69.6437189432383</v>
       </c>
       <c r="N24" t="n">
-        <v>58.28084630208625</v>
+        <v>71.48698095231242</v>
       </c>
       <c r="O24" t="n">
-        <v>53.31558827887946</v>
+        <v>65.39662145601261</v>
       </c>
       <c r="P24" t="n">
-        <v>42.79045997909293</v>
+        <v>52.48655418644123</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.60428929283662</v>
+        <v>35.08587149253952</v>
       </c>
       <c r="R24" t="n">
-        <v>13.91294389875602</v>
+        <v>17.06554414679733</v>
       </c>
       <c r="S24" t="n">
-        <v>4.162285773610603</v>
+        <v>5.105437938802389</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9032209270243553</v>
+        <v>1.107886060391829</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01474245256296555</v>
+        <v>0.01808301513153151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1878655703652221</v>
+        <v>0.2304349250641063</v>
       </c>
       <c r="H25" t="n">
-        <v>1.670295707428976</v>
+        <v>2.048775970115419</v>
       </c>
       <c r="I25" t="n">
-        <v>5.649630061528681</v>
+        <v>6.929806655564215</v>
       </c>
       <c r="J25" t="n">
-        <v>13.2820958248212</v>
+        <v>16.29174920203231</v>
       </c>
       <c r="K25" t="n">
-        <v>21.8265635387958</v>
+        <v>26.77234856653888</v>
       </c>
       <c r="L25" t="n">
-        <v>27.93048670684403</v>
+        <v>34.25938876816722</v>
       </c>
       <c r="M25" t="n">
-        <v>29.44878208915931</v>
+        <v>36.12172193527621</v>
       </c>
       <c r="N25" t="n">
-        <v>28.74855587234351</v>
+        <v>35.26282812367366</v>
       </c>
       <c r="O25" t="n">
-        <v>26.5539444367134</v>
+        <v>32.57092922633387</v>
       </c>
       <c r="P25" t="n">
-        <v>22.72148680126285</v>
+        <v>27.87005675502608</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.7311797148551</v>
+        <v>19.29578267968621</v>
       </c>
       <c r="R25" t="n">
-        <v>8.447119191148985</v>
+        <v>10.36119217606427</v>
       </c>
       <c r="S25" t="n">
-        <v>3.273984530819369</v>
+        <v>4.015852284980832</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8026983461059488</v>
+        <v>0.9845855889102719</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01024721292901213</v>
+        <v>0.01256917773076945</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4188140627602939</v>
+        <v>0.5137151367349647</v>
       </c>
       <c r="H26" t="n">
-        <v>4.28917952024386</v>
+        <v>5.261085144086959</v>
       </c>
       <c r="I26" t="n">
-        <v>16.14632915456625</v>
+        <v>19.80500280897475</v>
       </c>
       <c r="J26" t="n">
-        <v>35.54632005920153</v>
+        <v>43.60093008645925</v>
       </c>
       <c r="K26" t="n">
-        <v>53.27471933584477</v>
+        <v>65.34649182445033</v>
       </c>
       <c r="L26" t="n">
-        <v>66.09200020904512</v>
+        <v>81.06810144030301</v>
       </c>
       <c r="M26" t="n">
-        <v>73.54008479765851</v>
+        <v>90.20388300321343</v>
       </c>
       <c r="N26" t="n">
-        <v>74.73004025347619</v>
+        <v>91.66347613546166</v>
       </c>
       <c r="O26" t="n">
-        <v>70.56545791690351</v>
+        <v>86.55522124455335</v>
       </c>
       <c r="P26" t="n">
-        <v>60.22598574250875</v>
+        <v>73.87287880640891</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.22720711990571</v>
+        <v>55.47545547208796</v>
       </c>
       <c r="R26" t="n">
-        <v>26.30832886986633</v>
+        <v>32.26965845792775</v>
       </c>
       <c r="S26" t="n">
-        <v>9.543725455150206</v>
+        <v>11.70628367834802</v>
       </c>
       <c r="T26" t="n">
-        <v>1.833358559733187</v>
+        <v>2.248788011057309</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0335051250208235</v>
+        <v>0.04109721093879717</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2240852789570763</v>
+        <v>0.2748618299992788</v>
       </c>
       <c r="H27" t="n">
-        <v>2.164192036243342</v>
+        <v>2.654586621308824</v>
       </c>
       <c r="I27" t="n">
-        <v>7.715216841285303</v>
+        <v>9.463444585501485</v>
       </c>
       <c r="J27" t="n">
-        <v>21.17114471058939</v>
+        <v>25.96841526322133</v>
       </c>
       <c r="K27" t="n">
-        <v>36.1848584007135</v>
+        <v>44.38415787317301</v>
       </c>
       <c r="L27" t="n">
-        <v>48.65500760864062</v>
+        <v>59.67997760576446</v>
       </c>
       <c r="M27" t="n">
-        <v>56.77809897083463</v>
+        <v>69.6437189432383</v>
       </c>
       <c r="N27" t="n">
-        <v>58.28084630208625</v>
+        <v>71.48698095231242</v>
       </c>
       <c r="O27" t="n">
-        <v>53.31558827887946</v>
+        <v>65.39662145601261</v>
       </c>
       <c r="P27" t="n">
-        <v>42.79045997909293</v>
+        <v>52.48655418644123</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.60428929283662</v>
+        <v>35.08587149253952</v>
       </c>
       <c r="R27" t="n">
-        <v>13.91294389875602</v>
+        <v>17.06554414679733</v>
       </c>
       <c r="S27" t="n">
-        <v>4.162285773610603</v>
+        <v>5.105437938802389</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9032209270243553</v>
+        <v>1.107886060391829</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01474245256296555</v>
+        <v>0.01808301513153151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1878655703652221</v>
+        <v>0.2304349250641063</v>
       </c>
       <c r="H28" t="n">
-        <v>1.670295707428976</v>
+        <v>2.048775970115419</v>
       </c>
       <c r="I28" t="n">
-        <v>5.649630061528681</v>
+        <v>6.929806655564215</v>
       </c>
       <c r="J28" t="n">
-        <v>13.2820958248212</v>
+        <v>16.29174920203231</v>
       </c>
       <c r="K28" t="n">
-        <v>21.8265635387958</v>
+        <v>26.77234856653888</v>
       </c>
       <c r="L28" t="n">
-        <v>27.93048670684403</v>
+        <v>34.25938876816722</v>
       </c>
       <c r="M28" t="n">
-        <v>29.44878208915931</v>
+        <v>36.12172193527621</v>
       </c>
       <c r="N28" t="n">
-        <v>28.74855587234351</v>
+        <v>35.26282812367366</v>
       </c>
       <c r="O28" t="n">
-        <v>26.5539444367134</v>
+        <v>32.57092922633387</v>
       </c>
       <c r="P28" t="n">
-        <v>22.72148680126285</v>
+        <v>27.87005675502608</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.7311797148551</v>
+        <v>19.29578267968621</v>
       </c>
       <c r="R28" t="n">
-        <v>8.447119191148985</v>
+        <v>10.36119217606427</v>
       </c>
       <c r="S28" t="n">
-        <v>3.273984530819369</v>
+        <v>4.015852284980832</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8026983461059488</v>
+        <v>0.9845855889102719</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01024721292901213</v>
+        <v>0.01256917773076945</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4188140627602939</v>
+        <v>0.5137151367349647</v>
       </c>
       <c r="H29" t="n">
-        <v>4.28917952024386</v>
+        <v>5.261085144086959</v>
       </c>
       <c r="I29" t="n">
-        <v>16.14632915456625</v>
+        <v>19.80500280897475</v>
       </c>
       <c r="J29" t="n">
-        <v>35.54632005920153</v>
+        <v>43.60093008645925</v>
       </c>
       <c r="K29" t="n">
-        <v>53.27471933584477</v>
+        <v>65.34649182445033</v>
       </c>
       <c r="L29" t="n">
-        <v>66.09200020904512</v>
+        <v>81.06810144030301</v>
       </c>
       <c r="M29" t="n">
-        <v>73.54008479765851</v>
+        <v>90.20388300321343</v>
       </c>
       <c r="N29" t="n">
-        <v>74.73004025347619</v>
+        <v>91.66347613546166</v>
       </c>
       <c r="O29" t="n">
-        <v>70.56545791690351</v>
+        <v>86.55522124455335</v>
       </c>
       <c r="P29" t="n">
-        <v>60.22598574250875</v>
+        <v>73.87287880640891</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.22720711990571</v>
+        <v>55.47545547208796</v>
       </c>
       <c r="R29" t="n">
-        <v>26.30832886986633</v>
+        <v>32.26965845792775</v>
       </c>
       <c r="S29" t="n">
-        <v>9.543725455150206</v>
+        <v>11.70628367834802</v>
       </c>
       <c r="T29" t="n">
-        <v>1.833358559733187</v>
+        <v>2.248788011057309</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0335051250208235</v>
+        <v>0.04109721093879717</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2240852789570763</v>
+        <v>0.2748618299992788</v>
       </c>
       <c r="H30" t="n">
-        <v>2.164192036243342</v>
+        <v>2.654586621308824</v>
       </c>
       <c r="I30" t="n">
-        <v>7.715216841285303</v>
+        <v>9.463444585501485</v>
       </c>
       <c r="J30" t="n">
-        <v>21.17114471058939</v>
+        <v>25.96841526322133</v>
       </c>
       <c r="K30" t="n">
-        <v>36.1848584007135</v>
+        <v>44.38415787317301</v>
       </c>
       <c r="L30" t="n">
-        <v>48.65500760864062</v>
+        <v>59.67997760576446</v>
       </c>
       <c r="M30" t="n">
-        <v>56.77809897083463</v>
+        <v>69.6437189432383</v>
       </c>
       <c r="N30" t="n">
-        <v>58.28084630208625</v>
+        <v>71.48698095231242</v>
       </c>
       <c r="O30" t="n">
-        <v>53.31558827887946</v>
+        <v>65.39662145601261</v>
       </c>
       <c r="P30" t="n">
-        <v>42.79045997909293</v>
+        <v>52.48655418644123</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.60428929283662</v>
+        <v>35.08587149253952</v>
       </c>
       <c r="R30" t="n">
-        <v>13.91294389875602</v>
+        <v>17.06554414679733</v>
       </c>
       <c r="S30" t="n">
-        <v>4.162285773610603</v>
+        <v>5.105437938802389</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9032209270243553</v>
+        <v>1.107886060391829</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01474245256296555</v>
+        <v>0.01808301513153151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1878655703652221</v>
+        <v>0.2304349250641063</v>
       </c>
       <c r="H31" t="n">
-        <v>1.670295707428976</v>
+        <v>2.048775970115419</v>
       </c>
       <c r="I31" t="n">
-        <v>5.649630061528681</v>
+        <v>6.929806655564215</v>
       </c>
       <c r="J31" t="n">
-        <v>13.2820958248212</v>
+        <v>16.29174920203231</v>
       </c>
       <c r="K31" t="n">
-        <v>21.8265635387958</v>
+        <v>26.77234856653888</v>
       </c>
       <c r="L31" t="n">
-        <v>27.93048670684403</v>
+        <v>34.25938876816722</v>
       </c>
       <c r="M31" t="n">
-        <v>29.44878208915931</v>
+        <v>36.12172193527621</v>
       </c>
       <c r="N31" t="n">
-        <v>28.74855587234351</v>
+        <v>35.26282812367366</v>
       </c>
       <c r="O31" t="n">
-        <v>26.5539444367134</v>
+        <v>32.57092922633387</v>
       </c>
       <c r="P31" t="n">
-        <v>22.72148680126285</v>
+        <v>27.87005675502608</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.7311797148551</v>
+        <v>19.29578267968621</v>
       </c>
       <c r="R31" t="n">
-        <v>8.447119191148985</v>
+        <v>10.36119217606427</v>
       </c>
       <c r="S31" t="n">
-        <v>3.273984530819369</v>
+        <v>4.015852284980832</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8026983461059488</v>
+        <v>0.9845855889102719</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01024721292901213</v>
+        <v>0.01256917773076945</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4188140627602939</v>
+        <v>0.5137151367349647</v>
       </c>
       <c r="H32" t="n">
-        <v>4.28917952024386</v>
+        <v>5.261085144086959</v>
       </c>
       <c r="I32" t="n">
-        <v>16.14632915456625</v>
+        <v>19.80500280897475</v>
       </c>
       <c r="J32" t="n">
-        <v>35.54632005920153</v>
+        <v>43.60093008645925</v>
       </c>
       <c r="K32" t="n">
-        <v>53.27471933584477</v>
+        <v>65.34649182445033</v>
       </c>
       <c r="L32" t="n">
-        <v>66.09200020904512</v>
+        <v>81.06810144030301</v>
       </c>
       <c r="M32" t="n">
-        <v>73.54008479765851</v>
+        <v>90.20388300321343</v>
       </c>
       <c r="N32" t="n">
-        <v>74.73004025347619</v>
+        <v>91.66347613546166</v>
       </c>
       <c r="O32" t="n">
-        <v>70.56545791690351</v>
+        <v>86.55522124455335</v>
       </c>
       <c r="P32" t="n">
-        <v>60.22598574250875</v>
+        <v>73.87287880640891</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.22720711990571</v>
+        <v>55.47545547208796</v>
       </c>
       <c r="R32" t="n">
-        <v>26.30832886986633</v>
+        <v>32.26965845792775</v>
       </c>
       <c r="S32" t="n">
-        <v>9.543725455150206</v>
+        <v>11.70628367834802</v>
       </c>
       <c r="T32" t="n">
-        <v>1.833358559733187</v>
+        <v>2.248788011057309</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0335051250208235</v>
+        <v>0.04109721093879717</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2240852789570763</v>
+        <v>0.2748618299992788</v>
       </c>
       <c r="H33" t="n">
-        <v>2.164192036243342</v>
+        <v>2.654586621308824</v>
       </c>
       <c r="I33" t="n">
-        <v>7.715216841285303</v>
+        <v>9.463444585501485</v>
       </c>
       <c r="J33" t="n">
-        <v>21.17114471058939</v>
+        <v>25.96841526322133</v>
       </c>
       <c r="K33" t="n">
-        <v>36.1848584007135</v>
+        <v>44.38415787317301</v>
       </c>
       <c r="L33" t="n">
-        <v>48.65500760864062</v>
+        <v>59.67997760576446</v>
       </c>
       <c r="M33" t="n">
-        <v>56.77809897083463</v>
+        <v>69.6437189432383</v>
       </c>
       <c r="N33" t="n">
-        <v>58.28084630208625</v>
+        <v>71.48698095231242</v>
       </c>
       <c r="O33" t="n">
-        <v>53.31558827887946</v>
+        <v>65.39662145601261</v>
       </c>
       <c r="P33" t="n">
-        <v>42.79045997909293</v>
+        <v>52.48655418644123</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.60428929283662</v>
+        <v>35.08587149253952</v>
       </c>
       <c r="R33" t="n">
-        <v>13.91294389875602</v>
+        <v>17.06554414679733</v>
       </c>
       <c r="S33" t="n">
-        <v>4.162285773610603</v>
+        <v>5.105437938802389</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9032209270243553</v>
+        <v>1.107886060391829</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01474245256296555</v>
+        <v>0.01808301513153151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1878655703652221</v>
+        <v>0.2304349250641063</v>
       </c>
       <c r="H34" t="n">
-        <v>1.670295707428976</v>
+        <v>2.048775970115419</v>
       </c>
       <c r="I34" t="n">
-        <v>5.649630061528681</v>
+        <v>6.929806655564215</v>
       </c>
       <c r="J34" t="n">
-        <v>13.2820958248212</v>
+        <v>16.29174920203231</v>
       </c>
       <c r="K34" t="n">
-        <v>21.8265635387958</v>
+        <v>26.77234856653888</v>
       </c>
       <c r="L34" t="n">
-        <v>27.93048670684403</v>
+        <v>34.25938876816722</v>
       </c>
       <c r="M34" t="n">
-        <v>29.44878208915931</v>
+        <v>36.12172193527621</v>
       </c>
       <c r="N34" t="n">
-        <v>28.74855587234351</v>
+        <v>35.26282812367366</v>
       </c>
       <c r="O34" t="n">
-        <v>26.5539444367134</v>
+        <v>32.57092922633387</v>
       </c>
       <c r="P34" t="n">
-        <v>22.72148680126285</v>
+        <v>27.87005675502608</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.7311797148551</v>
+        <v>19.29578267968621</v>
       </c>
       <c r="R34" t="n">
-        <v>8.447119191148985</v>
+        <v>10.36119217606427</v>
       </c>
       <c r="S34" t="n">
-        <v>3.273984530819369</v>
+        <v>4.015852284980832</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8026983461059488</v>
+        <v>0.9845855889102719</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01024721292901213</v>
+        <v>0.01256917773076945</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4188140627602939</v>
+        <v>0.5137151367349647</v>
       </c>
       <c r="H35" t="n">
-        <v>4.28917952024386</v>
+        <v>5.261085144086959</v>
       </c>
       <c r="I35" t="n">
-        <v>16.14632915456625</v>
+        <v>19.80500280897475</v>
       </c>
       <c r="J35" t="n">
-        <v>35.54632005920153</v>
+        <v>43.60093008645925</v>
       </c>
       <c r="K35" t="n">
-        <v>53.27471933584477</v>
+        <v>65.34649182445033</v>
       </c>
       <c r="L35" t="n">
-        <v>66.09200020904512</v>
+        <v>81.06810144030301</v>
       </c>
       <c r="M35" t="n">
-        <v>73.54008479765851</v>
+        <v>90.20388300321343</v>
       </c>
       <c r="N35" t="n">
-        <v>74.73004025347619</v>
+        <v>91.66347613546166</v>
       </c>
       <c r="O35" t="n">
-        <v>70.56545791690351</v>
+        <v>86.55522124455335</v>
       </c>
       <c r="P35" t="n">
-        <v>60.22598574250875</v>
+        <v>73.87287880640891</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.22720711990571</v>
+        <v>55.47545547208796</v>
       </c>
       <c r="R35" t="n">
-        <v>26.30832886986633</v>
+        <v>32.26965845792775</v>
       </c>
       <c r="S35" t="n">
-        <v>9.543725455150206</v>
+        <v>11.70628367834802</v>
       </c>
       <c r="T35" t="n">
-        <v>1.833358559733187</v>
+        <v>2.248788011057309</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0335051250208235</v>
+        <v>0.04109721093879717</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2240852789570763</v>
+        <v>0.2748618299992788</v>
       </c>
       <c r="H36" t="n">
-        <v>2.164192036243342</v>
+        <v>2.654586621308824</v>
       </c>
       <c r="I36" t="n">
-        <v>7.715216841285303</v>
+        <v>9.463444585501485</v>
       </c>
       <c r="J36" t="n">
-        <v>21.17114471058939</v>
+        <v>25.96841526322133</v>
       </c>
       <c r="K36" t="n">
-        <v>36.1848584007135</v>
+        <v>44.38415787317301</v>
       </c>
       <c r="L36" t="n">
-        <v>48.65500760864062</v>
+        <v>59.67997760576446</v>
       </c>
       <c r="M36" t="n">
-        <v>56.77809897083463</v>
+        <v>69.6437189432383</v>
       </c>
       <c r="N36" t="n">
-        <v>58.28084630208625</v>
+        <v>71.48698095231242</v>
       </c>
       <c r="O36" t="n">
-        <v>53.31558827887946</v>
+        <v>65.39662145601261</v>
       </c>
       <c r="P36" t="n">
-        <v>42.79045997909293</v>
+        <v>52.48655418644123</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.60428929283662</v>
+        <v>35.08587149253952</v>
       </c>
       <c r="R36" t="n">
-        <v>13.91294389875602</v>
+        <v>17.06554414679733</v>
       </c>
       <c r="S36" t="n">
-        <v>4.162285773610603</v>
+        <v>5.105437938802389</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9032209270243553</v>
+        <v>1.107886060391829</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01474245256296555</v>
+        <v>0.01808301513153151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1878655703652221</v>
+        <v>0.2304349250641063</v>
       </c>
       <c r="H37" t="n">
-        <v>1.670295707428976</v>
+        <v>2.048775970115419</v>
       </c>
       <c r="I37" t="n">
-        <v>5.649630061528681</v>
+        <v>6.929806655564215</v>
       </c>
       <c r="J37" t="n">
-        <v>13.2820958248212</v>
+        <v>16.29174920203231</v>
       </c>
       <c r="K37" t="n">
-        <v>21.8265635387958</v>
+        <v>26.77234856653888</v>
       </c>
       <c r="L37" t="n">
-        <v>27.93048670684403</v>
+        <v>34.25938876816722</v>
       </c>
       <c r="M37" t="n">
-        <v>29.44878208915931</v>
+        <v>36.12172193527621</v>
       </c>
       <c r="N37" t="n">
-        <v>28.74855587234351</v>
+        <v>35.26282812367366</v>
       </c>
       <c r="O37" t="n">
-        <v>26.5539444367134</v>
+        <v>32.57092922633387</v>
       </c>
       <c r="P37" t="n">
-        <v>22.72148680126285</v>
+        <v>27.87005675502608</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.7311797148551</v>
+        <v>19.29578267968621</v>
       </c>
       <c r="R37" t="n">
-        <v>8.447119191148985</v>
+        <v>10.36119217606427</v>
       </c>
       <c r="S37" t="n">
-        <v>3.273984530819369</v>
+        <v>4.015852284980832</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8026983461059488</v>
+        <v>0.9845855889102719</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01024721292901213</v>
+        <v>0.01256917773076945</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4188140627602939</v>
+        <v>0.5137151367349647</v>
       </c>
       <c r="H38" t="n">
-        <v>4.28917952024386</v>
+        <v>5.261085144086959</v>
       </c>
       <c r="I38" t="n">
-        <v>16.14632915456625</v>
+        <v>19.80500280897475</v>
       </c>
       <c r="J38" t="n">
-        <v>35.54632005920153</v>
+        <v>43.60093008645925</v>
       </c>
       <c r="K38" t="n">
-        <v>53.27471933584477</v>
+        <v>65.34649182445033</v>
       </c>
       <c r="L38" t="n">
-        <v>66.09200020904512</v>
+        <v>81.06810144030301</v>
       </c>
       <c r="M38" t="n">
-        <v>73.54008479765851</v>
+        <v>90.20388300321343</v>
       </c>
       <c r="N38" t="n">
-        <v>74.73004025347619</v>
+        <v>91.66347613546166</v>
       </c>
       <c r="O38" t="n">
-        <v>70.56545791690351</v>
+        <v>86.55522124455335</v>
       </c>
       <c r="P38" t="n">
-        <v>60.22598574250875</v>
+        <v>73.87287880640891</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.22720711990571</v>
+        <v>55.47545547208796</v>
       </c>
       <c r="R38" t="n">
-        <v>26.30832886986633</v>
+        <v>32.26965845792775</v>
       </c>
       <c r="S38" t="n">
-        <v>9.543725455150206</v>
+        <v>11.70628367834802</v>
       </c>
       <c r="T38" t="n">
-        <v>1.833358559733187</v>
+        <v>2.248788011057309</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0335051250208235</v>
+        <v>0.04109721093879717</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2240852789570763</v>
+        <v>0.2748618299992788</v>
       </c>
       <c r="H39" t="n">
-        <v>2.164192036243342</v>
+        <v>2.654586621308824</v>
       </c>
       <c r="I39" t="n">
-        <v>7.715216841285303</v>
+        <v>9.463444585501485</v>
       </c>
       <c r="J39" t="n">
-        <v>21.17114471058939</v>
+        <v>25.96841526322133</v>
       </c>
       <c r="K39" t="n">
-        <v>36.1848584007135</v>
+        <v>44.38415787317301</v>
       </c>
       <c r="L39" t="n">
-        <v>48.65500760864062</v>
+        <v>59.67997760576446</v>
       </c>
       <c r="M39" t="n">
-        <v>56.77809897083463</v>
+        <v>69.6437189432383</v>
       </c>
       <c r="N39" t="n">
-        <v>58.28084630208625</v>
+        <v>71.48698095231242</v>
       </c>
       <c r="O39" t="n">
-        <v>53.31558827887946</v>
+        <v>65.39662145601261</v>
       </c>
       <c r="P39" t="n">
-        <v>42.79045997909293</v>
+        <v>52.48655418644123</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.60428929283662</v>
+        <v>35.08587149253952</v>
       </c>
       <c r="R39" t="n">
-        <v>13.91294389875602</v>
+        <v>17.06554414679733</v>
       </c>
       <c r="S39" t="n">
-        <v>4.162285773610603</v>
+        <v>5.105437938802389</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9032209270243553</v>
+        <v>1.107886060391829</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01474245256296555</v>
+        <v>0.01808301513153151</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1878655703652221</v>
+        <v>0.2304349250641063</v>
       </c>
       <c r="H40" t="n">
-        <v>1.670295707428976</v>
+        <v>2.048775970115419</v>
       </c>
       <c r="I40" t="n">
-        <v>5.649630061528681</v>
+        <v>6.929806655564215</v>
       </c>
       <c r="J40" t="n">
-        <v>13.2820958248212</v>
+        <v>16.29174920203231</v>
       </c>
       <c r="K40" t="n">
-        <v>21.8265635387958</v>
+        <v>26.77234856653888</v>
       </c>
       <c r="L40" t="n">
-        <v>27.93048670684403</v>
+        <v>34.25938876816722</v>
       </c>
       <c r="M40" t="n">
-        <v>29.44878208915931</v>
+        <v>36.12172193527621</v>
       </c>
       <c r="N40" t="n">
-        <v>28.74855587234351</v>
+        <v>35.26282812367366</v>
       </c>
       <c r="O40" t="n">
-        <v>26.5539444367134</v>
+        <v>32.57092922633387</v>
       </c>
       <c r="P40" t="n">
-        <v>22.72148680126285</v>
+        <v>27.87005675502608</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.7311797148551</v>
+        <v>19.29578267968621</v>
       </c>
       <c r="R40" t="n">
-        <v>8.447119191148985</v>
+        <v>10.36119217606427</v>
       </c>
       <c r="S40" t="n">
-        <v>3.273984530819369</v>
+        <v>4.015852284980832</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8026983461059488</v>
+        <v>0.9845855889102719</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01024721292901213</v>
+        <v>0.01256917773076945</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4188140627602939</v>
+        <v>0.5137151367349647</v>
       </c>
       <c r="H41" t="n">
-        <v>4.28917952024386</v>
+        <v>5.261085144086959</v>
       </c>
       <c r="I41" t="n">
-        <v>16.14632915456625</v>
+        <v>19.80500280897475</v>
       </c>
       <c r="J41" t="n">
-        <v>35.54632005920153</v>
+        <v>43.60093008645925</v>
       </c>
       <c r="K41" t="n">
-        <v>53.27471933584477</v>
+        <v>65.34649182445033</v>
       </c>
       <c r="L41" t="n">
-        <v>66.09200020904512</v>
+        <v>81.06810144030301</v>
       </c>
       <c r="M41" t="n">
-        <v>73.54008479765851</v>
+        <v>90.20388300321343</v>
       </c>
       <c r="N41" t="n">
-        <v>74.73004025347619</v>
+        <v>91.66347613546166</v>
       </c>
       <c r="O41" t="n">
-        <v>70.56545791690351</v>
+        <v>86.55522124455335</v>
       </c>
       <c r="P41" t="n">
-        <v>60.22598574250875</v>
+        <v>73.87287880640891</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.22720711990571</v>
+        <v>55.47545547208796</v>
       </c>
       <c r="R41" t="n">
-        <v>26.30832886986633</v>
+        <v>32.26965845792775</v>
       </c>
       <c r="S41" t="n">
-        <v>9.543725455150206</v>
+        <v>11.70628367834802</v>
       </c>
       <c r="T41" t="n">
-        <v>1.833358559733187</v>
+        <v>2.248788011057309</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0335051250208235</v>
+        <v>0.04109721093879717</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2240852789570763</v>
+        <v>0.2748618299992788</v>
       </c>
       <c r="H42" t="n">
-        <v>2.164192036243342</v>
+        <v>2.654586621308824</v>
       </c>
       <c r="I42" t="n">
-        <v>7.715216841285303</v>
+        <v>9.463444585501485</v>
       </c>
       <c r="J42" t="n">
-        <v>21.17114471058939</v>
+        <v>25.96841526322133</v>
       </c>
       <c r="K42" t="n">
-        <v>36.1848584007135</v>
+        <v>44.38415787317301</v>
       </c>
       <c r="L42" t="n">
-        <v>48.65500760864062</v>
+        <v>59.67997760576446</v>
       </c>
       <c r="M42" t="n">
-        <v>56.77809897083463</v>
+        <v>69.6437189432383</v>
       </c>
       <c r="N42" t="n">
-        <v>58.28084630208625</v>
+        <v>71.48698095231242</v>
       </c>
       <c r="O42" t="n">
-        <v>53.31558827887946</v>
+        <v>65.39662145601261</v>
       </c>
       <c r="P42" t="n">
-        <v>42.79045997909293</v>
+        <v>52.48655418644123</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.60428929283662</v>
+        <v>35.08587149253952</v>
       </c>
       <c r="R42" t="n">
-        <v>13.91294389875602</v>
+        <v>17.06554414679733</v>
       </c>
       <c r="S42" t="n">
-        <v>4.162285773610603</v>
+        <v>5.105437938802389</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9032209270243553</v>
+        <v>1.107886060391829</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01474245256296555</v>
+        <v>0.01808301513153151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1878655703652221</v>
+        <v>0.2304349250641063</v>
       </c>
       <c r="H43" t="n">
-        <v>1.670295707428976</v>
+        <v>2.048775970115419</v>
       </c>
       <c r="I43" t="n">
-        <v>5.649630061528681</v>
+        <v>6.929806655564215</v>
       </c>
       <c r="J43" t="n">
-        <v>13.2820958248212</v>
+        <v>16.29174920203231</v>
       </c>
       <c r="K43" t="n">
-        <v>21.8265635387958</v>
+        <v>26.77234856653888</v>
       </c>
       <c r="L43" t="n">
-        <v>27.93048670684403</v>
+        <v>34.25938876816722</v>
       </c>
       <c r="M43" t="n">
-        <v>29.44878208915931</v>
+        <v>36.12172193527621</v>
       </c>
       <c r="N43" t="n">
-        <v>28.74855587234351</v>
+        <v>35.26282812367366</v>
       </c>
       <c r="O43" t="n">
-        <v>26.5539444367134</v>
+        <v>32.57092922633387</v>
       </c>
       <c r="P43" t="n">
-        <v>22.72148680126285</v>
+        <v>27.87005675502608</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.7311797148551</v>
+        <v>19.29578267968621</v>
       </c>
       <c r="R43" t="n">
-        <v>8.447119191148985</v>
+        <v>10.36119217606427</v>
       </c>
       <c r="S43" t="n">
-        <v>3.273984530819369</v>
+        <v>4.015852284980832</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8026983461059488</v>
+        <v>0.9845855889102719</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01024721292901213</v>
+        <v>0.01256917773076945</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4188140627602939</v>
+        <v>0.5137151367349647</v>
       </c>
       <c r="H44" t="n">
-        <v>4.28917952024386</v>
+        <v>5.261085144086959</v>
       </c>
       <c r="I44" t="n">
-        <v>16.14632915456625</v>
+        <v>19.80500280897475</v>
       </c>
       <c r="J44" t="n">
-        <v>35.54632005920153</v>
+        <v>43.60093008645925</v>
       </c>
       <c r="K44" t="n">
-        <v>53.27471933584477</v>
+        <v>65.34649182445033</v>
       </c>
       <c r="L44" t="n">
-        <v>66.09200020904512</v>
+        <v>81.06810144030301</v>
       </c>
       <c r="M44" t="n">
-        <v>73.54008479765851</v>
+        <v>90.20388300321343</v>
       </c>
       <c r="N44" t="n">
-        <v>74.73004025347619</v>
+        <v>91.66347613546166</v>
       </c>
       <c r="O44" t="n">
-        <v>70.56545791690351</v>
+        <v>86.55522124455335</v>
       </c>
       <c r="P44" t="n">
-        <v>60.22598574250875</v>
+        <v>73.87287880640891</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.22720711990571</v>
+        <v>55.47545547208796</v>
       </c>
       <c r="R44" t="n">
-        <v>26.30832886986633</v>
+        <v>32.26965845792775</v>
       </c>
       <c r="S44" t="n">
-        <v>9.543725455150206</v>
+        <v>11.70628367834802</v>
       </c>
       <c r="T44" t="n">
-        <v>1.833358559733187</v>
+        <v>2.248788011057309</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0335051250208235</v>
+        <v>0.04109721093879717</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2240852789570763</v>
+        <v>0.2748618299992788</v>
       </c>
       <c r="H45" t="n">
-        <v>2.164192036243342</v>
+        <v>2.654586621308824</v>
       </c>
       <c r="I45" t="n">
-        <v>7.715216841285303</v>
+        <v>9.463444585501485</v>
       </c>
       <c r="J45" t="n">
-        <v>21.17114471058939</v>
+        <v>25.96841526322133</v>
       </c>
       <c r="K45" t="n">
-        <v>36.1848584007135</v>
+        <v>44.38415787317301</v>
       </c>
       <c r="L45" t="n">
-        <v>48.65500760864062</v>
+        <v>59.67997760576446</v>
       </c>
       <c r="M45" t="n">
-        <v>56.77809897083463</v>
+        <v>69.6437189432383</v>
       </c>
       <c r="N45" t="n">
-        <v>58.28084630208625</v>
+        <v>71.48698095231242</v>
       </c>
       <c r="O45" t="n">
-        <v>53.31558827887946</v>
+        <v>65.39662145601261</v>
       </c>
       <c r="P45" t="n">
-        <v>42.79045997909293</v>
+        <v>52.48655418644123</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.60428929283662</v>
+        <v>35.08587149253952</v>
       </c>
       <c r="R45" t="n">
-        <v>13.91294389875602</v>
+        <v>17.06554414679733</v>
       </c>
       <c r="S45" t="n">
-        <v>4.162285773610603</v>
+        <v>5.105437938802389</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9032209270243553</v>
+        <v>1.107886060391829</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01474245256296555</v>
+        <v>0.01808301513153151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1878655703652221</v>
+        <v>0.2304349250641063</v>
       </c>
       <c r="H46" t="n">
-        <v>1.670295707428976</v>
+        <v>2.048775970115419</v>
       </c>
       <c r="I46" t="n">
-        <v>5.649630061528681</v>
+        <v>6.929806655564215</v>
       </c>
       <c r="J46" t="n">
-        <v>13.2820958248212</v>
+        <v>16.29174920203231</v>
       </c>
       <c r="K46" t="n">
-        <v>21.8265635387958</v>
+        <v>26.77234856653888</v>
       </c>
       <c r="L46" t="n">
-        <v>27.93048670684403</v>
+        <v>34.25938876816722</v>
       </c>
       <c r="M46" t="n">
-        <v>29.44878208915931</v>
+        <v>36.12172193527621</v>
       </c>
       <c r="N46" t="n">
-        <v>28.74855587234351</v>
+        <v>35.26282812367366</v>
       </c>
       <c r="O46" t="n">
-        <v>26.5539444367134</v>
+        <v>32.57092922633387</v>
       </c>
       <c r="P46" t="n">
-        <v>22.72148680126285</v>
+        <v>27.87005675502608</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.7311797148551</v>
+        <v>19.29578267968621</v>
       </c>
       <c r="R46" t="n">
-        <v>8.447119191148985</v>
+        <v>10.36119217606427</v>
       </c>
       <c r="S46" t="n">
-        <v>3.273984530819369</v>
+        <v>4.015852284980832</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8026983461059488</v>
+        <v>0.9845855889102719</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01024721292901213</v>
+        <v>0.01256917773076945</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2044208.871272497</v>
+        <v>2012498.864882245</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11750538.482894</v>
+        <v>11780025.72234952</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7360802.09179309</v>
+        <v>6568532.902704942</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6038475.702545366</v>
+        <v>6205298.264536878</v>
       </c>
     </row>
     <row r="11">
@@ -8692,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>154.7433592205302</v>
+        <v>10.39555548474533</v>
       </c>
       <c r="L11" t="n">
-        <v>120.4444163110766</v>
+        <v>171.1947611260075</v>
       </c>
       <c r="M11" t="n">
-        <v>140.1423502240593</v>
+        <v>0.8527462447314349</v>
       </c>
       <c r="N11" t="n">
-        <v>137.7495874611292</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>143.5429901771334</v>
+        <v>161.1560049891355</v>
       </c>
       <c r="P11" t="n">
-        <v>157.3601169488607</v>
+        <v>28.78549701409409</v>
       </c>
       <c r="Q11" t="n">
-        <v>19.38516883772277</v>
+        <v>20.47378569999803</v>
       </c>
       <c r="R11" t="n">
-        <v>35.87081379156562</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>102.4889584373193</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>91.01860693075145</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>74.40152838107841</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>90.50710052471187</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>92.16827715869736</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>112.0354831456949</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>107.5966881189223</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>110.1544264887073</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>99.59830557956208</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>112.5134272895774</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>115.529190638884</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.3172737237113</v>
       </c>
       <c r="K14" t="n">
-        <v>154.7433592205302</v>
+        <v>10.39555548474533</v>
       </c>
       <c r="L14" t="n">
-        <v>154.6983135296842</v>
+        <v>13.54968067060658</v>
       </c>
       <c r="M14" t="n">
-        <v>105.8884530054514</v>
+        <v>158.4978267001324</v>
       </c>
       <c r="N14" t="n">
-        <v>137.7495874611292</v>
+        <v>156.402074736645</v>
       </c>
       <c r="O14" t="n">
-        <v>143.5429901771334</v>
+        <v>161.1560049891355</v>
       </c>
       <c r="P14" t="n">
-        <v>157.3601169488607</v>
+        <v>14.74733714400409</v>
       </c>
       <c r="Q14" t="n">
-        <v>19.38516883772277</v>
+        <v>20.47378569999803</v>
       </c>
       <c r="R14" t="n">
-        <v>35.87081379156562</v>
+        <v>32.23731174919493</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>106.1534920753536</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>91.01860693075145</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>74.40152838107841</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9096,13 +9096,13 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>84.09023104473272</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>112.5134272895774</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>115.529190638884</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>127.4592966261565</v>
       </c>
       <c r="M17" t="n">
-        <v>140.1423502240593</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>137.7495874611292</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>143.5429901771334</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>172.392417599405</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.483899174267073</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9330,19 +9330,19 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>110.1544264887073</v>
       </c>
       <c r="N19" t="n">
-        <v>92.42271634155952</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>105.8856092255089</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>9.996529327455868</v>
+        <v>115.529190638884</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.3172737237113</v>
       </c>
       <c r="K20" t="n">
-        <v>154.7433592205302</v>
+        <v>68.88872908496083</v>
       </c>
       <c r="L20" t="n">
-        <v>154.6983135296842</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>143.5429901771334</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>172.392417599405</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.483899174267073</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9573,10 +9573,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>105.8856092255089</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>31.4155323594039</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9640,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>154.7433592205302</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>140.1423502240593</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>131.0300995646609</v>
       </c>
       <c r="P23" t="n">
-        <v>157.3601169488607</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>17.75391919862285</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>102.4889584373193</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>86.66202912464796</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>112.0354831456949</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9807,10 +9807,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>92.42271634155952</v>
+        <v>99.59830557956208</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>112.5134272895774</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.444974440227</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>154.7433592205302</v>
+        <v>168.0406359401463</v>
       </c>
       <c r="L26" t="n">
-        <v>9.629101136300349</v>
+        <v>171.1947611260075</v>
       </c>
       <c r="M26" t="n">
-        <v>140.1423502240593</v>
+        <v>12.06386405356321</v>
       </c>
       <c r="N26" t="n">
-        <v>129.9315419207992</v>
+        <v>9.968112090075863</v>
       </c>
       <c r="O26" t="n">
-        <v>143.5429901771334</v>
+        <v>14.72204234256627</v>
       </c>
       <c r="P26" t="n">
-        <v>157.3601169488607</v>
+        <v>25.95845495283587</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.76102200897765</v>
+        <v>31.6849035088298</v>
       </c>
       <c r="R26" t="n">
-        <v>38.24666696282049</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>100.8105909822131</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>102.4889584373193</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>91.01860693075145</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>74.40152838107841</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>90.50710052471187</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>92.16827715869736</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>112.0354831456949</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>107.5966881189223</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>110.1544264887073</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>99.59830557956208</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>112.5134272895774</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>115.529190638884</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>9.674146827146345</v>
+        <v>168.0406359401463</v>
       </c>
       <c r="L29" t="n">
-        <v>154.6983135296842</v>
+        <v>171.1947611260075</v>
       </c>
       <c r="M29" t="n">
-        <v>140.1423502240593</v>
+        <v>158.4978267001324</v>
       </c>
       <c r="N29" t="n">
-        <v>137.7495874611292</v>
+        <v>156.402074736645</v>
       </c>
       <c r="O29" t="n">
-        <v>143.5429901771334</v>
+        <v>14.72204234256627</v>
       </c>
       <c r="P29" t="n">
-        <v>157.3601169488607</v>
+        <v>172.392417599405</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.76102200897765</v>
+        <v>94.53740502076306</v>
       </c>
       <c r="R29" t="n">
-        <v>46.74665864890776</v>
+        <v>43.4484295580267</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10275,16 +10275,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>100.6252875130711</v>
+        <v>107.5966881189223</v>
       </c>
       <c r="M31" t="n">
-        <v>102.8040620123288</v>
+        <v>110.1544264887073</v>
       </c>
       <c r="N31" t="n">
-        <v>92.42271634155952</v>
+        <v>99.59830557956208</v>
       </c>
       <c r="O31" t="n">
-        <v>105.8856092255089</v>
+        <v>112.5134272895774</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>85.42137655481685</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.651454550955833</v>
       </c>
       <c r="K34" t="n">
-        <v>102.2409096039965</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>100.6252875130711</v>
+        <v>107.5966881189223</v>
       </c>
       <c r="M34" t="n">
-        <v>102.8040620123288</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>92.42271634155952</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>105.8856092255089</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>109.8579472941215</v>
+        <v>115.529190638884</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>109.4502378326518</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10749,22 +10749,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>100.6252875130711</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>102.8040620123288</v>
+        <v>110.1544264887073</v>
       </c>
       <c r="N37" t="n">
-        <v>92.42271634155952</v>
+        <v>99.59830557956208</v>
       </c>
       <c r="O37" t="n">
-        <v>105.8856092255089</v>
+        <v>112.5134272895774</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>10.25494029557</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>109.4502378326524</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>106.1534920753536</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10986,22 +10986,22 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>100.6252875130711</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>102.8040620123288</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>92.42271634155952</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>105.8856092255089</v>
+        <v>112.5134272895774</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>32.46983636404511</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>52.81348630841503</v>
+        <v>36.1962375634449</v>
       </c>
       <c r="K41" t="n">
-        <v>154.7433592205302</v>
+        <v>168.0406359401463</v>
       </c>
       <c r="L41" t="n">
-        <v>70.06682539787222</v>
+        <v>171.1947611260075</v>
       </c>
       <c r="M41" t="n">
-        <v>140.1423502240593</v>
+        <v>158.4978267001324</v>
       </c>
       <c r="N41" t="n">
-        <v>137.7495874611292</v>
+        <v>79.9160703674217</v>
       </c>
       <c r="O41" t="n">
-        <v>143.5429901771334</v>
+        <v>161.1560049891355</v>
       </c>
       <c r="P41" t="n">
-        <v>157.3601169488607</v>
+        <v>172.392417599405</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.8302344023615</v>
+        <v>178.118866155399</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>5.427447282686508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.79795529761014</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>93.45728110118598</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>91.01860693075145</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>86.66202912464796</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>74.40152838107841</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.895902593482</v>
+        <v>112.0354831456949</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>21.96557010746117</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>3.897823952339223</v>
       </c>
       <c r="K43" t="n">
-        <v>17.60942147218449</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>100.6252875130711</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>102.8040620123288</v>
+        <v>0.0333903284408521</v>
       </c>
       <c r="N43" t="n">
-        <v>92.42271634155952</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>105.8856092255089</v>
+        <v>2.39239112931093</v>
       </c>
       <c r="P43" t="n">
-        <v>25.22645916230953</v>
+        <v>5.408154478617551</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.57773081794763</v>
+        <v>26.0146577179814</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.81348630841503</v>
+        <v>146.3172737237113</v>
       </c>
       <c r="K44" t="n">
-        <v>154.7433592205302</v>
+        <v>57.91959977987986</v>
       </c>
       <c r="L44" t="n">
-        <v>154.6983135296842</v>
+        <v>61.07372496574111</v>
       </c>
       <c r="M44" t="n">
-        <v>140.1423502240593</v>
+        <v>158.4978267001324</v>
       </c>
       <c r="N44" t="n">
-        <v>137.7495874611292</v>
+        <v>156.402074736645</v>
       </c>
       <c r="O44" t="n">
-        <v>143.5429901771334</v>
+        <v>161.1560049891355</v>
       </c>
       <c r="P44" t="n">
-        <v>157.3601169488607</v>
+        <v>62.27138143913862</v>
       </c>
       <c r="Q44" t="n">
-        <v>82.19874627054952</v>
+        <v>178.118866155399</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>5.427447282686508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>16.23772327163335</v>
+        <v>99.27516345893936</v>
       </c>
       <c r="K45" t="n">
-        <v>8.825792969373978</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>91.01860693075145</v>
       </c>
       <c r="M45" t="n">
-        <v>72.49031497878002</v>
+        <v>86.66202912464796</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>90.50710052471187</v>
       </c>
       <c r="P45" t="n">
-        <v>41.982947000048</v>
+        <v>92.16827715869736</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.895902593482</v>
+        <v>112.0354831456949</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>21.96557010746117</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>26.07218410555179</v>
+        <v>3.897823952339223</v>
       </c>
       <c r="K46" t="n">
-        <v>17.60942147218449</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>100.6252875130711</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>102.8040620123288</v>
+        <v>0.0333903284408521</v>
       </c>
       <c r="N46" t="n">
-        <v>92.42271634155952</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>105.8856092255089</v>
+        <v>112.5134272895774</v>
       </c>
       <c r="P46" t="n">
-        <v>25.22645916230953</v>
+        <v>5.408154478617551</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.57773081794763</v>
+        <v>26.0146577179814</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>235.2887760988418</v>
+        <v>225.0887612080796</v>
       </c>
       <c r="C11" t="n">
-        <v>217.8278262063688</v>
+        <v>207.6278113156066</v>
       </c>
       <c r="D11" t="n">
-        <v>207.2379760560442</v>
+        <v>197.037961165282</v>
       </c>
       <c r="E11" t="n">
-        <v>234.485304507623</v>
+        <v>224.2852896168608</v>
       </c>
       <c r="F11" t="n">
-        <v>259.4309801770727</v>
+        <v>249.2309652863105</v>
       </c>
       <c r="G11" t="n">
-        <v>267.3439568137613</v>
+        <v>257.2484771801721</v>
       </c>
       <c r="H11" t="n">
-        <v>186.7686514070414</v>
+        <v>177.6392082188019</v>
       </c>
       <c r="I11" t="n">
-        <v>43.22582119679242</v>
+        <v>37.05590180819111</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.86872034325856</v>
+        <v>42.05080262532541</v>
       </c>
       <c r="T11" t="n">
-        <v>73.40199598843529</v>
+        <v>63.65958418594777</v>
       </c>
       <c r="U11" t="n">
-        <v>103.8594901322589</v>
+        <v>93.66783806207059</v>
       </c>
       <c r="V11" t="n">
-        <v>180.3071929054962</v>
+        <v>170.107178014734</v>
       </c>
       <c r="W11" t="n">
-        <v>201.7959031527743</v>
+        <v>191.5958882620121</v>
       </c>
       <c r="X11" t="n">
-        <v>222.2860351138303</v>
+        <v>212.0860202230681</v>
       </c>
       <c r="Y11" t="n">
-        <v>238.7928730914148</v>
+        <v>228.5928582006526</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.08811808522859</v>
+        <v>8.888103194466396</v>
       </c>
       <c r="C12" t="n">
-        <v>25.26343342367699</v>
+        <v>15.0634185329148</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>10.20001489076219</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>19.13266760039667</v>
+        <v>9.971551955051671</v>
       </c>
       <c r="T12" t="n">
-        <v>51.61177706979103</v>
+        <v>41.63720454184782</v>
       </c>
       <c r="U12" t="n">
-        <v>78.47823350120453</v>
+        <v>68.28189830080392</v>
       </c>
       <c r="V12" t="n">
-        <v>85.35552158478652</v>
+        <v>75.15550669402433</v>
       </c>
       <c r="W12" t="n">
-        <v>104.2499175962809</v>
+        <v>94.04990270551866</v>
       </c>
       <c r="X12" t="n">
-        <v>58.32791963883872</v>
+        <v>48.12790474807653</v>
       </c>
       <c r="Y12" t="n">
-        <v>58.23763021266561</v>
+        <v>48.03761532190342</v>
       </c>
     </row>
     <row r="13">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.38691461729854</v>
+        <v>22.18689972653635</v>
       </c>
       <c r="C13" t="n">
-        <v>19.80175553398908</v>
+        <v>9.60174064322689</v>
       </c>
       <c r="D13" t="n">
-        <v>1.170407453573603</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>20.31547886875589</v>
+        <v>10.16235489560675</v>
       </c>
       <c r="H13" t="n">
-        <v>12.73333097268539</v>
+        <v>2.950218967610049</v>
       </c>
       <c r="I13" t="n">
-        <v>1.07560270705531</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.48713363646647</v>
+        <v>11.39550491401418</v>
       </c>
       <c r="S13" t="n">
-        <v>72.55568018735266</v>
+        <v>63.17284610626498</v>
       </c>
       <c r="T13" t="n">
-        <v>79.51593827473246</v>
+        <v>69.51627548649871</v>
       </c>
       <c r="U13" t="n">
-        <v>138.8613946141214</v>
+        <v>128.6639374097744</v>
       </c>
       <c r="V13" t="n">
-        <v>104.6925777591892</v>
+        <v>94.49256286842706</v>
       </c>
       <c r="W13" t="n">
-        <v>139.0779327719522</v>
+        <v>128.8779178811901</v>
       </c>
       <c r="X13" t="n">
-        <v>78.2645898243984</v>
+        <v>68.06457493363621</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.13958778745604</v>
+        <v>60.93957289669385</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>235.2887760988418</v>
+        <v>225.0887612080796</v>
       </c>
       <c r="C14" t="n">
-        <v>217.8278262063688</v>
+        <v>207.6278113156066</v>
       </c>
       <c r="D14" t="n">
-        <v>207.2379760560442</v>
+        <v>197.037961165282</v>
       </c>
       <c r="E14" t="n">
-        <v>234.485304507623</v>
+        <v>224.2852896168608</v>
       </c>
       <c r="F14" t="n">
-        <v>259.4309801770727</v>
+        <v>249.2309652863105</v>
       </c>
       <c r="G14" t="n">
-        <v>267.3439568137613</v>
+        <v>257.2484771801721</v>
       </c>
       <c r="H14" t="n">
-        <v>186.7686514070414</v>
+        <v>177.6392082188019</v>
       </c>
       <c r="I14" t="n">
-        <v>43.22582119679242</v>
+        <v>37.05590180819111</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.86872034325856</v>
+        <v>42.05080262532541</v>
       </c>
       <c r="T14" t="n">
-        <v>73.40199598843529</v>
+        <v>63.65958418594777</v>
       </c>
       <c r="U14" t="n">
-        <v>103.8594901322589</v>
+        <v>93.66783806207059</v>
       </c>
       <c r="V14" t="n">
-        <v>180.3071929054962</v>
+        <v>170.107178014734</v>
       </c>
       <c r="W14" t="n">
-        <v>201.7959031527743</v>
+        <v>191.5958882620121</v>
       </c>
       <c r="X14" t="n">
-        <v>222.2860351138303</v>
+        <v>212.0860202230681</v>
       </c>
       <c r="Y14" t="n">
-        <v>238.7928730914148</v>
+        <v>228.5928582006526</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.08811808522859</v>
+        <v>8.888103194466396</v>
       </c>
       <c r="C15" t="n">
-        <v>25.26343342367699</v>
+        <v>15.0634185329148</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>10.20001489076219</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>19.13266760039667</v>
+        <v>9.971551955051671</v>
       </c>
       <c r="T15" t="n">
-        <v>51.61177706979103</v>
+        <v>41.63720454184782</v>
       </c>
       <c r="U15" t="n">
-        <v>78.47823350120453</v>
+        <v>68.28189830080392</v>
       </c>
       <c r="V15" t="n">
-        <v>85.35552158478652</v>
+        <v>75.15550669402433</v>
       </c>
       <c r="W15" t="n">
-        <v>104.2499175962809</v>
+        <v>94.04990270551866</v>
       </c>
       <c r="X15" t="n">
-        <v>58.32791963883872</v>
+        <v>48.12790474807653</v>
       </c>
       <c r="Y15" t="n">
-        <v>58.23763021266561</v>
+        <v>48.03761532190342</v>
       </c>
     </row>
     <row r="16">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.38691461729854</v>
+        <v>22.18689972653635</v>
       </c>
       <c r="C16" t="n">
-        <v>19.80175553398908</v>
+        <v>9.60174064322689</v>
       </c>
       <c r="D16" t="n">
-        <v>1.170407453573603</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>20.31547886875589</v>
+        <v>10.16235489560675</v>
       </c>
       <c r="H16" t="n">
-        <v>12.73333097268539</v>
+        <v>2.950218967610049</v>
       </c>
       <c r="I16" t="n">
-        <v>1.07560270705531</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.48713363646647</v>
+        <v>11.39550491401418</v>
       </c>
       <c r="S16" t="n">
-        <v>72.55568018735266</v>
+        <v>63.17284610626498</v>
       </c>
       <c r="T16" t="n">
-        <v>79.51593827473246</v>
+        <v>69.51627548649871</v>
       </c>
       <c r="U16" t="n">
-        <v>138.8613946141214</v>
+        <v>128.6639374097744</v>
       </c>
       <c r="V16" t="n">
-        <v>104.6925777591892</v>
+        <v>94.49256286842706</v>
       </c>
       <c r="W16" t="n">
-        <v>139.0779327719522</v>
+        <v>128.8779178811901</v>
       </c>
       <c r="X16" t="n">
-        <v>78.2645898243984</v>
+        <v>68.06457493363621</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.13958778745604</v>
+        <v>60.93957289669385</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>202.9018614815433</v>
+        <v>183.0379585827543</v>
       </c>
       <c r="C17" t="n">
-        <v>185.4409115890703</v>
+        <v>165.5770086902812</v>
       </c>
       <c r="D17" t="n">
-        <v>174.8510614387457</v>
+        <v>154.9871585399567</v>
       </c>
       <c r="E17" t="n">
-        <v>202.0983898903245</v>
+        <v>182.2344869915355</v>
       </c>
       <c r="F17" t="n">
-        <v>227.0440655597741</v>
+        <v>207.1801626609851</v>
       </c>
       <c r="G17" t="n">
-        <v>234.9570421964628</v>
+        <v>215.1976745548468</v>
       </c>
       <c r="H17" t="n">
-        <v>154.3817367897429</v>
+        <v>135.5884055934766</v>
       </c>
       <c r="I17" t="n">
-        <v>10.83890657949388</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.48180572596002</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>41.01508137113674</v>
+        <v>21.60878156062242</v>
       </c>
       <c r="U17" t="n">
-        <v>71.4725755149604</v>
+        <v>51.61703543674523</v>
       </c>
       <c r="V17" t="n">
-        <v>147.9202782881976</v>
+        <v>128.0563753894086</v>
       </c>
       <c r="W17" t="n">
-        <v>169.4089885354757</v>
+        <v>149.5450856366867</v>
       </c>
       <c r="X17" t="n">
-        <v>189.8991204965317</v>
+        <v>170.0352175977427</v>
       </c>
       <c r="Y17" t="n">
-        <v>206.4059584741163</v>
+        <v>186.5420555753273</v>
       </c>
     </row>
     <row r="18">
@@ -23864,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>19.22486245249249</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>46.09131888390598</v>
+        <v>26.23109567547854</v>
       </c>
       <c r="V18" t="n">
-        <v>52.96860696748797</v>
+        <v>33.10470406869896</v>
       </c>
       <c r="W18" t="n">
-        <v>71.86300297898231</v>
+        <v>51.9991000801933</v>
       </c>
       <c r="X18" t="n">
-        <v>25.94100502154018</v>
+        <v>6.077102122751171</v>
       </c>
       <c r="Y18" t="n">
-        <v>25.85071559536706</v>
+        <v>5.986812696578056</v>
       </c>
     </row>
     <row r="19">
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16876557005412</v>
+        <v>21.12204348093962</v>
       </c>
       <c r="T19" t="n">
-        <v>47.12902365743392</v>
+        <v>27.46547286117337</v>
       </c>
       <c r="U19" t="n">
-        <v>106.4744799968228</v>
+        <v>86.61313478444904</v>
       </c>
       <c r="V19" t="n">
-        <v>72.3056631418907</v>
+        <v>52.4417602431017</v>
       </c>
       <c r="W19" t="n">
-        <v>106.6910181546537</v>
+        <v>86.8271152558647</v>
       </c>
       <c r="X19" t="n">
-        <v>45.87767520709986</v>
+        <v>26.01377230831085</v>
       </c>
       <c r="Y19" t="n">
-        <v>38.75267317015749</v>
+        <v>18.88877027136849</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>202.9018614815433</v>
+        <v>183.0379585827543</v>
       </c>
       <c r="C20" t="n">
-        <v>185.4409115890703</v>
+        <v>165.5770086902812</v>
       </c>
       <c r="D20" t="n">
-        <v>174.8510614387457</v>
+        <v>154.9871585399567</v>
       </c>
       <c r="E20" t="n">
-        <v>202.0983898903245</v>
+        <v>182.2344869915355</v>
       </c>
       <c r="F20" t="n">
-        <v>227.0440655597741</v>
+        <v>207.1801626609851</v>
       </c>
       <c r="G20" t="n">
-        <v>234.9570421964628</v>
+        <v>215.1976745548468</v>
       </c>
       <c r="H20" t="n">
-        <v>154.3817367897429</v>
+        <v>135.5884055934766</v>
       </c>
       <c r="I20" t="n">
-        <v>10.83890657949388</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.48180572596002</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>41.01508137113674</v>
+        <v>21.60878156062242</v>
       </c>
       <c r="U20" t="n">
-        <v>71.4725755149604</v>
+        <v>51.61703543674523</v>
       </c>
       <c r="V20" t="n">
-        <v>147.9202782881976</v>
+        <v>128.0563753894086</v>
       </c>
       <c r="W20" t="n">
-        <v>169.4089885354757</v>
+        <v>149.5450856366867</v>
       </c>
       <c r="X20" t="n">
-        <v>189.8991204965317</v>
+        <v>170.0352175977427</v>
       </c>
       <c r="Y20" t="n">
-        <v>206.4059584741163</v>
+        <v>186.5420555753273</v>
       </c>
     </row>
     <row r="21">
@@ -24101,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>19.22486245249249</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>46.09131888390598</v>
+        <v>26.23109567547854</v>
       </c>
       <c r="V21" t="n">
-        <v>52.96860696748797</v>
+        <v>33.10470406869896</v>
       </c>
       <c r="W21" t="n">
-        <v>71.86300297898231</v>
+        <v>51.9991000801933</v>
       </c>
       <c r="X21" t="n">
-        <v>25.94100502154018</v>
+        <v>6.077102122751171</v>
       </c>
       <c r="Y21" t="n">
-        <v>25.85071559536706</v>
+        <v>5.986812696578056</v>
       </c>
     </row>
     <row r="22">
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16876557005412</v>
+        <v>21.12204348093962</v>
       </c>
       <c r="T22" t="n">
-        <v>47.12902365743392</v>
+        <v>27.46547286117337</v>
       </c>
       <c r="U22" t="n">
-        <v>106.4744799968228</v>
+        <v>86.61313478444904</v>
       </c>
       <c r="V22" t="n">
-        <v>72.3056631418907</v>
+        <v>52.4417602431017</v>
       </c>
       <c r="W22" t="n">
-        <v>106.6910181546537</v>
+        <v>86.8271152558647</v>
       </c>
       <c r="X22" t="n">
-        <v>45.87767520709986</v>
+        <v>26.01377230831085</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.75267317015749</v>
+        <v>18.88877027136849</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>202.9018614815432</v>
+        <v>183.0379585827543</v>
       </c>
       <c r="C23" t="n">
-        <v>185.4409115890702</v>
+        <v>165.5770086902812</v>
       </c>
       <c r="D23" t="n">
-        <v>174.8510614387456</v>
+        <v>154.9871585399567</v>
       </c>
       <c r="E23" t="n">
-        <v>202.0983898903245</v>
+        <v>182.2344869915355</v>
       </c>
       <c r="F23" t="n">
-        <v>227.0440655597741</v>
+        <v>207.1801626609851</v>
       </c>
       <c r="G23" t="n">
-        <v>234.9570421964628</v>
+        <v>215.1976745548468</v>
       </c>
       <c r="H23" t="n">
-        <v>154.3817367897429</v>
+        <v>135.5884055934766</v>
       </c>
       <c r="I23" t="n">
-        <v>10.83890657949385</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.48180572595999</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>41.01508137113672</v>
+        <v>21.60878156062242</v>
       </c>
       <c r="U23" t="n">
-        <v>71.47257551496037</v>
+        <v>51.61703543674523</v>
       </c>
       <c r="V23" t="n">
-        <v>147.9202782881976</v>
+        <v>128.0563753894086</v>
       </c>
       <c r="W23" t="n">
-        <v>169.4089885354757</v>
+        <v>149.5450856366867</v>
       </c>
       <c r="X23" t="n">
-        <v>189.8991204965317</v>
+        <v>170.0352175977427</v>
       </c>
       <c r="Y23" t="n">
-        <v>206.4059584741163</v>
+        <v>186.5420555753273</v>
       </c>
     </row>
     <row r="24">
@@ -24338,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>19.22486245249246</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>46.09131888390596</v>
+        <v>26.23109567547854</v>
       </c>
       <c r="V24" t="n">
-        <v>52.96860696748794</v>
+        <v>33.10470406869896</v>
       </c>
       <c r="W24" t="n">
-        <v>71.86300297898228</v>
+        <v>51.9991000801933</v>
       </c>
       <c r="X24" t="n">
-        <v>25.94100502154015</v>
+        <v>6.077102122751171</v>
       </c>
       <c r="Y24" t="n">
-        <v>25.85071559536703</v>
+        <v>5.986812696578056</v>
       </c>
     </row>
     <row r="25">
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16876557005409</v>
+        <v>21.12204348093962</v>
       </c>
       <c r="T25" t="n">
-        <v>47.12902365743389</v>
+        <v>27.46547286117337</v>
       </c>
       <c r="U25" t="n">
-        <v>106.4744799968228</v>
+        <v>86.61313478444904</v>
       </c>
       <c r="V25" t="n">
-        <v>72.30566314189068</v>
+        <v>52.4417602431017</v>
       </c>
       <c r="W25" t="n">
-        <v>106.6910181546537</v>
+        <v>86.8271152558647</v>
       </c>
       <c r="X25" t="n">
-        <v>45.87767520709983</v>
+        <v>26.01377230831085</v>
       </c>
       <c r="Y25" t="n">
-        <v>38.75267317015746</v>
+        <v>18.88877027136849</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>237.6646292700967</v>
+        <v>236.2998790169114</v>
       </c>
       <c r="C26" t="n">
-        <v>220.2036793776237</v>
+        <v>218.8389291244384</v>
       </c>
       <c r="D26" t="n">
-        <v>209.6138292272991</v>
+        <v>208.2490789741138</v>
       </c>
       <c r="E26" t="n">
-        <v>236.8611576788779</v>
+        <v>235.4964074256926</v>
       </c>
       <c r="F26" t="n">
-        <v>261.8068333483276</v>
+        <v>260.4420830951423</v>
       </c>
       <c r="G26" t="n">
-        <v>269.7198099850162</v>
+        <v>268.4595949890039</v>
       </c>
       <c r="H26" t="n">
-        <v>189.1445045782963</v>
+        <v>188.8503260276337</v>
       </c>
       <c r="I26" t="n">
-        <v>45.6016743680473</v>
+        <v>48.26701961702287</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.24457351451343</v>
+        <v>53.26192043415719</v>
       </c>
       <c r="T26" t="n">
-        <v>75.77784915969016</v>
+        <v>74.87070199477955</v>
       </c>
       <c r="U26" t="n">
-        <v>106.2353433035138</v>
+        <v>104.8789558709024</v>
       </c>
       <c r="V26" t="n">
-        <v>182.683046076751</v>
+        <v>181.3182958235657</v>
       </c>
       <c r="W26" t="n">
-        <v>204.1717563240291</v>
+        <v>202.8070060708438</v>
       </c>
       <c r="X26" t="n">
-        <v>224.6618882850852</v>
+        <v>223.2971380318999</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.1687262626697</v>
+        <v>239.8039760094844</v>
       </c>
     </row>
     <row r="27">
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>21.46397125648346</v>
+        <v>20.09922100329817</v>
       </c>
       <c r="C27" t="n">
-        <v>27.63928659493186</v>
+        <v>26.27453634174657</v>
       </c>
       <c r="D27" t="n">
-        <v>2.375853171254874</v>
+        <v>1.011102918069582</v>
       </c>
       <c r="E27" t="n">
-        <v>12.57586806201707</v>
+        <v>11.21111780883177</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>21.50852077165155</v>
+        <v>21.18266976388344</v>
       </c>
       <c r="T27" t="n">
-        <v>53.98763024104591</v>
+        <v>52.84832235067958</v>
       </c>
       <c r="U27" t="n">
-        <v>80.8540866724594</v>
+        <v>79.49301610963568</v>
       </c>
       <c r="V27" t="n">
-        <v>87.73137475604139</v>
+        <v>86.3666245028561</v>
       </c>
       <c r="W27" t="n">
-        <v>106.6257707675357</v>
+        <v>105.2610205143504</v>
       </c>
       <c r="X27" t="n">
-        <v>60.7037728100936</v>
+        <v>59.3390225569083</v>
       </c>
       <c r="Y27" t="n">
-        <v>60.61348338392048</v>
+        <v>59.24873313073519</v>
       </c>
     </row>
     <row r="28">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.76276778855342</v>
+        <v>33.39801753536813</v>
       </c>
       <c r="C28" t="n">
-        <v>22.17760870524396</v>
+        <v>20.81285845205866</v>
       </c>
       <c r="D28" t="n">
-        <v>3.546260624828477</v>
+        <v>2.181510371643185</v>
       </c>
       <c r="E28" t="n">
-        <v>1.364750253185292</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3518356295473666</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>22.69133204001076</v>
+        <v>21.37347270443851</v>
       </c>
       <c r="H28" t="n">
-        <v>15.10918414394027</v>
+        <v>14.16133677644183</v>
       </c>
       <c r="I28" t="n">
-        <v>3.451455878310185</v>
+        <v>3.496843402069743</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.86298680772134</v>
+        <v>22.60662272284594</v>
       </c>
       <c r="S28" t="n">
-        <v>74.93153335860754</v>
+        <v>74.38396391509676</v>
       </c>
       <c r="T28" t="n">
-        <v>81.89179144598734</v>
+        <v>80.7273932953305</v>
       </c>
       <c r="U28" t="n">
-        <v>141.2372477853762</v>
+        <v>139.8750552186062</v>
       </c>
       <c r="V28" t="n">
-        <v>107.0684309304441</v>
+        <v>105.7036806772588</v>
       </c>
       <c r="W28" t="n">
-        <v>141.4537859432071</v>
+        <v>140.0890356900218</v>
       </c>
       <c r="X28" t="n">
-        <v>80.64044299565327</v>
+        <v>79.27569274246798</v>
       </c>
       <c r="Y28" t="n">
-        <v>73.51544095871091</v>
+        <v>72.15069070552562</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>237.6646292700967</v>
+        <v>236.2998790169114</v>
       </c>
       <c r="C29" t="n">
-        <v>220.2036793776237</v>
+        <v>218.8389291244384</v>
       </c>
       <c r="D29" t="n">
-        <v>209.6138292272991</v>
+        <v>208.2490789741138</v>
       </c>
       <c r="E29" t="n">
-        <v>236.8611576788779</v>
+        <v>235.4964074256926</v>
       </c>
       <c r="F29" t="n">
-        <v>261.8068333483276</v>
+        <v>260.4420830951423</v>
       </c>
       <c r="G29" t="n">
-        <v>269.7198099850162</v>
+        <v>268.4595949890039</v>
       </c>
       <c r="H29" t="n">
-        <v>189.1445045782963</v>
+        <v>188.8503260276337</v>
       </c>
       <c r="I29" t="n">
-        <v>45.6016743680473</v>
+        <v>48.26701961702287</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.24457351451343</v>
+        <v>53.26192043415719</v>
       </c>
       <c r="T29" t="n">
-        <v>75.77784915969016</v>
+        <v>74.87070199477955</v>
       </c>
       <c r="U29" t="n">
-        <v>106.2353433035138</v>
+        <v>104.8789558709024</v>
       </c>
       <c r="V29" t="n">
-        <v>182.683046076751</v>
+        <v>181.3182958235657</v>
       </c>
       <c r="W29" t="n">
-        <v>204.1717563240291</v>
+        <v>202.8070060708438</v>
       </c>
       <c r="X29" t="n">
-        <v>224.6618882850852</v>
+        <v>223.2971380318999</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.1687262626697</v>
+        <v>239.8039760094844</v>
       </c>
     </row>
     <row r="30">
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21.46397125648346</v>
+        <v>20.09922100329817</v>
       </c>
       <c r="C30" t="n">
-        <v>27.63928659493186</v>
+        <v>26.27453634174657</v>
       </c>
       <c r="D30" t="n">
-        <v>2.375853171254874</v>
+        <v>1.011102918069582</v>
       </c>
       <c r="E30" t="n">
-        <v>12.57586806201707</v>
+        <v>11.21111780883177</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>21.50852077165155</v>
+        <v>21.18266976388344</v>
       </c>
       <c r="T30" t="n">
-        <v>53.98763024104591</v>
+        <v>52.84832235067958</v>
       </c>
       <c r="U30" t="n">
-        <v>80.8540866724594</v>
+        <v>79.49301610963568</v>
       </c>
       <c r="V30" t="n">
-        <v>87.73137475604139</v>
+        <v>86.3666245028561</v>
       </c>
       <c r="W30" t="n">
-        <v>106.6257707675357</v>
+        <v>105.2610205143504</v>
       </c>
       <c r="X30" t="n">
-        <v>60.7037728100936</v>
+        <v>59.3390225569083</v>
       </c>
       <c r="Y30" t="n">
-        <v>60.61348338392048</v>
+        <v>59.24873313073519</v>
       </c>
     </row>
     <row r="31">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.76276778855342</v>
+        <v>33.39801753536813</v>
       </c>
       <c r="C31" t="n">
-        <v>22.17760870524396</v>
+        <v>20.81285845205866</v>
       </c>
       <c r="D31" t="n">
-        <v>3.546260624828477</v>
+        <v>2.181510371643185</v>
       </c>
       <c r="E31" t="n">
-        <v>1.364750253185292</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3518356295473666</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>22.69133204001076</v>
+        <v>21.37347270443851</v>
       </c>
       <c r="H31" t="n">
-        <v>15.10918414394027</v>
+        <v>14.16133677644183</v>
       </c>
       <c r="I31" t="n">
-        <v>3.451455878310185</v>
+        <v>3.496843402069743</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.86298680772134</v>
+        <v>22.60662272284594</v>
       </c>
       <c r="S31" t="n">
-        <v>74.93153335860754</v>
+        <v>74.38396391509676</v>
       </c>
       <c r="T31" t="n">
-        <v>81.89179144598734</v>
+        <v>80.7273932953305</v>
       </c>
       <c r="U31" t="n">
-        <v>141.2372477853762</v>
+        <v>139.8750552186062</v>
       </c>
       <c r="V31" t="n">
-        <v>107.0684309304441</v>
+        <v>105.7036806772588</v>
       </c>
       <c r="W31" t="n">
-        <v>141.4537859432071</v>
+        <v>140.0890356900218</v>
       </c>
       <c r="X31" t="n">
-        <v>80.64044299565327</v>
+        <v>79.27569274246798</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.51544095871091</v>
+        <v>72.15069070552562</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>185.4200557555832</v>
+        <v>168.2296454819704</v>
       </c>
       <c r="C32" t="n">
-        <v>167.9591058631102</v>
+        <v>150.7686955894973</v>
       </c>
       <c r="D32" t="n">
-        <v>157.3692557127856</v>
+        <v>140.1788454391727</v>
       </c>
       <c r="E32" t="n">
-        <v>184.6165841643644</v>
+        <v>167.4261738907516</v>
       </c>
       <c r="F32" t="n">
-        <v>209.5622598338141</v>
+        <v>192.3718495602012</v>
       </c>
       <c r="G32" t="n">
-        <v>217.4752364705028</v>
+        <v>200.3893614540629</v>
       </c>
       <c r="H32" t="n">
-        <v>136.8999310637828</v>
+        <v>120.7800924926926</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>23.5332756451767</v>
+        <v>6.800468459838498</v>
       </c>
       <c r="U32" t="n">
-        <v>53.99076978900035</v>
+        <v>36.80872233596131</v>
       </c>
       <c r="V32" t="n">
-        <v>130.4384725622376</v>
+        <v>113.2480622886247</v>
       </c>
       <c r="W32" t="n">
-        <v>151.9271828095157</v>
+        <v>134.7367725359028</v>
       </c>
       <c r="X32" t="n">
-        <v>172.4173147705717</v>
+        <v>155.2269044969588</v>
       </c>
       <c r="Y32" t="n">
-        <v>188.9241527481562</v>
+        <v>171.7337424745434</v>
       </c>
     </row>
     <row r="33">
@@ -25049,22 +25049,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.743056726532444</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>28.60951315794594</v>
+        <v>11.42278257469462</v>
       </c>
       <c r="V33" t="n">
-        <v>35.48680124152793</v>
+        <v>18.29639096791504</v>
       </c>
       <c r="W33" t="n">
-        <v>54.38119725302226</v>
+        <v>37.19078697940938</v>
       </c>
       <c r="X33" t="n">
-        <v>8.459199295580135</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.36890986940702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.68695984409408</v>
+        <v>6.313730380155704</v>
       </c>
       <c r="T34" t="n">
-        <v>29.64721793147388</v>
+        <v>12.65715976038945</v>
       </c>
       <c r="U34" t="n">
-        <v>88.99267427086278</v>
+        <v>71.80482168366512</v>
       </c>
       <c r="V34" t="n">
-        <v>54.82385741593066</v>
+        <v>37.63344714231778</v>
       </c>
       <c r="W34" t="n">
-        <v>89.20921242869366</v>
+        <v>72.01880215508078</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39586948113981</v>
+        <v>11.20545920752693</v>
       </c>
       <c r="Y34" t="n">
-        <v>21.27086744419745</v>
+        <v>4.080457170584566</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>185.4200557555832</v>
+        <v>168.2296454819704</v>
       </c>
       <c r="C35" t="n">
-        <v>167.9591058631102</v>
+        <v>150.7686955894973</v>
       </c>
       <c r="D35" t="n">
-        <v>157.3692557127856</v>
+        <v>140.1788454391727</v>
       </c>
       <c r="E35" t="n">
-        <v>184.6165841643644</v>
+        <v>167.4261738907516</v>
       </c>
       <c r="F35" t="n">
-        <v>209.5622598338141</v>
+        <v>192.3718495602012</v>
       </c>
       <c r="G35" t="n">
-        <v>217.4752364705028</v>
+        <v>200.3893614540629</v>
       </c>
       <c r="H35" t="n">
-        <v>136.8999310637828</v>
+        <v>120.7800924926926</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>23.5332756451767</v>
+        <v>6.800468459838498</v>
       </c>
       <c r="U35" t="n">
-        <v>53.99076978900035</v>
+        <v>36.80872233596131</v>
       </c>
       <c r="V35" t="n">
-        <v>130.4384725622376</v>
+        <v>113.2480622886247</v>
       </c>
       <c r="W35" t="n">
-        <v>151.9271828095157</v>
+        <v>134.7367725359028</v>
       </c>
       <c r="X35" t="n">
-        <v>172.4173147705717</v>
+        <v>155.2269044969588</v>
       </c>
       <c r="Y35" t="n">
-        <v>188.9241527481562</v>
+        <v>171.7337424745434</v>
       </c>
     </row>
     <row r="36">
@@ -25286,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.743056726532444</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>28.60951315794594</v>
+        <v>11.42278257469462</v>
       </c>
       <c r="V36" t="n">
-        <v>35.48680124152793</v>
+        <v>18.29639096791504</v>
       </c>
       <c r="W36" t="n">
-        <v>54.38119725302226</v>
+        <v>37.19078697940938</v>
       </c>
       <c r="X36" t="n">
-        <v>8.459199295580135</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.36890986940702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>22.68695984409408</v>
+        <v>6.313730380155704</v>
       </c>
       <c r="T37" t="n">
-        <v>29.64721793147388</v>
+        <v>12.65715976038945</v>
       </c>
       <c r="U37" t="n">
-        <v>88.99267427086278</v>
+        <v>71.80482168366512</v>
       </c>
       <c r="V37" t="n">
-        <v>54.82385741593066</v>
+        <v>37.63344714231778</v>
       </c>
       <c r="W37" t="n">
-        <v>89.20921242869366</v>
+        <v>72.01880215508078</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39586948113981</v>
+        <v>11.20545920752693</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.27086744419745</v>
+        <v>4.080457170584566</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>185.4200557555833</v>
+        <v>168.2296454819704</v>
       </c>
       <c r="C38" t="n">
-        <v>167.9591058631102</v>
+        <v>150.7686955894973</v>
       </c>
       <c r="D38" t="n">
-        <v>157.3692557127856</v>
+        <v>140.1788454391727</v>
       </c>
       <c r="E38" t="n">
-        <v>184.6165841643645</v>
+        <v>167.4261738907516</v>
       </c>
       <c r="F38" t="n">
-        <v>209.5622598338141</v>
+        <v>192.3718495602012</v>
       </c>
       <c r="G38" t="n">
-        <v>217.4752364705028</v>
+        <v>200.3893614540629</v>
       </c>
       <c r="H38" t="n">
-        <v>136.8999310637829</v>
+        <v>120.7800924926926</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>23.53327564517673</v>
+        <v>6.800468459838498</v>
       </c>
       <c r="U38" t="n">
-        <v>53.99076978900038</v>
+        <v>36.80872233596131</v>
       </c>
       <c r="V38" t="n">
-        <v>130.4384725622376</v>
+        <v>113.2480622886247</v>
       </c>
       <c r="W38" t="n">
-        <v>151.9271828095157</v>
+        <v>134.7367725359028</v>
       </c>
       <c r="X38" t="n">
-        <v>172.4173147705717</v>
+        <v>155.2269044969588</v>
       </c>
       <c r="Y38" t="n">
-        <v>188.9241527481563</v>
+        <v>171.7337424745434</v>
       </c>
     </row>
     <row r="39">
@@ -25523,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.743056726532473</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>28.60951315794597</v>
+        <v>11.42278257469462</v>
       </c>
       <c r="V39" t="n">
-        <v>35.48680124152796</v>
+        <v>18.29639096791504</v>
       </c>
       <c r="W39" t="n">
-        <v>54.38119725302229</v>
+        <v>37.19078697940938</v>
       </c>
       <c r="X39" t="n">
-        <v>8.459199295580163</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.368909869407048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>22.6869598440941</v>
+        <v>6.313730380155704</v>
       </c>
       <c r="T40" t="n">
-        <v>29.6472179314739</v>
+        <v>12.65715976038945</v>
       </c>
       <c r="U40" t="n">
-        <v>88.99267427086281</v>
+        <v>71.80482168366512</v>
       </c>
       <c r="V40" t="n">
-        <v>54.82385741593069</v>
+        <v>37.63344714231778</v>
       </c>
       <c r="W40" t="n">
-        <v>89.20921242869369</v>
+        <v>72.01880215508078</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39586948113984</v>
+        <v>11.20545920752693</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.27086744419748</v>
+        <v>4.080457170584566</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>298.1023535316685</v>
+        <v>272.6128055032142</v>
       </c>
       <c r="C41" t="n">
-        <v>280.6414036391956</v>
+        <v>255.1518556107411</v>
       </c>
       <c r="D41" t="n">
-        <v>270.0515534888709</v>
+        <v>244.5620054604165</v>
       </c>
       <c r="E41" t="n">
-        <v>297.2988819404497</v>
+        <v>271.8093339119954</v>
       </c>
       <c r="F41" t="n">
-        <v>322.2445576098994</v>
+        <v>296.7550095814451</v>
       </c>
       <c r="G41" t="n">
-        <v>330.1575342465881</v>
+        <v>304.7725214753067</v>
       </c>
       <c r="H41" t="n">
-        <v>249.5822288398682</v>
+        <v>225.1632525139364</v>
       </c>
       <c r="I41" t="n">
-        <v>106.0393986296192</v>
+        <v>84.57994610332563</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>32.96797135140991</v>
+        <v>14.04493617134702</v>
       </c>
       <c r="S41" t="n">
-        <v>112.6822977760853</v>
+        <v>89.57484692045995</v>
       </c>
       <c r="T41" t="n">
-        <v>136.215573421262</v>
+        <v>111.1836284810823</v>
       </c>
       <c r="U41" t="n">
-        <v>166.6730675650857</v>
+        <v>141.1918823572051</v>
       </c>
       <c r="V41" t="n">
-        <v>243.1207703383229</v>
+        <v>217.6312223098685</v>
       </c>
       <c r="W41" t="n">
-        <v>264.609480585601</v>
+        <v>239.1199325571466</v>
       </c>
       <c r="X41" t="n">
-        <v>285.099612546657</v>
+        <v>259.6100645182026</v>
       </c>
       <c r="Y41" t="n">
-        <v>301.6064505242416</v>
+        <v>276.1169024957871</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>81.90169551805533</v>
+        <v>56.41214748960093</v>
       </c>
       <c r="C42" t="n">
-        <v>88.07701085650373</v>
+        <v>62.58746282804933</v>
       </c>
       <c r="D42" t="n">
-        <v>62.81357743282675</v>
+        <v>37.32402940437234</v>
       </c>
       <c r="E42" t="n">
-        <v>73.01359232358894</v>
+        <v>47.52404429513453</v>
       </c>
       <c r="F42" t="n">
-        <v>60.43772426157187</v>
+        <v>34.94817623311747</v>
       </c>
       <c r="G42" t="n">
-        <v>52.43716720139935</v>
+        <v>27.00355046644083</v>
       </c>
       <c r="H42" t="n">
-        <v>24.94936948337563</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>81.94624503322342</v>
+        <v>57.4955962501862</v>
       </c>
       <c r="T42" t="n">
-        <v>114.4253545026178</v>
+        <v>89.16124883698234</v>
       </c>
       <c r="U42" t="n">
-        <v>141.2918109340313</v>
+        <v>115.8059425959384</v>
       </c>
       <c r="V42" t="n">
-        <v>148.1690990176133</v>
+        <v>122.6795509891589</v>
       </c>
       <c r="W42" t="n">
-        <v>167.0634950291076</v>
+        <v>141.5739470006532</v>
       </c>
       <c r="X42" t="n">
-        <v>121.1414970716655</v>
+        <v>95.65194904321106</v>
       </c>
       <c r="Y42" t="n">
-        <v>121.0512076454924</v>
+        <v>95.56165961703795</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.20049205012529</v>
+        <v>69.71094402167088</v>
       </c>
       <c r="C43" t="n">
-        <v>82.61533296681583</v>
+        <v>57.12578493836142</v>
       </c>
       <c r="D43" t="n">
-        <v>63.98398488640035</v>
+        <v>38.49443685794594</v>
       </c>
       <c r="E43" t="n">
-        <v>61.80247451475717</v>
+        <v>36.31292648630276</v>
       </c>
       <c r="F43" t="n">
-        <v>60.78955989111924</v>
+        <v>35.30001186266483</v>
       </c>
       <c r="G43" t="n">
-        <v>83.12905630158264</v>
+        <v>57.68639919074127</v>
       </c>
       <c r="H43" t="n">
-        <v>75.54690840551214</v>
+        <v>50.47426326274459</v>
       </c>
       <c r="I43" t="n">
-        <v>63.88918013988206</v>
+        <v>39.8097698883725</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>82.30071106929321</v>
+        <v>58.9195492091487</v>
       </c>
       <c r="S43" t="n">
-        <v>135.3692576201794</v>
+        <v>110.6968904013995</v>
       </c>
       <c r="T43" t="n">
-        <v>142.3295157075592</v>
+        <v>117.0403197816333</v>
       </c>
       <c r="U43" t="n">
-        <v>201.6749720469481</v>
+        <v>176.1879817049089</v>
       </c>
       <c r="V43" t="n">
-        <v>167.506155192016</v>
+        <v>142.0166071635616</v>
       </c>
       <c r="W43" t="n">
-        <v>201.891510204779</v>
+        <v>176.4019621763246</v>
       </c>
       <c r="X43" t="n">
-        <v>141.0781672572251</v>
+        <v>115.5886192287707</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.9531652202828</v>
+        <v>108.4636171918284</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>298.1023535316685</v>
+        <v>272.6128055032142</v>
       </c>
       <c r="C44" t="n">
-        <v>280.6414036391956</v>
+        <v>255.1518556107411</v>
       </c>
       <c r="D44" t="n">
-        <v>270.0515534888709</v>
+        <v>244.5620054604165</v>
       </c>
       <c r="E44" t="n">
-        <v>297.2988819404497</v>
+        <v>271.8093339119954</v>
       </c>
       <c r="F44" t="n">
-        <v>322.2445576098994</v>
+        <v>296.7550095814451</v>
       </c>
       <c r="G44" t="n">
-        <v>330.1575342465881</v>
+        <v>304.7725214753067</v>
       </c>
       <c r="H44" t="n">
-        <v>249.5822288398682</v>
+        <v>225.1632525139364</v>
       </c>
       <c r="I44" t="n">
-        <v>106.0393986296192</v>
+        <v>84.57994610332563</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>32.96797135140991</v>
+        <v>14.04493617134702</v>
       </c>
       <c r="S44" t="n">
-        <v>112.6822977760853</v>
+        <v>89.57484692045995</v>
       </c>
       <c r="T44" t="n">
-        <v>136.215573421262</v>
+        <v>111.1836284810823</v>
       </c>
       <c r="U44" t="n">
-        <v>166.6730675650857</v>
+        <v>141.1918823572051</v>
       </c>
       <c r="V44" t="n">
-        <v>243.1207703383229</v>
+        <v>217.6312223098685</v>
       </c>
       <c r="W44" t="n">
-        <v>264.609480585601</v>
+        <v>239.1199325571466</v>
       </c>
       <c r="X44" t="n">
-        <v>285.099612546657</v>
+        <v>259.6100645182026</v>
       </c>
       <c r="Y44" t="n">
-        <v>301.6064505242416</v>
+        <v>276.1169024957871</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>81.90169551805533</v>
+        <v>56.41214748960093</v>
       </c>
       <c r="C45" t="n">
-        <v>88.07701085650373</v>
+        <v>62.58746282804933</v>
       </c>
       <c r="D45" t="n">
-        <v>62.81357743282675</v>
+        <v>37.32402940437234</v>
       </c>
       <c r="E45" t="n">
-        <v>73.01359232358894</v>
+        <v>47.52404429513453</v>
       </c>
       <c r="F45" t="n">
-        <v>60.43772426157187</v>
+        <v>34.94817623311747</v>
       </c>
       <c r="G45" t="n">
-        <v>52.43716720139935</v>
+        <v>27.00355046644083</v>
       </c>
       <c r="H45" t="n">
-        <v>24.94936948337563</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>81.94624503322342</v>
+        <v>57.4955962501862</v>
       </c>
       <c r="T45" t="n">
-        <v>114.4253545026178</v>
+        <v>89.16124883698234</v>
       </c>
       <c r="U45" t="n">
-        <v>141.2918109340313</v>
+        <v>115.8059425959384</v>
       </c>
       <c r="V45" t="n">
-        <v>148.1690990176133</v>
+        <v>122.6795509891589</v>
       </c>
       <c r="W45" t="n">
-        <v>167.0634950291076</v>
+        <v>141.5739470006532</v>
       </c>
       <c r="X45" t="n">
-        <v>121.1414970716655</v>
+        <v>95.65194904321106</v>
       </c>
       <c r="Y45" t="n">
-        <v>121.0512076454924</v>
+        <v>95.56165961703795</v>
       </c>
     </row>
     <row r="46">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.20049205012529</v>
+        <v>69.71094402167088</v>
       </c>
       <c r="C46" t="n">
-        <v>82.61533296681583</v>
+        <v>57.12578493836142</v>
       </c>
       <c r="D46" t="n">
-        <v>63.98398488640035</v>
+        <v>38.49443685794594</v>
       </c>
       <c r="E46" t="n">
-        <v>61.80247451475717</v>
+        <v>36.31292648630276</v>
       </c>
       <c r="F46" t="n">
-        <v>60.78955989111924</v>
+        <v>35.30001186266483</v>
       </c>
       <c r="G46" t="n">
-        <v>83.12905630158264</v>
+        <v>57.68639919074127</v>
       </c>
       <c r="H46" t="n">
-        <v>75.54690840551214</v>
+        <v>50.47426326274459</v>
       </c>
       <c r="I46" t="n">
-        <v>63.88918013988206</v>
+        <v>39.8097698883725</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>82.30071106929321</v>
+        <v>58.9195492091487</v>
       </c>
       <c r="S46" t="n">
-        <v>135.3692576201794</v>
+        <v>110.6968904013995</v>
       </c>
       <c r="T46" t="n">
-        <v>142.3295157075592</v>
+        <v>117.0403197816333</v>
       </c>
       <c r="U46" t="n">
-        <v>201.6749720469481</v>
+        <v>176.1879817049089</v>
       </c>
       <c r="V46" t="n">
-        <v>167.506155192016</v>
+        <v>142.0166071635616</v>
       </c>
       <c r="W46" t="n">
-        <v>201.891510204779</v>
+        <v>176.4019621763246</v>
       </c>
       <c r="X46" t="n">
-        <v>141.0781672572251</v>
+        <v>115.5886192287707</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.9531652202828</v>
+        <v>108.4636171918284</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>482155.8073394437</v>
+        <v>500414.8640003134</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>482155.8073394437</v>
+        <v>500414.8640003134</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506672.3343218807</v>
+        <v>525225.2025975811</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506672.3343218808</v>
+        <v>525225.2025975811</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506672.3343218808</v>
+        <v>525225.2025975811</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>479620.2102302923</v>
+        <v>489890.1838842867</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>479620.2102302923</v>
+        <v>489890.1838842867</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>514864.5530947353</v>
+        <v>527570.231022343</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>514864.5530947353</v>
+        <v>527570.231022343</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>514864.5530947353</v>
+        <v>527570.231022343</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>400669.4674068889</v>
+        <v>444368.4371637861</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>400669.4674068888</v>
+        <v>444368.4371637861</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491125</v>
+        <v>798794.4302491128</v>
       </c>
       <c r="C2" t="n">
+        <v>798794.4302491124</v>
+      </c>
+      <c r="D2" t="n">
         <v>798794.4302491127</v>
       </c>
-      <c r="D2" t="n">
-        <v>798794.4302491128</v>
-      </c>
       <c r="E2" t="n">
-        <v>549675.0289926365</v>
+        <v>567921.290231982</v>
       </c>
       <c r="F2" t="n">
-        <v>549675.0289926365</v>
+        <v>567921.290231982</v>
       </c>
       <c r="G2" t="n">
-        <v>606265.7013905975</v>
+        <v>636507.905358351</v>
       </c>
       <c r="H2" t="n">
-        <v>606265.7013905974</v>
+        <v>636507.905358351</v>
       </c>
       <c r="I2" t="n">
-        <v>606265.7013905975</v>
+        <v>636507.9053583511</v>
       </c>
       <c r="J2" t="n">
-        <v>545010.2864436642</v>
+        <v>546912.4369790017</v>
       </c>
       <c r="K2" t="n">
-        <v>545010.2864436641</v>
+        <v>546912.4369790017</v>
       </c>
       <c r="L2" t="n">
-        <v>633301.2969938958</v>
+        <v>656209.307610424</v>
       </c>
       <c r="M2" t="n">
-        <v>633301.2969938957</v>
+        <v>656209.307610424</v>
       </c>
       <c r="N2" t="n">
-        <v>633301.2969938958</v>
+        <v>656209.3076104239</v>
       </c>
       <c r="O2" t="n">
-        <v>416284.0758462119</v>
+        <v>470902.8340672943</v>
       </c>
       <c r="P2" t="n">
-        <v>416284.0758462119</v>
+        <v>470902.8340672942</v>
       </c>
     </row>
     <row r="3">
@@ -26374,28 +26374,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>220620.2225987834</v>
+        <v>207889.2296307827</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25909.53169383884</v>
+        <v>33640.64210026029</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>90145.83822086825</v>
+        <v>83506.52801699504</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67705.1905054496</v>
+        <v>88096.82892821313</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>281142.9410342803</v>
+        <v>301218.3206145416</v>
       </c>
       <c r="F4" t="n">
-        <v>281142.9410342803</v>
+        <v>301218.3206145416</v>
       </c>
       <c r="G4" t="n">
-        <v>312495.3686251025</v>
+        <v>338791.2954170835</v>
       </c>
       <c r="H4" t="n">
-        <v>312495.3686251024</v>
+        <v>338791.2954170835</v>
       </c>
       <c r="I4" t="n">
-        <v>312495.3686251024</v>
+        <v>338791.2954170835</v>
       </c>
       <c r="J4" t="n">
-        <v>278513.9122732894</v>
+        <v>289455.4854020752</v>
       </c>
       <c r="K4" t="n">
-        <v>278513.9122732894</v>
+        <v>289455.4854020752</v>
       </c>
       <c r="L4" t="n">
-        <v>327168.1942841509</v>
+        <v>349169.1547598202</v>
       </c>
       <c r="M4" t="n">
-        <v>327168.194284151</v>
+        <v>349169.1547598202</v>
       </c>
       <c r="N4" t="n">
-        <v>327168.1942841509</v>
+        <v>349169.1547598202</v>
       </c>
       <c r="O4" t="n">
-        <v>205185.1999863446</v>
+        <v>246251.8802658108</v>
       </c>
       <c r="P4" t="n">
-        <v>205185.1999863446</v>
+        <v>246251.8802658108</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>15181.30797468315</v>
+        <v>15471.94446069992</v>
       </c>
       <c r="F5" t="n">
-        <v>15181.30797468315</v>
+        <v>15471.94446069992</v>
       </c>
       <c r="G5" t="n">
-        <v>17904.04349964482</v>
+        <v>19007.11338660839</v>
       </c>
       <c r="H5" t="n">
-        <v>17904.04349964482</v>
+        <v>19007.11338660839</v>
       </c>
       <c r="I5" t="n">
-        <v>17904.04349964482</v>
+        <v>19007.11338660839</v>
       </c>
       <c r="J5" t="n">
-        <v>14981.57237442892</v>
+        <v>14529.43699762924</v>
       </c>
       <c r="K5" t="n">
-        <v>14981.57237442892</v>
+        <v>14529.43699762924</v>
       </c>
       <c r="L5" t="n">
-        <v>19373.72142522056</v>
+        <v>20252.0334606782</v>
       </c>
       <c r="M5" t="n">
-        <v>19373.72142522056</v>
+        <v>20252.0334606782</v>
       </c>
       <c r="N5" t="n">
-        <v>19373.72142522055</v>
+        <v>20252.0334606782</v>
       </c>
       <c r="O5" t="n">
-        <v>9900.633333482836</v>
+        <v>11476.64558085225</v>
       </c>
       <c r="P5" t="n">
-        <v>9900.633333482836</v>
+        <v>11476.64558085225</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297550.8703173813</v>
+        <v>297506.7345387004</v>
       </c>
       <c r="C6" t="n">
-        <v>297550.8703173815</v>
+        <v>297506.7345387001</v>
       </c>
       <c r="D6" t="n">
-        <v>297550.8703173816</v>
+        <v>297506.7345387003</v>
       </c>
       <c r="E6" t="n">
-        <v>32730.55738488954</v>
+        <v>37377.83564427336</v>
       </c>
       <c r="F6" t="n">
-        <v>253350.779983673</v>
+        <v>245267.065275056</v>
       </c>
       <c r="G6" t="n">
-        <v>249956.7575720113</v>
+        <v>240863.5257298007</v>
       </c>
       <c r="H6" t="n">
-        <v>275866.2892658501</v>
+        <v>274504.1678300609</v>
       </c>
       <c r="I6" t="n">
-        <v>275866.2892658502</v>
+        <v>274504.1678300611</v>
       </c>
       <c r="J6" t="n">
-        <v>161368.9635750777</v>
+        <v>152918.3381356695</v>
       </c>
       <c r="K6" t="n">
-        <v>251514.8017959458</v>
+        <v>236424.8661526646</v>
       </c>
       <c r="L6" t="n">
-        <v>219054.1907790748</v>
+        <v>194991.125897424</v>
       </c>
       <c r="M6" t="n">
-        <v>286759.3812845242</v>
+        <v>283087.9548256371</v>
       </c>
       <c r="N6" t="n">
-        <v>286759.3812845243</v>
+        <v>283087.954825637</v>
       </c>
       <c r="O6" t="n">
-        <v>201198.2425263844</v>
+        <v>204722.6956167752</v>
       </c>
       <c r="P6" t="n">
-        <v>201198.2425263844</v>
+        <v>204722.6956167752</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F2" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="G2" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="H2" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="I2" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="J2" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="K2" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="L2" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="M2" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="N2" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="O2" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="P2" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>127.7866402628226</v>
+        <v>101.7834950410465</v>
       </c>
       <c r="F3" t="n">
-        <v>127.7866402628226</v>
+        <v>101.7834950410465</v>
       </c>
       <c r="G3" t="n">
-        <v>127.7866402628226</v>
+        <v>101.7834950410465</v>
       </c>
       <c r="H3" t="n">
-        <v>127.7866402628226</v>
+        <v>101.7834950410465</v>
       </c>
       <c r="I3" t="n">
-        <v>127.7866402628226</v>
+        <v>101.7834950410465</v>
       </c>
       <c r="J3" t="n">
-        <v>127.7866402628226</v>
+        <v>101.7834950410465</v>
       </c>
       <c r="K3" t="n">
-        <v>127.7866402628226</v>
+        <v>101.7834950410465</v>
       </c>
       <c r="L3" t="n">
-        <v>127.7866402628226</v>
+        <v>101.7834950410465</v>
       </c>
       <c r="M3" t="n">
-        <v>127.7866402628226</v>
+        <v>101.7834950410465</v>
       </c>
       <c r="N3" t="n">
-        <v>127.7866402628226</v>
+        <v>101.7834950410465</v>
       </c>
       <c r="O3" t="n">
-        <v>127.7866402628226</v>
+        <v>101.7834950410465</v>
       </c>
       <c r="P3" t="n">
-        <v>127.7866402628226</v>
+        <v>101.7834950410465</v>
       </c>
     </row>
     <row r="4">
@@ -26916,28 +26916,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>32.38691461729854</v>
+        <v>42.05080262532536</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>112.6822977760853</v>
+        <v>104.3831600212438</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>127.7866402628226</v>
+        <v>101.7834950410465</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>32.38691461729854</v>
+        <v>42.05080262532536</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.6822977760853</v>
+        <v>104.3831600212438</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C11" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D11" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="E11" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F11" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="G11" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H11" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I11" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="J11" t="n">
-        <v>137.444974440227</v>
+        <v>146.3172737237113</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="L11" t="n">
-        <v>34.25389721860765</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>156.402074736645</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>143.6069205853109</v>
       </c>
       <c r="Q11" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="R11" t="n">
-        <v>147.4450655646388</v>
+        <v>124.1659723316134</v>
       </c>
       <c r="S11" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T11" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U11" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V11" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W11" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X11" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y11" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="12">
@@ -28168,76 +28168,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C12" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0686553332114</v>
+        <v>137.1245866267072</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5808576151876</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="I12" t="n">
-        <v>90.05893541449851</v>
+        <v>91.98464003705458</v>
       </c>
       <c r="J12" t="n">
-        <v>100.8692114034454</v>
+        <v>106.1534920753536</v>
       </c>
       <c r="K12" t="n">
-        <v>93.45728110118598</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>78.87440217410972</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>72.49031497878002</v>
+        <v>86.66202912464796</v>
       </c>
       <c r="N12" t="n">
-        <v>59.85473113102088</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>77.19962298843183</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>81.48785322788902</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.895902593482</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>128.6139598171666</v>
+        <v>132.0866062677276</v>
       </c>
       <c r="S12" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T12" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U12" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V12" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W12" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X12" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y12" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="13">
@@ -28247,13 +28247,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C13" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D13" t="n">
-        <v>147.4450655646388</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -28262,61 +28262,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H13" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I13" t="n">
-        <v>147.4450655646388</v>
+        <v>149.9308060486389</v>
       </c>
       <c r="J13" t="n">
-        <v>110.7036722373638</v>
+        <v>80.3826187898823</v>
       </c>
       <c r="K13" t="n">
-        <v>102.2409096039965</v>
+        <v>0.9450153238406465</v>
       </c>
       <c r="L13" t="n">
-        <v>100.6252875130711</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>102.8040620123288</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>92.42271634155952</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>105.8856092255089</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>109.8579472941215</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>132.2092189497596</v>
+        <v>70.79273550049635</v>
       </c>
       <c r="R13" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="S13" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T13" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U13" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V13" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W13" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X13" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y13" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="14">
@@ -28326,40 +28326,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="E14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="G14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="J14" t="n">
-        <v>137.444974440227</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="M14" t="n">
-        <v>34.25389721860794</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28368,34 +28368,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Q14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="R14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="S14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y14" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="15">
@@ -28405,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C15" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0686553332114</v>
+        <v>137.1245866267072</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5808576151876</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="I15" t="n">
-        <v>90.05893541449851</v>
+        <v>91.98464003705458</v>
       </c>
       <c r="J15" t="n">
-        <v>100.8692114034454</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>93.45728110118598</v>
+        <v>102.4889584373193</v>
       </c>
       <c r="L15" t="n">
-        <v>78.87440217410972</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>72.49031497878002</v>
+        <v>86.66202912464796</v>
       </c>
       <c r="N15" t="n">
-        <v>59.85473113102088</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>77.19962298843183</v>
+        <v>90.50710052471187</v>
       </c>
       <c r="P15" t="n">
-        <v>81.48785322788902</v>
+        <v>92.16827715869736</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.895902593482</v>
+        <v>112.0354831456949</v>
       </c>
       <c r="R15" t="n">
-        <v>128.6139598171666</v>
+        <v>132.0866062677276</v>
       </c>
       <c r="S15" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T15" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U15" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V15" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W15" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X15" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y15" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="16">
@@ -28484,13 +28484,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C16" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D16" t="n">
-        <v>147.4450655646388</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -28499,61 +28499,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H16" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I16" t="n">
-        <v>147.4450655646388</v>
+        <v>149.9308060486389</v>
       </c>
       <c r="J16" t="n">
-        <v>110.7036722373638</v>
+        <v>114.0188601126056</v>
       </c>
       <c r="K16" t="n">
-        <v>102.2409096039965</v>
+        <v>0.9450153238406465</v>
       </c>
       <c r="L16" t="n">
-        <v>100.6252875130711</v>
+        <v>107.5966881189223</v>
       </c>
       <c r="M16" t="n">
-        <v>102.8040620123288</v>
+        <v>110.1544264887073</v>
       </c>
       <c r="N16" t="n">
-        <v>92.42271634155952</v>
+        <v>15.50807453482936</v>
       </c>
       <c r="O16" t="n">
-        <v>105.8856092255089</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>109.8579472941215</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>132.2092189497596</v>
+        <v>136.1356938782478</v>
       </c>
       <c r="R16" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="S16" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T16" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U16" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V16" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W16" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X16" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y16" t="n">
-        <v>147.4450655646388</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="17">
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="C17" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="D17" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="E17" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="F17" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="G17" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="I17" t="n">
-        <v>179.8319801819373</v>
+        <v>194.700982263592</v>
       </c>
       <c r="J17" t="n">
-        <v>137.444974440227</v>
+        <v>146.3172737237113</v>
       </c>
       <c r="K17" t="n">
-        <v>154.7433592205302</v>
+        <v>168.0406359401463</v>
       </c>
       <c r="L17" t="n">
-        <v>154.6983135296842</v>
+        <v>43.73546449985106</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>158.4978267001324</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>156.402074736645</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>161.1560049891355</v>
       </c>
       <c r="P17" t="n">
-        <v>157.3601169488607</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.8302344023615</v>
+        <v>178.118866155399</v>
       </c>
       <c r="R17" t="n">
-        <v>179.8319801819373</v>
+        <v>189.8823922045959</v>
       </c>
       <c r="S17" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="T17" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="U17" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="V17" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="W17" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="X17" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="Y17" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
     </row>
     <row r="18">
@@ -28657,61 +28657,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0686553332114</v>
+        <v>137.1245866267072</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5808576151876</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="I18" t="n">
-        <v>90.05893541449851</v>
+        <v>91.98464003705458</v>
       </c>
       <c r="J18" t="n">
-        <v>100.8692114034454</v>
+        <v>106.1534920753536</v>
       </c>
       <c r="K18" t="n">
-        <v>93.45728110118598</v>
+        <v>102.4889584373193</v>
       </c>
       <c r="L18" t="n">
-        <v>78.87440217410972</v>
+        <v>91.01860693075145</v>
       </c>
       <c r="M18" t="n">
-        <v>72.49031497878002</v>
+        <v>86.66202912464796</v>
       </c>
       <c r="N18" t="n">
-        <v>59.85473113102088</v>
+        <v>74.40152838107841</v>
       </c>
       <c r="O18" t="n">
-        <v>77.19962298843183</v>
+        <v>90.50710052471187</v>
       </c>
       <c r="P18" t="n">
-        <v>81.48785322788902</v>
+        <v>92.16827715869736</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.895902593482</v>
+        <v>112.0354831456949</v>
       </c>
       <c r="R18" t="n">
-        <v>128.6139598171666</v>
+        <v>132.0866062677276</v>
       </c>
       <c r="S18" t="n">
-        <v>166.5777331650354</v>
+        <v>167.6166324104526</v>
       </c>
       <c r="T18" t="n">
-        <v>179.8319801819373</v>
+        <v>199.2822849972488</v>
       </c>
       <c r="U18" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="V18" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="W18" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="X18" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="Y18" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
     </row>
     <row r="19">
@@ -28736,61 +28736,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7605444333946</v>
+        <v>167.8074353510077</v>
       </c>
       <c r="H19" t="n">
-        <v>160.1783965373241</v>
+        <v>160.595299423011</v>
       </c>
       <c r="I19" t="n">
-        <v>148.5206682716941</v>
+        <v>149.9308060486389</v>
       </c>
       <c r="J19" t="n">
-        <v>77.06743091464047</v>
+        <v>114.0188601126056</v>
       </c>
       <c r="K19" t="n">
-        <v>102.2409096039965</v>
+        <v>107.6887816684932</v>
       </c>
       <c r="L19" t="n">
-        <v>100.6252875130711</v>
+        <v>107.5966881189223</v>
       </c>
       <c r="M19" t="n">
-        <v>102.8040620123288</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>99.59830557956208</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>112.5134272895774</v>
       </c>
       <c r="P19" t="n">
-        <v>99.86141796666567</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>132.2092189497596</v>
+        <v>70.79273550049635</v>
       </c>
       <c r="R19" t="n">
-        <v>166.9321992011052</v>
+        <v>169.0405853694151</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="T19" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="U19" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="V19" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="W19" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="X19" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="Y19" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
     </row>
     <row r="20">
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="C20" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="D20" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="E20" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="F20" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="G20" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="I20" t="n">
-        <v>179.8319801819373</v>
+        <v>194.700982263592</v>
       </c>
       <c r="J20" t="n">
-        <v>137.444974440227</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>99.15190685518544</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>171.1947611260075</v>
       </c>
       <c r="M20" t="n">
-        <v>140.1423502240593</v>
+        <v>158.4978267001324</v>
       </c>
       <c r="N20" t="n">
-        <v>137.7495874611292</v>
+        <v>156.402074736645</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>161.1560049891355</v>
       </c>
       <c r="P20" t="n">
-        <v>157.3601169488607</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>166.8302344023615</v>
+        <v>178.118866155399</v>
       </c>
       <c r="R20" t="n">
-        <v>179.8319801819373</v>
+        <v>189.8823922045959</v>
       </c>
       <c r="S20" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="T20" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="U20" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="V20" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="W20" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="X20" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="Y20" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
     </row>
     <row r="21">
@@ -28894,61 +28894,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0686553332114</v>
+        <v>137.1245866267072</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5808576151876</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="I21" t="n">
-        <v>90.05893541449851</v>
+        <v>91.98464003705458</v>
       </c>
       <c r="J21" t="n">
-        <v>100.8692114034454</v>
+        <v>106.1534920753536</v>
       </c>
       <c r="K21" t="n">
-        <v>93.45728110118598</v>
+        <v>102.4889584373193</v>
       </c>
       <c r="L21" t="n">
-        <v>78.87440217410972</v>
+        <v>91.01860693075145</v>
       </c>
       <c r="M21" t="n">
-        <v>72.49031497878002</v>
+        <v>86.66202912464796</v>
       </c>
       <c r="N21" t="n">
-        <v>59.85473113102088</v>
+        <v>74.40152838107841</v>
       </c>
       <c r="O21" t="n">
-        <v>77.19962298843183</v>
+        <v>90.50710052471187</v>
       </c>
       <c r="P21" t="n">
-        <v>81.48785322788902</v>
+        <v>92.16827715869736</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.895902593482</v>
+        <v>112.0354831456949</v>
       </c>
       <c r="R21" t="n">
-        <v>128.6139598171666</v>
+        <v>132.0866062677276</v>
       </c>
       <c r="S21" t="n">
-        <v>166.5777331650354</v>
+        <v>167.6166324104526</v>
       </c>
       <c r="T21" t="n">
-        <v>179.8319801819373</v>
+        <v>199.2822849972488</v>
       </c>
       <c r="U21" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="V21" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="W21" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="X21" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="Y21" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
     </row>
     <row r="22">
@@ -28973,61 +28973,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7605444333946</v>
+        <v>167.8074353510077</v>
       </c>
       <c r="H22" t="n">
-        <v>160.1783965373241</v>
+        <v>160.595299423011</v>
       </c>
       <c r="I22" t="n">
-        <v>148.5206682716941</v>
+        <v>149.9308060486389</v>
       </c>
       <c r="J22" t="n">
-        <v>110.7036722373638</v>
+        <v>114.0188601126056</v>
       </c>
       <c r="K22" t="n">
-        <v>102.2409096039965</v>
+        <v>107.6887816684932</v>
       </c>
       <c r="L22" t="n">
-        <v>100.6252875130711</v>
+        <v>107.5966881189223</v>
       </c>
       <c r="M22" t="n">
-        <v>102.8040620123288</v>
+        <v>110.1544264887073</v>
       </c>
       <c r="N22" t="n">
-        <v>92.42271634155952</v>
+        <v>99.59830557956208</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>112.5134272895774</v>
       </c>
       <c r="P22" t="n">
-        <v>78.44241493471763</v>
+        <v>115.529190638884</v>
       </c>
       <c r="Q22" t="n">
-        <v>132.2092189497596</v>
+        <v>136.1356938782478</v>
       </c>
       <c r="R22" t="n">
-        <v>166.9321992011052</v>
+        <v>169.0405853694151</v>
       </c>
       <c r="S22" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="T22" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="U22" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="V22" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="W22" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="X22" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="Y22" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="C23" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="D23" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="E23" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="F23" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="G23" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="I23" t="n">
-        <v>179.8319801819373</v>
+        <v>194.700982263592</v>
       </c>
       <c r="J23" t="n">
-        <v>137.444974440227</v>
+        <v>146.3172737237113</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>168.0406359401463</v>
       </c>
       <c r="L23" t="n">
-        <v>154.6983135296842</v>
+        <v>171.1947611260075</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>158.4978267001324</v>
       </c>
       <c r="N23" t="n">
-        <v>137.7495874611292</v>
+        <v>156.402074736645</v>
       </c>
       <c r="O23" t="n">
-        <v>143.5429901771334</v>
+        <v>30.12590542447449</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>172.392417599405</v>
       </c>
       <c r="Q23" t="n">
-        <v>166.8302344023615</v>
+        <v>178.118866155399</v>
       </c>
       <c r="R23" t="n">
-        <v>165.5619601575815</v>
+        <v>189.8823922045959</v>
       </c>
       <c r="S23" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807264</v>
       </c>
       <c r="T23" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="U23" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="V23" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="W23" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="X23" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="Y23" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
     </row>
     <row r="24">
@@ -29131,61 +29131,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0686553332114</v>
+        <v>137.1245866267072</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5808576151876</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="I24" t="n">
-        <v>90.05893541449851</v>
+        <v>91.98464003705458</v>
       </c>
       <c r="J24" t="n">
-        <v>100.8692114034454</v>
+        <v>106.1534920753536</v>
       </c>
       <c r="K24" t="n">
-        <v>93.45728110118598</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>78.87440217410972</v>
+        <v>91.01860693075145</v>
       </c>
       <c r="M24" t="n">
-        <v>72.49031497878002</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>59.85473113102088</v>
+        <v>74.40152838107841</v>
       </c>
       <c r="O24" t="n">
-        <v>77.19962298843183</v>
+        <v>90.50710052471187</v>
       </c>
       <c r="P24" t="n">
-        <v>81.48785322788902</v>
+        <v>92.16827715869736</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.895902593482</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>128.6139598171666</v>
+        <v>132.0866062677276</v>
       </c>
       <c r="S24" t="n">
-        <v>166.5777331650354</v>
+        <v>167.6166324104526</v>
       </c>
       <c r="T24" t="n">
-        <v>179.8319801819373</v>
+        <v>199.2822849972488</v>
       </c>
       <c r="U24" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="V24" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="W24" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="X24" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="Y24" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
     </row>
     <row r="25">
@@ -29210,61 +29210,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7605444333946</v>
+        <v>167.8074353510077</v>
       </c>
       <c r="H25" t="n">
-        <v>160.1783965373241</v>
+        <v>160.595299423011</v>
       </c>
       <c r="I25" t="n">
-        <v>148.5206682716941</v>
+        <v>149.9308060486389</v>
       </c>
       <c r="J25" t="n">
-        <v>110.7036722373638</v>
+        <v>114.0188601126056</v>
       </c>
       <c r="K25" t="n">
-        <v>102.2409096039965</v>
+        <v>0.9450153238406465</v>
       </c>
       <c r="L25" t="n">
-        <v>100.6252875130711</v>
+        <v>107.5966881189223</v>
       </c>
       <c r="M25" t="n">
-        <v>102.8040620123288</v>
+        <v>110.1544264887073</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>105.8856092255089</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>109.8579472941215</v>
+        <v>115.529190638884</v>
       </c>
       <c r="Q25" t="n">
-        <v>132.2092189497596</v>
+        <v>136.1356938782478</v>
       </c>
       <c r="R25" t="n">
-        <v>166.9321992011052</v>
+        <v>169.0405853694151</v>
       </c>
       <c r="S25" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="T25" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="U25" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="V25" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="W25" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="X25" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
       <c r="Y25" t="n">
-        <v>179.8319801819373</v>
+        <v>199.6958830807263</v>
       </c>
     </row>
     <row r="26">
@@ -29274,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C26" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D26" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E26" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F26" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="G26" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H26" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I26" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.3172737237113</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="N26" t="n">
-        <v>7.818045540330019</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Q26" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="R26" t="n">
-        <v>145.0692123933839</v>
+        <v>124.1659723316134</v>
       </c>
       <c r="S26" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T26" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U26" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V26" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W26" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X26" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="27">
@@ -29353,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C27" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D27" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E27" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0686553332114</v>
+        <v>137.1245866267072</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5808576151876</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="I27" t="n">
-        <v>90.05893541449851</v>
+        <v>81.85889288846965</v>
       </c>
       <c r="J27" t="n">
-        <v>100.8692114034454</v>
+        <v>5.342901093140546</v>
       </c>
       <c r="K27" t="n">
-        <v>93.45728110118598</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>78.87440217410972</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>72.49031497878002</v>
+        <v>86.66202912464796</v>
       </c>
       <c r="N27" t="n">
-        <v>59.85473113102088</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>77.19962298843183</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>81.48785322788902</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.895902593482</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>128.6139598171666</v>
+        <v>86.56493645640676</v>
       </c>
       <c r="S27" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T27" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U27" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V27" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W27" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X27" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y27" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C28" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D28" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E28" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.0692123933839</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H28" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I28" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="J28" t="n">
-        <v>110.7036722373638</v>
+        <v>80.3826187898823</v>
       </c>
       <c r="K28" t="n">
-        <v>102.2409096039965</v>
+        <v>0.9450153238406465</v>
       </c>
       <c r="L28" t="n">
-        <v>100.6252875130711</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>102.8040620123288</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>92.42271634155952</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>105.8856092255089</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>109.8579472941215</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>132.2092189497596</v>
+        <v>70.79273550049635</v>
       </c>
       <c r="R28" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="S28" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T28" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U28" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V28" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W28" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X28" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y28" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="29">
@@ -29511,34 +29511,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C29" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D29" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E29" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F29" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="G29" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H29" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I29" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="J29" t="n">
-        <v>137.444974440227</v>
+        <v>146.3172737237113</v>
       </c>
       <c r="K29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -29550,37 +29550,37 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>145.0692123933839</v>
+        <v>83.5814611346359</v>
       </c>
       <c r="R29" t="n">
-        <v>136.5692207072966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="S29" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T29" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U29" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V29" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W29" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X29" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="30">
@@ -29590,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C30" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D30" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E30" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0686553332114</v>
+        <v>137.1245866267072</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5808576151876</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="I30" t="n">
-        <v>90.05893541449851</v>
+        <v>91.98464003705458</v>
       </c>
       <c r="J30" t="n">
-        <v>100.8692114034454</v>
+        <v>106.1534920753536</v>
       </c>
       <c r="K30" t="n">
-        <v>93.45728110118598</v>
+        <v>102.4889584373193</v>
       </c>
       <c r="L30" t="n">
-        <v>78.87440217410972</v>
+        <v>91.01860693075145</v>
       </c>
       <c r="M30" t="n">
-        <v>72.49031497878002</v>
+        <v>86.66202912464796</v>
       </c>
       <c r="N30" t="n">
-        <v>59.85473113102088</v>
+        <v>74.40152838107841</v>
       </c>
       <c r="O30" t="n">
-        <v>77.19962298843183</v>
+        <v>90.50710052471187</v>
       </c>
       <c r="P30" t="n">
-        <v>81.48785322788902</v>
+        <v>92.16827715869736</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.895902593482</v>
+        <v>112.0354831456949</v>
       </c>
       <c r="R30" t="n">
-        <v>128.6139598171666</v>
+        <v>132.0866062677276</v>
       </c>
       <c r="S30" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T30" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U30" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V30" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W30" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X30" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y30" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="31">
@@ -29669,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C31" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D31" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E31" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.0692123933839</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H31" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I31" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="J31" t="n">
-        <v>110.7036722373638</v>
+        <v>114.0188601126056</v>
       </c>
       <c r="K31" t="n">
-        <v>102.2409096039965</v>
+        <v>107.6887816684932</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29711,34 +29711,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>109.8579472941215</v>
+        <v>115.529190638884</v>
       </c>
       <c r="Q31" t="n">
-        <v>132.2092189497596</v>
+        <v>136.1356938782478</v>
       </c>
       <c r="R31" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="S31" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T31" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U31" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V31" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W31" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X31" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="C32" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="D32" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="E32" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="F32" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="G32" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="H32" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="I32" t="n">
-        <v>190.6708867614312</v>
+        <v>194.700982263592</v>
       </c>
       <c r="J32" t="n">
-        <v>137.444974440227</v>
+        <v>146.3172737237113</v>
       </c>
       <c r="K32" t="n">
-        <v>154.7433592205302</v>
+        <v>168.0406359401463</v>
       </c>
       <c r="L32" t="n">
-        <v>154.6983135296842</v>
+        <v>171.1947611260075</v>
       </c>
       <c r="M32" t="n">
-        <v>140.1423502240593</v>
+        <v>158.4978267001324</v>
       </c>
       <c r="N32" t="n">
-        <v>137.7495874611292</v>
+        <v>156.402074736645</v>
       </c>
       <c r="O32" t="n">
-        <v>143.5429901771334</v>
+        <v>161.1560049891355</v>
       </c>
       <c r="P32" t="n">
-        <v>157.3601169488607</v>
+        <v>172.392417599405</v>
       </c>
       <c r="Q32" t="n">
-        <v>166.8302344023615</v>
+        <v>178.118866155399</v>
       </c>
       <c r="R32" t="n">
-        <v>183.3158793562044</v>
+        <v>189.8823922045959</v>
       </c>
       <c r="S32" t="n">
-        <v>197.3137859078973</v>
+        <v>199.6958830807264</v>
       </c>
       <c r="T32" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="U32" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="V32" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="W32" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="X32" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="Y32" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
     </row>
     <row r="33">
@@ -29842,61 +29842,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0686553332114</v>
+        <v>137.1245866267072</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5808576151876</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="I33" t="n">
-        <v>90.05893541449851</v>
+        <v>91.98464003705458</v>
       </c>
       <c r="J33" t="n">
-        <v>100.8692114034454</v>
+        <v>106.1534920753536</v>
       </c>
       <c r="K33" t="n">
-        <v>93.45728110118598</v>
+        <v>102.4889584373193</v>
       </c>
       <c r="L33" t="n">
-        <v>78.87440217410972</v>
+        <v>91.01860693075145</v>
       </c>
       <c r="M33" t="n">
-        <v>72.49031497878002</v>
+        <v>86.66202912464796</v>
       </c>
       <c r="N33" t="n">
-        <v>59.85473113102088</v>
+        <v>74.40152838107841</v>
       </c>
       <c r="O33" t="n">
-        <v>77.19962298843183</v>
+        <v>90.50710052471187</v>
       </c>
       <c r="P33" t="n">
-        <v>81.48785322788902</v>
+        <v>92.16827715869736</v>
       </c>
       <c r="Q33" t="n">
-        <v>19.47452603866516</v>
+        <v>112.0354831456949</v>
       </c>
       <c r="R33" t="n">
-        <v>128.6139598171666</v>
+        <v>132.0866062677276</v>
       </c>
       <c r="S33" t="n">
-        <v>166.5777331650354</v>
+        <v>167.6166324104526</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3137859078973</v>
+        <v>199.2822849972488</v>
       </c>
       <c r="U33" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="V33" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="W33" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="X33" t="n">
-        <v>197.3137859078973</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>197.3137859078973</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -29921,61 +29921,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7605444333946</v>
+        <v>167.8074353510077</v>
       </c>
       <c r="H34" t="n">
-        <v>160.1783965373241</v>
+        <v>160.595299423011</v>
       </c>
       <c r="I34" t="n">
-        <v>148.5206682716941</v>
+        <v>149.9308060486389</v>
       </c>
       <c r="J34" t="n">
-        <v>110.7036722373638</v>
+        <v>111.3674055616498</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.9450153238406465</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>110.1544264887073</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>99.59830557956208</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.5134272895774</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>132.2092189497596</v>
+        <v>70.79273550049635</v>
       </c>
       <c r="R34" t="n">
-        <v>166.9321992011052</v>
+        <v>169.0405853694151</v>
       </c>
       <c r="S34" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="T34" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="U34" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="V34" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="W34" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="X34" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
     </row>
     <row r="35">
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="C35" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="D35" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="E35" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="F35" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="G35" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="H35" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="I35" t="n">
-        <v>190.6708867614312</v>
+        <v>194.700982263592</v>
       </c>
       <c r="J35" t="n">
-        <v>137.444974440227</v>
+        <v>146.3172737237113</v>
       </c>
       <c r="K35" t="n">
-        <v>154.7433592205302</v>
+        <v>168.0406359401463</v>
       </c>
       <c r="L35" t="n">
-        <v>154.6983135296842</v>
+        <v>171.1947611260075</v>
       </c>
       <c r="M35" t="n">
-        <v>140.1423502240593</v>
+        <v>158.4978267001324</v>
       </c>
       <c r="N35" t="n">
-        <v>137.7495874611292</v>
+        <v>156.402074736645</v>
       </c>
       <c r="O35" t="n">
-        <v>34.09275234448154</v>
+        <v>161.1560049891355</v>
       </c>
       <c r="P35" t="n">
-        <v>157.3601169488607</v>
+        <v>172.392417599405</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.8302344023615</v>
+        <v>178.118866155399</v>
       </c>
       <c r="R35" t="n">
-        <v>183.3158793562044</v>
+        <v>189.8823922045959</v>
       </c>
       <c r="S35" t="n">
-        <v>197.3137859078973</v>
+        <v>199.6958830807264</v>
       </c>
       <c r="T35" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="U35" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="V35" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="W35" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="X35" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="Y35" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
     </row>
     <row r="36">
@@ -30079,61 +30079,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0686553332114</v>
+        <v>137.1245866267072</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5808576151876</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="I36" t="n">
-        <v>90.05893541449851</v>
+        <v>91.98464003705458</v>
       </c>
       <c r="J36" t="n">
-        <v>100.8692114034454</v>
+        <v>106.1534920753536</v>
       </c>
       <c r="K36" t="n">
-        <v>93.45728110118598</v>
+        <v>102.4889584373193</v>
       </c>
       <c r="L36" t="n">
-        <v>78.87440217410972</v>
+        <v>91.01860693075145</v>
       </c>
       <c r="M36" t="n">
-        <v>72.49031497878002</v>
+        <v>86.66202912464796</v>
       </c>
       <c r="N36" t="n">
-        <v>59.85473113102088</v>
+        <v>74.40152838107841</v>
       </c>
       <c r="O36" t="n">
-        <v>77.19962298843183</v>
+        <v>90.50710052471187</v>
       </c>
       <c r="P36" t="n">
-        <v>81.48785322788902</v>
+        <v>92.16827715869736</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.895902593482</v>
+        <v>112.0354831456949</v>
       </c>
       <c r="R36" t="n">
-        <v>128.6139598171666</v>
+        <v>132.0866062677276</v>
       </c>
       <c r="S36" t="n">
-        <v>166.5777331650354</v>
+        <v>167.6166324104526</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3137859078973</v>
+        <v>199.2822849972488</v>
       </c>
       <c r="U36" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="V36" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="W36" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="X36" t="n">
-        <v>197.3137859078973</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>197.3137859078973</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -30158,22 +30158,22 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7605444333946</v>
+        <v>167.8074353510077</v>
       </c>
       <c r="H37" t="n">
-        <v>160.1783965373241</v>
+        <v>160.595299423011</v>
       </c>
       <c r="I37" t="n">
-        <v>148.5206682716941</v>
+        <v>149.9308060486389</v>
       </c>
       <c r="J37" t="n">
-        <v>110.7036722373638</v>
+        <v>114.0188601126056</v>
       </c>
       <c r="K37" t="n">
-        <v>102.2409096039965</v>
+        <v>107.6887816684932</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>107.5966881189223</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30185,34 +30185,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>109.8579472941215</v>
+        <v>105.274250343314</v>
       </c>
       <c r="Q37" t="n">
-        <v>132.2092189497596</v>
+        <v>70.79273550049635</v>
       </c>
       <c r="R37" t="n">
-        <v>166.9321992011052</v>
+        <v>169.0405853694151</v>
       </c>
       <c r="S37" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="T37" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="U37" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="V37" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="W37" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="X37" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="Y37" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
     </row>
     <row r="38">
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="C38" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="D38" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="E38" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="F38" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="G38" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="H38" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="I38" t="n">
-        <v>190.6708867614312</v>
+        <v>194.700982263592</v>
       </c>
       <c r="J38" t="n">
-        <v>137.444974440227</v>
+        <v>146.3172737237113</v>
       </c>
       <c r="K38" t="n">
-        <v>154.7433592205302</v>
+        <v>168.0406359401463</v>
       </c>
       <c r="L38" t="n">
-        <v>154.6983135296842</v>
+        <v>171.1947611260075</v>
       </c>
       <c r="M38" t="n">
-        <v>140.1423502240593</v>
+        <v>158.4978267001324</v>
       </c>
       <c r="N38" t="n">
-        <v>28.29934962847685</v>
+        <v>156.402074736645</v>
       </c>
       <c r="O38" t="n">
-        <v>143.5429901771334</v>
+        <v>161.1560049891355</v>
       </c>
       <c r="P38" t="n">
-        <v>157.3601169488607</v>
+        <v>172.392417599405</v>
       </c>
       <c r="Q38" t="n">
-        <v>166.8302344023615</v>
+        <v>178.118866155399</v>
       </c>
       <c r="R38" t="n">
-        <v>183.3158793562044</v>
+        <v>189.8823922045959</v>
       </c>
       <c r="S38" t="n">
-        <v>197.3137859078973</v>
+        <v>199.6958830807264</v>
       </c>
       <c r="T38" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="U38" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="V38" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="W38" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="X38" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="Y38" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
     </row>
     <row r="39">
@@ -30316,61 +30316,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0686553332114</v>
+        <v>137.1245866267072</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5808576151876</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="I39" t="n">
-        <v>90.05893541449851</v>
+        <v>91.98464003705458</v>
       </c>
       <c r="J39" t="n">
-        <v>100.8692114034454</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>93.45728110118598</v>
+        <v>102.4889584373193</v>
       </c>
       <c r="L39" t="n">
-        <v>78.87440217410972</v>
+        <v>91.01860693075145</v>
       </c>
       <c r="M39" t="n">
-        <v>72.49031497878002</v>
+        <v>86.66202912464796</v>
       </c>
       <c r="N39" t="n">
-        <v>59.85473113102088</v>
+        <v>74.40152838107841</v>
       </c>
       <c r="O39" t="n">
-        <v>77.19962298843183</v>
+        <v>90.50710052471187</v>
       </c>
       <c r="P39" t="n">
-        <v>81.48785322788902</v>
+        <v>92.16827715869736</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.895902593482</v>
+        <v>112.0354831456949</v>
       </c>
       <c r="R39" t="n">
-        <v>128.6139598171666</v>
+        <v>132.0866062677276</v>
       </c>
       <c r="S39" t="n">
-        <v>166.5777331650354</v>
+        <v>167.6166324104526</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3137859078973</v>
+        <v>199.2822849972488</v>
       </c>
       <c r="U39" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="V39" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="W39" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="X39" t="n">
-        <v>197.3137859078973</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>197.3137859078973</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -30395,61 +30395,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7605444333946</v>
+        <v>167.8074353510077</v>
       </c>
       <c r="H40" t="n">
-        <v>160.1783965373241</v>
+        <v>160.595299423011</v>
       </c>
       <c r="I40" t="n">
-        <v>148.5206682716941</v>
+        <v>149.9308060486389</v>
       </c>
       <c r="J40" t="n">
-        <v>110.7036722373638</v>
+        <v>114.0188601126056</v>
       </c>
       <c r="K40" t="n">
-        <v>102.2409096039965</v>
+        <v>107.6887816684932</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>107.5966881189223</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>110.1544264887073</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>99.59830557956208</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>109.8579472941215</v>
+        <v>83.05935427483885</v>
       </c>
       <c r="Q40" t="n">
-        <v>132.2092189497596</v>
+        <v>70.79273550049635</v>
       </c>
       <c r="R40" t="n">
-        <v>166.9321992011052</v>
+        <v>169.0405853694151</v>
       </c>
       <c r="S40" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="T40" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="U40" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="V40" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="W40" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="X40" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
       <c r="Y40" t="n">
-        <v>197.3137859078973</v>
+        <v>214.5041961815102</v>
       </c>
     </row>
     <row r="41">
@@ -30459,43 +30459,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="C41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="D41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="E41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="F41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="G41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="H41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="I41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="J41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>84.63148813181201</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>76.48600436922334</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="S41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="T41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="U41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="V41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="W41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="X41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="Y41" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
     </row>
     <row r="42">
@@ -30538,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="C42" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="D42" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="E42" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="F42" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="G42" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="H42" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="I42" t="n">
-        <v>84.63148813181201</v>
+        <v>91.98464003705458</v>
       </c>
       <c r="J42" t="n">
-        <v>59.07125610583522</v>
+        <v>106.1534920753536</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>102.4889584373193</v>
       </c>
       <c r="L42" t="n">
-        <v>78.87440217410972</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>72.49031497878002</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>59.85473113102088</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>77.19962298843183</v>
+        <v>90.50710052471187</v>
       </c>
       <c r="P42" t="n">
-        <v>81.48785322788902</v>
+        <v>92.16827715869736</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.0922900058458</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="S42" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="T42" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="U42" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="V42" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="W42" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="X42" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="Y42" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="C43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="D43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="E43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="F43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="G43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="H43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="I43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="J43" t="n">
-        <v>77.06743091464047</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="K43" t="n">
-        <v>84.63148813181201</v>
+        <v>107.6887816684932</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>107.5966881189223</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>99.59830557956208</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="P43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="R43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="S43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="T43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="U43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="V43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="W43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="X43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="Y43" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
     </row>
     <row r="44">
@@ -30696,37 +30696,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="C44" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="D44" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="E44" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="F44" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="G44" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="H44" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="I44" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="J44" t="n">
-        <v>84.63148813181201</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30738,34 +30738,34 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="Q44" t="n">
-        <v>84.63148813181201</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="S44" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="T44" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="U44" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="V44" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="W44" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="X44" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="Y44" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
     </row>
     <row r="45">
@@ -30775,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="C45" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="D45" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="E45" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="F45" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="G45" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="H45" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="I45" t="n">
-        <v>84.63148813181201</v>
+        <v>91.98464003705458</v>
       </c>
       <c r="J45" t="n">
-        <v>84.63148813181201</v>
+        <v>6.878328616414279</v>
       </c>
       <c r="K45" t="n">
-        <v>84.63148813181201</v>
+        <v>102.4889584373193</v>
       </c>
       <c r="L45" t="n">
-        <v>78.87440217410972</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>59.85473113102088</v>
+        <v>74.40152838107841</v>
       </c>
       <c r="O45" t="n">
-        <v>77.19962298843183</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39.50490622784101</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.0922900058458</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="S45" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="T45" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="U45" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="V45" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="W45" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="X45" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="Y45" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="C46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="D46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="E46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="F46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="G46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="H46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="I46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="J46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="K46" t="n">
-        <v>84.63148813181201</v>
+        <v>107.6887816684932</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>107.5966881189223</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>99.59830557956208</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="R46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="S46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="T46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="U46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="V46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="W46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="X46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
       <c r="Y46" t="n">
-        <v>84.63148813181201</v>
+        <v>110.1210361602664</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5137151367349647</v>
+        <v>0.4091798795619959</v>
       </c>
       <c r="H11" t="n">
-        <v>5.261085144086959</v>
+        <v>4.190513441564291</v>
       </c>
       <c r="I11" t="n">
-        <v>19.80500280897475</v>
+        <v>15.77490730681386</v>
       </c>
       <c r="J11" t="n">
-        <v>43.60093008645925</v>
+        <v>34.72863080297498</v>
       </c>
       <c r="K11" t="n">
-        <v>65.34649182445033</v>
+        <v>52.04921510483427</v>
       </c>
       <c r="L11" t="n">
-        <v>81.06810144030301</v>
+        <v>64.57165384397972</v>
       </c>
       <c r="M11" t="n">
-        <v>90.20388300321343</v>
+        <v>71.84840652714036</v>
       </c>
       <c r="N11" t="n">
-        <v>91.66347613546166</v>
+        <v>73.01098885994588</v>
       </c>
       <c r="O11" t="n">
-        <v>86.55522124455335</v>
+        <v>68.94220643255129</v>
       </c>
       <c r="P11" t="n">
-        <v>73.87287880640891</v>
+        <v>58.84057815586451</v>
       </c>
       <c r="Q11" t="n">
-        <v>55.47545547208796</v>
+        <v>44.18682371905052</v>
       </c>
       <c r="R11" t="n">
-        <v>32.26965845792775</v>
+        <v>25.70314560953625</v>
       </c>
       <c r="S11" t="n">
-        <v>11.70628367834802</v>
+        <v>9.324186505518989</v>
       </c>
       <c r="T11" t="n">
-        <v>2.248788011057309</v>
+        <v>1.791184922782638</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04109721093879717</v>
+        <v>0.03273439036495966</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2748618299992788</v>
+        <v>0.2189305365033831</v>
       </c>
       <c r="H12" t="n">
-        <v>2.654586621308824</v>
+        <v>2.114408076230043</v>
       </c>
       <c r="I12" t="n">
-        <v>9.463444585501485</v>
+        <v>7.537739962945429</v>
       </c>
       <c r="J12" t="n">
-        <v>25.96841526322133</v>
+        <v>20.68413459131306</v>
       </c>
       <c r="K12" t="n">
-        <v>44.38415787317301</v>
+        <v>35.35248053703972</v>
       </c>
       <c r="L12" t="n">
-        <v>59.67997760576446</v>
+        <v>47.53577284912274</v>
       </c>
       <c r="M12" t="n">
-        <v>69.6437189432383</v>
+        <v>55.47200479737036</v>
       </c>
       <c r="N12" t="n">
-        <v>71.48698095231242</v>
+        <v>56.94018370225491</v>
       </c>
       <c r="O12" t="n">
-        <v>65.39662145601261</v>
+        <v>52.08914391973256</v>
       </c>
       <c r="P12" t="n">
-        <v>52.48655418644123</v>
+        <v>41.80613025563288</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.08587149253952</v>
+        <v>27.94629094032659</v>
       </c>
       <c r="R12" t="n">
-        <v>17.06554414679733</v>
+        <v>13.59289769623637</v>
       </c>
       <c r="S12" t="n">
-        <v>5.105437938802389</v>
+        <v>4.066538693385207</v>
       </c>
       <c r="T12" t="n">
-        <v>1.107886060391829</v>
+        <v>0.8824436975728467</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01808301513153151</v>
+        <v>0.01440332476995942</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2304349250641063</v>
+        <v>0.1835440074510675</v>
       </c>
       <c r="H13" t="n">
-        <v>2.048775970115419</v>
+        <v>1.631873084428583</v>
       </c>
       <c r="I13" t="n">
-        <v>6.929806655564215</v>
+        <v>5.519668878619377</v>
       </c>
       <c r="J13" t="n">
-        <v>16.29174920203231</v>
+        <v>12.97656132679047</v>
       </c>
       <c r="K13" t="n">
-        <v>26.77234856653888</v>
+        <v>21.32447650204221</v>
       </c>
       <c r="L13" t="n">
-        <v>34.25938876816722</v>
+        <v>27.28798816231599</v>
       </c>
       <c r="M13" t="n">
-        <v>36.12172193527621</v>
+        <v>28.77135745889779</v>
       </c>
       <c r="N13" t="n">
-        <v>35.26282812367366</v>
+        <v>28.08723888567111</v>
       </c>
       <c r="O13" t="n">
-        <v>32.57092922633387</v>
+        <v>25.94311116226545</v>
       </c>
       <c r="P13" t="n">
-        <v>27.87005675502608</v>
+        <v>22.19881341026365</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.29578267968621</v>
+        <v>15.36930775119803</v>
       </c>
       <c r="R13" t="n">
-        <v>10.36119217606427</v>
+        <v>8.252806007754362</v>
       </c>
       <c r="S13" t="n">
-        <v>4.015852284980832</v>
+        <v>3.19867147530633</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9845855889102719</v>
+        <v>0.7842334863818338</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01256917773076945</v>
+        <v>0.01001149131551279</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5137151367349647</v>
+        <v>0.4091798795619959</v>
       </c>
       <c r="H14" t="n">
-        <v>5.261085144086959</v>
+        <v>4.190513441564291</v>
       </c>
       <c r="I14" t="n">
-        <v>19.80500280897475</v>
+        <v>15.77490730681386</v>
       </c>
       <c r="J14" t="n">
-        <v>43.60093008645925</v>
+        <v>34.72863080297498</v>
       </c>
       <c r="K14" t="n">
-        <v>65.34649182445033</v>
+        <v>52.04921510483427</v>
       </c>
       <c r="L14" t="n">
-        <v>81.06810144030301</v>
+        <v>64.57165384397972</v>
       </c>
       <c r="M14" t="n">
-        <v>90.20388300321343</v>
+        <v>71.84840652714036</v>
       </c>
       <c r="N14" t="n">
-        <v>91.66347613546166</v>
+        <v>73.01098885994588</v>
       </c>
       <c r="O14" t="n">
-        <v>86.55522124455335</v>
+        <v>68.94220643255129</v>
       </c>
       <c r="P14" t="n">
-        <v>73.87287880640891</v>
+        <v>58.84057815586451</v>
       </c>
       <c r="Q14" t="n">
-        <v>55.47545547208796</v>
+        <v>44.18682371905052</v>
       </c>
       <c r="R14" t="n">
-        <v>32.26965845792775</v>
+        <v>25.70314560953625</v>
       </c>
       <c r="S14" t="n">
-        <v>11.70628367834802</v>
+        <v>9.324186505518989</v>
       </c>
       <c r="T14" t="n">
-        <v>2.248788011057309</v>
+        <v>1.791184922782638</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04109721093879717</v>
+        <v>0.03273439036495966</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2748618299992788</v>
+        <v>0.2189305365033831</v>
       </c>
       <c r="H15" t="n">
-        <v>2.654586621308824</v>
+        <v>2.114408076230043</v>
       </c>
       <c r="I15" t="n">
-        <v>9.463444585501485</v>
+        <v>7.537739962945429</v>
       </c>
       <c r="J15" t="n">
-        <v>25.96841526322133</v>
+        <v>20.68413459131306</v>
       </c>
       <c r="K15" t="n">
-        <v>44.38415787317301</v>
+        <v>35.35248053703972</v>
       </c>
       <c r="L15" t="n">
-        <v>59.67997760576446</v>
+        <v>47.53577284912274</v>
       </c>
       <c r="M15" t="n">
-        <v>69.6437189432383</v>
+        <v>55.47200479737036</v>
       </c>
       <c r="N15" t="n">
-        <v>71.48698095231242</v>
+        <v>56.94018370225491</v>
       </c>
       <c r="O15" t="n">
-        <v>65.39662145601261</v>
+        <v>52.08914391973256</v>
       </c>
       <c r="P15" t="n">
-        <v>52.48655418644123</v>
+        <v>41.80613025563288</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.08587149253952</v>
+        <v>27.94629094032659</v>
       </c>
       <c r="R15" t="n">
-        <v>17.06554414679733</v>
+        <v>13.59289769623637</v>
       </c>
       <c r="S15" t="n">
-        <v>5.105437938802389</v>
+        <v>4.066538693385207</v>
       </c>
       <c r="T15" t="n">
-        <v>1.107886060391829</v>
+        <v>0.8824436975728467</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01808301513153151</v>
+        <v>0.01440332476995942</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2304349250641063</v>
+        <v>0.1835440074510675</v>
       </c>
       <c r="H16" t="n">
-        <v>2.048775970115419</v>
+        <v>1.631873084428583</v>
       </c>
       <c r="I16" t="n">
-        <v>6.929806655564215</v>
+        <v>5.519668878619377</v>
       </c>
       <c r="J16" t="n">
-        <v>16.29174920203231</v>
+        <v>12.97656132679047</v>
       </c>
       <c r="K16" t="n">
-        <v>26.77234856653888</v>
+        <v>21.32447650204221</v>
       </c>
       <c r="L16" t="n">
-        <v>34.25938876816722</v>
+        <v>27.28798816231599</v>
       </c>
       <c r="M16" t="n">
-        <v>36.12172193527621</v>
+        <v>28.77135745889779</v>
       </c>
       <c r="N16" t="n">
-        <v>35.26282812367366</v>
+        <v>28.08723888567111</v>
       </c>
       <c r="O16" t="n">
-        <v>32.57092922633387</v>
+        <v>25.94311116226545</v>
       </c>
       <c r="P16" t="n">
-        <v>27.87005675502608</v>
+        <v>22.19881341026365</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.29578267968621</v>
+        <v>15.36930775119803</v>
       </c>
       <c r="R16" t="n">
-        <v>10.36119217606427</v>
+        <v>8.252806007754362</v>
       </c>
       <c r="S16" t="n">
-        <v>4.015852284980832</v>
+        <v>3.19867147530633</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9845855889102719</v>
+        <v>0.7842334863818338</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01256917773076945</v>
+        <v>0.01001149131551279</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5137151367349647</v>
+        <v>0.4091798795619959</v>
       </c>
       <c r="H17" t="n">
-        <v>5.261085144086959</v>
+        <v>4.190513441564291</v>
       </c>
       <c r="I17" t="n">
-        <v>19.80500280897475</v>
+        <v>15.77490730681386</v>
       </c>
       <c r="J17" t="n">
-        <v>43.60093008645925</v>
+        <v>34.72863080297498</v>
       </c>
       <c r="K17" t="n">
-        <v>65.34649182445033</v>
+        <v>52.04921510483427</v>
       </c>
       <c r="L17" t="n">
-        <v>81.06810144030301</v>
+        <v>64.57165384397972</v>
       </c>
       <c r="M17" t="n">
-        <v>90.20388300321343</v>
+        <v>71.84840652714036</v>
       </c>
       <c r="N17" t="n">
-        <v>91.66347613546166</v>
+        <v>73.01098885994588</v>
       </c>
       <c r="O17" t="n">
-        <v>86.55522124455335</v>
+        <v>68.94220643255129</v>
       </c>
       <c r="P17" t="n">
-        <v>73.87287880640891</v>
+        <v>58.84057815586451</v>
       </c>
       <c r="Q17" t="n">
-        <v>55.47545547208796</v>
+        <v>44.18682371905052</v>
       </c>
       <c r="R17" t="n">
-        <v>32.26965845792775</v>
+        <v>25.70314560953625</v>
       </c>
       <c r="S17" t="n">
-        <v>11.70628367834802</v>
+        <v>9.324186505518989</v>
       </c>
       <c r="T17" t="n">
-        <v>2.248788011057309</v>
+        <v>1.791184922782638</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04109721093879717</v>
+        <v>0.03273439036495966</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2748618299992788</v>
+        <v>0.2189305365033831</v>
       </c>
       <c r="H18" t="n">
-        <v>2.654586621308824</v>
+        <v>2.114408076230043</v>
       </c>
       <c r="I18" t="n">
-        <v>9.463444585501485</v>
+        <v>7.537739962945429</v>
       </c>
       <c r="J18" t="n">
-        <v>25.96841526322133</v>
+        <v>20.68413459131306</v>
       </c>
       <c r="K18" t="n">
-        <v>44.38415787317301</v>
+        <v>35.35248053703972</v>
       </c>
       <c r="L18" t="n">
-        <v>59.67997760576446</v>
+        <v>47.53577284912274</v>
       </c>
       <c r="M18" t="n">
-        <v>69.6437189432383</v>
+        <v>55.47200479737036</v>
       </c>
       <c r="N18" t="n">
-        <v>71.48698095231242</v>
+        <v>56.94018370225491</v>
       </c>
       <c r="O18" t="n">
-        <v>65.39662145601261</v>
+        <v>52.08914391973256</v>
       </c>
       <c r="P18" t="n">
-        <v>52.48655418644123</v>
+        <v>41.80613025563288</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.08587149253952</v>
+        <v>27.94629094032659</v>
       </c>
       <c r="R18" t="n">
-        <v>17.06554414679733</v>
+        <v>13.59289769623637</v>
       </c>
       <c r="S18" t="n">
-        <v>5.105437938802389</v>
+        <v>4.066538693385207</v>
       </c>
       <c r="T18" t="n">
-        <v>1.107886060391829</v>
+        <v>0.8824436975728467</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01808301513153151</v>
+        <v>0.01440332476995942</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2304349250641063</v>
+        <v>0.1835440074510675</v>
       </c>
       <c r="H19" t="n">
-        <v>2.048775970115419</v>
+        <v>1.631873084428583</v>
       </c>
       <c r="I19" t="n">
-        <v>6.929806655564215</v>
+        <v>5.519668878619377</v>
       </c>
       <c r="J19" t="n">
-        <v>16.29174920203231</v>
+        <v>12.97656132679047</v>
       </c>
       <c r="K19" t="n">
-        <v>26.77234856653888</v>
+        <v>21.32447650204221</v>
       </c>
       <c r="L19" t="n">
-        <v>34.25938876816722</v>
+        <v>27.28798816231599</v>
       </c>
       <c r="M19" t="n">
-        <v>36.12172193527621</v>
+        <v>28.77135745889779</v>
       </c>
       <c r="N19" t="n">
-        <v>35.26282812367366</v>
+        <v>28.08723888567111</v>
       </c>
       <c r="O19" t="n">
-        <v>32.57092922633387</v>
+        <v>25.94311116226545</v>
       </c>
       <c r="P19" t="n">
-        <v>27.87005675502608</v>
+        <v>22.19881341026365</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.29578267968621</v>
+        <v>15.36930775119803</v>
       </c>
       <c r="R19" t="n">
-        <v>10.36119217606427</v>
+        <v>8.252806007754362</v>
       </c>
       <c r="S19" t="n">
-        <v>4.015852284980832</v>
+        <v>3.19867147530633</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9845855889102719</v>
+        <v>0.7842334863818338</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01256917773076945</v>
+        <v>0.01001149131551279</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5137151367349647</v>
+        <v>0.4091798795619959</v>
       </c>
       <c r="H20" t="n">
-        <v>5.261085144086959</v>
+        <v>4.190513441564291</v>
       </c>
       <c r="I20" t="n">
-        <v>19.80500280897475</v>
+        <v>15.77490730681386</v>
       </c>
       <c r="J20" t="n">
-        <v>43.60093008645925</v>
+        <v>34.72863080297498</v>
       </c>
       <c r="K20" t="n">
-        <v>65.34649182445033</v>
+        <v>52.04921510483427</v>
       </c>
       <c r="L20" t="n">
-        <v>81.06810144030301</v>
+        <v>64.57165384397972</v>
       </c>
       <c r="M20" t="n">
-        <v>90.20388300321343</v>
+        <v>71.84840652714036</v>
       </c>
       <c r="N20" t="n">
-        <v>91.66347613546166</v>
+        <v>73.01098885994588</v>
       </c>
       <c r="O20" t="n">
-        <v>86.55522124455335</v>
+        <v>68.94220643255129</v>
       </c>
       <c r="P20" t="n">
-        <v>73.87287880640891</v>
+        <v>58.84057815586451</v>
       </c>
       <c r="Q20" t="n">
-        <v>55.47545547208796</v>
+        <v>44.18682371905052</v>
       </c>
       <c r="R20" t="n">
-        <v>32.26965845792775</v>
+        <v>25.70314560953625</v>
       </c>
       <c r="S20" t="n">
-        <v>11.70628367834802</v>
+        <v>9.324186505518989</v>
       </c>
       <c r="T20" t="n">
-        <v>2.248788011057309</v>
+        <v>1.791184922782638</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04109721093879717</v>
+        <v>0.03273439036495966</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2748618299992788</v>
+        <v>0.2189305365033831</v>
       </c>
       <c r="H21" t="n">
-        <v>2.654586621308824</v>
+        <v>2.114408076230043</v>
       </c>
       <c r="I21" t="n">
-        <v>9.463444585501485</v>
+        <v>7.537739962945429</v>
       </c>
       <c r="J21" t="n">
-        <v>25.96841526322133</v>
+        <v>20.68413459131306</v>
       </c>
       <c r="K21" t="n">
-        <v>44.38415787317301</v>
+        <v>35.35248053703972</v>
       </c>
       <c r="L21" t="n">
-        <v>59.67997760576446</v>
+        <v>47.53577284912274</v>
       </c>
       <c r="M21" t="n">
-        <v>69.6437189432383</v>
+        <v>55.47200479737036</v>
       </c>
       <c r="N21" t="n">
-        <v>71.48698095231242</v>
+        <v>56.94018370225491</v>
       </c>
       <c r="O21" t="n">
-        <v>65.39662145601261</v>
+        <v>52.08914391973256</v>
       </c>
       <c r="P21" t="n">
-        <v>52.48655418644123</v>
+        <v>41.80613025563288</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.08587149253952</v>
+        <v>27.94629094032659</v>
       </c>
       <c r="R21" t="n">
-        <v>17.06554414679733</v>
+        <v>13.59289769623637</v>
       </c>
       <c r="S21" t="n">
-        <v>5.105437938802389</v>
+        <v>4.066538693385207</v>
       </c>
       <c r="T21" t="n">
-        <v>1.107886060391829</v>
+        <v>0.8824436975728467</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01808301513153151</v>
+        <v>0.01440332476995942</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2304349250641063</v>
+        <v>0.1835440074510675</v>
       </c>
       <c r="H22" t="n">
-        <v>2.048775970115419</v>
+        <v>1.631873084428583</v>
       </c>
       <c r="I22" t="n">
-        <v>6.929806655564215</v>
+        <v>5.519668878619377</v>
       </c>
       <c r="J22" t="n">
-        <v>16.29174920203231</v>
+        <v>12.97656132679047</v>
       </c>
       <c r="K22" t="n">
-        <v>26.77234856653888</v>
+        <v>21.32447650204221</v>
       </c>
       <c r="L22" t="n">
-        <v>34.25938876816722</v>
+        <v>27.28798816231599</v>
       </c>
       <c r="M22" t="n">
-        <v>36.12172193527621</v>
+        <v>28.77135745889779</v>
       </c>
       <c r="N22" t="n">
-        <v>35.26282812367366</v>
+        <v>28.08723888567111</v>
       </c>
       <c r="O22" t="n">
-        <v>32.57092922633387</v>
+        <v>25.94311116226545</v>
       </c>
       <c r="P22" t="n">
-        <v>27.87005675502608</v>
+        <v>22.19881341026365</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.29578267968621</v>
+        <v>15.36930775119803</v>
       </c>
       <c r="R22" t="n">
-        <v>10.36119217606427</v>
+        <v>8.252806007754362</v>
       </c>
       <c r="S22" t="n">
-        <v>4.015852284980832</v>
+        <v>3.19867147530633</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9845855889102719</v>
+        <v>0.7842334863818338</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01256917773076945</v>
+        <v>0.01001149131551279</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5137151367349647</v>
+        <v>0.4091798795619959</v>
       </c>
       <c r="H23" t="n">
-        <v>5.261085144086959</v>
+        <v>4.190513441564291</v>
       </c>
       <c r="I23" t="n">
-        <v>19.80500280897475</v>
+        <v>15.77490730681386</v>
       </c>
       <c r="J23" t="n">
-        <v>43.60093008645925</v>
+        <v>34.72863080297498</v>
       </c>
       <c r="K23" t="n">
-        <v>65.34649182445033</v>
+        <v>52.04921510483427</v>
       </c>
       <c r="L23" t="n">
-        <v>81.06810144030301</v>
+        <v>64.57165384397972</v>
       </c>
       <c r="M23" t="n">
-        <v>90.20388300321343</v>
+        <v>71.84840652714036</v>
       </c>
       <c r="N23" t="n">
-        <v>91.66347613546166</v>
+        <v>73.01098885994588</v>
       </c>
       <c r="O23" t="n">
-        <v>86.55522124455335</v>
+        <v>68.94220643255129</v>
       </c>
       <c r="P23" t="n">
-        <v>73.87287880640891</v>
+        <v>58.84057815586451</v>
       </c>
       <c r="Q23" t="n">
-        <v>55.47545547208796</v>
+        <v>44.18682371905052</v>
       </c>
       <c r="R23" t="n">
-        <v>32.26965845792775</v>
+        <v>25.70314560953625</v>
       </c>
       <c r="S23" t="n">
-        <v>11.70628367834802</v>
+        <v>9.324186505518989</v>
       </c>
       <c r="T23" t="n">
-        <v>2.248788011057309</v>
+        <v>1.791184922782638</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04109721093879717</v>
+        <v>0.03273439036495966</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2748618299992788</v>
+        <v>0.2189305365033831</v>
       </c>
       <c r="H24" t="n">
-        <v>2.654586621308824</v>
+        <v>2.114408076230043</v>
       </c>
       <c r="I24" t="n">
-        <v>9.463444585501485</v>
+        <v>7.537739962945429</v>
       </c>
       <c r="J24" t="n">
-        <v>25.96841526322133</v>
+        <v>20.68413459131306</v>
       </c>
       <c r="K24" t="n">
-        <v>44.38415787317301</v>
+        <v>35.35248053703972</v>
       </c>
       <c r="L24" t="n">
-        <v>59.67997760576446</v>
+        <v>47.53577284912274</v>
       </c>
       <c r="M24" t="n">
-        <v>69.6437189432383</v>
+        <v>55.47200479737036</v>
       </c>
       <c r="N24" t="n">
-        <v>71.48698095231242</v>
+        <v>56.94018370225491</v>
       </c>
       <c r="O24" t="n">
-        <v>65.39662145601261</v>
+        <v>52.08914391973256</v>
       </c>
       <c r="P24" t="n">
-        <v>52.48655418644123</v>
+        <v>41.80613025563288</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.08587149253952</v>
+        <v>27.94629094032659</v>
       </c>
       <c r="R24" t="n">
-        <v>17.06554414679733</v>
+        <v>13.59289769623637</v>
       </c>
       <c r="S24" t="n">
-        <v>5.105437938802389</v>
+        <v>4.066538693385207</v>
       </c>
       <c r="T24" t="n">
-        <v>1.107886060391829</v>
+        <v>0.8824436975728467</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01808301513153151</v>
+        <v>0.01440332476995942</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2304349250641063</v>
+        <v>0.1835440074510675</v>
       </c>
       <c r="H25" t="n">
-        <v>2.048775970115419</v>
+        <v>1.631873084428583</v>
       </c>
       <c r="I25" t="n">
-        <v>6.929806655564215</v>
+        <v>5.519668878619377</v>
       </c>
       <c r="J25" t="n">
-        <v>16.29174920203231</v>
+        <v>12.97656132679047</v>
       </c>
       <c r="K25" t="n">
-        <v>26.77234856653888</v>
+        <v>21.32447650204221</v>
       </c>
       <c r="L25" t="n">
-        <v>34.25938876816722</v>
+        <v>27.28798816231599</v>
       </c>
       <c r="M25" t="n">
-        <v>36.12172193527621</v>
+        <v>28.77135745889779</v>
       </c>
       <c r="N25" t="n">
-        <v>35.26282812367366</v>
+        <v>28.08723888567111</v>
       </c>
       <c r="O25" t="n">
-        <v>32.57092922633387</v>
+        <v>25.94311116226545</v>
       </c>
       <c r="P25" t="n">
-        <v>27.87005675502608</v>
+        <v>22.19881341026365</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.29578267968621</v>
+        <v>15.36930775119803</v>
       </c>
       <c r="R25" t="n">
-        <v>10.36119217606427</v>
+        <v>8.252806007754362</v>
       </c>
       <c r="S25" t="n">
-        <v>4.015852284980832</v>
+        <v>3.19867147530633</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9845855889102719</v>
+        <v>0.7842334863818338</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01256917773076945</v>
+        <v>0.01001149131551279</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5137151367349647</v>
+        <v>0.4091798795619959</v>
       </c>
       <c r="H26" t="n">
-        <v>5.261085144086959</v>
+        <v>4.190513441564291</v>
       </c>
       <c r="I26" t="n">
-        <v>19.80500280897475</v>
+        <v>15.77490730681386</v>
       </c>
       <c r="J26" t="n">
-        <v>43.60093008645925</v>
+        <v>34.72863080297498</v>
       </c>
       <c r="K26" t="n">
-        <v>65.34649182445033</v>
+        <v>52.04921510483427</v>
       </c>
       <c r="L26" t="n">
-        <v>81.06810144030301</v>
+        <v>64.57165384397972</v>
       </c>
       <c r="M26" t="n">
-        <v>90.20388300321343</v>
+        <v>71.84840652714036</v>
       </c>
       <c r="N26" t="n">
-        <v>91.66347613546166</v>
+        <v>73.01098885994588</v>
       </c>
       <c r="O26" t="n">
-        <v>86.55522124455335</v>
+        <v>68.94220643255129</v>
       </c>
       <c r="P26" t="n">
-        <v>73.87287880640891</v>
+        <v>58.84057815586451</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.47545547208796</v>
+        <v>44.18682371905052</v>
       </c>
       <c r="R26" t="n">
-        <v>32.26965845792775</v>
+        <v>25.70314560953625</v>
       </c>
       <c r="S26" t="n">
-        <v>11.70628367834802</v>
+        <v>9.324186505518989</v>
       </c>
       <c r="T26" t="n">
-        <v>2.248788011057309</v>
+        <v>1.791184922782638</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04109721093879717</v>
+        <v>0.03273439036495966</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2748618299992788</v>
+        <v>0.2189305365033831</v>
       </c>
       <c r="H27" t="n">
-        <v>2.654586621308824</v>
+        <v>2.114408076230043</v>
       </c>
       <c r="I27" t="n">
-        <v>9.463444585501485</v>
+        <v>7.537739962945429</v>
       </c>
       <c r="J27" t="n">
-        <v>25.96841526322133</v>
+        <v>20.68413459131306</v>
       </c>
       <c r="K27" t="n">
-        <v>44.38415787317301</v>
+        <v>35.35248053703972</v>
       </c>
       <c r="L27" t="n">
-        <v>59.67997760576446</v>
+        <v>47.53577284912274</v>
       </c>
       <c r="M27" t="n">
-        <v>69.6437189432383</v>
+        <v>55.47200479737036</v>
       </c>
       <c r="N27" t="n">
-        <v>71.48698095231242</v>
+        <v>56.94018370225491</v>
       </c>
       <c r="O27" t="n">
-        <v>65.39662145601261</v>
+        <v>52.08914391973256</v>
       </c>
       <c r="P27" t="n">
-        <v>52.48655418644123</v>
+        <v>41.80613025563288</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.08587149253952</v>
+        <v>27.94629094032659</v>
       </c>
       <c r="R27" t="n">
-        <v>17.06554414679733</v>
+        <v>13.59289769623637</v>
       </c>
       <c r="S27" t="n">
-        <v>5.105437938802389</v>
+        <v>4.066538693385207</v>
       </c>
       <c r="T27" t="n">
-        <v>1.107886060391829</v>
+        <v>0.8824436975728467</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01808301513153151</v>
+        <v>0.01440332476995942</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2304349250641063</v>
+        <v>0.1835440074510675</v>
       </c>
       <c r="H28" t="n">
-        <v>2.048775970115419</v>
+        <v>1.631873084428583</v>
       </c>
       <c r="I28" t="n">
-        <v>6.929806655564215</v>
+        <v>5.519668878619377</v>
       </c>
       <c r="J28" t="n">
-        <v>16.29174920203231</v>
+        <v>12.97656132679047</v>
       </c>
       <c r="K28" t="n">
-        <v>26.77234856653888</v>
+        <v>21.32447650204221</v>
       </c>
       <c r="L28" t="n">
-        <v>34.25938876816722</v>
+        <v>27.28798816231599</v>
       </c>
       <c r="M28" t="n">
-        <v>36.12172193527621</v>
+        <v>28.77135745889779</v>
       </c>
       <c r="N28" t="n">
-        <v>35.26282812367366</v>
+        <v>28.08723888567111</v>
       </c>
       <c r="O28" t="n">
-        <v>32.57092922633387</v>
+        <v>25.94311116226545</v>
       </c>
       <c r="P28" t="n">
-        <v>27.87005675502608</v>
+        <v>22.19881341026365</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.29578267968621</v>
+        <v>15.36930775119803</v>
       </c>
       <c r="R28" t="n">
-        <v>10.36119217606427</v>
+        <v>8.252806007754362</v>
       </c>
       <c r="S28" t="n">
-        <v>4.015852284980832</v>
+        <v>3.19867147530633</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9845855889102719</v>
+        <v>0.7842334863818338</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01256917773076945</v>
+        <v>0.01001149131551279</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5137151367349647</v>
+        <v>0.4091798795619959</v>
       </c>
       <c r="H29" t="n">
-        <v>5.261085144086959</v>
+        <v>4.190513441564291</v>
       </c>
       <c r="I29" t="n">
-        <v>19.80500280897475</v>
+        <v>15.77490730681386</v>
       </c>
       <c r="J29" t="n">
-        <v>43.60093008645925</v>
+        <v>34.72863080297498</v>
       </c>
       <c r="K29" t="n">
-        <v>65.34649182445033</v>
+        <v>52.04921510483427</v>
       </c>
       <c r="L29" t="n">
-        <v>81.06810144030301</v>
+        <v>64.57165384397972</v>
       </c>
       <c r="M29" t="n">
-        <v>90.20388300321343</v>
+        <v>71.84840652714036</v>
       </c>
       <c r="N29" t="n">
-        <v>91.66347613546166</v>
+        <v>73.01098885994588</v>
       </c>
       <c r="O29" t="n">
-        <v>86.55522124455335</v>
+        <v>68.94220643255129</v>
       </c>
       <c r="P29" t="n">
-        <v>73.87287880640891</v>
+        <v>58.84057815586451</v>
       </c>
       <c r="Q29" t="n">
-        <v>55.47545547208796</v>
+        <v>44.18682371905052</v>
       </c>
       <c r="R29" t="n">
-        <v>32.26965845792775</v>
+        <v>25.70314560953625</v>
       </c>
       <c r="S29" t="n">
-        <v>11.70628367834802</v>
+        <v>9.324186505518989</v>
       </c>
       <c r="T29" t="n">
-        <v>2.248788011057309</v>
+        <v>1.791184922782638</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04109721093879717</v>
+        <v>0.03273439036495966</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2748618299992788</v>
+        <v>0.2189305365033831</v>
       </c>
       <c r="H30" t="n">
-        <v>2.654586621308824</v>
+        <v>2.114408076230043</v>
       </c>
       <c r="I30" t="n">
-        <v>9.463444585501485</v>
+        <v>7.537739962945429</v>
       </c>
       <c r="J30" t="n">
-        <v>25.96841526322133</v>
+        <v>20.68413459131306</v>
       </c>
       <c r="K30" t="n">
-        <v>44.38415787317301</v>
+        <v>35.35248053703972</v>
       </c>
       <c r="L30" t="n">
-        <v>59.67997760576446</v>
+        <v>47.53577284912274</v>
       </c>
       <c r="M30" t="n">
-        <v>69.6437189432383</v>
+        <v>55.47200479737036</v>
       </c>
       <c r="N30" t="n">
-        <v>71.48698095231242</v>
+        <v>56.94018370225491</v>
       </c>
       <c r="O30" t="n">
-        <v>65.39662145601261</v>
+        <v>52.08914391973256</v>
       </c>
       <c r="P30" t="n">
-        <v>52.48655418644123</v>
+        <v>41.80613025563288</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.08587149253952</v>
+        <v>27.94629094032659</v>
       </c>
       <c r="R30" t="n">
-        <v>17.06554414679733</v>
+        <v>13.59289769623637</v>
       </c>
       <c r="S30" t="n">
-        <v>5.105437938802389</v>
+        <v>4.066538693385207</v>
       </c>
       <c r="T30" t="n">
-        <v>1.107886060391829</v>
+        <v>0.8824436975728467</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01808301513153151</v>
+        <v>0.01440332476995942</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2304349250641063</v>
+        <v>0.1835440074510675</v>
       </c>
       <c r="H31" t="n">
-        <v>2.048775970115419</v>
+        <v>1.631873084428583</v>
       </c>
       <c r="I31" t="n">
-        <v>6.929806655564215</v>
+        <v>5.519668878619377</v>
       </c>
       <c r="J31" t="n">
-        <v>16.29174920203231</v>
+        <v>12.97656132679047</v>
       </c>
       <c r="K31" t="n">
-        <v>26.77234856653888</v>
+        <v>21.32447650204221</v>
       </c>
       <c r="L31" t="n">
-        <v>34.25938876816722</v>
+        <v>27.28798816231599</v>
       </c>
       <c r="M31" t="n">
-        <v>36.12172193527621</v>
+        <v>28.77135745889779</v>
       </c>
       <c r="N31" t="n">
-        <v>35.26282812367366</v>
+        <v>28.08723888567111</v>
       </c>
       <c r="O31" t="n">
-        <v>32.57092922633387</v>
+        <v>25.94311116226545</v>
       </c>
       <c r="P31" t="n">
-        <v>27.87005675502608</v>
+        <v>22.19881341026365</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.29578267968621</v>
+        <v>15.36930775119803</v>
       </c>
       <c r="R31" t="n">
-        <v>10.36119217606427</v>
+        <v>8.252806007754362</v>
       </c>
       <c r="S31" t="n">
-        <v>4.015852284980832</v>
+        <v>3.19867147530633</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9845855889102719</v>
+        <v>0.7842334863818338</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01256917773076945</v>
+        <v>0.01001149131551279</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5137151367349647</v>
+        <v>0.4091798795619959</v>
       </c>
       <c r="H32" t="n">
-        <v>5.261085144086959</v>
+        <v>4.190513441564291</v>
       </c>
       <c r="I32" t="n">
-        <v>19.80500280897475</v>
+        <v>15.77490730681386</v>
       </c>
       <c r="J32" t="n">
-        <v>43.60093008645925</v>
+        <v>34.72863080297498</v>
       </c>
       <c r="K32" t="n">
-        <v>65.34649182445033</v>
+        <v>52.04921510483427</v>
       </c>
       <c r="L32" t="n">
-        <v>81.06810144030301</v>
+        <v>64.57165384397972</v>
       </c>
       <c r="M32" t="n">
-        <v>90.20388300321343</v>
+        <v>71.84840652714036</v>
       </c>
       <c r="N32" t="n">
-        <v>91.66347613546166</v>
+        <v>73.01098885994588</v>
       </c>
       <c r="O32" t="n">
-        <v>86.55522124455335</v>
+        <v>68.94220643255129</v>
       </c>
       <c r="P32" t="n">
-        <v>73.87287880640891</v>
+        <v>58.84057815586451</v>
       </c>
       <c r="Q32" t="n">
-        <v>55.47545547208796</v>
+        <v>44.18682371905052</v>
       </c>
       <c r="R32" t="n">
-        <v>32.26965845792775</v>
+        <v>25.70314560953625</v>
       </c>
       <c r="S32" t="n">
-        <v>11.70628367834802</v>
+        <v>9.324186505518989</v>
       </c>
       <c r="T32" t="n">
-        <v>2.248788011057309</v>
+        <v>1.791184922782638</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04109721093879717</v>
+        <v>0.03273439036495966</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2748618299992788</v>
+        <v>0.2189305365033831</v>
       </c>
       <c r="H33" t="n">
-        <v>2.654586621308824</v>
+        <v>2.114408076230043</v>
       </c>
       <c r="I33" t="n">
-        <v>9.463444585501485</v>
+        <v>7.537739962945429</v>
       </c>
       <c r="J33" t="n">
-        <v>25.96841526322133</v>
+        <v>20.68413459131306</v>
       </c>
       <c r="K33" t="n">
-        <v>44.38415787317301</v>
+        <v>35.35248053703972</v>
       </c>
       <c r="L33" t="n">
-        <v>59.67997760576446</v>
+        <v>47.53577284912274</v>
       </c>
       <c r="M33" t="n">
-        <v>69.6437189432383</v>
+        <v>55.47200479737036</v>
       </c>
       <c r="N33" t="n">
-        <v>71.48698095231242</v>
+        <v>56.94018370225491</v>
       </c>
       <c r="O33" t="n">
-        <v>65.39662145601261</v>
+        <v>52.08914391973256</v>
       </c>
       <c r="P33" t="n">
-        <v>52.48655418644123</v>
+        <v>41.80613025563288</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.08587149253952</v>
+        <v>27.94629094032659</v>
       </c>
       <c r="R33" t="n">
-        <v>17.06554414679733</v>
+        <v>13.59289769623637</v>
       </c>
       <c r="S33" t="n">
-        <v>5.105437938802389</v>
+        <v>4.066538693385207</v>
       </c>
       <c r="T33" t="n">
-        <v>1.107886060391829</v>
+        <v>0.8824436975728467</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01808301513153151</v>
+        <v>0.01440332476995942</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2304349250641063</v>
+        <v>0.1835440074510675</v>
       </c>
       <c r="H34" t="n">
-        <v>2.048775970115419</v>
+        <v>1.631873084428583</v>
       </c>
       <c r="I34" t="n">
-        <v>6.929806655564215</v>
+        <v>5.519668878619377</v>
       </c>
       <c r="J34" t="n">
-        <v>16.29174920203231</v>
+        <v>12.97656132679047</v>
       </c>
       <c r="K34" t="n">
-        <v>26.77234856653888</v>
+        <v>21.32447650204221</v>
       </c>
       <c r="L34" t="n">
-        <v>34.25938876816722</v>
+        <v>27.28798816231599</v>
       </c>
       <c r="M34" t="n">
-        <v>36.12172193527621</v>
+        <v>28.77135745889779</v>
       </c>
       <c r="N34" t="n">
-        <v>35.26282812367366</v>
+        <v>28.08723888567111</v>
       </c>
       <c r="O34" t="n">
-        <v>32.57092922633387</v>
+        <v>25.94311116226545</v>
       </c>
       <c r="P34" t="n">
-        <v>27.87005675502608</v>
+        <v>22.19881341026365</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.29578267968621</v>
+        <v>15.36930775119803</v>
       </c>
       <c r="R34" t="n">
-        <v>10.36119217606427</v>
+        <v>8.252806007754362</v>
       </c>
       <c r="S34" t="n">
-        <v>4.015852284980832</v>
+        <v>3.19867147530633</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9845855889102719</v>
+        <v>0.7842334863818338</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01256917773076945</v>
+        <v>0.01001149131551279</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5137151367349647</v>
+        <v>0.4091798795619959</v>
       </c>
       <c r="H35" t="n">
-        <v>5.261085144086959</v>
+        <v>4.190513441564291</v>
       </c>
       <c r="I35" t="n">
-        <v>19.80500280897475</v>
+        <v>15.77490730681386</v>
       </c>
       <c r="J35" t="n">
-        <v>43.60093008645925</v>
+        <v>34.72863080297498</v>
       </c>
       <c r="K35" t="n">
-        <v>65.34649182445033</v>
+        <v>52.04921510483427</v>
       </c>
       <c r="L35" t="n">
-        <v>81.06810144030301</v>
+        <v>64.57165384397972</v>
       </c>
       <c r="M35" t="n">
-        <v>90.20388300321343</v>
+        <v>71.84840652714036</v>
       </c>
       <c r="N35" t="n">
-        <v>91.66347613546166</v>
+        <v>73.01098885994588</v>
       </c>
       <c r="O35" t="n">
-        <v>86.55522124455335</v>
+        <v>68.94220643255129</v>
       </c>
       <c r="P35" t="n">
-        <v>73.87287880640891</v>
+        <v>58.84057815586451</v>
       </c>
       <c r="Q35" t="n">
-        <v>55.47545547208796</v>
+        <v>44.18682371905052</v>
       </c>
       <c r="R35" t="n">
-        <v>32.26965845792775</v>
+        <v>25.70314560953625</v>
       </c>
       <c r="S35" t="n">
-        <v>11.70628367834802</v>
+        <v>9.324186505518989</v>
       </c>
       <c r="T35" t="n">
-        <v>2.248788011057309</v>
+        <v>1.791184922782638</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04109721093879717</v>
+        <v>0.03273439036495966</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2748618299992788</v>
+        <v>0.2189305365033831</v>
       </c>
       <c r="H36" t="n">
-        <v>2.654586621308824</v>
+        <v>2.114408076230043</v>
       </c>
       <c r="I36" t="n">
-        <v>9.463444585501485</v>
+        <v>7.537739962945429</v>
       </c>
       <c r="J36" t="n">
-        <v>25.96841526322133</v>
+        <v>20.68413459131306</v>
       </c>
       <c r="K36" t="n">
-        <v>44.38415787317301</v>
+        <v>35.35248053703972</v>
       </c>
       <c r="L36" t="n">
-        <v>59.67997760576446</v>
+        <v>47.53577284912274</v>
       </c>
       <c r="M36" t="n">
-        <v>69.6437189432383</v>
+        <v>55.47200479737036</v>
       </c>
       <c r="N36" t="n">
-        <v>71.48698095231242</v>
+        <v>56.94018370225491</v>
       </c>
       <c r="O36" t="n">
-        <v>65.39662145601261</v>
+        <v>52.08914391973256</v>
       </c>
       <c r="P36" t="n">
-        <v>52.48655418644123</v>
+        <v>41.80613025563288</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.08587149253952</v>
+        <v>27.94629094032659</v>
       </c>
       <c r="R36" t="n">
-        <v>17.06554414679733</v>
+        <v>13.59289769623637</v>
       </c>
       <c r="S36" t="n">
-        <v>5.105437938802389</v>
+        <v>4.066538693385207</v>
       </c>
       <c r="T36" t="n">
-        <v>1.107886060391829</v>
+        <v>0.8824436975728467</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01808301513153151</v>
+        <v>0.01440332476995942</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2304349250641063</v>
+        <v>0.1835440074510675</v>
       </c>
       <c r="H37" t="n">
-        <v>2.048775970115419</v>
+        <v>1.631873084428583</v>
       </c>
       <c r="I37" t="n">
-        <v>6.929806655564215</v>
+        <v>5.519668878619377</v>
       </c>
       <c r="J37" t="n">
-        <v>16.29174920203231</v>
+        <v>12.97656132679047</v>
       </c>
       <c r="K37" t="n">
-        <v>26.77234856653888</v>
+        <v>21.32447650204221</v>
       </c>
       <c r="L37" t="n">
-        <v>34.25938876816722</v>
+        <v>27.28798816231599</v>
       </c>
       <c r="M37" t="n">
-        <v>36.12172193527621</v>
+        <v>28.77135745889779</v>
       </c>
       <c r="N37" t="n">
-        <v>35.26282812367366</v>
+        <v>28.08723888567111</v>
       </c>
       <c r="O37" t="n">
-        <v>32.57092922633387</v>
+        <v>25.94311116226545</v>
       </c>
       <c r="P37" t="n">
-        <v>27.87005675502608</v>
+        <v>22.19881341026365</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.29578267968621</v>
+        <v>15.36930775119803</v>
       </c>
       <c r="R37" t="n">
-        <v>10.36119217606427</v>
+        <v>8.252806007754362</v>
       </c>
       <c r="S37" t="n">
-        <v>4.015852284980832</v>
+        <v>3.19867147530633</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9845855889102719</v>
+        <v>0.7842334863818338</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01256917773076945</v>
+        <v>0.01001149131551279</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5137151367349647</v>
+        <v>0.4091798795619959</v>
       </c>
       <c r="H38" t="n">
-        <v>5.261085144086959</v>
+        <v>4.190513441564291</v>
       </c>
       <c r="I38" t="n">
-        <v>19.80500280897475</v>
+        <v>15.77490730681386</v>
       </c>
       <c r="J38" t="n">
-        <v>43.60093008645925</v>
+        <v>34.72863080297498</v>
       </c>
       <c r="K38" t="n">
-        <v>65.34649182445033</v>
+        <v>52.04921510483427</v>
       </c>
       <c r="L38" t="n">
-        <v>81.06810144030301</v>
+        <v>64.57165384397972</v>
       </c>
       <c r="M38" t="n">
-        <v>90.20388300321343</v>
+        <v>71.84840652714036</v>
       </c>
       <c r="N38" t="n">
-        <v>91.66347613546166</v>
+        <v>73.01098885994588</v>
       </c>
       <c r="O38" t="n">
-        <v>86.55522124455335</v>
+        <v>68.94220643255129</v>
       </c>
       <c r="P38" t="n">
-        <v>73.87287880640891</v>
+        <v>58.84057815586451</v>
       </c>
       <c r="Q38" t="n">
-        <v>55.47545547208796</v>
+        <v>44.18682371905052</v>
       </c>
       <c r="R38" t="n">
-        <v>32.26965845792775</v>
+        <v>25.70314560953625</v>
       </c>
       <c r="S38" t="n">
-        <v>11.70628367834802</v>
+        <v>9.324186505518989</v>
       </c>
       <c r="T38" t="n">
-        <v>2.248788011057309</v>
+        <v>1.791184922782638</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04109721093879717</v>
+        <v>0.03273439036495966</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2748618299992788</v>
+        <v>0.2189305365033831</v>
       </c>
       <c r="H39" t="n">
-        <v>2.654586621308824</v>
+        <v>2.114408076230043</v>
       </c>
       <c r="I39" t="n">
-        <v>9.463444585501485</v>
+        <v>7.537739962945429</v>
       </c>
       <c r="J39" t="n">
-        <v>25.96841526322133</v>
+        <v>20.68413459131306</v>
       </c>
       <c r="K39" t="n">
-        <v>44.38415787317301</v>
+        <v>35.35248053703972</v>
       </c>
       <c r="L39" t="n">
-        <v>59.67997760576446</v>
+        <v>47.53577284912274</v>
       </c>
       <c r="M39" t="n">
-        <v>69.6437189432383</v>
+        <v>55.47200479737036</v>
       </c>
       <c r="N39" t="n">
-        <v>71.48698095231242</v>
+        <v>56.94018370225491</v>
       </c>
       <c r="O39" t="n">
-        <v>65.39662145601261</v>
+        <v>52.08914391973256</v>
       </c>
       <c r="P39" t="n">
-        <v>52.48655418644123</v>
+        <v>41.80613025563288</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.08587149253952</v>
+        <v>27.94629094032659</v>
       </c>
       <c r="R39" t="n">
-        <v>17.06554414679733</v>
+        <v>13.59289769623637</v>
       </c>
       <c r="S39" t="n">
-        <v>5.105437938802389</v>
+        <v>4.066538693385207</v>
       </c>
       <c r="T39" t="n">
-        <v>1.107886060391829</v>
+        <v>0.8824436975728467</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01808301513153151</v>
+        <v>0.01440332476995942</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2304349250641063</v>
+        <v>0.1835440074510675</v>
       </c>
       <c r="H40" t="n">
-        <v>2.048775970115419</v>
+        <v>1.631873084428583</v>
       </c>
       <c r="I40" t="n">
-        <v>6.929806655564215</v>
+        <v>5.519668878619377</v>
       </c>
       <c r="J40" t="n">
-        <v>16.29174920203231</v>
+        <v>12.97656132679047</v>
       </c>
       <c r="K40" t="n">
-        <v>26.77234856653888</v>
+        <v>21.32447650204221</v>
       </c>
       <c r="L40" t="n">
-        <v>34.25938876816722</v>
+        <v>27.28798816231599</v>
       </c>
       <c r="M40" t="n">
-        <v>36.12172193527621</v>
+        <v>28.77135745889779</v>
       </c>
       <c r="N40" t="n">
-        <v>35.26282812367366</v>
+        <v>28.08723888567111</v>
       </c>
       <c r="O40" t="n">
-        <v>32.57092922633387</v>
+        <v>25.94311116226545</v>
       </c>
       <c r="P40" t="n">
-        <v>27.87005675502608</v>
+        <v>22.19881341026365</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.29578267968621</v>
+        <v>15.36930775119803</v>
       </c>
       <c r="R40" t="n">
-        <v>10.36119217606427</v>
+        <v>8.252806007754362</v>
       </c>
       <c r="S40" t="n">
-        <v>4.015852284980832</v>
+        <v>3.19867147530633</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9845855889102719</v>
+        <v>0.7842334863818338</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01256917773076945</v>
+        <v>0.01001149131551279</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5137151367349647</v>
+        <v>0.4091798795619959</v>
       </c>
       <c r="H41" t="n">
-        <v>5.261085144086959</v>
+        <v>4.190513441564291</v>
       </c>
       <c r="I41" t="n">
-        <v>19.80500280897475</v>
+        <v>15.77490730681386</v>
       </c>
       <c r="J41" t="n">
-        <v>43.60093008645925</v>
+        <v>34.72863080297498</v>
       </c>
       <c r="K41" t="n">
-        <v>65.34649182445033</v>
+        <v>52.04921510483427</v>
       </c>
       <c r="L41" t="n">
-        <v>81.06810144030301</v>
+        <v>64.57165384397972</v>
       </c>
       <c r="M41" t="n">
-        <v>90.20388300321343</v>
+        <v>71.84840652714036</v>
       </c>
       <c r="N41" t="n">
-        <v>91.66347613546166</v>
+        <v>73.01098885994588</v>
       </c>
       <c r="O41" t="n">
-        <v>86.55522124455335</v>
+        <v>68.94220643255129</v>
       </c>
       <c r="P41" t="n">
-        <v>73.87287880640891</v>
+        <v>58.84057815586451</v>
       </c>
       <c r="Q41" t="n">
-        <v>55.47545547208796</v>
+        <v>44.18682371905052</v>
       </c>
       <c r="R41" t="n">
-        <v>32.26965845792775</v>
+        <v>25.70314560953625</v>
       </c>
       <c r="S41" t="n">
-        <v>11.70628367834802</v>
+        <v>9.324186505518989</v>
       </c>
       <c r="T41" t="n">
-        <v>2.248788011057309</v>
+        <v>1.791184922782638</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04109721093879717</v>
+        <v>0.03273439036495966</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2748618299992788</v>
+        <v>0.2189305365033831</v>
       </c>
       <c r="H42" t="n">
-        <v>2.654586621308824</v>
+        <v>2.114408076230043</v>
       </c>
       <c r="I42" t="n">
-        <v>9.463444585501485</v>
+        <v>7.537739962945429</v>
       </c>
       <c r="J42" t="n">
-        <v>25.96841526322133</v>
+        <v>20.68413459131306</v>
       </c>
       <c r="K42" t="n">
-        <v>44.38415787317301</v>
+        <v>35.35248053703972</v>
       </c>
       <c r="L42" t="n">
-        <v>59.67997760576446</v>
+        <v>47.53577284912274</v>
       </c>
       <c r="M42" t="n">
-        <v>69.6437189432383</v>
+        <v>55.47200479737036</v>
       </c>
       <c r="N42" t="n">
-        <v>71.48698095231242</v>
+        <v>56.94018370225491</v>
       </c>
       <c r="O42" t="n">
-        <v>65.39662145601261</v>
+        <v>52.08914391973256</v>
       </c>
       <c r="P42" t="n">
-        <v>52.48655418644123</v>
+        <v>41.80613025563288</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.08587149253952</v>
+        <v>27.94629094032659</v>
       </c>
       <c r="R42" t="n">
-        <v>17.06554414679733</v>
+        <v>13.59289769623637</v>
       </c>
       <c r="S42" t="n">
-        <v>5.105437938802389</v>
+        <v>4.066538693385207</v>
       </c>
       <c r="T42" t="n">
-        <v>1.107886060391829</v>
+        <v>0.8824436975728467</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01808301513153151</v>
+        <v>0.01440332476995942</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2304349250641063</v>
+        <v>0.1835440074510675</v>
       </c>
       <c r="H43" t="n">
-        <v>2.048775970115419</v>
+        <v>1.631873084428583</v>
       </c>
       <c r="I43" t="n">
-        <v>6.929806655564215</v>
+        <v>5.519668878619377</v>
       </c>
       <c r="J43" t="n">
-        <v>16.29174920203231</v>
+        <v>12.97656132679047</v>
       </c>
       <c r="K43" t="n">
-        <v>26.77234856653888</v>
+        <v>21.32447650204221</v>
       </c>
       <c r="L43" t="n">
-        <v>34.25938876816722</v>
+        <v>27.28798816231599</v>
       </c>
       <c r="M43" t="n">
-        <v>36.12172193527621</v>
+        <v>28.77135745889779</v>
       </c>
       <c r="N43" t="n">
-        <v>35.26282812367366</v>
+        <v>28.08723888567111</v>
       </c>
       <c r="O43" t="n">
-        <v>32.57092922633387</v>
+        <v>25.94311116226545</v>
       </c>
       <c r="P43" t="n">
-        <v>27.87005675502608</v>
+        <v>22.19881341026365</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.29578267968621</v>
+        <v>15.36930775119803</v>
       </c>
       <c r="R43" t="n">
-        <v>10.36119217606427</v>
+        <v>8.252806007754362</v>
       </c>
       <c r="S43" t="n">
-        <v>4.015852284980832</v>
+        <v>3.19867147530633</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9845855889102719</v>
+        <v>0.7842334863818338</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01256917773076945</v>
+        <v>0.01001149131551279</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5137151367349647</v>
+        <v>0.4091798795619959</v>
       </c>
       <c r="H44" t="n">
-        <v>5.261085144086959</v>
+        <v>4.190513441564291</v>
       </c>
       <c r="I44" t="n">
-        <v>19.80500280897475</v>
+        <v>15.77490730681386</v>
       </c>
       <c r="J44" t="n">
-        <v>43.60093008645925</v>
+        <v>34.72863080297498</v>
       </c>
       <c r="K44" t="n">
-        <v>65.34649182445033</v>
+        <v>52.04921510483427</v>
       </c>
       <c r="L44" t="n">
-        <v>81.06810144030301</v>
+        <v>64.57165384397972</v>
       </c>
       <c r="M44" t="n">
-        <v>90.20388300321343</v>
+        <v>71.84840652714036</v>
       </c>
       <c r="N44" t="n">
-        <v>91.66347613546166</v>
+        <v>73.01098885994588</v>
       </c>
       <c r="O44" t="n">
-        <v>86.55522124455335</v>
+        <v>68.94220643255129</v>
       </c>
       <c r="P44" t="n">
-        <v>73.87287880640891</v>
+        <v>58.84057815586451</v>
       </c>
       <c r="Q44" t="n">
-        <v>55.47545547208796</v>
+        <v>44.18682371905052</v>
       </c>
       <c r="R44" t="n">
-        <v>32.26965845792775</v>
+        <v>25.70314560953625</v>
       </c>
       <c r="S44" t="n">
-        <v>11.70628367834802</v>
+        <v>9.324186505518989</v>
       </c>
       <c r="T44" t="n">
-        <v>2.248788011057309</v>
+        <v>1.791184922782638</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04109721093879717</v>
+        <v>0.03273439036495966</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2748618299992788</v>
+        <v>0.2189305365033831</v>
       </c>
       <c r="H45" t="n">
-        <v>2.654586621308824</v>
+        <v>2.114408076230043</v>
       </c>
       <c r="I45" t="n">
-        <v>9.463444585501485</v>
+        <v>7.537739962945429</v>
       </c>
       <c r="J45" t="n">
-        <v>25.96841526322133</v>
+        <v>20.68413459131306</v>
       </c>
       <c r="K45" t="n">
-        <v>44.38415787317301</v>
+        <v>35.35248053703972</v>
       </c>
       <c r="L45" t="n">
-        <v>59.67997760576446</v>
+        <v>47.53577284912274</v>
       </c>
       <c r="M45" t="n">
-        <v>69.6437189432383</v>
+        <v>55.47200479737036</v>
       </c>
       <c r="N45" t="n">
-        <v>71.48698095231242</v>
+        <v>56.94018370225491</v>
       </c>
       <c r="O45" t="n">
-        <v>65.39662145601261</v>
+        <v>52.08914391973256</v>
       </c>
       <c r="P45" t="n">
-        <v>52.48655418644123</v>
+        <v>41.80613025563288</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.08587149253952</v>
+        <v>27.94629094032659</v>
       </c>
       <c r="R45" t="n">
-        <v>17.06554414679733</v>
+        <v>13.59289769623637</v>
       </c>
       <c r="S45" t="n">
-        <v>5.105437938802389</v>
+        <v>4.066538693385207</v>
       </c>
       <c r="T45" t="n">
-        <v>1.107886060391829</v>
+        <v>0.8824436975728467</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01808301513153151</v>
+        <v>0.01440332476995942</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2304349250641063</v>
+        <v>0.1835440074510675</v>
       </c>
       <c r="H46" t="n">
-        <v>2.048775970115419</v>
+        <v>1.631873084428583</v>
       </c>
       <c r="I46" t="n">
-        <v>6.929806655564215</v>
+        <v>5.519668878619377</v>
       </c>
       <c r="J46" t="n">
-        <v>16.29174920203231</v>
+        <v>12.97656132679047</v>
       </c>
       <c r="K46" t="n">
-        <v>26.77234856653888</v>
+        <v>21.32447650204221</v>
       </c>
       <c r="L46" t="n">
-        <v>34.25938876816722</v>
+        <v>27.28798816231599</v>
       </c>
       <c r="M46" t="n">
-        <v>36.12172193527621</v>
+        <v>28.77135745889779</v>
       </c>
       <c r="N46" t="n">
-        <v>35.26282812367366</v>
+        <v>28.08723888567111</v>
       </c>
       <c r="O46" t="n">
-        <v>32.57092922633387</v>
+        <v>25.94311116226545</v>
       </c>
       <c r="P46" t="n">
-        <v>27.87005675502608</v>
+        <v>22.19881341026365</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.29578267968621</v>
+        <v>15.36930775119803</v>
       </c>
       <c r="R46" t="n">
-        <v>10.36119217606427</v>
+        <v>8.252806007754362</v>
       </c>
       <c r="S46" t="n">
-        <v>4.015852284980832</v>
+        <v>3.19867147530633</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9845855889102719</v>
+        <v>0.7842334863818338</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01256917773076945</v>
+        <v>0.01001149131551279</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2012498.864882245</v>
+        <v>2040779.625328583</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11780025.72234952</v>
+        <v>11739232.93669172</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6568532.902704942</v>
+        <v>7062700.912917454</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6205298.264536878</v>
+        <v>6104405.848984194</v>
       </c>
     </row>
     <row r="11">
@@ -8692,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>10.39555548474533</v>
+        <v>159.6517702790714</v>
       </c>
       <c r="L11" t="n">
-        <v>171.1947611260075</v>
+        <v>160.7876314792001</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8527462447314349</v>
+        <v>129.1154727234299</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>144.6347622787202</v>
       </c>
       <c r="O11" t="n">
-        <v>161.1560049891355</v>
+        <v>150.044465516813</v>
       </c>
       <c r="P11" t="n">
-        <v>28.78549701409409</v>
+        <v>162.9089757343291</v>
       </c>
       <c r="Q11" t="n">
-        <v>20.47378569999803</v>
+        <v>22.3817232441418</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>37.12429695565138</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>102.4889584373193</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>91.01860693075145</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>74.40152838107841</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>90.50710052471187</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>92.16827715869736</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.0354831456949</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>107.5966881189223</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>110.1544264887073</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>99.59830557956208</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>112.5134272895774</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>115.529190638884</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>146.3172737237113</v>
+        <v>140.7199978029805</v>
       </c>
       <c r="K14" t="n">
-        <v>10.39555548474533</v>
+        <v>159.6517702790714</v>
       </c>
       <c r="L14" t="n">
-        <v>13.54968067060658</v>
+        <v>160.7876314792001</v>
       </c>
       <c r="M14" t="n">
-        <v>158.4978267001324</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>156.402074736645</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>161.1560049891355</v>
+        <v>150.044465516813</v>
       </c>
       <c r="P14" t="n">
-        <v>14.74733714400409</v>
+        <v>14.29350271611678</v>
       </c>
       <c r="Q14" t="n">
-        <v>20.47378569999803</v>
+        <v>22.38172324414177</v>
       </c>
       <c r="R14" t="n">
-        <v>32.23731174919493</v>
+        <v>37.12429695565135</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>106.1534920753536</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>91.01860693075145</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>77.7215062895126</v>
       </c>
       <c r="N15" t="n">
-        <v>74.40152838107841</v>
+        <v>65.224376509853</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>104.2518774172364</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>103.1986339620324</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>105.5172950329624</v>
       </c>
       <c r="N16" t="n">
-        <v>84.09023104473272</v>
+        <v>95.07143474533638</v>
       </c>
       <c r="O16" t="n">
-        <v>112.5134272895774</v>
+        <v>108.3321293788935</v>
       </c>
       <c r="P16" t="n">
-        <v>115.529190638884</v>
+        <v>111.9513679347588</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>19.6282328148317</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>140.7199978029805</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>93.86249695527269</v>
       </c>
       <c r="L17" t="n">
-        <v>127.4592966261565</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>150.044465516813</v>
       </c>
       <c r="P17" t="n">
-        <v>172.392417599405</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>110.1544264887073</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>115.529190638884</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.3172737237113</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>68.88872908496083</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,16 +9412,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>144.6347622787202</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>150.044465516813</v>
       </c>
       <c r="P20" t="n">
-        <v>172.392417599405</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>89.94773247953381</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>131.0300995646609</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>102.8197928821452</v>
       </c>
       <c r="K24" t="n">
-        <v>102.4889584373193</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>83.35718087997463</v>
       </c>
       <c r="M24" t="n">
-        <v>86.66202912464796</v>
+        <v>29.59665111908602</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>65.224376509853</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>85.43030791521245</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.0354831456949</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9798,22 +9798,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>104.2518774172364</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>103.1986339620324</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>105.5172950329624</v>
       </c>
       <c r="N25" t="n">
-        <v>99.59830557956208</v>
+        <v>95.07143474533638</v>
       </c>
       <c r="O25" t="n">
-        <v>112.5134272895774</v>
+        <v>108.3321293788935</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>111.9513679347588</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>140.7199978029805</v>
       </c>
       <c r="K26" t="n">
-        <v>168.0406359401463</v>
+        <v>14.58255788568749</v>
       </c>
       <c r="L26" t="n">
-        <v>171.1947611260075</v>
+        <v>84.64443734769249</v>
       </c>
       <c r="M26" t="n">
-        <v>12.06386405356321</v>
+        <v>146.9178897288542</v>
       </c>
       <c r="N26" t="n">
-        <v>9.968112090075863</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>14.72204234256627</v>
+        <v>150.044465516813</v>
       </c>
       <c r="P26" t="n">
-        <v>25.95845495283587</v>
+        <v>162.9089757343291</v>
       </c>
       <c r="Q26" t="n">
-        <v>31.6849035088298</v>
+        <v>170.9971962623541</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>40.67055758047983</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>100.8105909822131</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>102.4889584373193</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>91.01860693075145</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>74.40152838107841</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>90.50710052471187</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>92.16827715869736</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.0354831456949</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>104.2518774172364</v>
       </c>
       <c r="L28" t="n">
-        <v>107.5966881189223</v>
+        <v>103.1986339620324</v>
       </c>
       <c r="M28" t="n">
-        <v>110.1544264887073</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>99.59830557956208</v>
+        <v>95.07143474533638</v>
       </c>
       <c r="O28" t="n">
-        <v>112.5134272895774</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>115.529190638884</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>140.7199978029805</v>
       </c>
       <c r="K29" t="n">
-        <v>168.0406359401463</v>
+        <v>14.58255788568749</v>
       </c>
       <c r="L29" t="n">
-        <v>171.1947611260075</v>
+        <v>15.71841908581622</v>
       </c>
       <c r="M29" t="n">
-        <v>158.4978267001324</v>
+        <v>146.9178897288542</v>
       </c>
       <c r="N29" t="n">
-        <v>156.402074736645</v>
+        <v>144.6347622787202</v>
       </c>
       <c r="O29" t="n">
-        <v>14.72204234256627</v>
+        <v>4.975253123429127</v>
       </c>
       <c r="P29" t="n">
-        <v>172.392417599405</v>
+        <v>162.9089757343291</v>
       </c>
       <c r="Q29" t="n">
-        <v>94.53740502076306</v>
+        <v>25.92798386897025</v>
       </c>
       <c r="R29" t="n">
-        <v>43.4484295580267</v>
+        <v>63.97458923331643</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>102.8197928821452</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>96.79113553233088</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,10 +10202,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>65.224376509853</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>82.11179946468785</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10275,19 +10275,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>107.5966881189223</v>
+        <v>103.1986339620324</v>
       </c>
       <c r="M31" t="n">
-        <v>110.1544264887073</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>99.59830557956208</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>112.5134272895774</v>
+        <v>108.3321293788935</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>111.9513679347588</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>89.03397764201407</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.651454550955833</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>104.2518774172364</v>
       </c>
       <c r="L34" t="n">
-        <v>107.5966881189223</v>
+        <v>103.1986339620324</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>105.5172950329624</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>95.07143474533638</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>108.3321293788935</v>
       </c>
       <c r="P34" t="n">
-        <v>115.529190638884</v>
+        <v>111.9513679347588</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>96.79113553233088</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>83.35718087997463</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>104.2518774172364</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>103.1986339620324</v>
       </c>
       <c r="M37" t="n">
-        <v>110.1544264887073</v>
+        <v>105.5172950329624</v>
       </c>
       <c r="N37" t="n">
-        <v>99.59830557956208</v>
+        <v>95.07143474533638</v>
       </c>
       <c r="O37" t="n">
-        <v>112.5134272895774</v>
+        <v>108.3321293788935</v>
       </c>
       <c r="P37" t="n">
-        <v>10.25494029557</v>
+        <v>111.9513679347588</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>10.67024150699875</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>140.7199978029805</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>47.58852807787241</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>106.1534920753536</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>65.224376509853</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10989,19 +10989,19 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>105.5172950329624</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>112.5134272895774</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>32.46983636404511</v>
+        <v>111.9513679347588</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>36.1962375634449</v>
+        <v>140.7199978029805</v>
       </c>
       <c r="K41" t="n">
-        <v>168.0406359401463</v>
+        <v>159.6517702790714</v>
       </c>
       <c r="L41" t="n">
-        <v>171.1947611260075</v>
+        <v>160.7876314792001</v>
       </c>
       <c r="M41" t="n">
-        <v>158.4978267001324</v>
+        <v>50.25097591171695</v>
       </c>
       <c r="N41" t="n">
-        <v>79.9160703674217</v>
+        <v>144.6347622787202</v>
       </c>
       <c r="O41" t="n">
-        <v>161.1560049891355</v>
+        <v>150.044465516813</v>
       </c>
       <c r="P41" t="n">
-        <v>172.392417599405</v>
+        <v>162.9089757343291</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.118866155399</v>
+        <v>170.9971962623541</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,19 +11138,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>6.152879065007909</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.1242217151935918</v>
       </c>
       <c r="L42" t="n">
-        <v>91.01860693075145</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>86.66202912464796</v>
+        <v>13.13574711946313</v>
       </c>
       <c r="N42" t="n">
-        <v>74.40152838107841</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.0354831456949</v>
+        <v>10.8644153283191</v>
       </c>
       <c r="R42" t="n">
-        <v>21.96557010746117</v>
+        <v>33.22890066845117</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.897823952339223</v>
+        <v>15.26049055509091</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>7.584963600099151</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>103.1986339620324</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0333903284408521</v>
+        <v>105.5172950329624</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>95.07143474533638</v>
       </c>
       <c r="O43" t="n">
-        <v>2.39239112931093</v>
+        <v>108.3321293788935</v>
       </c>
       <c r="P43" t="n">
-        <v>5.408154478617551</v>
+        <v>15.28445411762151</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.0146577179814</v>
+        <v>36.99168107376109</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.3172737237113</v>
+        <v>44.05308398584324</v>
       </c>
       <c r="K44" t="n">
-        <v>57.91959977987986</v>
+        <v>159.6517702790714</v>
       </c>
       <c r="L44" t="n">
-        <v>61.07372496574111</v>
+        <v>160.7876314792001</v>
       </c>
       <c r="M44" t="n">
-        <v>158.4978267001324</v>
+        <v>50.25097591171695</v>
       </c>
       <c r="N44" t="n">
-        <v>156.402074736645</v>
+        <v>144.6347622787202</v>
       </c>
       <c r="O44" t="n">
-        <v>161.1560049891355</v>
+        <v>150.044465516813</v>
       </c>
       <c r="P44" t="n">
-        <v>62.27138143913862</v>
+        <v>162.9089757343291</v>
       </c>
       <c r="Q44" t="n">
-        <v>178.118866155399</v>
+        <v>170.9971962623541</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,31 +11375,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>99.27516345893936</v>
+        <v>6.152879065007909</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.1242217151935918</v>
       </c>
       <c r="L45" t="n">
-        <v>91.01860693075145</v>
+        <v>83.35718087997463</v>
       </c>
       <c r="M45" t="n">
-        <v>86.66202912464796</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>90.50710052471187</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>92.16827715869736</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.0354831456949</v>
+        <v>12.68719092208877</v>
       </c>
       <c r="R45" t="n">
-        <v>21.96557010746117</v>
+        <v>33.22890066845117</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.897823952339223</v>
+        <v>15.26049055509091</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>104.2518774172364</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>103.1986339620324</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0333903284408521</v>
+        <v>105.5172950329624</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>95.07143474533638</v>
       </c>
       <c r="O46" t="n">
-        <v>112.5134272895774</v>
+        <v>108.3321293788935</v>
       </c>
       <c r="P46" t="n">
-        <v>5.408154478617551</v>
+        <v>111.9513679347588</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.0146577179814</v>
+        <v>36.99168107376109</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>225.0887612080796</v>
+        <v>234.1183686452682</v>
       </c>
       <c r="C11" t="n">
-        <v>207.6278113156066</v>
+        <v>216.6574187527952</v>
       </c>
       <c r="D11" t="n">
-        <v>197.037961165282</v>
+        <v>206.0675686024706</v>
       </c>
       <c r="E11" t="n">
-        <v>224.2852896168608</v>
+        <v>233.3148970540495</v>
       </c>
       <c r="F11" t="n">
-        <v>249.2309652863105</v>
+        <v>258.2605727234991</v>
       </c>
       <c r="G11" t="n">
-        <v>257.2484771801721</v>
+        <v>266.212136359852</v>
       </c>
       <c r="H11" t="n">
-        <v>177.6392082188019</v>
+        <v>185.9934230637793</v>
       </c>
       <c r="I11" t="n">
-        <v>37.05590180819111</v>
+        <v>43.54303904777478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>42.05080262532541</v>
+        <v>49.57761414453407</v>
       </c>
       <c r="T11" t="n">
-        <v>63.65958418594777</v>
+        <v>72.40050312589196</v>
       </c>
       <c r="U11" t="n">
-        <v>93.66783806207059</v>
+        <v>102.6921696386585</v>
       </c>
       <c r="V11" t="n">
-        <v>170.107178014734</v>
+        <v>179.1367854519226</v>
       </c>
       <c r="W11" t="n">
-        <v>191.5958882620121</v>
+        <v>200.6254956992007</v>
       </c>
       <c r="X11" t="n">
-        <v>212.0860202230681</v>
+        <v>221.1156276602567</v>
       </c>
       <c r="Y11" t="n">
-        <v>228.5928582006526</v>
+        <v>237.6224656378413</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.888103194466396</v>
+        <v>17.91771063165501</v>
       </c>
       <c r="C12" t="n">
-        <v>15.0634185329148</v>
+        <v>24.09302597010341</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>9.029607437188616</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>9.971551955051671</v>
+        <v>18.34574803328584</v>
       </c>
       <c r="T12" t="n">
-        <v>41.63720454184782</v>
+        <v>50.52458694034007</v>
       </c>
       <c r="U12" t="n">
-        <v>68.28189830080392</v>
+        <v>77.30918432822057</v>
       </c>
       <c r="V12" t="n">
-        <v>75.15550669402433</v>
+        <v>84.18511413121294</v>
       </c>
       <c r="W12" t="n">
-        <v>94.04990270551866</v>
+        <v>103.0795101427073</v>
       </c>
       <c r="X12" t="n">
-        <v>48.12790474807653</v>
+        <v>57.15751218526515</v>
       </c>
       <c r="Y12" t="n">
-        <v>48.03761532190342</v>
+        <v>57.06722275909203</v>
       </c>
     </row>
     <row r="13">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.18689972653635</v>
+        <v>31.21650716372497</v>
       </c>
       <c r="C13" t="n">
-        <v>9.60174064322689</v>
+        <v>18.63134808041551</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10.16235489560675</v>
+        <v>19.16238021482681</v>
       </c>
       <c r="H13" t="n">
-        <v>2.950218967610049</v>
+        <v>11.71681448322363</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.4257180646083327</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.39550491401418</v>
+        <v>19.09499275599811</v>
       </c>
       <c r="S13" t="n">
-        <v>63.17284610626498</v>
+        <v>71.68691790576509</v>
       </c>
       <c r="T13" t="n">
-        <v>69.51627548649871</v>
+        <v>78.419486601458</v>
       </c>
       <c r="U13" t="n">
-        <v>128.6639374097744</v>
+        <v>137.691931276892</v>
       </c>
       <c r="V13" t="n">
-        <v>94.49256286842706</v>
+        <v>103.5221703056157</v>
       </c>
       <c r="W13" t="n">
-        <v>128.8779178811901</v>
+        <v>137.9075253183787</v>
       </c>
       <c r="X13" t="n">
-        <v>68.06457493363621</v>
+        <v>77.09418237082483</v>
       </c>
       <c r="Y13" t="n">
-        <v>60.93957289669385</v>
+        <v>69.96918033388246</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>225.0887612080796</v>
+        <v>234.1183686452682</v>
       </c>
       <c r="C14" t="n">
-        <v>207.6278113156066</v>
+        <v>216.6574187527952</v>
       </c>
       <c r="D14" t="n">
-        <v>197.037961165282</v>
+        <v>206.0675686024706</v>
       </c>
       <c r="E14" t="n">
-        <v>224.2852896168608</v>
+        <v>233.3148970540494</v>
       </c>
       <c r="F14" t="n">
-        <v>249.2309652863105</v>
+        <v>258.2605727234991</v>
       </c>
       <c r="G14" t="n">
-        <v>257.2484771801721</v>
+        <v>266.212136359852</v>
       </c>
       <c r="H14" t="n">
-        <v>177.6392082188019</v>
+        <v>185.9934230637793</v>
       </c>
       <c r="I14" t="n">
-        <v>37.05590180819111</v>
+        <v>43.54303904777474</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>42.05080262532541</v>
+        <v>49.57761414453402</v>
       </c>
       <c r="T14" t="n">
-        <v>63.65958418594777</v>
+        <v>72.40050312589194</v>
       </c>
       <c r="U14" t="n">
-        <v>93.66783806207059</v>
+        <v>102.6921696386585</v>
       </c>
       <c r="V14" t="n">
-        <v>170.107178014734</v>
+        <v>179.1367854519225</v>
       </c>
       <c r="W14" t="n">
-        <v>191.5958882620121</v>
+        <v>200.6254956992007</v>
       </c>
       <c r="X14" t="n">
-        <v>212.0860202230681</v>
+        <v>221.1156276602567</v>
       </c>
       <c r="Y14" t="n">
-        <v>228.5928582006526</v>
+        <v>237.6224656378412</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.888103194466396</v>
+        <v>17.91771063165498</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0634185329148</v>
+        <v>24.09302597010338</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>9.029607437188588</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>9.971551955051671</v>
+        <v>18.34574803328582</v>
       </c>
       <c r="T15" t="n">
-        <v>41.63720454184782</v>
+        <v>50.52458694034003</v>
       </c>
       <c r="U15" t="n">
-        <v>68.28189830080392</v>
+        <v>77.30918432822052</v>
       </c>
       <c r="V15" t="n">
-        <v>75.15550669402433</v>
+        <v>84.18511413121291</v>
       </c>
       <c r="W15" t="n">
-        <v>94.04990270551866</v>
+        <v>103.0795101427072</v>
       </c>
       <c r="X15" t="n">
-        <v>48.12790474807653</v>
+        <v>57.15751218526512</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.03761532190342</v>
+        <v>57.067222759092</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.18689972653635</v>
+        <v>31.21650716372494</v>
       </c>
       <c r="C16" t="n">
-        <v>9.60174064322689</v>
+        <v>18.63134808041548</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>10.16235489560675</v>
+        <v>19.16238021482677</v>
       </c>
       <c r="H16" t="n">
-        <v>2.950218967610049</v>
+        <v>11.71681448322359</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.425718064608299</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.39550491401418</v>
+        <v>19.09499275599809</v>
       </c>
       <c r="S16" t="n">
-        <v>63.17284610626498</v>
+        <v>71.68691790576506</v>
       </c>
       <c r="T16" t="n">
-        <v>69.51627548649871</v>
+        <v>78.41948660145799</v>
       </c>
       <c r="U16" t="n">
-        <v>128.6639374097744</v>
+        <v>137.691931276892</v>
       </c>
       <c r="V16" t="n">
-        <v>94.49256286842706</v>
+        <v>103.5221703056156</v>
       </c>
       <c r="W16" t="n">
-        <v>128.8779178811901</v>
+        <v>137.9075253183786</v>
       </c>
       <c r="X16" t="n">
-        <v>68.06457493363621</v>
+        <v>77.0941823708248</v>
       </c>
       <c r="Y16" t="n">
-        <v>60.93957289669385</v>
+        <v>69.96918033388243</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>183.0379585827543</v>
+        <v>190.5753295974935</v>
       </c>
       <c r="C17" t="n">
-        <v>165.5770086902812</v>
+        <v>173.1143797050204</v>
       </c>
       <c r="D17" t="n">
-        <v>154.9871585399567</v>
+        <v>162.5245295546958</v>
       </c>
       <c r="E17" t="n">
-        <v>182.2344869915355</v>
+        <v>189.7718580062747</v>
       </c>
       <c r="F17" t="n">
-        <v>207.1801626609851</v>
+        <v>214.7175336757243</v>
       </c>
       <c r="G17" t="n">
-        <v>215.1976745548468</v>
+        <v>222.6690973120772</v>
       </c>
       <c r="H17" t="n">
-        <v>135.5884055934766</v>
+        <v>142.4503840160045</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.034575096759283</v>
       </c>
       <c r="T17" t="n">
-        <v>21.60878156062242</v>
+        <v>28.85746407811718</v>
       </c>
       <c r="U17" t="n">
-        <v>51.61703543674523</v>
+        <v>59.14913059088371</v>
       </c>
       <c r="V17" t="n">
-        <v>128.0563753894086</v>
+        <v>135.5937464041478</v>
       </c>
       <c r="W17" t="n">
-        <v>149.5450856366867</v>
+        <v>157.0824566514259</v>
       </c>
       <c r="X17" t="n">
-        <v>170.0352175977427</v>
+        <v>177.5725886124819</v>
       </c>
       <c r="Y17" t="n">
-        <v>186.5420555753273</v>
+        <v>194.0794265900665</v>
       </c>
     </row>
     <row r="18">
@@ -23864,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>6.981547892565288</v>
       </c>
       <c r="U18" t="n">
-        <v>26.23109567547854</v>
+        <v>33.76614528044578</v>
       </c>
       <c r="V18" t="n">
-        <v>33.10470406869896</v>
+        <v>40.64207508343816</v>
       </c>
       <c r="W18" t="n">
-        <v>51.9991000801933</v>
+        <v>59.53647109493249</v>
       </c>
       <c r="X18" t="n">
-        <v>6.077102122751171</v>
+        <v>13.61447313749036</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.986812696578056</v>
+        <v>13.52418371131725</v>
       </c>
     </row>
     <row r="19">
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>21.12204348093962</v>
+        <v>28.1438788579903</v>
       </c>
       <c r="T19" t="n">
-        <v>27.46547286117337</v>
+        <v>34.87644755368322</v>
       </c>
       <c r="U19" t="n">
-        <v>86.61313478444904</v>
+        <v>94.14889222911722</v>
       </c>
       <c r="V19" t="n">
-        <v>52.4417602431017</v>
+        <v>59.97913125784089</v>
       </c>
       <c r="W19" t="n">
-        <v>86.8271152558647</v>
+        <v>94.36448627060389</v>
       </c>
       <c r="X19" t="n">
-        <v>26.01377230831085</v>
+        <v>33.55114332305004</v>
       </c>
       <c r="Y19" t="n">
-        <v>18.88877027136849</v>
+        <v>26.42614128610768</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>183.0379585827543</v>
+        <v>190.5753295974935</v>
       </c>
       <c r="C20" t="n">
-        <v>165.5770086902812</v>
+        <v>173.1143797050204</v>
       </c>
       <c r="D20" t="n">
-        <v>154.9871585399567</v>
+        <v>162.5245295546958</v>
       </c>
       <c r="E20" t="n">
-        <v>182.2344869915355</v>
+        <v>189.7718580062747</v>
       </c>
       <c r="F20" t="n">
-        <v>207.1801626609851</v>
+        <v>214.7175336757243</v>
       </c>
       <c r="G20" t="n">
-        <v>215.1976745548468</v>
+        <v>222.6690973120772</v>
       </c>
       <c r="H20" t="n">
-        <v>135.5884055934766</v>
+        <v>142.4503840160045</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.034575096759283</v>
       </c>
       <c r="T20" t="n">
-        <v>21.60878156062242</v>
+        <v>28.85746407811718</v>
       </c>
       <c r="U20" t="n">
-        <v>51.61703543674523</v>
+        <v>59.14913059088371</v>
       </c>
       <c r="V20" t="n">
-        <v>128.0563753894086</v>
+        <v>135.5937464041478</v>
       </c>
       <c r="W20" t="n">
-        <v>149.5450856366867</v>
+        <v>157.0824566514259</v>
       </c>
       <c r="X20" t="n">
-        <v>170.0352175977427</v>
+        <v>177.5725886124819</v>
       </c>
       <c r="Y20" t="n">
-        <v>186.5420555753273</v>
+        <v>194.0794265900665</v>
       </c>
     </row>
     <row r="21">
@@ -24101,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>6.981547892565288</v>
       </c>
       <c r="U21" t="n">
-        <v>26.23109567547854</v>
+        <v>33.76614528044578</v>
       </c>
       <c r="V21" t="n">
-        <v>33.10470406869896</v>
+        <v>40.64207508343816</v>
       </c>
       <c r="W21" t="n">
-        <v>51.9991000801933</v>
+        <v>59.53647109493249</v>
       </c>
       <c r="X21" t="n">
-        <v>6.077102122751171</v>
+        <v>13.61447313749036</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.986812696578056</v>
+        <v>13.52418371131725</v>
       </c>
     </row>
     <row r="22">
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>21.12204348093962</v>
+        <v>28.1438788579903</v>
       </c>
       <c r="T22" t="n">
-        <v>27.46547286117337</v>
+        <v>34.87644755368322</v>
       </c>
       <c r="U22" t="n">
-        <v>86.61313478444904</v>
+        <v>94.14889222911722</v>
       </c>
       <c r="V22" t="n">
-        <v>52.4417602431017</v>
+        <v>59.97913125784089</v>
       </c>
       <c r="W22" t="n">
-        <v>86.8271152558647</v>
+        <v>94.36448627060389</v>
       </c>
       <c r="X22" t="n">
-        <v>26.01377230831085</v>
+        <v>33.55114332305004</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.88877027136849</v>
+        <v>26.42614128610768</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>183.0379585827543</v>
+        <v>190.5753295974935</v>
       </c>
       <c r="C23" t="n">
-        <v>165.5770086902812</v>
+        <v>173.1143797050204</v>
       </c>
       <c r="D23" t="n">
-        <v>154.9871585399567</v>
+        <v>162.5245295546958</v>
       </c>
       <c r="E23" t="n">
-        <v>182.2344869915355</v>
+        <v>189.7718580062747</v>
       </c>
       <c r="F23" t="n">
-        <v>207.1801626609851</v>
+        <v>214.7175336757243</v>
       </c>
       <c r="G23" t="n">
-        <v>215.1976745548468</v>
+        <v>222.6690973120772</v>
       </c>
       <c r="H23" t="n">
-        <v>135.5884055934766</v>
+        <v>142.4503840160045</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6.034575096759283</v>
       </c>
       <c r="T23" t="n">
-        <v>21.60878156062242</v>
+        <v>28.85746407811718</v>
       </c>
       <c r="U23" t="n">
-        <v>51.61703543674523</v>
+        <v>59.14913059088371</v>
       </c>
       <c r="V23" t="n">
-        <v>128.0563753894086</v>
+        <v>135.5937464041478</v>
       </c>
       <c r="W23" t="n">
-        <v>149.5450856366867</v>
+        <v>157.0824566514259</v>
       </c>
       <c r="X23" t="n">
-        <v>170.0352175977427</v>
+        <v>177.5725886124819</v>
       </c>
       <c r="Y23" t="n">
-        <v>186.5420555753273</v>
+        <v>194.0794265900665</v>
       </c>
     </row>
     <row r="24">
@@ -24338,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>6.981547892565288</v>
       </c>
       <c r="U24" t="n">
-        <v>26.23109567547854</v>
+        <v>33.76614528044578</v>
       </c>
       <c r="V24" t="n">
-        <v>33.10470406869896</v>
+        <v>40.64207508343816</v>
       </c>
       <c r="W24" t="n">
-        <v>51.9991000801933</v>
+        <v>59.53647109493249</v>
       </c>
       <c r="X24" t="n">
-        <v>6.077102122751171</v>
+        <v>13.61447313749036</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.986812696578056</v>
+        <v>13.52418371131725</v>
       </c>
     </row>
     <row r="25">
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>21.12204348093962</v>
+        <v>28.1438788579903</v>
       </c>
       <c r="T25" t="n">
-        <v>27.46547286117337</v>
+        <v>34.87644755368322</v>
       </c>
       <c r="U25" t="n">
-        <v>86.61313478444904</v>
+        <v>94.14889222911722</v>
       </c>
       <c r="V25" t="n">
-        <v>52.4417602431017</v>
+        <v>59.97913125784089</v>
       </c>
       <c r="W25" t="n">
-        <v>86.8271152558647</v>
+        <v>94.36448627060389</v>
       </c>
       <c r="X25" t="n">
-        <v>26.01377230831085</v>
+        <v>33.55114332305004</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.88877027136849</v>
+        <v>26.42614128610768</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>236.2998790169114</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C26" t="n">
-        <v>218.8389291244384</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D26" t="n">
-        <v>208.2490789741138</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E26" t="n">
-        <v>235.4964074256926</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F26" t="n">
-        <v>260.4420830951423</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G26" t="n">
-        <v>268.4595949890039</v>
+        <v>269.7583969846804</v>
       </c>
       <c r="H26" t="n">
-        <v>188.8503260276337</v>
+        <v>189.5396836886078</v>
       </c>
       <c r="I26" t="n">
-        <v>48.26701961702287</v>
+        <v>47.08929967260323</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>53.26192043415719</v>
+        <v>53.12387476936252</v>
       </c>
       <c r="T26" t="n">
-        <v>74.87070199477955</v>
+        <v>75.94676375072041</v>
       </c>
       <c r="U26" t="n">
-        <v>104.8789558709024</v>
+        <v>106.2384302634869</v>
       </c>
       <c r="V26" t="n">
-        <v>181.3182958235657</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W26" t="n">
-        <v>202.8070060708438</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X26" t="n">
-        <v>223.2971380318999</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y26" t="n">
-        <v>239.8039760094844</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="27">
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.09922100329817</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C27" t="n">
-        <v>26.27453634174657</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D27" t="n">
-        <v>1.011102918069582</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E27" t="n">
-        <v>11.21111780883177</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>21.18266976388344</v>
+        <v>21.89200865811429</v>
       </c>
       <c r="T27" t="n">
-        <v>52.84832235067958</v>
+        <v>54.07084756516852</v>
       </c>
       <c r="U27" t="n">
-        <v>79.49301610963568</v>
+        <v>80.85544495304902</v>
       </c>
       <c r="V27" t="n">
-        <v>86.3666245028561</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W27" t="n">
-        <v>105.2610205143504</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X27" t="n">
-        <v>59.3390225569083</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y27" t="n">
-        <v>59.24873313073519</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="28">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.39801753536813</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C28" t="n">
-        <v>20.81285845205866</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D28" t="n">
-        <v>2.181510371643185</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G28" t="n">
-        <v>21.37347270443851</v>
+        <v>22.70864083965526</v>
       </c>
       <c r="H28" t="n">
-        <v>14.16133677644183</v>
+        <v>15.26307510805208</v>
       </c>
       <c r="I28" t="n">
-        <v>3.496843402069743</v>
+        <v>3.971978689436781</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>22.60662272284594</v>
+        <v>22.64125338082656</v>
       </c>
       <c r="S28" t="n">
-        <v>74.38396391509676</v>
+        <v>75.23317853059353</v>
       </c>
       <c r="T28" t="n">
-        <v>80.7273932953305</v>
+        <v>81.96574722628645</v>
       </c>
       <c r="U28" t="n">
-        <v>139.8750552186062</v>
+        <v>141.2381919017205</v>
       </c>
       <c r="V28" t="n">
-        <v>105.7036806772588</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W28" t="n">
-        <v>140.0890356900218</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X28" t="n">
-        <v>79.27569274246798</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y28" t="n">
-        <v>72.15069070552562</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>236.2998790169114</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C29" t="n">
-        <v>218.8389291244384</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D29" t="n">
-        <v>208.2490789741138</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E29" t="n">
-        <v>235.4964074256926</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F29" t="n">
-        <v>260.4420830951423</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G29" t="n">
-        <v>268.4595949890039</v>
+        <v>269.7583969846804</v>
       </c>
       <c r="H29" t="n">
-        <v>188.8503260276337</v>
+        <v>189.5396836886078</v>
       </c>
       <c r="I29" t="n">
-        <v>48.26701961702287</v>
+        <v>47.08929967260323</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>53.26192043415719</v>
+        <v>53.12387476936252</v>
       </c>
       <c r="T29" t="n">
-        <v>74.87070199477955</v>
+        <v>75.94676375072041</v>
       </c>
       <c r="U29" t="n">
-        <v>104.8789558709024</v>
+        <v>106.2384302634869</v>
       </c>
       <c r="V29" t="n">
-        <v>181.3182958235657</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W29" t="n">
-        <v>202.8070060708438</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X29" t="n">
-        <v>223.2971380318999</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y29" t="n">
-        <v>239.8039760094844</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="30">
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.09922100329817</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C30" t="n">
-        <v>26.27453634174657</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D30" t="n">
-        <v>1.011102918069582</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E30" t="n">
-        <v>11.21111780883177</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>21.18266976388344</v>
+        <v>21.89200865811429</v>
       </c>
       <c r="T30" t="n">
-        <v>52.84832235067958</v>
+        <v>54.07084756516852</v>
       </c>
       <c r="U30" t="n">
-        <v>79.49301610963568</v>
+        <v>80.85544495304902</v>
       </c>
       <c r="V30" t="n">
-        <v>86.3666245028561</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W30" t="n">
-        <v>105.2610205143504</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X30" t="n">
-        <v>59.3390225569083</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y30" t="n">
-        <v>59.24873313073519</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="31">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.39801753536813</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C31" t="n">
-        <v>20.81285845205866</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D31" t="n">
-        <v>2.181510371643185</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G31" t="n">
-        <v>21.37347270443851</v>
+        <v>22.70864083965526</v>
       </c>
       <c r="H31" t="n">
-        <v>14.16133677644183</v>
+        <v>15.26307510805208</v>
       </c>
       <c r="I31" t="n">
-        <v>3.496843402069743</v>
+        <v>3.971978689436781</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>22.60662272284594</v>
+        <v>22.64125338082656</v>
       </c>
       <c r="S31" t="n">
-        <v>74.38396391509676</v>
+        <v>75.23317853059353</v>
       </c>
       <c r="T31" t="n">
-        <v>80.7273932953305</v>
+        <v>81.96574722628645</v>
       </c>
       <c r="U31" t="n">
-        <v>139.8750552186062</v>
+        <v>141.2381919017205</v>
       </c>
       <c r="V31" t="n">
-        <v>105.7036806772588</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W31" t="n">
-        <v>140.0890356900218</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X31" t="n">
-        <v>79.27569274246798</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y31" t="n">
-        <v>72.15069070552562</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>168.2296454819704</v>
+        <v>184.5407545007342</v>
       </c>
       <c r="C32" t="n">
-        <v>150.7686955894973</v>
+        <v>167.0798046082612</v>
       </c>
       <c r="D32" t="n">
-        <v>140.1788454391727</v>
+        <v>156.4899544579366</v>
       </c>
       <c r="E32" t="n">
-        <v>167.4261738907516</v>
+        <v>183.7372829095154</v>
       </c>
       <c r="F32" t="n">
-        <v>192.3718495602012</v>
+        <v>208.682958578965</v>
       </c>
       <c r="G32" t="n">
-        <v>200.3893614540629</v>
+        <v>216.6345222153179</v>
       </c>
       <c r="H32" t="n">
-        <v>120.7800924926926</v>
+        <v>136.4158089192453</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>6.800468459838498</v>
+        <v>22.82288898135789</v>
       </c>
       <c r="U32" t="n">
-        <v>36.80872233596131</v>
+        <v>53.11455549412443</v>
       </c>
       <c r="V32" t="n">
-        <v>113.2480622886247</v>
+        <v>129.5591713073885</v>
       </c>
       <c r="W32" t="n">
-        <v>134.7367725359028</v>
+        <v>151.0478815546666</v>
       </c>
       <c r="X32" t="n">
-        <v>155.2269044969588</v>
+        <v>171.5380135157226</v>
       </c>
       <c r="Y32" t="n">
-        <v>171.7337424745434</v>
+        <v>188.0448514933072</v>
       </c>
     </row>
     <row r="33">
@@ -25049,22 +25049,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.9469727958060048</v>
       </c>
       <c r="U33" t="n">
-        <v>11.42278257469462</v>
+        <v>27.7315701836865</v>
       </c>
       <c r="V33" t="n">
-        <v>18.29639096791504</v>
+        <v>34.60749998667887</v>
       </c>
       <c r="W33" t="n">
-        <v>37.19078697940938</v>
+        <v>53.50189599817321</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>7.579898040731081</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>7.489608614557966</v>
       </c>
     </row>
     <row r="34">
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>6.313730380155704</v>
+        <v>22.10930376123102</v>
       </c>
       <c r="T34" t="n">
-        <v>12.65715976038945</v>
+        <v>28.84187245692394</v>
       </c>
       <c r="U34" t="n">
-        <v>71.80482168366512</v>
+        <v>88.11431713235794</v>
       </c>
       <c r="V34" t="n">
-        <v>37.63344714231778</v>
+        <v>53.94455616108161</v>
       </c>
       <c r="W34" t="n">
-        <v>72.01880215508078</v>
+        <v>88.32991117384461</v>
       </c>
       <c r="X34" t="n">
-        <v>11.20545920752693</v>
+        <v>27.51656822629076</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.080457170584566</v>
+        <v>20.3915661893484</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>168.2296454819704</v>
+        <v>184.5407545007342</v>
       </c>
       <c r="C35" t="n">
-        <v>150.7686955894973</v>
+        <v>167.0798046082612</v>
       </c>
       <c r="D35" t="n">
-        <v>140.1788454391727</v>
+        <v>156.4899544579366</v>
       </c>
       <c r="E35" t="n">
-        <v>167.4261738907516</v>
+        <v>183.7372829095154</v>
       </c>
       <c r="F35" t="n">
-        <v>192.3718495602012</v>
+        <v>208.682958578965</v>
       </c>
       <c r="G35" t="n">
-        <v>200.3893614540629</v>
+        <v>216.6345222153179</v>
       </c>
       <c r="H35" t="n">
-        <v>120.7800924926926</v>
+        <v>136.4158089192453</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.800468459838498</v>
+        <v>22.82288898135789</v>
       </c>
       <c r="U35" t="n">
-        <v>36.80872233596131</v>
+        <v>53.11455549412443</v>
       </c>
       <c r="V35" t="n">
-        <v>113.2480622886247</v>
+        <v>129.5591713073885</v>
       </c>
       <c r="W35" t="n">
-        <v>134.7367725359028</v>
+        <v>151.0478815546666</v>
       </c>
       <c r="X35" t="n">
-        <v>155.2269044969588</v>
+        <v>171.5380135157226</v>
       </c>
       <c r="Y35" t="n">
-        <v>171.7337424745434</v>
+        <v>188.0448514933072</v>
       </c>
     </row>
     <row r="36">
@@ -25286,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.9469727958060048</v>
       </c>
       <c r="U36" t="n">
-        <v>11.42278257469462</v>
+        <v>27.7315701836865</v>
       </c>
       <c r="V36" t="n">
-        <v>18.29639096791504</v>
+        <v>34.60749998667887</v>
       </c>
       <c r="W36" t="n">
-        <v>37.19078697940938</v>
+        <v>53.50189599817321</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>7.579898040731081</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>7.489608614557966</v>
       </c>
     </row>
     <row r="37">
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>6.313730380155704</v>
+        <v>22.10930376123102</v>
       </c>
       <c r="T37" t="n">
-        <v>12.65715976038945</v>
+        <v>28.84187245692394</v>
       </c>
       <c r="U37" t="n">
-        <v>71.80482168366512</v>
+        <v>88.11431713235794</v>
       </c>
       <c r="V37" t="n">
-        <v>37.63344714231778</v>
+        <v>53.94455616108161</v>
       </c>
       <c r="W37" t="n">
-        <v>72.01880215508078</v>
+        <v>88.32991117384461</v>
       </c>
       <c r="X37" t="n">
-        <v>11.20545920752693</v>
+        <v>27.51656822629076</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.080457170584566</v>
+        <v>20.3915661893484</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>168.2296454819704</v>
+        <v>184.5407545007342</v>
       </c>
       <c r="C38" t="n">
-        <v>150.7686955894973</v>
+        <v>167.0798046082612</v>
       </c>
       <c r="D38" t="n">
-        <v>140.1788454391727</v>
+        <v>156.4899544579366</v>
       </c>
       <c r="E38" t="n">
-        <v>167.4261738907516</v>
+        <v>183.7372829095154</v>
       </c>
       <c r="F38" t="n">
-        <v>192.3718495602012</v>
+        <v>208.682958578965</v>
       </c>
       <c r="G38" t="n">
-        <v>200.3893614540629</v>
+        <v>216.6345222153179</v>
       </c>
       <c r="H38" t="n">
-        <v>120.7800924926926</v>
+        <v>136.4158089192453</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.800468459838498</v>
+        <v>22.82288898135789</v>
       </c>
       <c r="U38" t="n">
-        <v>36.80872233596131</v>
+        <v>53.11455549412443</v>
       </c>
       <c r="V38" t="n">
-        <v>113.2480622886247</v>
+        <v>129.5591713073885</v>
       </c>
       <c r="W38" t="n">
-        <v>134.7367725359028</v>
+        <v>151.0478815546666</v>
       </c>
       <c r="X38" t="n">
-        <v>155.2269044969588</v>
+        <v>171.5380135157226</v>
       </c>
       <c r="Y38" t="n">
-        <v>171.7337424745434</v>
+        <v>188.0448514933072</v>
       </c>
     </row>
     <row r="39">
@@ -25523,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.9469727958060048</v>
       </c>
       <c r="U39" t="n">
-        <v>11.42278257469462</v>
+        <v>27.7315701836865</v>
       </c>
       <c r="V39" t="n">
-        <v>18.29639096791504</v>
+        <v>34.60749998667887</v>
       </c>
       <c r="W39" t="n">
-        <v>37.19078697940938</v>
+        <v>53.50189599817321</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>7.579898040731081</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>7.489608614557966</v>
       </c>
     </row>
     <row r="40">
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>6.313730380155704</v>
+        <v>22.10930376123102</v>
       </c>
       <c r="T40" t="n">
-        <v>12.65715976038945</v>
+        <v>28.84187245692394</v>
       </c>
       <c r="U40" t="n">
-        <v>71.80482168366512</v>
+        <v>88.11431713235794</v>
       </c>
       <c r="V40" t="n">
-        <v>37.63344714231778</v>
+        <v>53.94455616108161</v>
       </c>
       <c r="W40" t="n">
-        <v>72.01880215508078</v>
+        <v>88.32991117384461</v>
       </c>
       <c r="X40" t="n">
-        <v>11.20545920752693</v>
+        <v>27.51656822629076</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.080457170584566</v>
+        <v>20.3915661893484</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>272.6128055032142</v>
+        <v>286.0669278463433</v>
       </c>
       <c r="C41" t="n">
-        <v>255.1518556107411</v>
+        <v>268.6059779538703</v>
       </c>
       <c r="D41" t="n">
-        <v>244.5620054604165</v>
+        <v>258.0161278035457</v>
       </c>
       <c r="E41" t="n">
-        <v>271.8093339119954</v>
+        <v>285.2634562551245</v>
       </c>
       <c r="F41" t="n">
-        <v>296.7550095814451</v>
+        <v>310.2091319245741</v>
       </c>
       <c r="G41" t="n">
-        <v>304.7725214753067</v>
+        <v>318.160695560927</v>
       </c>
       <c r="H41" t="n">
-        <v>225.1632525139364</v>
+        <v>237.9419822648543</v>
       </c>
       <c r="I41" t="n">
-        <v>84.57994610332563</v>
+        <v>95.49159824884981</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>14.04493617134702</v>
+        <v>23.35643628374396</v>
       </c>
       <c r="S41" t="n">
-        <v>89.57484692045995</v>
+        <v>101.5261733456091</v>
       </c>
       <c r="T41" t="n">
-        <v>111.1836284810823</v>
+        <v>124.349062326967</v>
       </c>
       <c r="U41" t="n">
-        <v>141.1918823572051</v>
+        <v>154.6407288397335</v>
       </c>
       <c r="V41" t="n">
-        <v>217.6312223098685</v>
+        <v>231.0853446529976</v>
       </c>
       <c r="W41" t="n">
-        <v>239.1199325571466</v>
+        <v>252.5740549002757</v>
       </c>
       <c r="X41" t="n">
-        <v>259.6100645182026</v>
+        <v>273.0641868613317</v>
       </c>
       <c r="Y41" t="n">
-        <v>276.1169024957871</v>
+        <v>289.5710248389163</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>56.41214748960093</v>
+        <v>69.86626983273004</v>
       </c>
       <c r="C42" t="n">
-        <v>62.58746282804933</v>
+        <v>76.04158517117844</v>
       </c>
       <c r="D42" t="n">
-        <v>37.32402940437234</v>
+        <v>50.77815174750145</v>
       </c>
       <c r="E42" t="n">
-        <v>47.52404429513453</v>
+        <v>60.97816663826364</v>
       </c>
       <c r="F42" t="n">
-        <v>34.94817623311747</v>
+        <v>48.40229857624658</v>
       </c>
       <c r="G42" t="n">
-        <v>27.00355046644083</v>
+        <v>40.42238738103592</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>13.11333938860311</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.4955962501862</v>
+        <v>70.29430723436087</v>
       </c>
       <c r="T42" t="n">
-        <v>89.16124883698234</v>
+        <v>102.4731461414151</v>
       </c>
       <c r="U42" t="n">
-        <v>115.8059425959384</v>
+        <v>129.2577435292956</v>
       </c>
       <c r="V42" t="n">
-        <v>122.6795509891589</v>
+        <v>136.133673332288</v>
       </c>
       <c r="W42" t="n">
-        <v>141.5739470006532</v>
+        <v>155.0280693437823</v>
       </c>
       <c r="X42" t="n">
-        <v>95.65194904321106</v>
+        <v>109.1060713863402</v>
       </c>
       <c r="Y42" t="n">
-        <v>95.56165961703795</v>
+        <v>109.0157819601671</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.71094402167088</v>
+        <v>83.1650663648</v>
       </c>
       <c r="C43" t="n">
-        <v>57.12578493836142</v>
+        <v>70.57990728149053</v>
       </c>
       <c r="D43" t="n">
-        <v>38.49443685794594</v>
+        <v>51.94855920107506</v>
       </c>
       <c r="E43" t="n">
-        <v>36.31292648630276</v>
+        <v>49.76704882943187</v>
       </c>
       <c r="F43" t="n">
-        <v>35.30001186266483</v>
+        <v>48.75413420579395</v>
       </c>
       <c r="G43" t="n">
-        <v>57.68639919074127</v>
+        <v>71.11093941590184</v>
       </c>
       <c r="H43" t="n">
-        <v>50.47426326274459</v>
+        <v>63.66537368429866</v>
       </c>
       <c r="I43" t="n">
-        <v>39.8097698883725</v>
+        <v>52.37427726568336</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>58.9195492091487</v>
+        <v>71.04355195707313</v>
       </c>
       <c r="S43" t="n">
-        <v>110.6968904013995</v>
+        <v>123.6354771068401</v>
       </c>
       <c r="T43" t="n">
-        <v>117.0403197816333</v>
+        <v>130.368045802533</v>
       </c>
       <c r="U43" t="n">
-        <v>176.1879817049089</v>
+        <v>189.640490477967</v>
       </c>
       <c r="V43" t="n">
-        <v>142.0166071635616</v>
+        <v>155.4707295066907</v>
       </c>
       <c r="W43" t="n">
-        <v>176.4019621763246</v>
+        <v>189.8560845194537</v>
       </c>
       <c r="X43" t="n">
-        <v>115.5886192287707</v>
+        <v>129.0427415718999</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.4636171918284</v>
+        <v>121.9177395349575</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>272.6128055032142</v>
+        <v>286.0669278463433</v>
       </c>
       <c r="C44" t="n">
-        <v>255.1518556107411</v>
+        <v>268.6059779538703</v>
       </c>
       <c r="D44" t="n">
-        <v>244.5620054604165</v>
+        <v>258.0161278035457</v>
       </c>
       <c r="E44" t="n">
-        <v>271.8093339119954</v>
+        <v>285.2634562551245</v>
       </c>
       <c r="F44" t="n">
-        <v>296.7550095814451</v>
+        <v>310.2091319245741</v>
       </c>
       <c r="G44" t="n">
-        <v>304.7725214753067</v>
+        <v>318.160695560927</v>
       </c>
       <c r="H44" t="n">
-        <v>225.1632525139364</v>
+        <v>237.9419822648543</v>
       </c>
       <c r="I44" t="n">
-        <v>84.57994610332563</v>
+        <v>95.49159824884981</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>14.04493617134702</v>
+        <v>23.35643628374396</v>
       </c>
       <c r="S44" t="n">
-        <v>89.57484692045995</v>
+        <v>101.5261733456091</v>
       </c>
       <c r="T44" t="n">
-        <v>111.1836284810823</v>
+        <v>124.349062326967</v>
       </c>
       <c r="U44" t="n">
-        <v>141.1918823572051</v>
+        <v>154.6407288397335</v>
       </c>
       <c r="V44" t="n">
-        <v>217.6312223098685</v>
+        <v>231.0853446529976</v>
       </c>
       <c r="W44" t="n">
-        <v>239.1199325571466</v>
+        <v>252.5740549002757</v>
       </c>
       <c r="X44" t="n">
-        <v>259.6100645182026</v>
+        <v>273.0641868613317</v>
       </c>
       <c r="Y44" t="n">
-        <v>276.1169024957871</v>
+        <v>289.5710248389163</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>56.41214748960093</v>
+        <v>69.86626983273004</v>
       </c>
       <c r="C45" t="n">
-        <v>62.58746282804933</v>
+        <v>76.04158517117844</v>
       </c>
       <c r="D45" t="n">
-        <v>37.32402940437234</v>
+        <v>50.77815174750145</v>
       </c>
       <c r="E45" t="n">
-        <v>47.52404429513453</v>
+        <v>60.97816663826364</v>
       </c>
       <c r="F45" t="n">
-        <v>34.94817623311747</v>
+        <v>48.40229857624658</v>
       </c>
       <c r="G45" t="n">
-        <v>27.00355046644083</v>
+        <v>40.42238738103592</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>13.11333938860311</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>57.4955962501862</v>
+        <v>70.29430723436087</v>
       </c>
       <c r="T45" t="n">
-        <v>89.16124883698234</v>
+        <v>102.4731461414151</v>
       </c>
       <c r="U45" t="n">
-        <v>115.8059425959384</v>
+        <v>129.2577435292956</v>
       </c>
       <c r="V45" t="n">
-        <v>122.6795509891589</v>
+        <v>136.133673332288</v>
       </c>
       <c r="W45" t="n">
-        <v>141.5739470006532</v>
+        <v>155.0280693437823</v>
       </c>
       <c r="X45" t="n">
-        <v>95.65194904321106</v>
+        <v>109.1060713863402</v>
       </c>
       <c r="Y45" t="n">
-        <v>95.56165961703795</v>
+        <v>109.0157819601671</v>
       </c>
     </row>
     <row r="46">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>69.71094402167088</v>
+        <v>83.1650663648</v>
       </c>
       <c r="C46" t="n">
-        <v>57.12578493836142</v>
+        <v>70.57990728149053</v>
       </c>
       <c r="D46" t="n">
-        <v>38.49443685794594</v>
+        <v>51.94855920107506</v>
       </c>
       <c r="E46" t="n">
-        <v>36.31292648630276</v>
+        <v>49.76704882943187</v>
       </c>
       <c r="F46" t="n">
-        <v>35.30001186266483</v>
+        <v>48.75413420579395</v>
       </c>
       <c r="G46" t="n">
-        <v>57.68639919074127</v>
+        <v>71.11093941590184</v>
       </c>
       <c r="H46" t="n">
-        <v>50.47426326274459</v>
+        <v>63.66537368429866</v>
       </c>
       <c r="I46" t="n">
-        <v>39.8097698883725</v>
+        <v>52.37427726568336</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>58.9195492091487</v>
+        <v>71.04355195707313</v>
       </c>
       <c r="S46" t="n">
-        <v>110.6968904013995</v>
+        <v>123.6354771068401</v>
       </c>
       <c r="T46" t="n">
-        <v>117.0403197816333</v>
+        <v>130.368045802533</v>
       </c>
       <c r="U46" t="n">
-        <v>176.1879817049089</v>
+        <v>189.640490477967</v>
       </c>
       <c r="V46" t="n">
-        <v>142.0166071635616</v>
+        <v>155.4707295066907</v>
       </c>
       <c r="W46" t="n">
-        <v>176.4019621763246</v>
+        <v>189.8560845194537</v>
       </c>
       <c r="X46" t="n">
-        <v>115.5886192287707</v>
+        <v>129.0427415718999</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.4636171918284</v>
+        <v>121.9177395349575</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>500414.8640003134</v>
+        <v>486551.2644457122</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>500414.8640003134</v>
+        <v>486551.2644457124</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>525225.2025975811</v>
+        <v>516287.0988646016</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>525225.2025975811</v>
+        <v>516287.0988646016</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>525225.2025975811</v>
+        <v>516287.0988646015</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>489890.1838842867</v>
+        <v>482864.454565226</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>489890.1838842867</v>
+        <v>482864.454565226</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>527570.231022343</v>
+        <v>518698.0323072587</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>527570.231022343</v>
+        <v>518698.0323072587</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>527570.231022343</v>
+        <v>518698.0323072587</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>444368.4371637861</v>
+        <v>420476.2763338278</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>444368.4371637861</v>
+        <v>420476.2763338278</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>798794.4302491127</v>
+      </c>
+      <c r="C2" t="n">
+        <v>798794.4302491129</v>
+      </c>
+      <c r="D2" t="n">
         <v>798794.4302491128</v>
       </c>
-      <c r="C2" t="n">
-        <v>798794.4302491124</v>
-      </c>
-      <c r="D2" t="n">
-        <v>798794.4302491127</v>
-      </c>
       <c r="E2" t="n">
-        <v>567921.290231982</v>
+        <v>551611.5613089738</v>
       </c>
       <c r="F2" t="n">
-        <v>567921.290231982</v>
+        <v>551611.5613089743</v>
       </c>
       <c r="G2" t="n">
-        <v>636507.905358351</v>
+        <v>625449.1740659924</v>
       </c>
       <c r="H2" t="n">
-        <v>636507.905358351</v>
+        <v>625449.1740659926</v>
       </c>
       <c r="I2" t="n">
-        <v>636507.9053583511</v>
+        <v>625449.1740659926</v>
       </c>
       <c r="J2" t="n">
-        <v>546912.4369790017</v>
+        <v>544717.0169998261</v>
       </c>
       <c r="K2" t="n">
-        <v>546912.4369790017</v>
+        <v>544717.016999826</v>
       </c>
       <c r="L2" t="n">
-        <v>656209.307610424</v>
+        <v>634491.2606994745</v>
       </c>
       <c r="M2" t="n">
-        <v>656209.307610424</v>
+        <v>634491.2606994741</v>
       </c>
       <c r="N2" t="n">
-        <v>656209.3076104239</v>
+        <v>634491.2606994744</v>
       </c>
       <c r="O2" t="n">
-        <v>470902.8340672943</v>
+        <v>442210.388282999</v>
       </c>
       <c r="P2" t="n">
-        <v>470902.8340672942</v>
+        <v>442210.388282999</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207889.2296307827</v>
+        <v>213845.0718779423</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>33640.64210026029</v>
+        <v>34834.4312382198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83506.52801699504</v>
+        <v>81220.93867648728</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>88096.82892821313</v>
+        <v>77333.53105370981</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>301218.3206145416</v>
+        <v>285871.7250291592</v>
       </c>
       <c r="F4" t="n">
-        <v>301218.3206145416</v>
+        <v>285871.7250291592</v>
       </c>
       <c r="G4" t="n">
-        <v>338791.2954170835</v>
+        <v>326583.8656168348</v>
       </c>
       <c r="H4" t="n">
-        <v>338791.2954170835</v>
+        <v>326583.8656168349</v>
       </c>
       <c r="I4" t="n">
-        <v>338791.2954170835</v>
+        <v>326583.8656168348</v>
       </c>
       <c r="J4" t="n">
-        <v>289455.4854020752</v>
+        <v>281991.2682174278</v>
       </c>
       <c r="K4" t="n">
-        <v>289455.4854020752</v>
+        <v>281991.2682174278</v>
       </c>
       <c r="L4" t="n">
-        <v>349169.1547598202</v>
+        <v>331462.6642902136</v>
       </c>
       <c r="M4" t="n">
-        <v>349169.1547598202</v>
+        <v>331462.6642902136</v>
       </c>
       <c r="N4" t="n">
-        <v>349169.1547598202</v>
+        <v>331462.6642902136</v>
       </c>
       <c r="O4" t="n">
-        <v>246251.8802658108</v>
+        <v>223640.285791923</v>
       </c>
       <c r="P4" t="n">
-        <v>246251.8802658108</v>
+        <v>223640.2857919229</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>15471.94446069992</v>
+        <v>15070.45530646832</v>
       </c>
       <c r="F5" t="n">
-        <v>15471.94446069992</v>
+        <v>15070.45530646832</v>
       </c>
       <c r="G5" t="n">
-        <v>19007.11338660839</v>
+        <v>18731.0750561757</v>
       </c>
       <c r="H5" t="n">
-        <v>19007.11338660839</v>
+        <v>18731.0750561757</v>
       </c>
       <c r="I5" t="n">
-        <v>19007.11338660839</v>
+        <v>18731.0750561757</v>
       </c>
       <c r="J5" t="n">
-        <v>14529.43699762924</v>
+        <v>14772.32472199962</v>
       </c>
       <c r="K5" t="n">
-        <v>14529.43699762924</v>
+        <v>14772.32472199962</v>
       </c>
       <c r="L5" t="n">
-        <v>20252.0334606782</v>
+        <v>19238.39574998515</v>
       </c>
       <c r="M5" t="n">
-        <v>20252.0334606782</v>
+        <v>19238.39574998515</v>
       </c>
       <c r="N5" t="n">
-        <v>20252.0334606782</v>
+        <v>19238.39574998515</v>
       </c>
       <c r="O5" t="n">
-        <v>11476.64558085225</v>
+        <v>10703.19188299315</v>
       </c>
       <c r="P5" t="n">
-        <v>11476.64558085225</v>
+        <v>10703.19188299315</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297506.7345387004</v>
+        <v>297546.4567395133</v>
       </c>
       <c r="C6" t="n">
-        <v>297506.7345387001</v>
+        <v>297546.4567395136</v>
       </c>
       <c r="D6" t="n">
-        <v>297506.7345387003</v>
+        <v>297546.4567395134</v>
       </c>
       <c r="E6" t="n">
-        <v>37377.83564427336</v>
+        <v>36186.09328948423</v>
       </c>
       <c r="F6" t="n">
-        <v>245267.065275056</v>
+        <v>250031.165167427</v>
       </c>
       <c r="G6" t="n">
-        <v>240863.5257298007</v>
+        <v>244850.9135610397</v>
       </c>
       <c r="H6" t="n">
-        <v>274504.1678300609</v>
+        <v>279685.3447992597</v>
       </c>
       <c r="I6" t="n">
-        <v>274504.1678300611</v>
+        <v>279685.3447992598</v>
       </c>
       <c r="J6" t="n">
-        <v>152918.3381356695</v>
+        <v>166076.5912592502</v>
       </c>
       <c r="K6" t="n">
-        <v>236424.8661526646</v>
+        <v>247297.5299357374</v>
       </c>
       <c r="L6" t="n">
-        <v>194991.125897424</v>
+        <v>206030.9658493654</v>
       </c>
       <c r="M6" t="n">
-        <v>283087.9548256371</v>
+        <v>283364.4969030749</v>
       </c>
       <c r="N6" t="n">
-        <v>283087.954825637</v>
+        <v>283364.4969030751</v>
       </c>
       <c r="O6" t="n">
-        <v>204722.6956167752</v>
+        <v>206948.1789738915</v>
       </c>
       <c r="P6" t="n">
-        <v>204722.6956167752</v>
+        <v>206948.1789738915</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="F2" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="G2" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="H2" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="I2" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="J2" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="K2" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="L2" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="M2" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="N2" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="O2" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.7834950410465</v>
+        <v>118.1881240963408</v>
       </c>
       <c r="F3" t="n">
-        <v>101.7834950410465</v>
+        <v>118.1881240963408</v>
       </c>
       <c r="G3" t="n">
-        <v>101.7834950410465</v>
+        <v>118.1881240963408</v>
       </c>
       <c r="H3" t="n">
-        <v>101.7834950410465</v>
+        <v>118.1881240963408</v>
       </c>
       <c r="I3" t="n">
-        <v>101.7834950410465</v>
+        <v>118.1881240963408</v>
       </c>
       <c r="J3" t="n">
-        <v>101.7834950410465</v>
+        <v>118.1881240963408</v>
       </c>
       <c r="K3" t="n">
-        <v>101.7834950410465</v>
+        <v>118.1881240963408</v>
       </c>
       <c r="L3" t="n">
-        <v>101.7834950410465</v>
+        <v>118.1881240963408</v>
       </c>
       <c r="M3" t="n">
-        <v>101.7834950410465</v>
+        <v>118.1881240963408</v>
       </c>
       <c r="N3" t="n">
-        <v>101.7834950410465</v>
+        <v>118.1881240963408</v>
       </c>
       <c r="O3" t="n">
-        <v>101.7834950410465</v>
+        <v>118.1881240963408</v>
       </c>
       <c r="P3" t="n">
-        <v>101.7834950410465</v>
+        <v>118.1881240963408</v>
       </c>
     </row>
     <row r="4">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>42.05080262532536</v>
+        <v>43.54303904777476</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>104.3831600212438</v>
+        <v>101.5261733456091</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>110.1210361602664</v>
+        <v>96.66691381713726</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.7834950410465</v>
+        <v>118.1881240963408</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>42.05080262532536</v>
+        <v>43.54303904777476</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>104.3831600212438</v>
+        <v>101.5261733456091</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="C11" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="D11" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="E11" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="F11" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="G11" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="H11" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="I11" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="J11" t="n">
-        <v>146.3172737237113</v>
+        <v>140.7199978029805</v>
       </c>
       <c r="K11" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>157.6450804554009</v>
+        <v>17.80241700542429</v>
       </c>
       <c r="N11" t="n">
-        <v>156.402074736645</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>143.6069205853109</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="R11" t="n">
-        <v>124.1659723316134</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="S11" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="T11" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="U11" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="V11" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="W11" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="X11" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="Y11" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
     </row>
     <row r="12">
@@ -28168,76 +28168,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="C12" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.1245866267072</v>
+        <v>137.0893011981732</v>
       </c>
       <c r="H12" t="n">
-        <v>110.1210361602664</v>
+        <v>109.7802532057404</v>
       </c>
       <c r="I12" t="n">
-        <v>91.98464003705458</v>
+        <v>90.769768923054</v>
       </c>
       <c r="J12" t="n">
-        <v>106.1534920753536</v>
+        <v>102.8197928821452</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>96.79113553233088</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>83.35718087997463</v>
       </c>
       <c r="M12" t="n">
-        <v>86.66202912464796</v>
+        <v>77.7215062895126</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>65.224376509853</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>82.11179946468785</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>85.43030791521245</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>107.5313291454564</v>
       </c>
       <c r="R12" t="n">
-        <v>132.0866062677276</v>
+        <v>129.8958144855885</v>
       </c>
       <c r="S12" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="T12" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="U12" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="V12" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="W12" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="X12" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
     </row>
     <row r="13">
@@ -28247,13 +28247,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="C13" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -28262,61 +28262,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="H13" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="I13" t="n">
-        <v>149.9308060486389</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="J13" t="n">
-        <v>80.3826187898823</v>
+        <v>111.9274043722282</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9450153238406465</v>
+        <v>104.2518774172364</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>103.1986339620324</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>105.5172950329624</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>95.07143474533638</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>108.3321293788935</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>111.9513679347588</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.79273550049635</v>
+        <v>133.6585948908984</v>
       </c>
       <c r="R13" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="T13" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="U13" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="V13" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="W13" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="X13" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="Y13" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182123</v>
       </c>
     </row>
     <row r="14">
@@ -28326,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="C14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="D14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="F14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="G14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="H14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="I14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>146.9178897288542</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>144.6347622787202</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="Q14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="R14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="S14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="T14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="U14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="V14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="W14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="X14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="Y14" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
     </row>
     <row r="15">
@@ -28405,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="C15" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.1245866267072</v>
+        <v>137.0893011981732</v>
       </c>
       <c r="H15" t="n">
-        <v>110.1210361602664</v>
+        <v>109.7802532057404</v>
       </c>
       <c r="I15" t="n">
-        <v>91.98464003705458</v>
+        <v>90.769768923054</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>102.8197928821452</v>
       </c>
       <c r="K15" t="n">
-        <v>102.4889584373193</v>
+        <v>96.79113553233088</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>83.35718087997463</v>
       </c>
       <c r="M15" t="n">
-        <v>86.66202912464796</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>90.50710052471187</v>
+        <v>82.11179946468785</v>
       </c>
       <c r="P15" t="n">
-        <v>92.16827715869736</v>
+        <v>85.43030791521245</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.0354831456949</v>
+        <v>107.5313291454564</v>
       </c>
       <c r="R15" t="n">
-        <v>132.0866062677276</v>
+        <v>129.8958144855885</v>
       </c>
       <c r="S15" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="T15" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="U15" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="V15" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="W15" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="X15" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
     </row>
     <row r="16">
@@ -28484,10 +28484,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="C16" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -28499,28 +28499,28 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="H16" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="I16" t="n">
-        <v>149.9308060486389</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="J16" t="n">
-        <v>114.0188601126056</v>
+        <v>78.29116304950487</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9450153238406465</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>107.5966881189223</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>110.1544264887073</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>15.50807453482936</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28529,31 +28529,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>136.1356938782478</v>
+        <v>114.0303620760667</v>
       </c>
       <c r="R16" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="T16" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="U16" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="V16" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="W16" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="X16" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="Y16" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6154730182124</v>
       </c>
     </row>
     <row r="17">
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="C17" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="D17" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="E17" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="F17" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="G17" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="H17" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="I17" t="n">
-        <v>194.700982263592</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="J17" t="n">
-        <v>146.3172737237113</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>168.0406359401463</v>
+        <v>65.78927332379867</v>
       </c>
       <c r="L17" t="n">
-        <v>43.73546449985106</v>
+        <v>160.7876314792001</v>
       </c>
       <c r="M17" t="n">
-        <v>158.4978267001324</v>
+        <v>146.9178897288542</v>
       </c>
       <c r="N17" t="n">
-        <v>156.402074736645</v>
+        <v>144.6347622787202</v>
       </c>
       <c r="O17" t="n">
-        <v>161.1560049891355</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>162.9089757343291</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.118866155399</v>
+        <v>170.9971962623541</v>
       </c>
       <c r="R17" t="n">
-        <v>189.8823922045959</v>
+        <v>185.7397699738637</v>
       </c>
       <c r="S17" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="T17" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="U17" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="V17" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="W17" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="X17" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="Y17" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
     </row>
     <row r="18">
@@ -28657,61 +28657,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.1245866267072</v>
+        <v>137.0893011981732</v>
       </c>
       <c r="H18" t="n">
-        <v>110.1210361602664</v>
+        <v>109.7802532057404</v>
       </c>
       <c r="I18" t="n">
-        <v>91.98464003705458</v>
+        <v>90.769768923054</v>
       </c>
       <c r="J18" t="n">
-        <v>106.1534920753536</v>
+        <v>102.8197928821452</v>
       </c>
       <c r="K18" t="n">
-        <v>102.4889584373193</v>
+        <v>96.79113553233088</v>
       </c>
       <c r="L18" t="n">
-        <v>91.01860693075145</v>
+        <v>83.35718087997463</v>
       </c>
       <c r="M18" t="n">
-        <v>86.66202912464796</v>
+        <v>77.7215062895126</v>
       </c>
       <c r="N18" t="n">
-        <v>74.40152838107841</v>
+        <v>65.224376509853</v>
       </c>
       <c r="O18" t="n">
-        <v>90.50710052471187</v>
+        <v>82.11179946468785</v>
       </c>
       <c r="P18" t="n">
-        <v>92.16827715869736</v>
+        <v>85.43030791521245</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.0354831456949</v>
+        <v>107.5313291454564</v>
       </c>
       <c r="R18" t="n">
-        <v>132.0866062677276</v>
+        <v>129.8958144855885</v>
       </c>
       <c r="S18" t="n">
-        <v>167.6166324104526</v>
+        <v>166.9612210514982</v>
       </c>
       <c r="T18" t="n">
-        <v>199.2822849972488</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="U18" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="V18" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="W18" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="X18" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="Y18" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
     </row>
     <row r="19">
@@ -28736,61 +28736,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.8074353510077</v>
+        <v>167.7778532330391</v>
       </c>
       <c r="H19" t="n">
-        <v>160.595299423011</v>
+        <v>160.332287501436</v>
       </c>
       <c r="I19" t="n">
-        <v>149.9308060486389</v>
+        <v>149.0411910828207</v>
       </c>
       <c r="J19" t="n">
-        <v>114.0188601126056</v>
+        <v>111.9274043722282</v>
       </c>
       <c r="K19" t="n">
-        <v>107.6887816684932</v>
+        <v>104.2518774172364</v>
       </c>
       <c r="L19" t="n">
-        <v>107.5966881189223</v>
+        <v>103.1986339620324</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>105.5172950329624</v>
       </c>
       <c r="N19" t="n">
-        <v>99.59830557956208</v>
+        <v>95.07143474533638</v>
       </c>
       <c r="O19" t="n">
-        <v>112.5134272895774</v>
+        <v>108.3321293788935</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>111.9513679347588</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.79273550049635</v>
+        <v>133.6585948908984</v>
       </c>
       <c r="R19" t="n">
-        <v>169.0405853694151</v>
+        <v>167.7104657742104</v>
       </c>
       <c r="S19" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="T19" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="U19" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="V19" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="W19" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="X19" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="Y19" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
     </row>
     <row r="20">
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="C20" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="D20" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="E20" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="F20" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="G20" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="H20" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="I20" t="n">
-        <v>194.700982263592</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>140.7199978029805</v>
       </c>
       <c r="K20" t="n">
-        <v>99.15190685518544</v>
+        <v>159.6517702790714</v>
       </c>
       <c r="L20" t="n">
-        <v>171.1947611260075</v>
+        <v>160.7876314792001</v>
       </c>
       <c r="M20" t="n">
-        <v>158.4978267001324</v>
+        <v>146.9178897288542</v>
       </c>
       <c r="N20" t="n">
-        <v>156.402074736645</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>161.1560049891355</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>162.9089757343291</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.118866155399</v>
+        <v>81.04946378282033</v>
       </c>
       <c r="R20" t="n">
-        <v>189.8823922045959</v>
+        <v>185.7397699738637</v>
       </c>
       <c r="S20" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="T20" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="U20" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="V20" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="W20" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="X20" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="Y20" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
     </row>
     <row r="21">
@@ -28894,61 +28894,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.1245866267072</v>
+        <v>137.0893011981732</v>
       </c>
       <c r="H21" t="n">
-        <v>110.1210361602664</v>
+        <v>109.7802532057404</v>
       </c>
       <c r="I21" t="n">
-        <v>91.98464003705458</v>
+        <v>90.769768923054</v>
       </c>
       <c r="J21" t="n">
-        <v>106.1534920753536</v>
+        <v>102.8197928821452</v>
       </c>
       <c r="K21" t="n">
-        <v>102.4889584373193</v>
+        <v>96.79113553233088</v>
       </c>
       <c r="L21" t="n">
-        <v>91.01860693075145</v>
+        <v>83.35718087997463</v>
       </c>
       <c r="M21" t="n">
-        <v>86.66202912464796</v>
+        <v>77.7215062895126</v>
       </c>
       <c r="N21" t="n">
-        <v>74.40152838107841</v>
+        <v>65.224376509853</v>
       </c>
       <c r="O21" t="n">
-        <v>90.50710052471187</v>
+        <v>82.11179946468785</v>
       </c>
       <c r="P21" t="n">
-        <v>92.16827715869736</v>
+        <v>85.43030791521245</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.0354831456949</v>
+        <v>107.5313291454564</v>
       </c>
       <c r="R21" t="n">
-        <v>132.0866062677276</v>
+        <v>129.8958144855885</v>
       </c>
       <c r="S21" t="n">
-        <v>167.6166324104526</v>
+        <v>166.9612210514982</v>
       </c>
       <c r="T21" t="n">
-        <v>199.2822849972488</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="U21" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="V21" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="W21" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="X21" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="Y21" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
     </row>
     <row r="22">
@@ -28973,61 +28973,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.8074353510077</v>
+        <v>167.7778532330391</v>
       </c>
       <c r="H22" t="n">
-        <v>160.595299423011</v>
+        <v>160.332287501436</v>
       </c>
       <c r="I22" t="n">
-        <v>149.9308060486389</v>
+        <v>149.0411910828207</v>
       </c>
       <c r="J22" t="n">
-        <v>114.0188601126056</v>
+        <v>111.9274043722282</v>
       </c>
       <c r="K22" t="n">
-        <v>107.6887816684932</v>
+        <v>104.2518774172364</v>
       </c>
       <c r="L22" t="n">
-        <v>107.5966881189223</v>
+        <v>103.1986339620324</v>
       </c>
       <c r="M22" t="n">
-        <v>110.1544264887073</v>
+        <v>105.5172950329624</v>
       </c>
       <c r="N22" t="n">
-        <v>99.59830557956208</v>
+        <v>95.07143474533638</v>
       </c>
       <c r="O22" t="n">
-        <v>112.5134272895774</v>
+        <v>108.3321293788935</v>
       </c>
       <c r="P22" t="n">
-        <v>115.529190638884</v>
+        <v>111.9513679347588</v>
       </c>
       <c r="Q22" t="n">
-        <v>136.1356938782478</v>
+        <v>133.6585948908984</v>
       </c>
       <c r="R22" t="n">
-        <v>169.0405853694151</v>
+        <v>167.7104657742104</v>
       </c>
       <c r="S22" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="T22" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="U22" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="V22" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="W22" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="X22" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="Y22" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="C23" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="D23" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="E23" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="F23" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="G23" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="H23" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="I23" t="n">
-        <v>194.700982263592</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="J23" t="n">
-        <v>146.3172737237113</v>
+        <v>140.7199978029805</v>
       </c>
       <c r="K23" t="n">
-        <v>168.0406359401463</v>
+        <v>159.6517702790714</v>
       </c>
       <c r="L23" t="n">
-        <v>171.1947611260075</v>
+        <v>160.7876314792001</v>
       </c>
       <c r="M23" t="n">
-        <v>158.4978267001324</v>
+        <v>146.9178897288542</v>
       </c>
       <c r="N23" t="n">
-        <v>156.402074736645</v>
+        <v>144.6347622787202</v>
       </c>
       <c r="O23" t="n">
-        <v>30.12590542447449</v>
+        <v>150.044465516813</v>
       </c>
       <c r="P23" t="n">
-        <v>172.392417599405</v>
+        <v>162.9089757343291</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.118866155399</v>
+        <v>170.9971962623541</v>
       </c>
       <c r="R23" t="n">
-        <v>189.8823922045959</v>
+        <v>185.7397699738637</v>
       </c>
       <c r="S23" t="n">
-        <v>199.6958830807264</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="T23" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="U23" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="V23" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="W23" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="X23" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="Y23" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
     </row>
     <row r="24">
@@ -29131,61 +29131,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.1245866267072</v>
+        <v>137.0893011981732</v>
       </c>
       <c r="H24" t="n">
-        <v>110.1210361602664</v>
+        <v>109.7802532057404</v>
       </c>
       <c r="I24" t="n">
-        <v>91.98464003705458</v>
+        <v>90.769768923054</v>
       </c>
       <c r="J24" t="n">
-        <v>106.1534920753536</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>96.79113553233088</v>
       </c>
       <c r="L24" t="n">
-        <v>91.01860693075145</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>48.12485517042659</v>
       </c>
       <c r="N24" t="n">
-        <v>74.40152838107841</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>90.50710052471187</v>
+        <v>82.11179946468785</v>
       </c>
       <c r="P24" t="n">
-        <v>92.16827715869736</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>107.5313291454564</v>
       </c>
       <c r="R24" t="n">
-        <v>132.0866062677276</v>
+        <v>129.8958144855885</v>
       </c>
       <c r="S24" t="n">
-        <v>167.6166324104526</v>
+        <v>166.9612210514982</v>
       </c>
       <c r="T24" t="n">
-        <v>199.2822849972488</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="U24" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="V24" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="W24" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="X24" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="Y24" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
     </row>
     <row r="25">
@@ -29210,25 +29210,25 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8074353510077</v>
+        <v>167.7778532330391</v>
       </c>
       <c r="H25" t="n">
-        <v>160.595299423011</v>
+        <v>160.332287501436</v>
       </c>
       <c r="I25" t="n">
-        <v>149.9308060486389</v>
+        <v>149.0411910828207</v>
       </c>
       <c r="J25" t="n">
-        <v>114.0188601126056</v>
+        <v>111.9274043722282</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9450153238406465</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>107.5966881189223</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>110.1544264887073</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29237,34 +29237,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>115.529190638884</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>136.1356938782478</v>
+        <v>133.6585948908984</v>
       </c>
       <c r="R25" t="n">
-        <v>169.0405853694151</v>
+        <v>167.7104657742104</v>
       </c>
       <c r="S25" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="T25" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="U25" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="V25" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="W25" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="X25" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="Y25" t="n">
-        <v>199.6958830807263</v>
+        <v>192.1585120659871</v>
       </c>
     </row>
     <row r="26">
@@ -29274,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C26" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D26" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E26" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F26" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G26" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H26" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I26" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J26" t="n">
-        <v>146.3172737237113</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>76.14319413150761</v>
       </c>
       <c r="M26" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6347622787202</v>
       </c>
       <c r="O26" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>124.1659723316134</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S26" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T26" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U26" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V26" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W26" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X26" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y26" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="27">
@@ -29353,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C27" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D27" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E27" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.1245866267072</v>
+        <v>137.0893011981732</v>
       </c>
       <c r="H27" t="n">
-        <v>110.1210361602664</v>
+        <v>109.7802532057404</v>
       </c>
       <c r="I27" t="n">
-        <v>81.85889288846965</v>
+        <v>90.769768923054</v>
       </c>
       <c r="J27" t="n">
-        <v>5.342901093140546</v>
+        <v>102.8197928821452</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>96.79113553233088</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.35718087997463</v>
       </c>
       <c r="M27" t="n">
-        <v>86.66202912464796</v>
+        <v>77.7215062895126</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>65.224376509853</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>82.11179946468785</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>85.43030791521245</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>107.5313291454564</v>
       </c>
       <c r="R27" t="n">
-        <v>86.56493645640676</v>
+        <v>129.8958144855885</v>
       </c>
       <c r="S27" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T27" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U27" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V27" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W27" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X27" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y27" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C28" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D28" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G28" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H28" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I28" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J28" t="n">
-        <v>80.3826187898823</v>
+        <v>111.9274043722282</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9450153238406465</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>105.5172950329624</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>108.3321293788935</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>111.9513679347588</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.79273550049635</v>
+        <v>133.6585948908984</v>
       </c>
       <c r="R28" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S28" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T28" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U28" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V28" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W28" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X28" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y28" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="29">
@@ -29511,37 +29511,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C29" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D29" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E29" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F29" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G29" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H29" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I29" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J29" t="n">
-        <v>146.3172737237113</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -29550,37 +29550,37 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.5814611346359</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="R29" t="n">
-        <v>146.4339626465692</v>
+        <v>121.7651807405473</v>
       </c>
       <c r="S29" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T29" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U29" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V29" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W29" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X29" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y29" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="30">
@@ -29590,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C30" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D30" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E30" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.1245866267072</v>
+        <v>137.0893011981732</v>
       </c>
       <c r="H30" t="n">
-        <v>110.1210361602664</v>
+        <v>109.7802532057404</v>
       </c>
       <c r="I30" t="n">
-        <v>91.98464003705458</v>
+        <v>90.769768923054</v>
       </c>
       <c r="J30" t="n">
-        <v>106.1534920753536</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>102.4889584373193</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>91.01860693075145</v>
+        <v>83.35718087997463</v>
       </c>
       <c r="M30" t="n">
-        <v>86.66202912464796</v>
+        <v>77.7215062895126</v>
       </c>
       <c r="N30" t="n">
-        <v>74.40152838107841</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>90.50710052471187</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>92.16827715869736</v>
+        <v>85.43030791521245</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.0354831456949</v>
+        <v>107.5313291454564</v>
       </c>
       <c r="R30" t="n">
-        <v>132.0866062677276</v>
+        <v>129.8958144855885</v>
       </c>
       <c r="S30" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T30" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U30" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V30" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W30" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X30" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y30" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J31" t="n">
-        <v>114.0188601126056</v>
+        <v>111.9274043722282</v>
       </c>
       <c r="K31" t="n">
-        <v>107.6887816684932</v>
+        <v>104.2518774172364</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>105.5172950329624</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>95.07143474533638</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>115.529190638884</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>136.1356938782478</v>
+        <v>133.6585948908984</v>
       </c>
       <c r="R31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="C32" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="D32" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="E32" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="F32" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="G32" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="I32" t="n">
-        <v>194.700982263592</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="J32" t="n">
-        <v>146.3172737237113</v>
+        <v>140.7199978029805</v>
       </c>
       <c r="K32" t="n">
-        <v>168.0406359401463</v>
+        <v>159.6517702790714</v>
       </c>
       <c r="L32" t="n">
-        <v>171.1947611260075</v>
+        <v>160.7876314792001</v>
       </c>
       <c r="M32" t="n">
-        <v>158.4978267001324</v>
+        <v>57.88391208684019</v>
       </c>
       <c r="N32" t="n">
-        <v>156.402074736645</v>
+        <v>144.6347622787202</v>
       </c>
       <c r="O32" t="n">
-        <v>161.1560049891355</v>
+        <v>150.044465516813</v>
       </c>
       <c r="P32" t="n">
-        <v>172.392417599405</v>
+        <v>162.9089757343291</v>
       </c>
       <c r="Q32" t="n">
-        <v>178.118866155399</v>
+        <v>170.9971962623541</v>
       </c>
       <c r="R32" t="n">
-        <v>189.8823922045959</v>
+        <v>185.7397699738637</v>
       </c>
       <c r="S32" t="n">
-        <v>199.6958830807264</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="T32" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="U32" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="V32" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="W32" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="X32" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
     </row>
     <row r="33">
@@ -29842,61 +29842,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.1245866267072</v>
+        <v>137.0893011981732</v>
       </c>
       <c r="H33" t="n">
-        <v>110.1210361602664</v>
+        <v>109.7802532057404</v>
       </c>
       <c r="I33" t="n">
-        <v>91.98464003705458</v>
+        <v>90.769768923054</v>
       </c>
       <c r="J33" t="n">
-        <v>106.1534920753536</v>
+        <v>102.8197928821452</v>
       </c>
       <c r="K33" t="n">
-        <v>102.4889584373193</v>
+        <v>96.79113553233088</v>
       </c>
       <c r="L33" t="n">
-        <v>91.01860693075145</v>
+        <v>83.35718087997463</v>
       </c>
       <c r="M33" t="n">
-        <v>86.66202912464796</v>
+        <v>77.7215062895126</v>
       </c>
       <c r="N33" t="n">
-        <v>74.40152838107841</v>
+        <v>65.224376509853</v>
       </c>
       <c r="O33" t="n">
-        <v>90.50710052471187</v>
+        <v>82.11179946468785</v>
       </c>
       <c r="P33" t="n">
-        <v>92.16827715869736</v>
+        <v>85.43030791521245</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.0354831456949</v>
+        <v>107.5313291454564</v>
       </c>
       <c r="R33" t="n">
-        <v>132.0866062677276</v>
+        <v>129.8958144855885</v>
       </c>
       <c r="S33" t="n">
-        <v>167.6166324104526</v>
+        <v>166.9612210514982</v>
       </c>
       <c r="T33" t="n">
-        <v>199.2822849972488</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="U33" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="V33" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="W33" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>198.1930871627464</v>
       </c>
     </row>
     <row r="34">
@@ -29921,61 +29921,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8074353510077</v>
+        <v>167.7778532330391</v>
       </c>
       <c r="H34" t="n">
-        <v>160.595299423011</v>
+        <v>160.332287501436</v>
       </c>
       <c r="I34" t="n">
-        <v>149.9308060486389</v>
+        <v>149.0411910828207</v>
       </c>
       <c r="J34" t="n">
-        <v>111.3674055616498</v>
+        <v>78.29116304950487</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9450153238406465</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>110.1544264887073</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>99.59830557956208</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>112.5134272895774</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.79273550049635</v>
+        <v>133.6585948908984</v>
       </c>
       <c r="R34" t="n">
-        <v>169.0405853694151</v>
+        <v>167.7104657742104</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="T34" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="U34" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="V34" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="W34" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="X34" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
     </row>
     <row r="35">
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="C35" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="D35" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="E35" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="F35" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="G35" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="H35" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="I35" t="n">
-        <v>194.700982263592</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="J35" t="n">
-        <v>146.3172737237113</v>
+        <v>140.7199978029805</v>
       </c>
       <c r="K35" t="n">
-        <v>168.0406359401463</v>
+        <v>159.6517702790714</v>
       </c>
       <c r="L35" t="n">
-        <v>171.1947611260075</v>
+        <v>160.7876314792001</v>
       </c>
       <c r="M35" t="n">
-        <v>158.4978267001324</v>
+        <v>146.9178897288542</v>
       </c>
       <c r="N35" t="n">
-        <v>156.402074736645</v>
+        <v>144.6347622787202</v>
       </c>
       <c r="O35" t="n">
-        <v>161.1560049891355</v>
+        <v>150.044465516813</v>
       </c>
       <c r="P35" t="n">
-        <v>172.392417599405</v>
+        <v>162.9089757343291</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.118866155399</v>
+        <v>170.9971962623541</v>
       </c>
       <c r="R35" t="n">
-        <v>189.8823922045959</v>
+        <v>185.7397699738637</v>
       </c>
       <c r="S35" t="n">
-        <v>199.6958830807264</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="T35" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="U35" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="V35" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="W35" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="X35" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="Y35" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
     </row>
     <row r="36">
@@ -30079,61 +30079,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.1245866267072</v>
+        <v>137.0893011981732</v>
       </c>
       <c r="H36" t="n">
-        <v>110.1210361602664</v>
+        <v>109.7802532057404</v>
       </c>
       <c r="I36" t="n">
-        <v>91.98464003705458</v>
+        <v>90.769768923054</v>
       </c>
       <c r="J36" t="n">
-        <v>106.1534920753536</v>
+        <v>102.8197928821452</v>
       </c>
       <c r="K36" t="n">
-        <v>102.4889584373193</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>91.01860693075145</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>86.66202912464796</v>
+        <v>77.7215062895126</v>
       </c>
       <c r="N36" t="n">
-        <v>74.40152838107841</v>
+        <v>65.224376509853</v>
       </c>
       <c r="O36" t="n">
-        <v>90.50710052471187</v>
+        <v>82.11179946468785</v>
       </c>
       <c r="P36" t="n">
-        <v>92.16827715869736</v>
+        <v>85.43030791521245</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.0354831456949</v>
+        <v>107.5313291454564</v>
       </c>
       <c r="R36" t="n">
-        <v>132.0866062677276</v>
+        <v>129.8958144855885</v>
       </c>
       <c r="S36" t="n">
-        <v>167.6166324104526</v>
+        <v>166.9612210514982</v>
       </c>
       <c r="T36" t="n">
-        <v>199.2822849972488</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="U36" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="V36" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="W36" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>198.1930871627464</v>
       </c>
     </row>
     <row r="37">
@@ -30158,22 +30158,22 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8074353510077</v>
+        <v>167.7778532330391</v>
       </c>
       <c r="H37" t="n">
-        <v>160.595299423011</v>
+        <v>160.332287501436</v>
       </c>
       <c r="I37" t="n">
-        <v>149.9308060486389</v>
+        <v>149.0411910828207</v>
       </c>
       <c r="J37" t="n">
-        <v>114.0188601126056</v>
+        <v>111.9274043722282</v>
       </c>
       <c r="K37" t="n">
-        <v>107.6887816684932</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>107.5966881189223</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30185,34 +30185,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>105.274250343314</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.79273550049635</v>
+        <v>122.9883533838996</v>
       </c>
       <c r="R37" t="n">
-        <v>169.0405853694151</v>
+        <v>167.7104657742104</v>
       </c>
       <c r="S37" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="T37" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="U37" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="V37" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="W37" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="X37" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="Y37" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
     </row>
     <row r="38">
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="C38" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="D38" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="E38" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="F38" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="G38" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="H38" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="I38" t="n">
-        <v>194.700982263592</v>
+        <v>192.1585120659871</v>
       </c>
       <c r="J38" t="n">
-        <v>146.3172737237113</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>168.0406359401463</v>
+        <v>159.6517702790714</v>
       </c>
       <c r="L38" t="n">
-        <v>171.1947611260075</v>
+        <v>160.7876314792001</v>
       </c>
       <c r="M38" t="n">
-        <v>158.4978267001324</v>
+        <v>146.9178897288542</v>
       </c>
       <c r="N38" t="n">
-        <v>156.402074736645</v>
+        <v>97.04623420084783</v>
       </c>
       <c r="O38" t="n">
-        <v>161.1560049891355</v>
+        <v>150.044465516813</v>
       </c>
       <c r="P38" t="n">
-        <v>172.392417599405</v>
+        <v>162.9089757343291</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.118866155399</v>
+        <v>170.9971962623541</v>
       </c>
       <c r="R38" t="n">
-        <v>189.8823922045959</v>
+        <v>185.7397699738637</v>
       </c>
       <c r="S38" t="n">
-        <v>199.6958830807264</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="T38" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="U38" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="V38" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="W38" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="X38" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="Y38" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
     </row>
     <row r="39">
@@ -30316,61 +30316,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.1245866267072</v>
+        <v>137.0893011981732</v>
       </c>
       <c r="H39" t="n">
-        <v>110.1210361602664</v>
+        <v>109.7802532057404</v>
       </c>
       <c r="I39" t="n">
-        <v>91.98464003705458</v>
+        <v>90.769768923054</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>102.8197928821452</v>
       </c>
       <c r="K39" t="n">
-        <v>102.4889584373193</v>
+        <v>96.79113553233088</v>
       </c>
       <c r="L39" t="n">
-        <v>91.01860693075145</v>
+        <v>83.35718087997463</v>
       </c>
       <c r="M39" t="n">
-        <v>86.66202912464796</v>
+        <v>77.7215062895126</v>
       </c>
       <c r="N39" t="n">
-        <v>74.40152838107841</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>90.50710052471187</v>
+        <v>82.11179946468785</v>
       </c>
       <c r="P39" t="n">
-        <v>92.16827715869736</v>
+        <v>85.43030791521245</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.0354831456949</v>
+        <v>107.5313291454564</v>
       </c>
       <c r="R39" t="n">
-        <v>132.0866062677276</v>
+        <v>129.8958144855885</v>
       </c>
       <c r="S39" t="n">
-        <v>167.6166324104526</v>
+        <v>166.9612210514982</v>
       </c>
       <c r="T39" t="n">
-        <v>199.2822849972488</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="U39" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="V39" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="W39" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>198.1930871627464</v>
       </c>
     </row>
     <row r="40">
@@ -30395,61 +30395,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8074353510077</v>
+        <v>167.7778532330391</v>
       </c>
       <c r="H40" t="n">
-        <v>160.595299423011</v>
+        <v>160.332287501436</v>
       </c>
       <c r="I40" t="n">
-        <v>149.9308060486389</v>
+        <v>149.0411910828207</v>
       </c>
       <c r="J40" t="n">
-        <v>114.0188601126056</v>
+        <v>111.9274043722282</v>
       </c>
       <c r="K40" t="n">
-        <v>107.6887816684932</v>
+        <v>104.2518774172364</v>
       </c>
       <c r="L40" t="n">
-        <v>107.5966881189223</v>
+        <v>103.1986339620324</v>
       </c>
       <c r="M40" t="n">
-        <v>110.1544264887073</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>99.59830557956208</v>
+        <v>95.07143474533638</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>108.3321293788935</v>
       </c>
       <c r="P40" t="n">
-        <v>83.05935427483885</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.79273550049635</v>
+        <v>133.6585948908984</v>
       </c>
       <c r="R40" t="n">
-        <v>169.0405853694151</v>
+        <v>167.7104657742104</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="T40" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="U40" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="V40" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="W40" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="X40" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.5041961815102</v>
+        <v>198.1930871627464</v>
       </c>
     </row>
     <row r="41">
@@ -30459,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="C41" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="D41" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="E41" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="F41" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="G41" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="H41" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="I41" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="J41" t="n">
-        <v>110.1210361602664</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30492,10 +30492,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="N41" t="n">
-        <v>76.48600436922334</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="S41" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="T41" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="U41" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="V41" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="W41" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="X41" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="Y41" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
     </row>
     <row r="42">
@@ -30538,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="C42" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="D42" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="E42" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="F42" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="G42" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="H42" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="I42" t="n">
-        <v>91.98464003705458</v>
+        <v>90.769768923054</v>
       </c>
       <c r="J42" t="n">
-        <v>106.1534920753536</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="K42" t="n">
-        <v>102.4889584373193</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>83.35718087997463</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>64.58575917004947</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>65.224376509853</v>
       </c>
       <c r="O42" t="n">
-        <v>90.50710052471187</v>
+        <v>82.11179946468785</v>
       </c>
       <c r="P42" t="n">
-        <v>92.16827715869736</v>
+        <v>85.43030791521245</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="R42" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="S42" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="T42" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="U42" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="V42" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="W42" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="X42" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="Y42" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="D43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="E43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="F43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="G43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="I43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="J43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="K43" t="n">
-        <v>107.6887816684932</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="L43" t="n">
-        <v>107.5966881189223</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>110.1210361602664</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>99.59830557956208</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>110.1210361602664</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="S43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="T43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="U43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="V43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="W43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="X43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="Y43" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
     </row>
     <row r="44">
@@ -30696,40 +30696,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="C44" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="D44" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="E44" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="F44" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="G44" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="H44" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="I44" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="K44" t="n">
-        <v>110.1210361602664</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>110.1210361602664</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30738,34 +30738,34 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>110.1210361602664</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="S44" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="T44" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="U44" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="V44" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="W44" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="X44" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="Y44" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
     </row>
     <row r="45">
@@ -30775,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="C45" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="D45" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="E45" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="F45" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="G45" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="H45" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="I45" t="n">
-        <v>91.98464003705458</v>
+        <v>90.769768923054</v>
       </c>
       <c r="J45" t="n">
-        <v>6.878328616414279</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="K45" t="n">
-        <v>102.4889584373193</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>77.7215062895126</v>
       </c>
       <c r="N45" t="n">
-        <v>74.40152838107841</v>
+        <v>65.224376509853</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>82.11179946468785</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>85.43030791521245</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.84413822336762</v>
       </c>
       <c r="R45" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="S45" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="T45" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="U45" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="V45" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="W45" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="X45" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="Y45" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="D46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="E46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="F46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="G46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="I46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="J46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="K46" t="n">
-        <v>107.6887816684932</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>107.5966881189223</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>110.1210361602664</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>99.59830557956208</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>110.1210361602664</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="R46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="S46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="T46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="U46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="V46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="W46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="X46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
       <c r="Y46" t="n">
-        <v>110.1210361602664</v>
+        <v>96.6669138171373</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4091798795619959</v>
+        <v>0.4751281370707164</v>
       </c>
       <c r="H11" t="n">
-        <v>4.190513441564291</v>
+        <v>4.865906033775476</v>
       </c>
       <c r="I11" t="n">
-        <v>15.77490730681386</v>
+        <v>18.31737750441881</v>
       </c>
       <c r="J11" t="n">
-        <v>34.72863080297498</v>
+        <v>40.32590672370575</v>
       </c>
       <c r="K11" t="n">
-        <v>52.04921510483427</v>
+        <v>60.43808076590918</v>
       </c>
       <c r="L11" t="n">
-        <v>64.57165384397972</v>
+        <v>74.97878349078714</v>
       </c>
       <c r="M11" t="n">
-        <v>71.84840652714036</v>
+        <v>83.42834349841849</v>
       </c>
       <c r="N11" t="n">
-        <v>73.01098885994588</v>
+        <v>84.77830131787067</v>
       </c>
       <c r="O11" t="n">
-        <v>68.94220643255129</v>
+        <v>80.05374590487372</v>
       </c>
       <c r="P11" t="n">
-        <v>58.84057815586451</v>
+        <v>68.32402002094041</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.18682371905052</v>
+        <v>51.30849361209535</v>
       </c>
       <c r="R11" t="n">
-        <v>25.70314560953625</v>
+        <v>29.84576784026842</v>
       </c>
       <c r="S11" t="n">
-        <v>9.324186505518989</v>
+        <v>10.82698242349896</v>
       </c>
       <c r="T11" t="n">
-        <v>1.791184922782638</v>
+        <v>2.079873420027062</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03273439036495966</v>
+        <v>0.0380102509656573</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2189305365033831</v>
+        <v>0.2542159650374123</v>
       </c>
       <c r="H12" t="n">
-        <v>2.114408076230043</v>
+        <v>2.455191030756061</v>
       </c>
       <c r="I12" t="n">
-        <v>7.537739962945429</v>
+        <v>8.752611076945994</v>
       </c>
       <c r="J12" t="n">
-        <v>20.68413459131306</v>
+        <v>24.01783378452149</v>
       </c>
       <c r="K12" t="n">
-        <v>35.35248053703972</v>
+        <v>41.0503034420281</v>
       </c>
       <c r="L12" t="n">
-        <v>47.53577284912274</v>
+        <v>55.19719889989954</v>
       </c>
       <c r="M12" t="n">
-        <v>55.47200479737036</v>
+        <v>64.41252763250571</v>
       </c>
       <c r="N12" t="n">
-        <v>56.94018370225491</v>
+        <v>66.1173355734803</v>
       </c>
       <c r="O12" t="n">
-        <v>52.08914391973256</v>
+        <v>60.48444497975659</v>
       </c>
       <c r="P12" t="n">
-        <v>41.80613025563288</v>
+        <v>48.54409949911779</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.94629094032659</v>
+        <v>32.45044494056512</v>
       </c>
       <c r="R12" t="n">
-        <v>13.59289769623637</v>
+        <v>15.78368947837548</v>
       </c>
       <c r="S12" t="n">
-        <v>4.066538693385207</v>
+        <v>4.72195005233965</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8824436975728467</v>
+        <v>1.024668736269218</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01440332476995942</v>
+        <v>0.01672473454193502</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1835440074510675</v>
+        <v>0.2131261254196309</v>
       </c>
       <c r="H13" t="n">
-        <v>1.631873084428583</v>
+        <v>1.894885006003629</v>
       </c>
       <c r="I13" t="n">
-        <v>5.519668878619377</v>
+        <v>6.409283844437629</v>
       </c>
       <c r="J13" t="n">
-        <v>12.97656132679047</v>
+        <v>15.0680170671679</v>
       </c>
       <c r="K13" t="n">
-        <v>21.32447650204221</v>
+        <v>24.76138075329893</v>
       </c>
       <c r="L13" t="n">
-        <v>27.28798816231599</v>
+        <v>31.68604231920586</v>
       </c>
       <c r="M13" t="n">
-        <v>28.77135745889779</v>
+        <v>33.40848891464268</v>
       </c>
       <c r="N13" t="n">
-        <v>28.08723888567111</v>
+        <v>32.61410971989682</v>
       </c>
       <c r="O13" t="n">
-        <v>25.94311116226545</v>
+        <v>30.12440907294929</v>
       </c>
       <c r="P13" t="n">
-        <v>22.19881341026365</v>
+        <v>25.7766361143888</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.36930775119803</v>
+        <v>17.84640673854746</v>
       </c>
       <c r="R13" t="n">
-        <v>8.252806007754362</v>
+        <v>9.582925602959039</v>
       </c>
       <c r="S13" t="n">
-        <v>3.19867147530633</v>
+        <v>3.714207112994839</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7842334863818338</v>
+        <v>0.9106298086111499</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01001149131551279</v>
+        <v>0.01162506138652534</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4091798795619959</v>
+        <v>0.4751281370707164</v>
       </c>
       <c r="H14" t="n">
-        <v>4.190513441564291</v>
+        <v>4.865906033775476</v>
       </c>
       <c r="I14" t="n">
-        <v>15.77490730681386</v>
+        <v>18.31737750441881</v>
       </c>
       <c r="J14" t="n">
-        <v>34.72863080297498</v>
+        <v>40.32590672370575</v>
       </c>
       <c r="K14" t="n">
-        <v>52.04921510483427</v>
+        <v>60.43808076590918</v>
       </c>
       <c r="L14" t="n">
-        <v>64.57165384397972</v>
+        <v>74.97878349078714</v>
       </c>
       <c r="M14" t="n">
-        <v>71.84840652714036</v>
+        <v>83.42834349841849</v>
       </c>
       <c r="N14" t="n">
-        <v>73.01098885994588</v>
+        <v>84.77830131787067</v>
       </c>
       <c r="O14" t="n">
-        <v>68.94220643255129</v>
+        <v>80.05374590487372</v>
       </c>
       <c r="P14" t="n">
-        <v>58.84057815586451</v>
+        <v>68.32402002094041</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.18682371905052</v>
+        <v>51.30849361209535</v>
       </c>
       <c r="R14" t="n">
-        <v>25.70314560953625</v>
+        <v>29.84576784026842</v>
       </c>
       <c r="S14" t="n">
-        <v>9.324186505518989</v>
+        <v>10.82698242349896</v>
       </c>
       <c r="T14" t="n">
-        <v>1.791184922782638</v>
+        <v>2.079873420027062</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03273439036495966</v>
+        <v>0.0380102509656573</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2189305365033831</v>
+        <v>0.2542159650374123</v>
       </c>
       <c r="H15" t="n">
-        <v>2.114408076230043</v>
+        <v>2.455191030756061</v>
       </c>
       <c r="I15" t="n">
-        <v>7.537739962945429</v>
+        <v>8.752611076945994</v>
       </c>
       <c r="J15" t="n">
-        <v>20.68413459131306</v>
+        <v>24.01783378452149</v>
       </c>
       <c r="K15" t="n">
-        <v>35.35248053703972</v>
+        <v>41.0503034420281</v>
       </c>
       <c r="L15" t="n">
-        <v>47.53577284912274</v>
+        <v>55.19719889989954</v>
       </c>
       <c r="M15" t="n">
-        <v>55.47200479737036</v>
+        <v>64.41252763250571</v>
       </c>
       <c r="N15" t="n">
-        <v>56.94018370225491</v>
+        <v>66.1173355734803</v>
       </c>
       <c r="O15" t="n">
-        <v>52.08914391973256</v>
+        <v>60.48444497975659</v>
       </c>
       <c r="P15" t="n">
-        <v>41.80613025563288</v>
+        <v>48.54409949911779</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.94629094032659</v>
+        <v>32.45044494056512</v>
       </c>
       <c r="R15" t="n">
-        <v>13.59289769623637</v>
+        <v>15.78368947837548</v>
       </c>
       <c r="S15" t="n">
-        <v>4.066538693385207</v>
+        <v>4.72195005233965</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8824436975728467</v>
+        <v>1.024668736269218</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01440332476995942</v>
+        <v>0.01672473454193502</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1835440074510675</v>
+        <v>0.2131261254196309</v>
       </c>
       <c r="H16" t="n">
-        <v>1.631873084428583</v>
+        <v>1.894885006003629</v>
       </c>
       <c r="I16" t="n">
-        <v>5.519668878619377</v>
+        <v>6.409283844437629</v>
       </c>
       <c r="J16" t="n">
-        <v>12.97656132679047</v>
+        <v>15.0680170671679</v>
       </c>
       <c r="K16" t="n">
-        <v>21.32447650204221</v>
+        <v>24.76138075329893</v>
       </c>
       <c r="L16" t="n">
-        <v>27.28798816231599</v>
+        <v>31.68604231920586</v>
       </c>
       <c r="M16" t="n">
-        <v>28.77135745889779</v>
+        <v>33.40848891464268</v>
       </c>
       <c r="N16" t="n">
-        <v>28.08723888567111</v>
+        <v>32.61410971989682</v>
       </c>
       <c r="O16" t="n">
-        <v>25.94311116226545</v>
+        <v>30.12440907294929</v>
       </c>
       <c r="P16" t="n">
-        <v>22.19881341026365</v>
+        <v>25.7766361143888</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.36930775119803</v>
+        <v>17.84640673854746</v>
       </c>
       <c r="R16" t="n">
-        <v>8.252806007754362</v>
+        <v>9.582925602959039</v>
       </c>
       <c r="S16" t="n">
-        <v>3.19867147530633</v>
+        <v>3.714207112994839</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7842334863818338</v>
+        <v>0.9106298086111499</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01001149131551279</v>
+        <v>0.01162506138652534</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4091798795619959</v>
+        <v>0.4751281370707164</v>
       </c>
       <c r="H17" t="n">
-        <v>4.190513441564291</v>
+        <v>4.865906033775476</v>
       </c>
       <c r="I17" t="n">
-        <v>15.77490730681386</v>
+        <v>18.31737750441881</v>
       </c>
       <c r="J17" t="n">
-        <v>34.72863080297498</v>
+        <v>40.32590672370575</v>
       </c>
       <c r="K17" t="n">
-        <v>52.04921510483427</v>
+        <v>60.43808076590918</v>
       </c>
       <c r="L17" t="n">
-        <v>64.57165384397972</v>
+        <v>74.97878349078714</v>
       </c>
       <c r="M17" t="n">
-        <v>71.84840652714036</v>
+        <v>83.42834349841849</v>
       </c>
       <c r="N17" t="n">
-        <v>73.01098885994588</v>
+        <v>84.77830131787067</v>
       </c>
       <c r="O17" t="n">
-        <v>68.94220643255129</v>
+        <v>80.05374590487372</v>
       </c>
       <c r="P17" t="n">
-        <v>58.84057815586451</v>
+        <v>68.32402002094041</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.18682371905052</v>
+        <v>51.30849361209535</v>
       </c>
       <c r="R17" t="n">
-        <v>25.70314560953625</v>
+        <v>29.84576784026842</v>
       </c>
       <c r="S17" t="n">
-        <v>9.324186505518989</v>
+        <v>10.82698242349896</v>
       </c>
       <c r="T17" t="n">
-        <v>1.791184922782638</v>
+        <v>2.079873420027062</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03273439036495966</v>
+        <v>0.0380102509656573</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2189305365033831</v>
+        <v>0.2542159650374123</v>
       </c>
       <c r="H18" t="n">
-        <v>2.114408076230043</v>
+        <v>2.455191030756061</v>
       </c>
       <c r="I18" t="n">
-        <v>7.537739962945429</v>
+        <v>8.752611076945994</v>
       </c>
       <c r="J18" t="n">
-        <v>20.68413459131306</v>
+        <v>24.01783378452149</v>
       </c>
       <c r="K18" t="n">
-        <v>35.35248053703972</v>
+        <v>41.0503034420281</v>
       </c>
       <c r="L18" t="n">
-        <v>47.53577284912274</v>
+        <v>55.19719889989954</v>
       </c>
       <c r="M18" t="n">
-        <v>55.47200479737036</v>
+        <v>64.41252763250571</v>
       </c>
       <c r="N18" t="n">
-        <v>56.94018370225491</v>
+        <v>66.1173355734803</v>
       </c>
       <c r="O18" t="n">
-        <v>52.08914391973256</v>
+        <v>60.48444497975659</v>
       </c>
       <c r="P18" t="n">
-        <v>41.80613025563288</v>
+        <v>48.54409949911779</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.94629094032659</v>
+        <v>32.45044494056512</v>
       </c>
       <c r="R18" t="n">
-        <v>13.59289769623637</v>
+        <v>15.78368947837548</v>
       </c>
       <c r="S18" t="n">
-        <v>4.066538693385207</v>
+        <v>4.72195005233965</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8824436975728467</v>
+        <v>1.024668736269218</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01440332476995942</v>
+        <v>0.01672473454193502</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1835440074510675</v>
+        <v>0.2131261254196309</v>
       </c>
       <c r="H19" t="n">
-        <v>1.631873084428583</v>
+        <v>1.894885006003629</v>
       </c>
       <c r="I19" t="n">
-        <v>5.519668878619377</v>
+        <v>6.409283844437629</v>
       </c>
       <c r="J19" t="n">
-        <v>12.97656132679047</v>
+        <v>15.0680170671679</v>
       </c>
       <c r="K19" t="n">
-        <v>21.32447650204221</v>
+        <v>24.76138075329893</v>
       </c>
       <c r="L19" t="n">
-        <v>27.28798816231599</v>
+        <v>31.68604231920586</v>
       </c>
       <c r="M19" t="n">
-        <v>28.77135745889779</v>
+        <v>33.40848891464268</v>
       </c>
       <c r="N19" t="n">
-        <v>28.08723888567111</v>
+        <v>32.61410971989682</v>
       </c>
       <c r="O19" t="n">
-        <v>25.94311116226545</v>
+        <v>30.12440907294929</v>
       </c>
       <c r="P19" t="n">
-        <v>22.19881341026365</v>
+        <v>25.7766361143888</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.36930775119803</v>
+        <v>17.84640673854746</v>
       </c>
       <c r="R19" t="n">
-        <v>8.252806007754362</v>
+        <v>9.582925602959039</v>
       </c>
       <c r="S19" t="n">
-        <v>3.19867147530633</v>
+        <v>3.714207112994839</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7842334863818338</v>
+        <v>0.9106298086111499</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01001149131551279</v>
+        <v>0.01162506138652534</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4091798795619959</v>
+        <v>0.4751281370707164</v>
       </c>
       <c r="H20" t="n">
-        <v>4.190513441564291</v>
+        <v>4.865906033775476</v>
       </c>
       <c r="I20" t="n">
-        <v>15.77490730681386</v>
+        <v>18.31737750441881</v>
       </c>
       <c r="J20" t="n">
-        <v>34.72863080297498</v>
+        <v>40.32590672370575</v>
       </c>
       <c r="K20" t="n">
-        <v>52.04921510483427</v>
+        <v>60.43808076590918</v>
       </c>
       <c r="L20" t="n">
-        <v>64.57165384397972</v>
+        <v>74.97878349078714</v>
       </c>
       <c r="M20" t="n">
-        <v>71.84840652714036</v>
+        <v>83.42834349841849</v>
       </c>
       <c r="N20" t="n">
-        <v>73.01098885994588</v>
+        <v>84.77830131787067</v>
       </c>
       <c r="O20" t="n">
-        <v>68.94220643255129</v>
+        <v>80.05374590487372</v>
       </c>
       <c r="P20" t="n">
-        <v>58.84057815586451</v>
+        <v>68.32402002094041</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.18682371905052</v>
+        <v>51.30849361209535</v>
       </c>
       <c r="R20" t="n">
-        <v>25.70314560953625</v>
+        <v>29.84576784026842</v>
       </c>
       <c r="S20" t="n">
-        <v>9.324186505518989</v>
+        <v>10.82698242349896</v>
       </c>
       <c r="T20" t="n">
-        <v>1.791184922782638</v>
+        <v>2.079873420027062</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03273439036495966</v>
+        <v>0.0380102509656573</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2189305365033831</v>
+        <v>0.2542159650374123</v>
       </c>
       <c r="H21" t="n">
-        <v>2.114408076230043</v>
+        <v>2.455191030756061</v>
       </c>
       <c r="I21" t="n">
-        <v>7.537739962945429</v>
+        <v>8.752611076945994</v>
       </c>
       <c r="J21" t="n">
-        <v>20.68413459131306</v>
+        <v>24.01783378452149</v>
       </c>
       <c r="K21" t="n">
-        <v>35.35248053703972</v>
+        <v>41.0503034420281</v>
       </c>
       <c r="L21" t="n">
-        <v>47.53577284912274</v>
+        <v>55.19719889989954</v>
       </c>
       <c r="M21" t="n">
-        <v>55.47200479737036</v>
+        <v>64.41252763250571</v>
       </c>
       <c r="N21" t="n">
-        <v>56.94018370225491</v>
+        <v>66.1173355734803</v>
       </c>
       <c r="O21" t="n">
-        <v>52.08914391973256</v>
+        <v>60.48444497975659</v>
       </c>
       <c r="P21" t="n">
-        <v>41.80613025563288</v>
+        <v>48.54409949911779</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.94629094032659</v>
+        <v>32.45044494056512</v>
       </c>
       <c r="R21" t="n">
-        <v>13.59289769623637</v>
+        <v>15.78368947837548</v>
       </c>
       <c r="S21" t="n">
-        <v>4.066538693385207</v>
+        <v>4.72195005233965</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8824436975728467</v>
+        <v>1.024668736269218</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01440332476995942</v>
+        <v>0.01672473454193502</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1835440074510675</v>
+        <v>0.2131261254196309</v>
       </c>
       <c r="H22" t="n">
-        <v>1.631873084428583</v>
+        <v>1.894885006003629</v>
       </c>
       <c r="I22" t="n">
-        <v>5.519668878619377</v>
+        <v>6.409283844437629</v>
       </c>
       <c r="J22" t="n">
-        <v>12.97656132679047</v>
+        <v>15.0680170671679</v>
       </c>
       <c r="K22" t="n">
-        <v>21.32447650204221</v>
+        <v>24.76138075329893</v>
       </c>
       <c r="L22" t="n">
-        <v>27.28798816231599</v>
+        <v>31.68604231920586</v>
       </c>
       <c r="M22" t="n">
-        <v>28.77135745889779</v>
+        <v>33.40848891464268</v>
       </c>
       <c r="N22" t="n">
-        <v>28.08723888567111</v>
+        <v>32.61410971989682</v>
       </c>
       <c r="O22" t="n">
-        <v>25.94311116226545</v>
+        <v>30.12440907294929</v>
       </c>
       <c r="P22" t="n">
-        <v>22.19881341026365</v>
+        <v>25.7766361143888</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.36930775119803</v>
+        <v>17.84640673854746</v>
       </c>
       <c r="R22" t="n">
-        <v>8.252806007754362</v>
+        <v>9.582925602959039</v>
       </c>
       <c r="S22" t="n">
-        <v>3.19867147530633</v>
+        <v>3.714207112994839</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7842334863818338</v>
+        <v>0.9106298086111499</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01001149131551279</v>
+        <v>0.01162506138652534</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4091798795619959</v>
+        <v>0.4751281370707164</v>
       </c>
       <c r="H23" t="n">
-        <v>4.190513441564291</v>
+        <v>4.865906033775476</v>
       </c>
       <c r="I23" t="n">
-        <v>15.77490730681386</v>
+        <v>18.31737750441881</v>
       </c>
       <c r="J23" t="n">
-        <v>34.72863080297498</v>
+        <v>40.32590672370575</v>
       </c>
       <c r="K23" t="n">
-        <v>52.04921510483427</v>
+        <v>60.43808076590918</v>
       </c>
       <c r="L23" t="n">
-        <v>64.57165384397972</v>
+        <v>74.97878349078714</v>
       </c>
       <c r="M23" t="n">
-        <v>71.84840652714036</v>
+        <v>83.42834349841849</v>
       </c>
       <c r="N23" t="n">
-        <v>73.01098885994588</v>
+        <v>84.77830131787067</v>
       </c>
       <c r="O23" t="n">
-        <v>68.94220643255129</v>
+        <v>80.05374590487372</v>
       </c>
       <c r="P23" t="n">
-        <v>58.84057815586451</v>
+        <v>68.32402002094041</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.18682371905052</v>
+        <v>51.30849361209535</v>
       </c>
       <c r="R23" t="n">
-        <v>25.70314560953625</v>
+        <v>29.84576784026842</v>
       </c>
       <c r="S23" t="n">
-        <v>9.324186505518989</v>
+        <v>10.82698242349896</v>
       </c>
       <c r="T23" t="n">
-        <v>1.791184922782638</v>
+        <v>2.079873420027062</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03273439036495966</v>
+        <v>0.0380102509656573</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2189305365033831</v>
+        <v>0.2542159650374123</v>
       </c>
       <c r="H24" t="n">
-        <v>2.114408076230043</v>
+        <v>2.455191030756061</v>
       </c>
       <c r="I24" t="n">
-        <v>7.537739962945429</v>
+        <v>8.752611076945994</v>
       </c>
       <c r="J24" t="n">
-        <v>20.68413459131306</v>
+        <v>24.01783378452149</v>
       </c>
       <c r="K24" t="n">
-        <v>35.35248053703972</v>
+        <v>41.0503034420281</v>
       </c>
       <c r="L24" t="n">
-        <v>47.53577284912274</v>
+        <v>55.19719889989954</v>
       </c>
       <c r="M24" t="n">
-        <v>55.47200479737036</v>
+        <v>64.41252763250571</v>
       </c>
       <c r="N24" t="n">
-        <v>56.94018370225491</v>
+        <v>66.1173355734803</v>
       </c>
       <c r="O24" t="n">
-        <v>52.08914391973256</v>
+        <v>60.48444497975659</v>
       </c>
       <c r="P24" t="n">
-        <v>41.80613025563288</v>
+        <v>48.54409949911779</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.94629094032659</v>
+        <v>32.45044494056512</v>
       </c>
       <c r="R24" t="n">
-        <v>13.59289769623637</v>
+        <v>15.78368947837548</v>
       </c>
       <c r="S24" t="n">
-        <v>4.066538693385207</v>
+        <v>4.72195005233965</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8824436975728467</v>
+        <v>1.024668736269218</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01440332476995942</v>
+        <v>0.01672473454193502</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1835440074510675</v>
+        <v>0.2131261254196309</v>
       </c>
       <c r="H25" t="n">
-        <v>1.631873084428583</v>
+        <v>1.894885006003629</v>
       </c>
       <c r="I25" t="n">
-        <v>5.519668878619377</v>
+        <v>6.409283844437629</v>
       </c>
       <c r="J25" t="n">
-        <v>12.97656132679047</v>
+        <v>15.0680170671679</v>
       </c>
       <c r="K25" t="n">
-        <v>21.32447650204221</v>
+        <v>24.76138075329893</v>
       </c>
       <c r="L25" t="n">
-        <v>27.28798816231599</v>
+        <v>31.68604231920586</v>
       </c>
       <c r="M25" t="n">
-        <v>28.77135745889779</v>
+        <v>33.40848891464268</v>
       </c>
       <c r="N25" t="n">
-        <v>28.08723888567111</v>
+        <v>32.61410971989682</v>
       </c>
       <c r="O25" t="n">
-        <v>25.94311116226545</v>
+        <v>30.12440907294929</v>
       </c>
       <c r="P25" t="n">
-        <v>22.19881341026365</v>
+        <v>25.7766361143888</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.36930775119803</v>
+        <v>17.84640673854746</v>
       </c>
       <c r="R25" t="n">
-        <v>8.252806007754362</v>
+        <v>9.582925602959039</v>
       </c>
       <c r="S25" t="n">
-        <v>3.19867147530633</v>
+        <v>3.714207112994839</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7842334863818338</v>
+        <v>0.9106298086111499</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01001149131551279</v>
+        <v>0.01162506138652534</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4091798795619959</v>
+        <v>0.4751281370707164</v>
       </c>
       <c r="H26" t="n">
-        <v>4.190513441564291</v>
+        <v>4.865906033775476</v>
       </c>
       <c r="I26" t="n">
-        <v>15.77490730681386</v>
+        <v>18.31737750441881</v>
       </c>
       <c r="J26" t="n">
-        <v>34.72863080297498</v>
+        <v>40.32590672370575</v>
       </c>
       <c r="K26" t="n">
-        <v>52.04921510483427</v>
+        <v>60.43808076590918</v>
       </c>
       <c r="L26" t="n">
-        <v>64.57165384397972</v>
+        <v>74.97878349078714</v>
       </c>
       <c r="M26" t="n">
-        <v>71.84840652714036</v>
+        <v>83.42834349841849</v>
       </c>
       <c r="N26" t="n">
-        <v>73.01098885994588</v>
+        <v>84.77830131787067</v>
       </c>
       <c r="O26" t="n">
-        <v>68.94220643255129</v>
+        <v>80.05374590487372</v>
       </c>
       <c r="P26" t="n">
-        <v>58.84057815586451</v>
+        <v>68.32402002094041</v>
       </c>
       <c r="Q26" t="n">
-        <v>44.18682371905052</v>
+        <v>51.30849361209535</v>
       </c>
       <c r="R26" t="n">
-        <v>25.70314560953625</v>
+        <v>29.84576784026842</v>
       </c>
       <c r="S26" t="n">
-        <v>9.324186505518989</v>
+        <v>10.82698242349896</v>
       </c>
       <c r="T26" t="n">
-        <v>1.791184922782638</v>
+        <v>2.079873420027062</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03273439036495966</v>
+        <v>0.0380102509656573</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2189305365033831</v>
+        <v>0.2542159650374123</v>
       </c>
       <c r="H27" t="n">
-        <v>2.114408076230043</v>
+        <v>2.455191030756061</v>
       </c>
       <c r="I27" t="n">
-        <v>7.537739962945429</v>
+        <v>8.752611076945994</v>
       </c>
       <c r="J27" t="n">
-        <v>20.68413459131306</v>
+        <v>24.01783378452149</v>
       </c>
       <c r="K27" t="n">
-        <v>35.35248053703972</v>
+        <v>41.0503034420281</v>
       </c>
       <c r="L27" t="n">
-        <v>47.53577284912274</v>
+        <v>55.19719889989954</v>
       </c>
       <c r="M27" t="n">
-        <v>55.47200479737036</v>
+        <v>64.41252763250571</v>
       </c>
       <c r="N27" t="n">
-        <v>56.94018370225491</v>
+        <v>66.1173355734803</v>
       </c>
       <c r="O27" t="n">
-        <v>52.08914391973256</v>
+        <v>60.48444497975659</v>
       </c>
       <c r="P27" t="n">
-        <v>41.80613025563288</v>
+        <v>48.54409949911779</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.94629094032659</v>
+        <v>32.45044494056512</v>
       </c>
       <c r="R27" t="n">
-        <v>13.59289769623637</v>
+        <v>15.78368947837548</v>
       </c>
       <c r="S27" t="n">
-        <v>4.066538693385207</v>
+        <v>4.72195005233965</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8824436975728467</v>
+        <v>1.024668736269218</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01440332476995942</v>
+        <v>0.01672473454193502</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1835440074510675</v>
+        <v>0.2131261254196309</v>
       </c>
       <c r="H28" t="n">
-        <v>1.631873084428583</v>
+        <v>1.894885006003629</v>
       </c>
       <c r="I28" t="n">
-        <v>5.519668878619377</v>
+        <v>6.409283844437629</v>
       </c>
       <c r="J28" t="n">
-        <v>12.97656132679047</v>
+        <v>15.0680170671679</v>
       </c>
       <c r="K28" t="n">
-        <v>21.32447650204221</v>
+        <v>24.76138075329893</v>
       </c>
       <c r="L28" t="n">
-        <v>27.28798816231599</v>
+        <v>31.68604231920586</v>
       </c>
       <c r="M28" t="n">
-        <v>28.77135745889779</v>
+        <v>33.40848891464268</v>
       </c>
       <c r="N28" t="n">
-        <v>28.08723888567111</v>
+        <v>32.61410971989682</v>
       </c>
       <c r="O28" t="n">
-        <v>25.94311116226545</v>
+        <v>30.12440907294929</v>
       </c>
       <c r="P28" t="n">
-        <v>22.19881341026365</v>
+        <v>25.7766361143888</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.36930775119803</v>
+        <v>17.84640673854746</v>
       </c>
       <c r="R28" t="n">
-        <v>8.252806007754362</v>
+        <v>9.582925602959039</v>
       </c>
       <c r="S28" t="n">
-        <v>3.19867147530633</v>
+        <v>3.714207112994839</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7842334863818338</v>
+        <v>0.9106298086111499</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01001149131551279</v>
+        <v>0.01162506138652534</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4091798795619959</v>
+        <v>0.4751281370707164</v>
       </c>
       <c r="H29" t="n">
-        <v>4.190513441564291</v>
+        <v>4.865906033775476</v>
       </c>
       <c r="I29" t="n">
-        <v>15.77490730681386</v>
+        <v>18.31737750441881</v>
       </c>
       <c r="J29" t="n">
-        <v>34.72863080297498</v>
+        <v>40.32590672370575</v>
       </c>
       <c r="K29" t="n">
-        <v>52.04921510483427</v>
+        <v>60.43808076590918</v>
       </c>
       <c r="L29" t="n">
-        <v>64.57165384397972</v>
+        <v>74.97878349078714</v>
       </c>
       <c r="M29" t="n">
-        <v>71.84840652714036</v>
+        <v>83.42834349841849</v>
       </c>
       <c r="N29" t="n">
-        <v>73.01098885994588</v>
+        <v>84.77830131787067</v>
       </c>
       <c r="O29" t="n">
-        <v>68.94220643255129</v>
+        <v>80.05374590487372</v>
       </c>
       <c r="P29" t="n">
-        <v>58.84057815586451</v>
+        <v>68.32402002094041</v>
       </c>
       <c r="Q29" t="n">
-        <v>44.18682371905052</v>
+        <v>51.30849361209535</v>
       </c>
       <c r="R29" t="n">
-        <v>25.70314560953625</v>
+        <v>29.84576784026842</v>
       </c>
       <c r="S29" t="n">
-        <v>9.324186505518989</v>
+        <v>10.82698242349896</v>
       </c>
       <c r="T29" t="n">
-        <v>1.791184922782638</v>
+        <v>2.079873420027062</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03273439036495966</v>
+        <v>0.0380102509656573</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2189305365033831</v>
+        <v>0.2542159650374123</v>
       </c>
       <c r="H30" t="n">
-        <v>2.114408076230043</v>
+        <v>2.455191030756061</v>
       </c>
       <c r="I30" t="n">
-        <v>7.537739962945429</v>
+        <v>8.752611076945994</v>
       </c>
       <c r="J30" t="n">
-        <v>20.68413459131306</v>
+        <v>24.01783378452149</v>
       </c>
       <c r="K30" t="n">
-        <v>35.35248053703972</v>
+        <v>41.0503034420281</v>
       </c>
       <c r="L30" t="n">
-        <v>47.53577284912274</v>
+        <v>55.19719889989954</v>
       </c>
       <c r="M30" t="n">
-        <v>55.47200479737036</v>
+        <v>64.41252763250571</v>
       </c>
       <c r="N30" t="n">
-        <v>56.94018370225491</v>
+        <v>66.1173355734803</v>
       </c>
       <c r="O30" t="n">
-        <v>52.08914391973256</v>
+        <v>60.48444497975659</v>
       </c>
       <c r="P30" t="n">
-        <v>41.80613025563288</v>
+        <v>48.54409949911779</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.94629094032659</v>
+        <v>32.45044494056512</v>
       </c>
       <c r="R30" t="n">
-        <v>13.59289769623637</v>
+        <v>15.78368947837548</v>
       </c>
       <c r="S30" t="n">
-        <v>4.066538693385207</v>
+        <v>4.72195005233965</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8824436975728467</v>
+        <v>1.024668736269218</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01440332476995942</v>
+        <v>0.01672473454193502</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1835440074510675</v>
+        <v>0.2131261254196309</v>
       </c>
       <c r="H31" t="n">
-        <v>1.631873084428583</v>
+        <v>1.894885006003629</v>
       </c>
       <c r="I31" t="n">
-        <v>5.519668878619377</v>
+        <v>6.409283844437629</v>
       </c>
       <c r="J31" t="n">
-        <v>12.97656132679047</v>
+        <v>15.0680170671679</v>
       </c>
       <c r="K31" t="n">
-        <v>21.32447650204221</v>
+        <v>24.76138075329893</v>
       </c>
       <c r="L31" t="n">
-        <v>27.28798816231599</v>
+        <v>31.68604231920586</v>
       </c>
       <c r="M31" t="n">
-        <v>28.77135745889779</v>
+        <v>33.40848891464268</v>
       </c>
       <c r="N31" t="n">
-        <v>28.08723888567111</v>
+        <v>32.61410971989682</v>
       </c>
       <c r="O31" t="n">
-        <v>25.94311116226545</v>
+        <v>30.12440907294929</v>
       </c>
       <c r="P31" t="n">
-        <v>22.19881341026365</v>
+        <v>25.7766361143888</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.36930775119803</v>
+        <v>17.84640673854746</v>
       </c>
       <c r="R31" t="n">
-        <v>8.252806007754362</v>
+        <v>9.582925602959039</v>
       </c>
       <c r="S31" t="n">
-        <v>3.19867147530633</v>
+        <v>3.714207112994839</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7842334863818338</v>
+        <v>0.9106298086111499</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01001149131551279</v>
+        <v>0.01162506138652534</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4091798795619959</v>
+        <v>0.4751281370707164</v>
       </c>
       <c r="H32" t="n">
-        <v>4.190513441564291</v>
+        <v>4.865906033775476</v>
       </c>
       <c r="I32" t="n">
-        <v>15.77490730681386</v>
+        <v>18.31737750441881</v>
       </c>
       <c r="J32" t="n">
-        <v>34.72863080297498</v>
+        <v>40.32590672370575</v>
       </c>
       <c r="K32" t="n">
-        <v>52.04921510483427</v>
+        <v>60.43808076590918</v>
       </c>
       <c r="L32" t="n">
-        <v>64.57165384397972</v>
+        <v>74.97878349078714</v>
       </c>
       <c r="M32" t="n">
-        <v>71.84840652714036</v>
+        <v>83.42834349841849</v>
       </c>
       <c r="N32" t="n">
-        <v>73.01098885994588</v>
+        <v>84.77830131787067</v>
       </c>
       <c r="O32" t="n">
-        <v>68.94220643255129</v>
+        <v>80.05374590487372</v>
       </c>
       <c r="P32" t="n">
-        <v>58.84057815586451</v>
+        <v>68.32402002094041</v>
       </c>
       <c r="Q32" t="n">
-        <v>44.18682371905052</v>
+        <v>51.30849361209535</v>
       </c>
       <c r="R32" t="n">
-        <v>25.70314560953625</v>
+        <v>29.84576784026842</v>
       </c>
       <c r="S32" t="n">
-        <v>9.324186505518989</v>
+        <v>10.82698242349896</v>
       </c>
       <c r="T32" t="n">
-        <v>1.791184922782638</v>
+        <v>2.079873420027062</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03273439036495966</v>
+        <v>0.0380102509656573</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2189305365033831</v>
+        <v>0.2542159650374123</v>
       </c>
       <c r="H33" t="n">
-        <v>2.114408076230043</v>
+        <v>2.455191030756061</v>
       </c>
       <c r="I33" t="n">
-        <v>7.537739962945429</v>
+        <v>8.752611076945994</v>
       </c>
       <c r="J33" t="n">
-        <v>20.68413459131306</v>
+        <v>24.01783378452149</v>
       </c>
       <c r="K33" t="n">
-        <v>35.35248053703972</v>
+        <v>41.0503034420281</v>
       </c>
       <c r="L33" t="n">
-        <v>47.53577284912274</v>
+        <v>55.19719889989954</v>
       </c>
       <c r="M33" t="n">
-        <v>55.47200479737036</v>
+        <v>64.41252763250571</v>
       </c>
       <c r="N33" t="n">
-        <v>56.94018370225491</v>
+        <v>66.1173355734803</v>
       </c>
       <c r="O33" t="n">
-        <v>52.08914391973256</v>
+        <v>60.48444497975659</v>
       </c>
       <c r="P33" t="n">
-        <v>41.80613025563288</v>
+        <v>48.54409949911779</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.94629094032659</v>
+        <v>32.45044494056512</v>
       </c>
       <c r="R33" t="n">
-        <v>13.59289769623637</v>
+        <v>15.78368947837548</v>
       </c>
       <c r="S33" t="n">
-        <v>4.066538693385207</v>
+        <v>4.72195005233965</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8824436975728467</v>
+        <v>1.024668736269218</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01440332476995942</v>
+        <v>0.01672473454193502</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1835440074510675</v>
+        <v>0.2131261254196309</v>
       </c>
       <c r="H34" t="n">
-        <v>1.631873084428583</v>
+        <v>1.894885006003629</v>
       </c>
       <c r="I34" t="n">
-        <v>5.519668878619377</v>
+        <v>6.409283844437629</v>
       </c>
       <c r="J34" t="n">
-        <v>12.97656132679047</v>
+        <v>15.0680170671679</v>
       </c>
       <c r="K34" t="n">
-        <v>21.32447650204221</v>
+        <v>24.76138075329893</v>
       </c>
       <c r="L34" t="n">
-        <v>27.28798816231599</v>
+        <v>31.68604231920586</v>
       </c>
       <c r="M34" t="n">
-        <v>28.77135745889779</v>
+        <v>33.40848891464268</v>
       </c>
       <c r="N34" t="n">
-        <v>28.08723888567111</v>
+        <v>32.61410971989682</v>
       </c>
       <c r="O34" t="n">
-        <v>25.94311116226545</v>
+        <v>30.12440907294929</v>
       </c>
       <c r="P34" t="n">
-        <v>22.19881341026365</v>
+        <v>25.7766361143888</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.36930775119803</v>
+        <v>17.84640673854746</v>
       </c>
       <c r="R34" t="n">
-        <v>8.252806007754362</v>
+        <v>9.582925602959039</v>
       </c>
       <c r="S34" t="n">
-        <v>3.19867147530633</v>
+        <v>3.714207112994839</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7842334863818338</v>
+        <v>0.9106298086111499</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01001149131551279</v>
+        <v>0.01162506138652534</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4091798795619959</v>
+        <v>0.4751281370707164</v>
       </c>
       <c r="H35" t="n">
-        <v>4.190513441564291</v>
+        <v>4.865906033775476</v>
       </c>
       <c r="I35" t="n">
-        <v>15.77490730681386</v>
+        <v>18.31737750441881</v>
       </c>
       <c r="J35" t="n">
-        <v>34.72863080297498</v>
+        <v>40.32590672370575</v>
       </c>
       <c r="K35" t="n">
-        <v>52.04921510483427</v>
+        <v>60.43808076590918</v>
       </c>
       <c r="L35" t="n">
-        <v>64.57165384397972</v>
+        <v>74.97878349078714</v>
       </c>
       <c r="M35" t="n">
-        <v>71.84840652714036</v>
+        <v>83.42834349841849</v>
       </c>
       <c r="N35" t="n">
-        <v>73.01098885994588</v>
+        <v>84.77830131787067</v>
       </c>
       <c r="O35" t="n">
-        <v>68.94220643255129</v>
+        <v>80.05374590487372</v>
       </c>
       <c r="P35" t="n">
-        <v>58.84057815586451</v>
+        <v>68.32402002094041</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.18682371905052</v>
+        <v>51.30849361209535</v>
       </c>
       <c r="R35" t="n">
-        <v>25.70314560953625</v>
+        <v>29.84576784026842</v>
       </c>
       <c r="S35" t="n">
-        <v>9.324186505518989</v>
+        <v>10.82698242349896</v>
       </c>
       <c r="T35" t="n">
-        <v>1.791184922782638</v>
+        <v>2.079873420027062</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03273439036495966</v>
+        <v>0.0380102509656573</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2189305365033831</v>
+        <v>0.2542159650374123</v>
       </c>
       <c r="H36" t="n">
-        <v>2.114408076230043</v>
+        <v>2.455191030756061</v>
       </c>
       <c r="I36" t="n">
-        <v>7.537739962945429</v>
+        <v>8.752611076945994</v>
       </c>
       <c r="J36" t="n">
-        <v>20.68413459131306</v>
+        <v>24.01783378452149</v>
       </c>
       <c r="K36" t="n">
-        <v>35.35248053703972</v>
+        <v>41.0503034420281</v>
       </c>
       <c r="L36" t="n">
-        <v>47.53577284912274</v>
+        <v>55.19719889989954</v>
       </c>
       <c r="M36" t="n">
-        <v>55.47200479737036</v>
+        <v>64.41252763250571</v>
       </c>
       <c r="N36" t="n">
-        <v>56.94018370225491</v>
+        <v>66.1173355734803</v>
       </c>
       <c r="O36" t="n">
-        <v>52.08914391973256</v>
+        <v>60.48444497975659</v>
       </c>
       <c r="P36" t="n">
-        <v>41.80613025563288</v>
+        <v>48.54409949911779</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.94629094032659</v>
+        <v>32.45044494056512</v>
       </c>
       <c r="R36" t="n">
-        <v>13.59289769623637</v>
+        <v>15.78368947837548</v>
       </c>
       <c r="S36" t="n">
-        <v>4.066538693385207</v>
+        <v>4.72195005233965</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8824436975728467</v>
+        <v>1.024668736269218</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01440332476995942</v>
+        <v>0.01672473454193502</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1835440074510675</v>
+        <v>0.2131261254196309</v>
       </c>
       <c r="H37" t="n">
-        <v>1.631873084428583</v>
+        <v>1.894885006003629</v>
       </c>
       <c r="I37" t="n">
-        <v>5.519668878619377</v>
+        <v>6.409283844437629</v>
       </c>
       <c r="J37" t="n">
-        <v>12.97656132679047</v>
+        <v>15.0680170671679</v>
       </c>
       <c r="K37" t="n">
-        <v>21.32447650204221</v>
+        <v>24.76138075329893</v>
       </c>
       <c r="L37" t="n">
-        <v>27.28798816231599</v>
+        <v>31.68604231920586</v>
       </c>
       <c r="M37" t="n">
-        <v>28.77135745889779</v>
+        <v>33.40848891464268</v>
       </c>
       <c r="N37" t="n">
-        <v>28.08723888567111</v>
+        <v>32.61410971989682</v>
       </c>
       <c r="O37" t="n">
-        <v>25.94311116226545</v>
+        <v>30.12440907294929</v>
       </c>
       <c r="P37" t="n">
-        <v>22.19881341026365</v>
+        <v>25.7766361143888</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.36930775119803</v>
+        <v>17.84640673854746</v>
       </c>
       <c r="R37" t="n">
-        <v>8.252806007754362</v>
+        <v>9.582925602959039</v>
       </c>
       <c r="S37" t="n">
-        <v>3.19867147530633</v>
+        <v>3.714207112994839</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7842334863818338</v>
+        <v>0.9106298086111499</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01001149131551279</v>
+        <v>0.01162506138652534</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4091798795619959</v>
+        <v>0.4751281370707164</v>
       </c>
       <c r="H38" t="n">
-        <v>4.190513441564291</v>
+        <v>4.865906033775476</v>
       </c>
       <c r="I38" t="n">
-        <v>15.77490730681386</v>
+        <v>18.31737750441881</v>
       </c>
       <c r="J38" t="n">
-        <v>34.72863080297498</v>
+        <v>40.32590672370575</v>
       </c>
       <c r="K38" t="n">
-        <v>52.04921510483427</v>
+        <v>60.43808076590918</v>
       </c>
       <c r="L38" t="n">
-        <v>64.57165384397972</v>
+        <v>74.97878349078714</v>
       </c>
       <c r="M38" t="n">
-        <v>71.84840652714036</v>
+        <v>83.42834349841849</v>
       </c>
       <c r="N38" t="n">
-        <v>73.01098885994588</v>
+        <v>84.77830131787067</v>
       </c>
       <c r="O38" t="n">
-        <v>68.94220643255129</v>
+        <v>80.05374590487372</v>
       </c>
       <c r="P38" t="n">
-        <v>58.84057815586451</v>
+        <v>68.32402002094041</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.18682371905052</v>
+        <v>51.30849361209535</v>
       </c>
       <c r="R38" t="n">
-        <v>25.70314560953625</v>
+        <v>29.84576784026842</v>
       </c>
       <c r="S38" t="n">
-        <v>9.324186505518989</v>
+        <v>10.82698242349896</v>
       </c>
       <c r="T38" t="n">
-        <v>1.791184922782638</v>
+        <v>2.079873420027062</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03273439036495966</v>
+        <v>0.0380102509656573</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2189305365033831</v>
+        <v>0.2542159650374123</v>
       </c>
       <c r="H39" t="n">
-        <v>2.114408076230043</v>
+        <v>2.455191030756061</v>
       </c>
       <c r="I39" t="n">
-        <v>7.537739962945429</v>
+        <v>8.752611076945994</v>
       </c>
       <c r="J39" t="n">
-        <v>20.68413459131306</v>
+        <v>24.01783378452149</v>
       </c>
       <c r="K39" t="n">
-        <v>35.35248053703972</v>
+        <v>41.0503034420281</v>
       </c>
       <c r="L39" t="n">
-        <v>47.53577284912274</v>
+        <v>55.19719889989954</v>
       </c>
       <c r="M39" t="n">
-        <v>55.47200479737036</v>
+        <v>64.41252763250571</v>
       </c>
       <c r="N39" t="n">
-        <v>56.94018370225491</v>
+        <v>66.1173355734803</v>
       </c>
       <c r="O39" t="n">
-        <v>52.08914391973256</v>
+        <v>60.48444497975659</v>
       </c>
       <c r="P39" t="n">
-        <v>41.80613025563288</v>
+        <v>48.54409949911779</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.94629094032659</v>
+        <v>32.45044494056512</v>
       </c>
       <c r="R39" t="n">
-        <v>13.59289769623637</v>
+        <v>15.78368947837548</v>
       </c>
       <c r="S39" t="n">
-        <v>4.066538693385207</v>
+        <v>4.72195005233965</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8824436975728467</v>
+        <v>1.024668736269218</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01440332476995942</v>
+        <v>0.01672473454193502</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1835440074510675</v>
+        <v>0.2131261254196309</v>
       </c>
       <c r="H40" t="n">
-        <v>1.631873084428583</v>
+        <v>1.894885006003629</v>
       </c>
       <c r="I40" t="n">
-        <v>5.519668878619377</v>
+        <v>6.409283844437629</v>
       </c>
       <c r="J40" t="n">
-        <v>12.97656132679047</v>
+        <v>15.0680170671679</v>
       </c>
       <c r="K40" t="n">
-        <v>21.32447650204221</v>
+        <v>24.76138075329893</v>
       </c>
       <c r="L40" t="n">
-        <v>27.28798816231599</v>
+        <v>31.68604231920586</v>
       </c>
       <c r="M40" t="n">
-        <v>28.77135745889779</v>
+        <v>33.40848891464268</v>
       </c>
       <c r="N40" t="n">
-        <v>28.08723888567111</v>
+        <v>32.61410971989682</v>
       </c>
       <c r="O40" t="n">
-        <v>25.94311116226545</v>
+        <v>30.12440907294929</v>
       </c>
       <c r="P40" t="n">
-        <v>22.19881341026365</v>
+        <v>25.7766361143888</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.36930775119803</v>
+        <v>17.84640673854746</v>
       </c>
       <c r="R40" t="n">
-        <v>8.252806007754362</v>
+        <v>9.582925602959039</v>
       </c>
       <c r="S40" t="n">
-        <v>3.19867147530633</v>
+        <v>3.714207112994839</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7842334863818338</v>
+        <v>0.9106298086111499</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01001149131551279</v>
+        <v>0.01162506138652534</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4091798795619959</v>
+        <v>0.4751281370707164</v>
       </c>
       <c r="H41" t="n">
-        <v>4.190513441564291</v>
+        <v>4.865906033775476</v>
       </c>
       <c r="I41" t="n">
-        <v>15.77490730681386</v>
+        <v>18.31737750441881</v>
       </c>
       <c r="J41" t="n">
-        <v>34.72863080297498</v>
+        <v>40.32590672370575</v>
       </c>
       <c r="K41" t="n">
-        <v>52.04921510483427</v>
+        <v>60.43808076590918</v>
       </c>
       <c r="L41" t="n">
-        <v>64.57165384397972</v>
+        <v>74.97878349078714</v>
       </c>
       <c r="M41" t="n">
-        <v>71.84840652714036</v>
+        <v>83.42834349841849</v>
       </c>
       <c r="N41" t="n">
-        <v>73.01098885994588</v>
+        <v>84.77830131787067</v>
       </c>
       <c r="O41" t="n">
-        <v>68.94220643255129</v>
+        <v>80.05374590487372</v>
       </c>
       <c r="P41" t="n">
-        <v>58.84057815586451</v>
+        <v>68.32402002094041</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.18682371905052</v>
+        <v>51.30849361209535</v>
       </c>
       <c r="R41" t="n">
-        <v>25.70314560953625</v>
+        <v>29.84576784026842</v>
       </c>
       <c r="S41" t="n">
-        <v>9.324186505518989</v>
+        <v>10.82698242349896</v>
       </c>
       <c r="T41" t="n">
-        <v>1.791184922782638</v>
+        <v>2.079873420027062</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03273439036495966</v>
+        <v>0.0380102509656573</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2189305365033831</v>
+        <v>0.2542159650374123</v>
       </c>
       <c r="H42" t="n">
-        <v>2.114408076230043</v>
+        <v>2.455191030756061</v>
       </c>
       <c r="I42" t="n">
-        <v>7.537739962945429</v>
+        <v>8.752611076945994</v>
       </c>
       <c r="J42" t="n">
-        <v>20.68413459131306</v>
+        <v>24.01783378452149</v>
       </c>
       <c r="K42" t="n">
-        <v>35.35248053703972</v>
+        <v>41.0503034420281</v>
       </c>
       <c r="L42" t="n">
-        <v>47.53577284912274</v>
+        <v>55.19719889989954</v>
       </c>
       <c r="M42" t="n">
-        <v>55.47200479737036</v>
+        <v>64.41252763250571</v>
       </c>
       <c r="N42" t="n">
-        <v>56.94018370225491</v>
+        <v>66.1173355734803</v>
       </c>
       <c r="O42" t="n">
-        <v>52.08914391973256</v>
+        <v>60.48444497975659</v>
       </c>
       <c r="P42" t="n">
-        <v>41.80613025563288</v>
+        <v>48.54409949911779</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.94629094032659</v>
+        <v>32.45044494056512</v>
       </c>
       <c r="R42" t="n">
-        <v>13.59289769623637</v>
+        <v>15.78368947837548</v>
       </c>
       <c r="S42" t="n">
-        <v>4.066538693385207</v>
+        <v>4.72195005233965</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8824436975728467</v>
+        <v>1.024668736269218</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01440332476995942</v>
+        <v>0.01672473454193502</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1835440074510675</v>
+        <v>0.2131261254196309</v>
       </c>
       <c r="H43" t="n">
-        <v>1.631873084428583</v>
+        <v>1.894885006003629</v>
       </c>
       <c r="I43" t="n">
-        <v>5.519668878619377</v>
+        <v>6.409283844437629</v>
       </c>
       <c r="J43" t="n">
-        <v>12.97656132679047</v>
+        <v>15.0680170671679</v>
       </c>
       <c r="K43" t="n">
-        <v>21.32447650204221</v>
+        <v>24.76138075329893</v>
       </c>
       <c r="L43" t="n">
-        <v>27.28798816231599</v>
+        <v>31.68604231920586</v>
       </c>
       <c r="M43" t="n">
-        <v>28.77135745889779</v>
+        <v>33.40848891464268</v>
       </c>
       <c r="N43" t="n">
-        <v>28.08723888567111</v>
+        <v>32.61410971989682</v>
       </c>
       <c r="O43" t="n">
-        <v>25.94311116226545</v>
+        <v>30.12440907294929</v>
       </c>
       <c r="P43" t="n">
-        <v>22.19881341026365</v>
+        <v>25.7766361143888</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.36930775119803</v>
+        <v>17.84640673854746</v>
       </c>
       <c r="R43" t="n">
-        <v>8.252806007754362</v>
+        <v>9.582925602959039</v>
       </c>
       <c r="S43" t="n">
-        <v>3.19867147530633</v>
+        <v>3.714207112994839</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7842334863818338</v>
+        <v>0.9106298086111499</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01001149131551279</v>
+        <v>0.01162506138652534</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4091798795619959</v>
+        <v>0.4751281370707164</v>
       </c>
       <c r="H44" t="n">
-        <v>4.190513441564291</v>
+        <v>4.865906033775476</v>
       </c>
       <c r="I44" t="n">
-        <v>15.77490730681386</v>
+        <v>18.31737750441881</v>
       </c>
       <c r="J44" t="n">
-        <v>34.72863080297498</v>
+        <v>40.32590672370575</v>
       </c>
       <c r="K44" t="n">
-        <v>52.04921510483427</v>
+        <v>60.43808076590918</v>
       </c>
       <c r="L44" t="n">
-        <v>64.57165384397972</v>
+        <v>74.97878349078714</v>
       </c>
       <c r="M44" t="n">
-        <v>71.84840652714036</v>
+        <v>83.42834349841849</v>
       </c>
       <c r="N44" t="n">
-        <v>73.01098885994588</v>
+        <v>84.77830131787067</v>
       </c>
       <c r="O44" t="n">
-        <v>68.94220643255129</v>
+        <v>80.05374590487372</v>
       </c>
       <c r="P44" t="n">
-        <v>58.84057815586451</v>
+        <v>68.32402002094041</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.18682371905052</v>
+        <v>51.30849361209535</v>
       </c>
       <c r="R44" t="n">
-        <v>25.70314560953625</v>
+        <v>29.84576784026842</v>
       </c>
       <c r="S44" t="n">
-        <v>9.324186505518989</v>
+        <v>10.82698242349896</v>
       </c>
       <c r="T44" t="n">
-        <v>1.791184922782638</v>
+        <v>2.079873420027062</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03273439036495966</v>
+        <v>0.0380102509656573</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2189305365033831</v>
+        <v>0.2542159650374123</v>
       </c>
       <c r="H45" t="n">
-        <v>2.114408076230043</v>
+        <v>2.455191030756061</v>
       </c>
       <c r="I45" t="n">
-        <v>7.537739962945429</v>
+        <v>8.752611076945994</v>
       </c>
       <c r="J45" t="n">
-        <v>20.68413459131306</v>
+        <v>24.01783378452149</v>
       </c>
       <c r="K45" t="n">
-        <v>35.35248053703972</v>
+        <v>41.0503034420281</v>
       </c>
       <c r="L45" t="n">
-        <v>47.53577284912274</v>
+        <v>55.19719889989954</v>
       </c>
       <c r="M45" t="n">
-        <v>55.47200479737036</v>
+        <v>64.41252763250571</v>
       </c>
       <c r="N45" t="n">
-        <v>56.94018370225491</v>
+        <v>66.1173355734803</v>
       </c>
       <c r="O45" t="n">
-        <v>52.08914391973256</v>
+        <v>60.48444497975659</v>
       </c>
       <c r="P45" t="n">
-        <v>41.80613025563288</v>
+        <v>48.54409949911779</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.94629094032659</v>
+        <v>32.45044494056512</v>
       </c>
       <c r="R45" t="n">
-        <v>13.59289769623637</v>
+        <v>15.78368947837548</v>
       </c>
       <c r="S45" t="n">
-        <v>4.066538693385207</v>
+        <v>4.72195005233965</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8824436975728467</v>
+        <v>1.024668736269218</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01440332476995942</v>
+        <v>0.01672473454193502</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1835440074510675</v>
+        <v>0.2131261254196309</v>
       </c>
       <c r="H46" t="n">
-        <v>1.631873084428583</v>
+        <v>1.894885006003629</v>
       </c>
       <c r="I46" t="n">
-        <v>5.519668878619377</v>
+        <v>6.409283844437629</v>
       </c>
       <c r="J46" t="n">
-        <v>12.97656132679047</v>
+        <v>15.0680170671679</v>
       </c>
       <c r="K46" t="n">
-        <v>21.32447650204221</v>
+        <v>24.76138075329893</v>
       </c>
       <c r="L46" t="n">
-        <v>27.28798816231599</v>
+        <v>31.68604231920586</v>
       </c>
       <c r="M46" t="n">
-        <v>28.77135745889779</v>
+        <v>33.40848891464268</v>
       </c>
       <c r="N46" t="n">
-        <v>28.08723888567111</v>
+        <v>32.61410971989682</v>
       </c>
       <c r="O46" t="n">
-        <v>25.94311116226545</v>
+        <v>30.12440907294929</v>
       </c>
       <c r="P46" t="n">
-        <v>22.19881341026365</v>
+        <v>25.7766361143888</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.36930775119803</v>
+        <v>17.84640673854746</v>
       </c>
       <c r="R46" t="n">
-        <v>8.252806007754362</v>
+        <v>9.582925602959039</v>
       </c>
       <c r="S46" t="n">
-        <v>3.19867147530633</v>
+        <v>3.714207112994839</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7842334863818338</v>
+        <v>0.9106298086111499</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01001149131551279</v>
+        <v>0.01162506138652534</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
